--- a/KẾ TOÁN - THÁI HẰNG/Báo cáo/EXCEL/NANOMILK 4_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/Báo cáo/EXCEL/NANOMILK 4_2020.xlsx
@@ -4,16 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9930" yWindow="375" windowWidth="9345" windowHeight="8010" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="9930" yWindow="375" windowWidth="9345" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="THU CHI" sheetId="1" r:id="rId1"/>
     <sheet name="DOANH THU" sheetId="9" r:id="rId2"/>
-    <sheet name="BÁO CÁO" sheetId="3" r:id="rId3"/>
-    <sheet name="Tiền hàng Hằng" sheetId="6" r:id="rId4"/>
-    <sheet name="Tiền hàng Tâm" sheetId="4" r:id="rId5"/>
-    <sheet name="Bảng lương" sheetId="5" r:id="rId6"/>
-    <sheet name="Hàng khách trả" sheetId="8" r:id="rId7"/>
+    <sheet name="Hàng khách trả" sheetId="8" r:id="rId3"/>
+    <sheet name="BÁO CÁO" sheetId="3" r:id="rId4"/>
+    <sheet name="Tiền hàng Hằng" sheetId="6" r:id="rId5"/>
+    <sheet name="Tiền hàng Tâm" sheetId="4" r:id="rId6"/>
+    <sheet name="Bảng lương" sheetId="5" r:id="rId7"/>
     <sheet name="tiền hàng triệu Sơn" sheetId="10" r:id="rId8"/>
   </sheets>
   <definedNames>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="230">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -366,9 +366,6 @@
     <t>E Huệ</t>
   </si>
   <si>
-    <t>CT trả vận chuyển 250.000</t>
-  </si>
-  <si>
     <t>tháng 4/2020</t>
   </si>
   <si>
@@ -531,9 +528,6 @@
     <t>Chị Hà</t>
   </si>
   <si>
-    <t>CT trả vận chuyển 150.000</t>
-  </si>
-  <si>
     <t>Số HĐ</t>
   </si>
   <si>
@@ -559,9 +553,6 @@
   </si>
   <si>
     <t>Tuyên Quang</t>
-  </si>
-  <si>
-    <t>Đã thanh toán 10tr còn lại chưa TT</t>
   </si>
   <si>
     <t>HĐ tính sai 446k</t>
@@ -796,10 +787,19 @@
     <t>Giảm giá</t>
   </si>
   <si>
-    <t>Đối trừ lương Tâm thu hộ tháng 5</t>
-  </si>
-  <si>
     <t>Kế toán</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Tâm thu hộ</t>
+  </si>
+  <si>
+    <t>A Lâm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đã thanh toán 10tr </t>
   </si>
 </sst>
 </file>
@@ -1717,7 +1717,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="552">
+  <cellXfs count="553">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2645,6 +2645,9 @@
     </xf>
     <xf numFmtId="167" fontId="34" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="34" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2702,6 +2705,15 @@
     <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2828,6 +2840,72 @@
     <xf numFmtId="9" fontId="33" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="27" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="27" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="19" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="19" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2966,9 +3044,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2977,69 +3052,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="27" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="27" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="19" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="19" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3082,15 +3094,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3527,15 +3530,15 @@
       <c r="P3" s="229"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="417" t="s">
+      <c r="A4" s="418" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="417"/>
-      <c r="C4" s="417"/>
-      <c r="D4" s="417"/>
-      <c r="E4" s="417"/>
-      <c r="F4" s="417"/>
-      <c r="G4" s="417"/>
+      <c r="B4" s="418"/>
+      <c r="C4" s="418"/>
+      <c r="D4" s="418"/>
+      <c r="E4" s="418"/>
+      <c r="F4" s="418"/>
+      <c r="G4" s="418"/>
       <c r="H4" s="229"/>
       <c r="I4" s="229"/>
       <c r="J4" s="229"/>
@@ -3555,36 +3558,36 @@
       <c r="G5" s="226"/>
     </row>
     <row r="6" spans="1:16" s="227" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="404" t="s">
+      <c r="A6" s="405" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="404" t="s">
+      <c r="B6" s="405" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="406" t="s">
+      <c r="C6" s="407" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="408" t="s">
+      <c r="D6" s="409" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="408"/>
-      <c r="F6" s="408" t="s">
+      <c r="E6" s="409"/>
+      <c r="F6" s="409" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="408"/>
+      <c r="G6" s="409"/>
     </row>
     <row r="7" spans="1:16" s="227" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="405"/>
-      <c r="B7" s="405"/>
-      <c r="C7" s="407"/>
+      <c r="A7" s="406"/>
+      <c r="B7" s="406"/>
+      <c r="C7" s="408"/>
       <c r="D7" s="231" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E7" s="231" t="s">
         <v>69</v>
       </c>
       <c r="F7" s="231" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G7" s="231" t="s">
         <v>69</v>
@@ -3683,7 +3686,7 @@
         <v>26</v>
       </c>
       <c r="C13" s="214" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D13" s="215"/>
       <c r="E13" s="232"/>
@@ -3867,10 +3870,10 @@
         <v>43920</v>
       </c>
       <c r="B24" s="213" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C24" s="214" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D24" s="215">
         <v>887000</v>
@@ -3884,10 +3887,10 @@
         <v>43921</v>
       </c>
       <c r="B25" s="213" t="s">
+        <v>132</v>
+      </c>
+      <c r="C25" s="214" t="s">
         <v>133</v>
-      </c>
-      <c r="C25" s="214" t="s">
-        <v>134</v>
       </c>
       <c r="D25" s="215"/>
       <c r="E25" s="232"/>
@@ -3901,10 +3904,10 @@
         <v>43921</v>
       </c>
       <c r="B26" s="213" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C26" s="214" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D26" s="215">
         <v>548000</v>
@@ -3918,10 +3921,10 @@
         <v>43922</v>
       </c>
       <c r="B27" s="213" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C27" s="214" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D27" s="215">
         <v>268000</v>
@@ -3938,7 +3941,7 @@
         <v>81</v>
       </c>
       <c r="C28" s="214" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D28" s="215"/>
       <c r="E28" s="232"/>
@@ -3952,10 +3955,10 @@
         <v>43931</v>
       </c>
       <c r="B29" s="213" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C29" s="214" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D29" s="215">
         <v>295750</v>
@@ -3986,10 +3989,10 @@
         <v>43935</v>
       </c>
       <c r="B31" s="213" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C31" s="214" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D31" s="215">
         <v>324000</v>
@@ -4003,10 +4006,10 @@
         <v>43936</v>
       </c>
       <c r="B32" s="213" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C32" s="214" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D32" s="215">
         <v>1634000</v>
@@ -4023,7 +4026,7 @@
         <v>26</v>
       </c>
       <c r="C33" s="214" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D33" s="215"/>
       <c r="E33" s="232"/>
@@ -4037,10 +4040,10 @@
         <v>43941</v>
       </c>
       <c r="B34" s="213" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" s="214" t="s">
         <v>133</v>
-      </c>
-      <c r="C34" s="214" t="s">
-        <v>134</v>
       </c>
       <c r="D34" s="215"/>
       <c r="E34" s="232"/>
@@ -4071,10 +4074,10 @@
         <v>43942</v>
       </c>
       <c r="B36" s="213" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C36" s="214" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D36" s="215"/>
       <c r="E36" s="232"/>
@@ -4091,7 +4094,7 @@
         <v>81</v>
       </c>
       <c r="C37" s="214" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D37" s="215"/>
       <c r="E37" s="232"/>
@@ -4105,10 +4108,10 @@
         <v>43942</v>
       </c>
       <c r="B38" s="213" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C38" s="214" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D38" s="215">
         <v>1088000</v>
@@ -4122,10 +4125,10 @@
         <v>43942</v>
       </c>
       <c r="B39" s="213" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C39" s="214" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D39" s="215">
         <v>274000</v>
@@ -4139,10 +4142,10 @@
         <v>43942</v>
       </c>
       <c r="B40" s="213" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C40" s="214" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D40" s="215">
         <v>286000</v>
@@ -4156,10 +4159,10 @@
         <v>43943</v>
       </c>
       <c r="B41" s="213" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C41" s="214" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D41" s="215">
         <v>10000000</v>
@@ -4176,7 +4179,7 @@
         <v>26</v>
       </c>
       <c r="C42" s="214" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D42" s="215"/>
       <c r="E42" s="232"/>
@@ -4190,10 +4193,10 @@
         <v>43944</v>
       </c>
       <c r="B43" s="213" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C43" s="214" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D43" s="215">
         <v>1430000</v>
@@ -4207,10 +4210,10 @@
         <v>43944</v>
       </c>
       <c r="B44" s="213" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C44" s="214" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D44" s="215">
         <v>268000</v>
@@ -4224,10 +4227,10 @@
         <v>43944</v>
       </c>
       <c r="B45" s="213" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C45" s="214" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D45" s="215">
         <v>286000</v>
@@ -4241,10 +4244,10 @@
         <v>43944</v>
       </c>
       <c r="B46" s="213" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C46" s="214" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D46" s="215">
         <v>286000</v>
@@ -4261,7 +4264,7 @@
         <v>81</v>
       </c>
       <c r="C47" s="214" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D47" s="215"/>
       <c r="E47" s="232"/>
@@ -4278,7 +4281,7 @@
         <v>26</v>
       </c>
       <c r="C48" s="214" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D48" s="215"/>
       <c r="E48" s="232"/>
@@ -4295,7 +4298,7 @@
         <v>74</v>
       </c>
       <c r="C49" s="214" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D49" s="215"/>
       <c r="E49" s="232"/>
@@ -4309,10 +4312,10 @@
         <v>43946</v>
       </c>
       <c r="B50" s="213" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C50" s="235" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D50" s="215"/>
       <c r="E50" s="232"/>
@@ -4326,10 +4329,10 @@
         <v>43947</v>
       </c>
       <c r="B51" s="213" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C51" s="235" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D51" s="215">
         <v>1715000</v>
@@ -4343,10 +4346,10 @@
         <v>43948</v>
       </c>
       <c r="B52" s="213" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C52" s="235" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D52" s="215"/>
       <c r="E52" s="232"/>
@@ -4377,10 +4380,10 @@
         <v>43948</v>
       </c>
       <c r="B54" s="213" t="s">
+        <v>134</v>
+      </c>
+      <c r="C54" s="214" t="s">
         <v>135</v>
-      </c>
-      <c r="C54" s="214" t="s">
-        <v>136</v>
       </c>
       <c r="D54" s="215">
         <v>6442000</v>
@@ -4394,10 +4397,10 @@
         <v>43949</v>
       </c>
       <c r="B55" s="213" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C55" s="214" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D55" s="215">
         <v>3796000</v>
@@ -4412,10 +4415,10 @@
         <v>43949</v>
       </c>
       <c r="B56" s="213" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C56" s="214" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D56" s="215">
         <v>16281000</v>
@@ -4503,7 +4506,7 @@
         <v>74</v>
       </c>
       <c r="C61" s="214" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D61" s="215"/>
       <c r="E61" s="232"/>
@@ -4513,11 +4516,11 @@
       </c>
     </row>
     <row r="62" spans="1:9" s="238" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A62" s="414" t="s">
+      <c r="A62" s="415" t="s">
         <v>10</v>
       </c>
-      <c r="B62" s="415"/>
-      <c r="C62" s="416"/>
+      <c r="B62" s="416"/>
+      <c r="C62" s="417"/>
       <c r="D62" s="237">
         <f>SUM(D8:D61)</f>
         <v>46108750</v>
@@ -4547,10 +4550,10 @@
       <c r="I63" s="239"/>
     </row>
     <row r="64" spans="1:9" s="238" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A64" s="412" t="s">
-        <v>212</v>
-      </c>
-      <c r="B64" s="412"/>
+      <c r="A64" s="413" t="s">
+        <v>209</v>
+      </c>
+      <c r="B64" s="413"/>
       <c r="C64" s="240"/>
       <c r="D64" s="241"/>
       <c r="E64" s="241"/>
@@ -4570,10 +4573,10 @@
     </row>
     <row r="66" spans="1:9" s="238" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="240"/>
-      <c r="B66" s="413" t="s">
-        <v>213</v>
-      </c>
-      <c r="C66" s="413"/>
+      <c r="B66" s="414" t="s">
+        <v>210</v>
+      </c>
+      <c r="C66" s="414"/>
       <c r="D66" s="241"/>
       <c r="E66" s="241"/>
       <c r="F66" s="241"/>
@@ -4581,36 +4584,36 @@
       <c r="I66" s="239"/>
     </row>
     <row r="67" spans="1:9" s="227" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="404" t="s">
+      <c r="A67" s="405" t="s">
         <v>4</v>
       </c>
-      <c r="B67" s="404" t="s">
+      <c r="B67" s="405" t="s">
         <v>5</v>
       </c>
-      <c r="C67" s="406" t="s">
+      <c r="C67" s="407" t="s">
         <v>6</v>
       </c>
-      <c r="D67" s="408" t="s">
+      <c r="D67" s="409" t="s">
         <v>7</v>
       </c>
-      <c r="E67" s="408"/>
-      <c r="F67" s="408" t="s">
+      <c r="E67" s="409"/>
+      <c r="F67" s="409" t="s">
         <v>8</v>
       </c>
-      <c r="G67" s="408"/>
+      <c r="G67" s="409"/>
     </row>
     <row r="68" spans="1:9" s="227" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="405"/>
-      <c r="B68" s="405"/>
-      <c r="C68" s="407"/>
+      <c r="A68" s="406"/>
+      <c r="B68" s="406"/>
+      <c r="C68" s="408"/>
       <c r="D68" s="231" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E68" s="231" t="s">
         <v>69</v>
       </c>
       <c r="F68" s="231" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G68" s="231" t="s">
         <v>69</v>
@@ -4621,10 +4624,10 @@
         <v>43946</v>
       </c>
       <c r="B69" s="213" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C69" s="235" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D69" s="215"/>
       <c r="E69" s="232"/>
@@ -4639,10 +4642,10 @@
         <v>43948</v>
       </c>
       <c r="B70" s="249" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C70" s="250" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D70" s="251"/>
       <c r="E70" s="252"/>
@@ -4677,10 +4680,10 @@
     </row>
     <row r="73" spans="1:9" s="238" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A73" s="240"/>
-      <c r="B73" s="403" t="s">
+      <c r="B73" s="404" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="403"/>
+      <c r="C73" s="404"/>
       <c r="D73" s="241"/>
       <c r="E73" s="241"/>
       <c r="F73" s="241"/>
@@ -4688,36 +4691,36 @@
       <c r="I73" s="239"/>
     </row>
     <row r="74" spans="1:9" s="227" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="404" t="s">
+      <c r="A74" s="405" t="s">
         <v>4</v>
       </c>
-      <c r="B74" s="404" t="s">
+      <c r="B74" s="405" t="s">
         <v>5</v>
       </c>
-      <c r="C74" s="406" t="s">
+      <c r="C74" s="407" t="s">
         <v>6</v>
       </c>
-      <c r="D74" s="408" t="s">
+      <c r="D74" s="409" t="s">
         <v>7</v>
       </c>
-      <c r="E74" s="408"/>
-      <c r="F74" s="408" t="s">
+      <c r="E74" s="409"/>
+      <c r="F74" s="409" t="s">
         <v>8</v>
       </c>
-      <c r="G74" s="408"/>
+      <c r="G74" s="409"/>
     </row>
     <row r="75" spans="1:9" s="227" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="405"/>
-      <c r="B75" s="405"/>
-      <c r="C75" s="407"/>
+      <c r="A75" s="406"/>
+      <c r="B75" s="406"/>
+      <c r="C75" s="408"/>
       <c r="D75" s="231" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E75" s="231" t="s">
         <v>69</v>
       </c>
       <c r="F75" s="231" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G75" s="231" t="s">
         <v>69</v>
@@ -4731,7 +4734,7 @@
         <v>26</v>
       </c>
       <c r="C76" s="214" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D76" s="215"/>
       <c r="E76" s="232"/>
@@ -4748,7 +4751,7 @@
         <v>26</v>
       </c>
       <c r="C77" s="214" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D77" s="215"/>
       <c r="E77" s="232"/>
@@ -4765,7 +4768,7 @@
         <v>26</v>
       </c>
       <c r="C78" s="214" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D78" s="215"/>
       <c r="E78" s="232"/>
@@ -4782,7 +4785,7 @@
         <v>26</v>
       </c>
       <c r="C79" s="261" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D79" s="251"/>
       <c r="E79" s="252"/>
@@ -4817,10 +4820,10 @@
     </row>
     <row r="82" spans="1:9" s="238" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A82" s="240"/>
-      <c r="B82" s="403" t="s">
+      <c r="B82" s="404" t="s">
         <v>74</v>
       </c>
-      <c r="C82" s="403"/>
+      <c r="C82" s="404"/>
       <c r="D82" s="241"/>
       <c r="E82" s="241"/>
       <c r="F82" s="241"/>
@@ -4828,36 +4831,36 @@
       <c r="I82" s="239"/>
     </row>
     <row r="83" spans="1:9" s="227" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="404" t="s">
+      <c r="A83" s="405" t="s">
         <v>4</v>
       </c>
-      <c r="B83" s="404" t="s">
+      <c r="B83" s="405" t="s">
         <v>5</v>
       </c>
-      <c r="C83" s="406" t="s">
+      <c r="C83" s="407" t="s">
         <v>6</v>
       </c>
-      <c r="D83" s="408" t="s">
+      <c r="D83" s="409" t="s">
         <v>7</v>
       </c>
-      <c r="E83" s="408"/>
-      <c r="F83" s="408" t="s">
+      <c r="E83" s="409"/>
+      <c r="F83" s="409" t="s">
         <v>8</v>
       </c>
-      <c r="G83" s="408"/>
+      <c r="G83" s="409"/>
     </row>
     <row r="84" spans="1:9" s="227" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="405"/>
-      <c r="B84" s="405"/>
-      <c r="C84" s="407"/>
+      <c r="A84" s="406"/>
+      <c r="B84" s="406"/>
+      <c r="C84" s="408"/>
       <c r="D84" s="231" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E84" s="231" t="s">
         <v>69</v>
       </c>
       <c r="F84" s="231" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G84" s="231" t="s">
         <v>69</v>
@@ -4956,7 +4959,7 @@
         <v>74</v>
       </c>
       <c r="C90" s="214" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D90" s="215"/>
       <c r="E90" s="232"/>
@@ -4973,7 +4976,7 @@
         <v>74</v>
       </c>
       <c r="C91" s="261" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D91" s="251"/>
       <c r="E91" s="252"/>
@@ -5005,10 +5008,10 @@
     </row>
     <row r="94" spans="1:9" s="238" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A94" s="240"/>
-      <c r="B94" s="403" t="s">
+      <c r="B94" s="404" t="s">
         <v>9</v>
       </c>
-      <c r="C94" s="403"/>
+      <c r="C94" s="404"/>
       <c r="D94" s="241"/>
       <c r="E94" s="241"/>
       <c r="F94" s="241"/>
@@ -5016,36 +5019,36 @@
       <c r="I94" s="239"/>
     </row>
     <row r="95" spans="1:9" s="227" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="404" t="s">
+      <c r="A95" s="405" t="s">
         <v>4</v>
       </c>
-      <c r="B95" s="404" t="s">
+      <c r="B95" s="405" t="s">
         <v>5</v>
       </c>
-      <c r="C95" s="406" t="s">
+      <c r="C95" s="407" t="s">
         <v>6</v>
       </c>
-      <c r="D95" s="408" t="s">
+      <c r="D95" s="409" t="s">
         <v>7</v>
       </c>
-      <c r="E95" s="408"/>
-      <c r="F95" s="408" t="s">
+      <c r="E95" s="409"/>
+      <c r="F95" s="409" t="s">
         <v>8</v>
       </c>
-      <c r="G95" s="408"/>
+      <c r="G95" s="409"/>
     </row>
     <row r="96" spans="1:9" s="227" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="405"/>
-      <c r="B96" s="405"/>
-      <c r="C96" s="407"/>
+      <c r="A96" s="406"/>
+      <c r="B96" s="406"/>
+      <c r="C96" s="408"/>
       <c r="D96" s="231" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E96" s="231" t="s">
         <v>69</v>
       </c>
       <c r="F96" s="231" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G96" s="231" t="s">
         <v>69</v>
@@ -5312,46 +5315,46 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="266"/>
-      <c r="B113" s="403" t="s">
-        <v>135</v>
-      </c>
-      <c r="C113" s="403"/>
+      <c r="B113" s="404" t="s">
+        <v>134</v>
+      </c>
+      <c r="C113" s="404"/>
       <c r="D113" s="267"/>
       <c r="E113" s="268"/>
       <c r="F113" s="267"/>
       <c r="G113" s="269"/>
     </row>
     <row r="114" spans="1:7" s="227" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="409" t="s">
+      <c r="A114" s="410" t="s">
         <v>4</v>
       </c>
-      <c r="B114" s="409" t="s">
+      <c r="B114" s="410" t="s">
         <v>5</v>
       </c>
-      <c r="C114" s="410" t="s">
+      <c r="C114" s="411" t="s">
         <v>6</v>
       </c>
-      <c r="D114" s="411" t="s">
+      <c r="D114" s="412" t="s">
         <v>7</v>
       </c>
-      <c r="E114" s="411"/>
-      <c r="F114" s="411" t="s">
+      <c r="E114" s="412"/>
+      <c r="F114" s="412" t="s">
         <v>8</v>
       </c>
-      <c r="G114" s="411"/>
+      <c r="G114" s="412"/>
     </row>
     <row r="115" spans="1:7" s="227" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="405"/>
-      <c r="B115" s="405"/>
-      <c r="C115" s="407"/>
+      <c r="A115" s="406"/>
+      <c r="B115" s="406"/>
+      <c r="C115" s="408"/>
       <c r="D115" s="231" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E115" s="231" t="s">
         <v>69</v>
       </c>
       <c r="F115" s="231" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G115" s="231" t="s">
         <v>69</v>
@@ -5362,10 +5365,10 @@
         <v>43920</v>
       </c>
       <c r="B116" s="213" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C116" s="214" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D116" s="215">
         <v>887000</v>
@@ -5379,10 +5382,10 @@
         <v>43921</v>
       </c>
       <c r="B117" s="213" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C117" s="214" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D117" s="215">
         <v>548000</v>
@@ -5396,10 +5399,10 @@
         <v>43922</v>
       </c>
       <c r="B118" s="213" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C118" s="214" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D118" s="215">
         <v>268000</v>
@@ -5413,10 +5416,10 @@
         <v>43931</v>
       </c>
       <c r="B119" s="213" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C119" s="214" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D119" s="215">
         <v>295750</v>
@@ -5430,10 +5433,10 @@
         <v>43935</v>
       </c>
       <c r="B120" s="213" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C120" s="214" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D120" s="215">
         <v>324000</v>
@@ -5447,10 +5450,10 @@
         <v>43936</v>
       </c>
       <c r="B121" s="213" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C121" s="214" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D121" s="215">
         <v>1634000</v>
@@ -5464,10 +5467,10 @@
         <v>43942</v>
       </c>
       <c r="B122" s="213" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C122" s="214" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D122" s="215">
         <v>1088000</v>
@@ -5481,10 +5484,10 @@
         <v>43942</v>
       </c>
       <c r="B123" s="213" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C123" s="214" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D123" s="215">
         <v>274000</v>
@@ -5498,10 +5501,10 @@
         <v>43942</v>
       </c>
       <c r="B124" s="213" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C124" s="214" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D124" s="215">
         <v>286000</v>
@@ -5515,10 +5518,10 @@
         <v>43943</v>
       </c>
       <c r="B125" s="213" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C125" s="214" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D125" s="215">
         <v>10000000</v>
@@ -5532,10 +5535,10 @@
         <v>43944</v>
       </c>
       <c r="B126" s="213" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C126" s="214" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D126" s="215">
         <v>1430000</v>
@@ -5549,10 +5552,10 @@
         <v>43944</v>
       </c>
       <c r="B127" s="213" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C127" s="214" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D127" s="215">
         <v>268000</v>
@@ -5566,10 +5569,10 @@
         <v>43944</v>
       </c>
       <c r="B128" s="213" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C128" s="214" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D128" s="215">
         <v>286000</v>
@@ -5583,10 +5586,10 @@
         <v>43944</v>
       </c>
       <c r="B129" s="213" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C129" s="214" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D129" s="215">
         <v>286000</v>
@@ -5600,10 +5603,10 @@
         <v>43947</v>
       </c>
       <c r="B130" s="213" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C130" s="235" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D130" s="215">
         <v>1715000</v>
@@ -5617,10 +5620,10 @@
         <v>43948</v>
       </c>
       <c r="B131" s="213" t="s">
+        <v>134</v>
+      </c>
+      <c r="C131" s="214" t="s">
         <v>135</v>
-      </c>
-      <c r="C131" s="214" t="s">
-        <v>136</v>
       </c>
       <c r="D131" s="215">
         <v>6442000</v>
@@ -5634,10 +5637,10 @@
         <v>43949</v>
       </c>
       <c r="B132" s="213" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C132" s="214" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D132" s="215">
         <v>3796000</v>
@@ -5652,10 +5655,10 @@
         <v>43949</v>
       </c>
       <c r="B133" s="249" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C133" s="261" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D133" s="251">
         <v>16281000</v>
@@ -5686,42 +5689,42 @@
       <c r="G135" s="247"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B136" s="403" t="s">
-        <v>198</v>
-      </c>
-      <c r="C136" s="403"/>
+      <c r="B136" s="404" t="s">
+        <v>195</v>
+      </c>
+      <c r="C136" s="404"/>
     </row>
     <row r="137" spans="1:9" s="227" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="404" t="s">
+      <c r="A137" s="405" t="s">
         <v>4</v>
       </c>
-      <c r="B137" s="404" t="s">
+      <c r="B137" s="405" t="s">
         <v>5</v>
       </c>
-      <c r="C137" s="406" t="s">
+      <c r="C137" s="407" t="s">
         <v>6</v>
       </c>
-      <c r="D137" s="408" t="s">
+      <c r="D137" s="409" t="s">
         <v>7</v>
       </c>
-      <c r="E137" s="408"/>
-      <c r="F137" s="408" t="s">
+      <c r="E137" s="409"/>
+      <c r="F137" s="409" t="s">
         <v>8</v>
       </c>
-      <c r="G137" s="408"/>
+      <c r="G137" s="409"/>
     </row>
     <row r="138" spans="1:9" s="227" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="405"/>
-      <c r="B138" s="405"/>
-      <c r="C138" s="407"/>
+      <c r="A138" s="406"/>
+      <c r="B138" s="406"/>
+      <c r="C138" s="408"/>
       <c r="D138" s="231" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E138" s="231" t="s">
         <v>69</v>
       </c>
       <c r="F138" s="231" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G138" s="231" t="s">
         <v>69</v>
@@ -5732,10 +5735,10 @@
         <v>43942</v>
       </c>
       <c r="B139" s="249" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C139" s="261" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D139" s="251"/>
       <c r="E139" s="252"/>
@@ -5766,42 +5769,42 @@
       <c r="G141" s="245"/>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B142" s="403" t="s">
+      <c r="B142" s="404" t="s">
         <v>12</v>
       </c>
-      <c r="C142" s="403"/>
+      <c r="C142" s="404"/>
     </row>
     <row r="143" spans="1:9" s="227" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="404" t="s">
+      <c r="A143" s="405" t="s">
         <v>4</v>
       </c>
-      <c r="B143" s="404" t="s">
+      <c r="B143" s="405" t="s">
         <v>5</v>
       </c>
-      <c r="C143" s="406" t="s">
+      <c r="C143" s="407" t="s">
         <v>6</v>
       </c>
-      <c r="D143" s="408" t="s">
+      <c r="D143" s="409" t="s">
         <v>7</v>
       </c>
-      <c r="E143" s="408"/>
-      <c r="F143" s="408" t="s">
+      <c r="E143" s="409"/>
+      <c r="F143" s="409" t="s">
         <v>8</v>
       </c>
-      <c r="G143" s="408"/>
+      <c r="G143" s="409"/>
     </row>
     <row r="144" spans="1:9" s="227" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="405"/>
-      <c r="B144" s="405"/>
-      <c r="C144" s="407"/>
+      <c r="A144" s="406"/>
+      <c r="B144" s="406"/>
+      <c r="C144" s="408"/>
       <c r="D144" s="231" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E144" s="231" t="s">
         <v>69</v>
       </c>
       <c r="F144" s="231" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G144" s="231" t="s">
         <v>69</v>
@@ -5849,7 +5852,7 @@
         <v>81</v>
       </c>
       <c r="C147" s="214" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D147" s="215"/>
       <c r="E147" s="232"/>
@@ -5883,7 +5886,7 @@
         <v>81</v>
       </c>
       <c r="C149" s="214" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D149" s="215"/>
       <c r="E149" s="232"/>
@@ -5900,7 +5903,7 @@
         <v>81</v>
       </c>
       <c r="C150" s="261" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D150" s="251"/>
       <c r="E150" s="252"/>
@@ -5934,42 +5937,42 @@
       <c r="G152" s="247"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B153" s="403" t="s">
+      <c r="B153" s="404" t="s">
         <v>13</v>
       </c>
-      <c r="C153" s="403"/>
+      <c r="C153" s="404"/>
     </row>
     <row r="154" spans="1:7" s="227" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="404" t="s">
+      <c r="A154" s="405" t="s">
         <v>4</v>
       </c>
-      <c r="B154" s="404" t="s">
+      <c r="B154" s="405" t="s">
         <v>5</v>
       </c>
-      <c r="C154" s="406" t="s">
+      <c r="C154" s="407" t="s">
         <v>6</v>
       </c>
-      <c r="D154" s="408" t="s">
+      <c r="D154" s="409" t="s">
         <v>7</v>
       </c>
-      <c r="E154" s="408"/>
-      <c r="F154" s="408" t="s">
+      <c r="E154" s="409"/>
+      <c r="F154" s="409" t="s">
         <v>8</v>
       </c>
-      <c r="G154" s="408"/>
+      <c r="G154" s="409"/>
     </row>
     <row r="155" spans="1:7" s="227" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="405"/>
-      <c r="B155" s="405"/>
-      <c r="C155" s="407"/>
+      <c r="A155" s="406"/>
+      <c r="B155" s="406"/>
+      <c r="C155" s="408"/>
       <c r="D155" s="231" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E155" s="231" t="s">
         <v>69</v>
       </c>
       <c r="F155" s="231" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G155" s="231" t="s">
         <v>69</v>
@@ -5980,10 +5983,10 @@
         <v>43921</v>
       </c>
       <c r="B156" s="213" t="s">
+        <v>132</v>
+      </c>
+      <c r="C156" s="214" t="s">
         <v>133</v>
-      </c>
-      <c r="C156" s="214" t="s">
-        <v>134</v>
       </c>
       <c r="D156" s="215"/>
       <c r="E156" s="232"/>
@@ -5997,10 +6000,10 @@
         <v>43941</v>
       </c>
       <c r="B157" s="249" t="s">
+        <v>132</v>
+      </c>
+      <c r="C157" s="261" t="s">
         <v>133</v>
-      </c>
-      <c r="C157" s="261" t="s">
-        <v>134</v>
       </c>
       <c r="D157" s="251"/>
       <c r="E157" s="252"/>
@@ -6131,9 +6134,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L85" sqref="L85"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O56" sqref="O56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -6144,23 +6147,24 @@
     <col min="4" max="5" width="8.5703125" style="399"/>
     <col min="6" max="7" width="8.5703125" style="332"/>
     <col min="8" max="8" width="9.7109375" style="401" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="401" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" style="401"/>
+    <col min="9" max="9" width="11.140625" style="401" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="401" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.5703125" style="402"/>
     <col min="12" max="12" width="16.42578125" style="401" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" style="401"/>
-    <col min="14" max="15" width="9.5703125" style="401" customWidth="1"/>
-    <col min="16" max="16384" width="8.5703125" style="332"/>
+    <col min="13" max="13" width="10.28515625" style="401" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.140625" style="401" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" style="332" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.5703125" style="332"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="317" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="437" t="s">
+      <c r="A1" s="441" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="437"/>
-      <c r="C1" s="437"/>
-      <c r="D1" s="437"/>
-      <c r="E1" s="437"/>
+      <c r="B1" s="441"/>
+      <c r="C1" s="441"/>
+      <c r="D1" s="441"/>
+      <c r="E1" s="441"/>
       <c r="H1" s="318"/>
       <c r="I1" s="318"/>
       <c r="J1" s="318"/>
@@ -6190,154 +6194,154 @@
       <c r="P2" s="322"/>
     </row>
     <row r="3" spans="1:16" s="317" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="445" t="s">
+      <c r="A3" s="449" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="445"/>
-      <c r="C3" s="445"/>
-      <c r="D3" s="445"/>
-      <c r="E3" s="445"/>
-      <c r="F3" s="445"/>
-      <c r="G3" s="445"/>
-      <c r="H3" s="445"/>
-      <c r="I3" s="445"/>
-      <c r="J3" s="445"/>
-      <c r="K3" s="445"/>
-      <c r="L3" s="445"/>
-      <c r="M3" s="445"/>
-      <c r="N3" s="445"/>
-      <c r="O3" s="445"/>
-      <c r="P3" s="445"/>
+      <c r="B3" s="449"/>
+      <c r="C3" s="449"/>
+      <c r="D3" s="449"/>
+      <c r="E3" s="449"/>
+      <c r="F3" s="449"/>
+      <c r="G3" s="449"/>
+      <c r="H3" s="449"/>
+      <c r="I3" s="449"/>
+      <c r="J3" s="449"/>
+      <c r="K3" s="449"/>
+      <c r="L3" s="449"/>
+      <c r="M3" s="449"/>
+      <c r="N3" s="449"/>
+      <c r="O3" s="449"/>
+      <c r="P3" s="449"/>
     </row>
     <row r="4" spans="1:16" s="317" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="445" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" s="445"/>
-      <c r="C4" s="445"/>
-      <c r="D4" s="445"/>
-      <c r="E4" s="445"/>
-      <c r="F4" s="445"/>
-      <c r="G4" s="445"/>
-      <c r="H4" s="445"/>
-      <c r="I4" s="445"/>
-      <c r="J4" s="445"/>
-      <c r="K4" s="445"/>
-      <c r="L4" s="445"/>
-      <c r="M4" s="445"/>
-      <c r="N4" s="445"/>
-      <c r="O4" s="445"/>
-      <c r="P4" s="445"/>
+      <c r="A4" s="449" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="449"/>
+      <c r="C4" s="449"/>
+      <c r="D4" s="449"/>
+      <c r="E4" s="449"/>
+      <c r="F4" s="449"/>
+      <c r="G4" s="449"/>
+      <c r="H4" s="449"/>
+      <c r="I4" s="449"/>
+      <c r="J4" s="449"/>
+      <c r="K4" s="449"/>
+      <c r="L4" s="449"/>
+      <c r="M4" s="449"/>
+      <c r="N4" s="449"/>
+      <c r="O4" s="449"/>
+      <c r="P4" s="449"/>
     </row>
     <row r="5" spans="1:16" s="317" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="445"/>
-      <c r="B5" s="445"/>
-      <c r="C5" s="445"/>
-      <c r="D5" s="445"/>
-      <c r="E5" s="445"/>
-      <c r="F5" s="445"/>
-      <c r="G5" s="445"/>
-      <c r="H5" s="445"/>
-      <c r="I5" s="445"/>
-      <c r="J5" s="445"/>
-      <c r="K5" s="446"/>
-      <c r="L5" s="446"/>
+      <c r="A5" s="449"/>
+      <c r="B5" s="449"/>
+      <c r="C5" s="449"/>
+      <c r="D5" s="449"/>
+      <c r="E5" s="449"/>
+      <c r="F5" s="449"/>
+      <c r="G5" s="449"/>
+      <c r="H5" s="449"/>
+      <c r="I5" s="449"/>
+      <c r="J5" s="449"/>
+      <c r="K5" s="450"/>
+      <c r="L5" s="450"/>
       <c r="M5" s="321"/>
       <c r="N5" s="321"/>
       <c r="O5" s="321"/>
       <c r="P5" s="322"/>
     </row>
     <row r="6" spans="1:16" s="317" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="447" t="s">
-        <v>169</v>
-      </c>
-      <c r="B6" s="449" t="s">
+      <c r="A6" s="451" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" s="453" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="447" t="s">
+      <c r="C6" s="451" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="451" t="s">
+      <c r="D6" s="455" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="451"/>
-      <c r="F6" s="452" t="s">
+      <c r="E6" s="455"/>
+      <c r="F6" s="456" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="452"/>
-      <c r="H6" s="452"/>
-      <c r="I6" s="452"/>
-      <c r="J6" s="452"/>
-      <c r="K6" s="452"/>
-      <c r="L6" s="452"/>
-      <c r="M6" s="453"/>
-      <c r="N6" s="453"/>
-      <c r="O6" s="453"/>
-      <c r="P6" s="454" t="s">
+      <c r="G6" s="456"/>
+      <c r="H6" s="456"/>
+      <c r="I6" s="456"/>
+      <c r="J6" s="456"/>
+      <c r="K6" s="456"/>
+      <c r="L6" s="456"/>
+      <c r="M6" s="457"/>
+      <c r="N6" s="457"/>
+      <c r="O6" s="457"/>
+      <c r="P6" s="458" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="317" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="448"/>
-      <c r="B7" s="450"/>
-      <c r="C7" s="448"/>
-      <c r="D7" s="447" t="s">
+      <c r="A7" s="452"/>
+      <c r="B7" s="454"/>
+      <c r="C7" s="452"/>
+      <c r="D7" s="451" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="447" t="s">
+      <c r="E7" s="451" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="447" t="s">
+      <c r="F7" s="451" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="447" t="s">
+      <c r="G7" s="451" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="456" t="s">
+      <c r="H7" s="460" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="456" t="s">
+      <c r="I7" s="460" t="s">
         <v>55</v>
       </c>
-      <c r="J7" s="463" t="s">
+      <c r="J7" s="467" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="463"/>
-      <c r="L7" s="456" t="s">
+      <c r="K7" s="467"/>
+      <c r="L7" s="460" t="s">
         <v>56</v>
       </c>
-      <c r="M7" s="456" t="s">
+      <c r="M7" s="460" t="s">
         <v>69</v>
       </c>
-      <c r="N7" s="456" t="s">
-        <v>197</v>
-      </c>
-      <c r="O7" s="456" t="s">
-        <v>226</v>
-      </c>
-      <c r="P7" s="455"/>
+      <c r="N7" s="460" t="s">
+        <v>194</v>
+      </c>
+      <c r="O7" s="460" t="s">
+        <v>223</v>
+      </c>
+      <c r="P7" s="459"/>
     </row>
     <row r="8" spans="1:16" s="317" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="448"/>
-      <c r="B8" s="450"/>
-      <c r="C8" s="448"/>
-      <c r="D8" s="448"/>
-      <c r="E8" s="448"/>
-      <c r="F8" s="448"/>
-      <c r="G8" s="448"/>
-      <c r="H8" s="457"/>
-      <c r="I8" s="457"/>
+      <c r="A8" s="452"/>
+      <c r="B8" s="454"/>
+      <c r="C8" s="452"/>
+      <c r="D8" s="452"/>
+      <c r="E8" s="452"/>
+      <c r="F8" s="452"/>
+      <c r="G8" s="452"/>
+      <c r="H8" s="461"/>
+      <c r="I8" s="461"/>
       <c r="J8" s="325" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="K8" s="326" t="s">
         <v>60</v>
       </c>
-      <c r="L8" s="457"/>
-      <c r="M8" s="457"/>
-      <c r="N8" s="457"/>
-      <c r="O8" s="457"/>
-      <c r="P8" s="455"/>
+      <c r="L8" s="461"/>
+      <c r="M8" s="461"/>
+      <c r="N8" s="461"/>
+      <c r="O8" s="461"/>
+      <c r="P8" s="459"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="327">
@@ -6376,12 +6380,11 @@
         <f>I9*(1-K9)</f>
         <v>3221400.0000000005</v>
       </c>
-      <c r="M9" s="330"/>
-      <c r="N9" s="330"/>
-      <c r="O9" s="330">
+      <c r="M9" s="330">
         <f>L9</f>
         <v>3221400.0000000005</v>
       </c>
+      <c r="N9" s="330"/>
       <c r="P9" s="329"/>
     </row>
     <row r="10" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6395,10 +6398,10 @@
         <v>98</v>
       </c>
       <c r="D10" s="327" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="327" t="s">
         <v>121</v>
-      </c>
-      <c r="E10" s="327" t="s">
-        <v>122</v>
       </c>
       <c r="F10" s="329" t="s">
         <v>38</v>
@@ -6415,16 +6418,16 @@
       </c>
       <c r="J10" s="330"/>
       <c r="K10" s="331">
-        <v>0.35</v>
+        <v>0.41</v>
       </c>
       <c r="L10" s="330">
         <f>I10*(1-K10)</f>
-        <v>887250</v>
+        <v>805350.00000000012</v>
       </c>
       <c r="M10" s="330"/>
       <c r="N10" s="330">
         <f>L10</f>
-        <v>887250</v>
+        <v>805350.00000000012</v>
       </c>
       <c r="O10" s="330"/>
       <c r="P10" s="329"/>
@@ -6468,7 +6471,9 @@
       <c r="M11" s="330"/>
       <c r="N11" s="330"/>
       <c r="O11" s="330"/>
-      <c r="P11" s="329"/>
+      <c r="P11" s="329" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="327">
@@ -6516,19 +6521,17 @@
       <c r="P12" s="329"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="425">
+      <c r="A13" s="429">
         <v>320</v>
       </c>
-      <c r="B13" s="427">
+      <c r="B13" s="431">
         <v>43921</v>
       </c>
-      <c r="C13" s="425" t="s">
-        <v>98</v>
-      </c>
-      <c r="D13" s="425" t="s">
+      <c r="C13" s="429"/>
+      <c r="D13" s="429" t="s">
         <v>112</v>
       </c>
-      <c r="E13" s="425" t="s">
+      <c r="E13" s="429" t="s">
         <v>106</v>
       </c>
       <c r="F13" s="334" t="s">
@@ -6555,21 +6558,18 @@
         <v>6292800.0000000009</v>
       </c>
       <c r="M13" s="338"/>
-      <c r="N13" s="338"/>
-      <c r="O13" s="338">
+      <c r="N13" s="338">
         <f>L13</f>
         <v>6292800.0000000009</v>
       </c>
-      <c r="P13" s="458" t="s">
-        <v>168</v>
-      </c>
+      <c r="P13" s="462"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="426"/>
-      <c r="B14" s="428"/>
-      <c r="C14" s="426"/>
-      <c r="D14" s="426"/>
-      <c r="E14" s="426"/>
+      <c r="A14" s="430"/>
+      <c r="B14" s="432"/>
+      <c r="C14" s="430"/>
+      <c r="D14" s="430"/>
+      <c r="E14" s="430"/>
       <c r="F14" s="339" t="s">
         <v>45</v>
       </c>
@@ -6592,12 +6592,11 @@
         <v>3433800.0000000005</v>
       </c>
       <c r="M14" s="342"/>
-      <c r="N14" s="342"/>
-      <c r="O14" s="342">
+      <c r="N14" s="342">
         <f>L14</f>
         <v>3433800.0000000005</v>
       </c>
-      <c r="P14" s="459"/>
+      <c r="P14" s="463"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="343">
@@ -6644,7 +6643,7 @@
       <c r="O15" s="349"/>
       <c r="P15" s="346"/>
     </row>
-    <row r="16" spans="1:16" ht="48" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="327">
         <v>539</v>
       </c>
@@ -6655,7 +6654,7 @@
         <v>98</v>
       </c>
       <c r="D16" s="327" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E16" s="327" t="s">
         <v>90</v>
@@ -6672,22 +6671,22 @@
       <c r="I16" s="330">
         <v>485000</v>
       </c>
-      <c r="J16" s="330">
-        <v>97000</v>
-      </c>
-      <c r="K16" s="331"/>
-      <c r="L16" s="330">
-        <f>I16-J16</f>
-        <v>388000</v>
+      <c r="J16" s="330"/>
+      <c r="K16" s="331">
+        <v>0.41</v>
+      </c>
+      <c r="L16" s="347">
+        <f t="shared" si="1"/>
+        <v>286150.00000000006</v>
       </c>
       <c r="M16" s="333">
         <f>L16</f>
-        <v>388000</v>
+        <v>286150.00000000006</v>
       </c>
       <c r="N16" s="333"/>
       <c r="O16" s="333"/>
       <c r="P16" s="350" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -6727,9 +6726,7 @@
         <f t="shared" si="1"/>
         <v>1371750.0000000002</v>
       </c>
-      <c r="M17" s="353"/>
-      <c r="N17" s="353"/>
-      <c r="O17" s="353">
+      <c r="M17" s="353">
         <f>L17</f>
         <v>1371750.0000000002</v>
       </c>
@@ -6746,10 +6743,10 @@
         <v>98</v>
       </c>
       <c r="D18" s="343" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E18" s="343" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F18" s="352" t="s">
         <v>38</v>
@@ -6766,17 +6763,17 @@
       </c>
       <c r="J18" s="353"/>
       <c r="K18" s="354">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="L18" s="353">
         <f t="shared" si="1"/>
-        <v>455000</v>
+        <v>268450.00000000006</v>
       </c>
       <c r="M18" s="353"/>
       <c r="N18" s="353"/>
       <c r="O18" s="353">
         <f>L18</f>
-        <v>455000</v>
+        <v>268450.00000000006</v>
       </c>
       <c r="P18" s="352"/>
     </row>
@@ -6787,7 +6784,7 @@
       <c r="B19" s="328">
         <v>43931</v>
       </c>
-      <c r="C19" s="327" t="s">
+      <c r="C19" s="403" t="s">
         <v>98</v>
       </c>
       <c r="D19" s="327" t="s">
@@ -6811,16 +6808,16 @@
       </c>
       <c r="J19" s="330"/>
       <c r="K19" s="331">
-        <v>0.35</v>
+        <v>0.41</v>
       </c>
       <c r="L19" s="330">
         <f t="shared" si="1"/>
-        <v>295750</v>
+        <v>268450.00000000006</v>
       </c>
       <c r="M19" s="330"/>
       <c r="N19" s="330">
         <f>L19</f>
-        <v>295750</v>
+        <v>268450.00000000006</v>
       </c>
       <c r="O19" s="330"/>
       <c r="P19" s="329"/>
@@ -6832,11 +6829,11 @@
       <c r="B20" s="351">
         <v>43932</v>
       </c>
-      <c r="C20" s="343" t="s">
+      <c r="C20" s="403" t="s">
         <v>98</v>
       </c>
       <c r="D20" s="343" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E20" s="343" t="s">
         <v>90</v>
@@ -6856,16 +6853,16 @@
       </c>
       <c r="J20" s="353"/>
       <c r="K20" s="354">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="L20" s="353">
         <f t="shared" si="1"/>
-        <v>550000</v>
+        <v>324500.00000000006</v>
       </c>
       <c r="M20" s="353"/>
       <c r="N20" s="353">
         <f>L20</f>
-        <v>550000</v>
+        <v>324500.00000000006</v>
       </c>
       <c r="O20" s="353"/>
       <c r="P20" s="352"/>
@@ -6881,7 +6878,7 @@
         <v>98</v>
       </c>
       <c r="D21" s="343" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E21" s="343" t="s">
         <v>91</v>
@@ -6901,34 +6898,31 @@
       </c>
       <c r="J21" s="353"/>
       <c r="K21" s="354">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
       <c r="L21" s="353">
         <f t="shared" si="1"/>
-        <v>10825200</v>
+        <v>10301400.000000002</v>
       </c>
       <c r="M21" s="353"/>
-      <c r="N21" s="353"/>
-      <c r="O21" s="353">
+      <c r="N21" s="353">
         <f>L21</f>
-        <v>10825200</v>
+        <v>10301400.000000002</v>
       </c>
       <c r="P21" s="352"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="438">
+      <c r="A22" s="442">
         <v>327</v>
       </c>
-      <c r="B22" s="439">
+      <c r="B22" s="443">
         <v>43935</v>
       </c>
-      <c r="C22" s="442" t="s">
-        <v>98</v>
-      </c>
-      <c r="D22" s="442" t="s">
+      <c r="C22" s="446"/>
+      <c r="D22" s="446" t="s">
         <v>100</v>
       </c>
-      <c r="E22" s="442" t="s">
+      <c r="E22" s="446" t="s">
         <v>95</v>
       </c>
       <c r="F22" s="355" t="s">
@@ -6961,11 +6955,11 @@
       <c r="P22" s="355"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="438"/>
-      <c r="B23" s="440"/>
-      <c r="C23" s="443"/>
-      <c r="D23" s="443"/>
-      <c r="E23" s="443"/>
+      <c r="A23" s="442"/>
+      <c r="B23" s="444"/>
+      <c r="C23" s="447"/>
+      <c r="D23" s="447"/>
+      <c r="E23" s="447"/>
       <c r="F23" s="358" t="s">
         <v>42</v>
       </c>
@@ -6996,11 +6990,11 @@
       <c r="P23" s="358"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="438"/>
-      <c r="B24" s="440"/>
-      <c r="C24" s="443"/>
-      <c r="D24" s="443"/>
-      <c r="E24" s="443"/>
+      <c r="A24" s="442"/>
+      <c r="B24" s="444"/>
+      <c r="C24" s="447"/>
+      <c r="D24" s="447"/>
+      <c r="E24" s="447"/>
       <c r="F24" s="358" t="s">
         <v>45</v>
       </c>
@@ -7031,11 +7025,11 @@
       <c r="P24" s="358"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="438"/>
-      <c r="B25" s="440"/>
-      <c r="C25" s="443"/>
-      <c r="D25" s="443"/>
-      <c r="E25" s="443"/>
+      <c r="A25" s="442"/>
+      <c r="B25" s="444"/>
+      <c r="C25" s="447"/>
+      <c r="D25" s="447"/>
+      <c r="E25" s="447"/>
       <c r="F25" s="358" t="s">
         <v>44</v>
       </c>
@@ -7066,11 +7060,11 @@
       <c r="P25" s="358"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="438"/>
-      <c r="B26" s="440"/>
-      <c r="C26" s="443"/>
-      <c r="D26" s="443"/>
-      <c r="E26" s="443"/>
+      <c r="A26" s="442"/>
+      <c r="B26" s="444"/>
+      <c r="C26" s="447"/>
+      <c r="D26" s="447"/>
+      <c r="E26" s="447"/>
       <c r="F26" s="358" t="s">
         <v>40</v>
       </c>
@@ -7101,11 +7095,11 @@
       <c r="P26" s="358"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="438"/>
-      <c r="B27" s="440"/>
-      <c r="C27" s="443"/>
-      <c r="D27" s="443"/>
-      <c r="E27" s="443"/>
+      <c r="A27" s="442"/>
+      <c r="B27" s="444"/>
+      <c r="C27" s="447"/>
+      <c r="D27" s="447"/>
+      <c r="E27" s="447"/>
       <c r="F27" s="358" t="s">
         <v>41</v>
       </c>
@@ -7135,12 +7129,12 @@
       </c>
       <c r="P27" s="358"/>
     </row>
-    <row r="28" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="438"/>
-      <c r="B28" s="441"/>
-      <c r="C28" s="444"/>
-      <c r="D28" s="444"/>
-      <c r="E28" s="444"/>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="442"/>
+      <c r="B28" s="445"/>
+      <c r="C28" s="448"/>
+      <c r="D28" s="448"/>
+      <c r="E28" s="448"/>
       <c r="F28" s="361" t="s">
         <v>73</v>
       </c>
@@ -7216,19 +7210,19 @@
       <c r="P29" s="329"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="438">
+      <c r="A30" s="442">
         <v>328</v>
       </c>
-      <c r="B30" s="427">
+      <c r="B30" s="431">
         <v>43936</v>
       </c>
-      <c r="C30" s="425" t="s">
+      <c r="C30" s="429" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="425" t="s">
+      <c r="D30" s="429" t="s">
         <v>102</v>
       </c>
-      <c r="E30" s="425" t="s">
+      <c r="E30" s="429" t="s">
         <v>103</v>
       </c>
       <c r="F30" s="334" t="s">
@@ -7261,11 +7255,11 @@
       <c r="P30" s="334"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="438"/>
-      <c r="B31" s="429"/>
-      <c r="C31" s="430"/>
-      <c r="D31" s="430"/>
-      <c r="E31" s="430"/>
+      <c r="A31" s="442"/>
+      <c r="B31" s="433"/>
+      <c r="C31" s="434"/>
+      <c r="D31" s="434"/>
+      <c r="E31" s="434"/>
       <c r="F31" s="365" t="s">
         <v>39</v>
       </c>
@@ -7296,11 +7290,11 @@
       <c r="P31" s="365"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="438"/>
-      <c r="B32" s="429"/>
-      <c r="C32" s="430"/>
-      <c r="D32" s="430"/>
-      <c r="E32" s="430"/>
+      <c r="A32" s="442"/>
+      <c r="B32" s="433"/>
+      <c r="C32" s="434"/>
+      <c r="D32" s="434"/>
+      <c r="E32" s="434"/>
       <c r="F32" s="365" t="s">
         <v>42</v>
       </c>
@@ -7331,11 +7325,11 @@
       <c r="P32" s="365"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="438"/>
-      <c r="B33" s="428"/>
-      <c r="C33" s="426"/>
-      <c r="D33" s="426"/>
-      <c r="E33" s="426"/>
+      <c r="A33" s="442"/>
+      <c r="B33" s="432"/>
+      <c r="C33" s="430"/>
+      <c r="D33" s="430"/>
+      <c r="E33" s="430"/>
       <c r="F33" s="339" t="s">
         <v>73</v>
       </c>
@@ -7372,9 +7366,7 @@
       <c r="B34" s="369">
         <v>43937</v>
       </c>
-      <c r="C34" s="368" t="s">
-        <v>98</v>
-      </c>
+      <c r="C34" s="368"/>
       <c r="D34" s="368" t="s">
         <v>104</v>
       </c>
@@ -7417,9 +7409,7 @@
       <c r="B35" s="328">
         <v>43937</v>
       </c>
-      <c r="C35" s="327" t="s">
-        <v>98</v>
-      </c>
+      <c r="C35" s="327"/>
       <c r="D35" s="327" t="s">
         <v>100</v>
       </c>
@@ -7507,9 +7497,7 @@
       <c r="B37" s="328">
         <v>43941</v>
       </c>
-      <c r="C37" s="327" t="s">
-        <v>98</v>
-      </c>
+      <c r="C37" s="327"/>
       <c r="D37" s="327" t="s">
         <v>110</v>
       </c>
@@ -7546,20 +7534,20 @@
       <c r="P37" s="329"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="425">
+      <c r="A38" s="429">
         <v>346</v>
       </c>
-      <c r="B38" s="439">
+      <c r="B38" s="443">
         <v>43941</v>
       </c>
-      <c r="C38" s="442" t="s">
+      <c r="C38" s="446" t="s">
         <v>98</v>
       </c>
-      <c r="D38" s="442" t="s">
+      <c r="D38" s="446" t="s">
+        <v>124</v>
+      </c>
+      <c r="E38" s="446" t="s">
         <v>125</v>
-      </c>
-      <c r="E38" s="442" t="s">
-        <v>126</v>
       </c>
       <c r="F38" s="334" t="s">
         <v>38</v>
@@ -7591,11 +7579,11 @@
       <c r="P38" s="334"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="430"/>
-      <c r="B39" s="440"/>
-      <c r="C39" s="443"/>
-      <c r="D39" s="443"/>
-      <c r="E39" s="443"/>
+      <c r="A39" s="434"/>
+      <c r="B39" s="444"/>
+      <c r="C39" s="447"/>
+      <c r="D39" s="447"/>
+      <c r="E39" s="447"/>
       <c r="F39" s="365" t="s">
         <v>42</v>
       </c>
@@ -7626,11 +7614,11 @@
       <c r="P39" s="365"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="430"/>
-      <c r="B40" s="440"/>
-      <c r="C40" s="443"/>
-      <c r="D40" s="443"/>
-      <c r="E40" s="443"/>
+      <c r="A40" s="434"/>
+      <c r="B40" s="444"/>
+      <c r="C40" s="447"/>
+      <c r="D40" s="447"/>
+      <c r="E40" s="447"/>
       <c r="F40" s="365" t="s">
         <v>44</v>
       </c>
@@ -7661,11 +7649,11 @@
       <c r="P40" s="365"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="426"/>
-      <c r="B41" s="441"/>
-      <c r="C41" s="444"/>
-      <c r="D41" s="444"/>
-      <c r="E41" s="444"/>
+      <c r="A41" s="430"/>
+      <c r="B41" s="445"/>
+      <c r="C41" s="448"/>
+      <c r="D41" s="448"/>
+      <c r="E41" s="448"/>
       <c r="F41" s="339" t="s">
         <v>72</v>
       </c>
@@ -7696,19 +7684,17 @@
       <c r="P41" s="339"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="438">
+      <c r="A42" s="442">
         <v>345</v>
       </c>
-      <c r="B42" s="427">
+      <c r="B42" s="431">
         <v>43941</v>
       </c>
-      <c r="C42" s="425" t="s">
-        <v>98</v>
-      </c>
-      <c r="D42" s="425" t="s">
+      <c r="C42" s="429"/>
+      <c r="D42" s="429" t="s">
         <v>112</v>
       </c>
-      <c r="E42" s="425" t="s">
+      <c r="E42" s="429" t="s">
         <v>106</v>
       </c>
       <c r="F42" s="334" t="s">
@@ -7740,16 +7726,14 @@
         <v>6192800.0000000009</v>
       </c>
       <c r="O42" s="335"/>
-      <c r="P42" s="460" t="s">
-        <v>113</v>
-      </c>
+      <c r="P42" s="464"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="438"/>
-      <c r="B43" s="429"/>
-      <c r="C43" s="430"/>
-      <c r="D43" s="430"/>
-      <c r="E43" s="430"/>
+      <c r="A43" s="442"/>
+      <c r="B43" s="433"/>
+      <c r="C43" s="434"/>
+      <c r="D43" s="434"/>
+      <c r="E43" s="434"/>
       <c r="F43" s="365" t="s">
         <v>39</v>
       </c>
@@ -7777,14 +7761,14 @@
         <v>3292200.0000000005</v>
       </c>
       <c r="O43" s="366"/>
-      <c r="P43" s="462"/>
+      <c r="P43" s="466"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="438"/>
-      <c r="B44" s="429"/>
-      <c r="C44" s="430"/>
-      <c r="D44" s="430"/>
-      <c r="E44" s="430"/>
+      <c r="A44" s="442"/>
+      <c r="B44" s="433"/>
+      <c r="C44" s="434"/>
+      <c r="D44" s="434"/>
+      <c r="E44" s="434"/>
       <c r="F44" s="365" t="s">
         <v>42</v>
       </c>
@@ -7812,14 +7796,14 @@
         <v>3363000.0000000005</v>
       </c>
       <c r="O44" s="366"/>
-      <c r="P44" s="462"/>
+      <c r="P44" s="466"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="438"/>
-      <c r="B45" s="428"/>
-      <c r="C45" s="426"/>
-      <c r="D45" s="426"/>
-      <c r="E45" s="426"/>
+      <c r="A45" s="442"/>
+      <c r="B45" s="432"/>
+      <c r="C45" s="430"/>
+      <c r="D45" s="430"/>
+      <c r="E45" s="430"/>
       <c r="F45" s="339" t="s">
         <v>45</v>
       </c>
@@ -7847,22 +7831,22 @@
         <v>3433800.0000000005</v>
       </c>
       <c r="O45" s="340"/>
-      <c r="P45" s="461"/>
+      <c r="P45" s="465"/>
     </row>
     <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="425">
+      <c r="A46" s="429">
         <v>342</v>
       </c>
-      <c r="B46" s="439">
+      <c r="B46" s="443">
         <v>43942</v>
       </c>
-      <c r="C46" s="442" t="s">
+      <c r="C46" s="446" t="s">
         <v>43</v>
       </c>
-      <c r="D46" s="442" t="s">
+      <c r="D46" s="446" t="s">
         <v>43</v>
       </c>
-      <c r="E46" s="442" t="s">
+      <c r="E46" s="446" t="s">
         <v>81</v>
       </c>
       <c r="F46" s="334" t="s">
@@ -7892,14 +7876,14 @@
         <v>268450.00000000006</v>
       </c>
       <c r="O46" s="335"/>
-      <c r="P46" s="460"/>
+      <c r="P46" s="464"/>
     </row>
     <row r="47" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="426"/>
-      <c r="B47" s="441"/>
-      <c r="C47" s="444"/>
-      <c r="D47" s="444"/>
-      <c r="E47" s="444"/>
+      <c r="A47" s="430"/>
+      <c r="B47" s="445"/>
+      <c r="C47" s="448"/>
+      <c r="D47" s="448"/>
+      <c r="E47" s="448"/>
       <c r="F47" s="339" t="s">
         <v>39</v>
       </c>
@@ -7927,18 +7911,16 @@
         <v>548700.00000000012</v>
       </c>
       <c r="O47" s="340"/>
-      <c r="P47" s="461"/>
-    </row>
-    <row r="48" spans="1:16" ht="24" x14ac:dyDescent="0.2">
+      <c r="P47" s="465"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="327">
         <v>340</v>
       </c>
       <c r="B48" s="328">
         <v>43942</v>
       </c>
-      <c r="C48" s="327" t="s">
-        <v>98</v>
-      </c>
+      <c r="C48" s="327"/>
       <c r="D48" s="327" t="s">
         <v>110</v>
       </c>
@@ -7973,7 +7955,7 @@
         <v>6770400</v>
       </c>
       <c r="P48" s="350" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
@@ -7990,7 +7972,7 @@
         <v>43</v>
       </c>
       <c r="E49" s="327" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F49" s="329" t="s">
         <v>44</v>
@@ -8020,23 +8002,21 @@
       <c r="N49" s="330"/>
       <c r="O49" s="330"/>
       <c r="P49" s="329" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50" spans="1:16" s="373" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="434">
+      <c r="A50" s="438">
         <v>452</v>
       </c>
-      <c r="B50" s="431">
+      <c r="B50" s="435">
         <v>43942</v>
       </c>
-      <c r="C50" s="434" t="s">
-        <v>98</v>
-      </c>
-      <c r="D50" s="434" t="s">
+      <c r="C50" s="438"/>
+      <c r="D50" s="438" t="s">
         <v>104</v>
       </c>
-      <c r="E50" s="434" t="s">
+      <c r="E50" s="438" t="s">
         <v>105</v>
       </c>
       <c r="F50" s="374" t="s">
@@ -8066,16 +8046,16 @@
         <v>6442800.0000000009</v>
       </c>
       <c r="O50" s="375"/>
-      <c r="P50" s="422" t="s">
-        <v>178</v>
+      <c r="P50" s="426" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="51" spans="1:16" s="373" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="435"/>
-      <c r="B51" s="432"/>
-      <c r="C51" s="435"/>
-      <c r="D51" s="435"/>
-      <c r="E51" s="435"/>
+      <c r="A51" s="439"/>
+      <c r="B51" s="436"/>
+      <c r="C51" s="439"/>
+      <c r="D51" s="439"/>
+      <c r="E51" s="439"/>
       <c r="F51" s="377" t="s">
         <v>41</v>
       </c>
@@ -8103,14 +8083,14 @@
         <v>3221400.0000000005</v>
       </c>
       <c r="O51" s="378"/>
-      <c r="P51" s="423"/>
+      <c r="P51" s="427"/>
     </row>
     <row r="52" spans="1:16" s="373" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="436"/>
-      <c r="B52" s="433"/>
-      <c r="C52" s="436"/>
-      <c r="D52" s="436"/>
-      <c r="E52" s="436"/>
+      <c r="A52" s="440"/>
+      <c r="B52" s="437"/>
+      <c r="C52" s="440"/>
+      <c r="D52" s="440"/>
+      <c r="E52" s="440"/>
       <c r="F52" s="380" t="s">
         <v>73</v>
       </c>
@@ -8141,9 +8121,9 @@
         <f>L50+L51+L52-N50-N51-N52</f>
         <v>2885600.0000000019</v>
       </c>
-      <c r="P52" s="424"/>
-    </row>
-    <row r="53" spans="1:16" ht="48" x14ac:dyDescent="0.2">
+      <c r="P52" s="428"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="327">
         <v>1133</v>
       </c>
@@ -8154,10 +8134,10 @@
         <v>98</v>
       </c>
       <c r="D53" s="327" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E53" s="327" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F53" s="329" t="s">
         <v>40</v>
@@ -8174,20 +8154,20 @@
       </c>
       <c r="J53" s="330"/>
       <c r="K53" s="331">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="L53" s="330">
         <f t="shared" si="1"/>
-        <v>550000</v>
+        <v>324500.00000000006</v>
       </c>
       <c r="M53" s="330">
         <f>L53</f>
-        <v>550000</v>
+        <v>324500.00000000006</v>
       </c>
       <c r="N53" s="330"/>
       <c r="O53" s="330"/>
       <c r="P53" s="350" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
@@ -8201,10 +8181,10 @@
         <v>43</v>
       </c>
       <c r="D54" s="327" t="s">
+        <v>122</v>
+      </c>
+      <c r="E54" s="327" t="s">
         <v>123</v>
-      </c>
-      <c r="E54" s="327" t="s">
-        <v>124</v>
       </c>
       <c r="F54" s="329" t="s">
         <v>45</v>
@@ -8246,10 +8226,10 @@
         <v>98</v>
       </c>
       <c r="D55" s="327" t="s">
+        <v>116</v>
+      </c>
+      <c r="E55" s="327" t="s">
         <v>117</v>
-      </c>
-      <c r="E55" s="327" t="s">
-        <v>118</v>
       </c>
       <c r="F55" s="329" t="s">
         <v>73</v>
@@ -8287,11 +8267,9 @@
       <c r="B56" s="328">
         <v>43944</v>
       </c>
-      <c r="C56" s="327" t="s">
-        <v>98</v>
-      </c>
+      <c r="C56" s="327"/>
       <c r="D56" s="327" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E56" s="327" t="s">
         <v>105</v>
@@ -8339,7 +8317,7 @@
         <v>43</v>
       </c>
       <c r="E57" s="327" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F57" s="329" t="s">
         <v>38</v>
@@ -8384,7 +8362,7 @@
         <v>62</v>
       </c>
       <c r="E58" s="327" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F58" s="329" t="s">
         <v>45</v>
@@ -8429,7 +8407,7 @@
         <v>62</v>
       </c>
       <c r="E59" s="327" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F59" s="329" t="s">
         <v>45</v>
@@ -8461,20 +8439,20 @@
       <c r="P59" s="329"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="425">
+      <c r="A60" s="429">
         <v>456</v>
       </c>
-      <c r="B60" s="427">
+      <c r="B60" s="431">
         <v>43946</v>
       </c>
-      <c r="C60" s="425" t="s">
+      <c r="C60" s="429" t="s">
         <v>98</v>
       </c>
-      <c r="D60" s="425" t="s">
+      <c r="D60" s="429" t="s">
+        <v>127</v>
+      </c>
+      <c r="E60" s="429" t="s">
         <v>128</v>
-      </c>
-      <c r="E60" s="425" t="s">
-        <v>129</v>
       </c>
       <c r="F60" s="334" t="s">
         <v>38</v>
@@ -8497,20 +8475,19 @@
         <f t="shared" si="1"/>
         <v>4832100.0000000009</v>
       </c>
-      <c r="M60" s="335"/>
-      <c r="N60" s="335"/>
-      <c r="O60" s="335">
+      <c r="M60" s="335">
         <f>L60</f>
         <v>4832100.0000000009</v>
       </c>
+      <c r="N60" s="335"/>
       <c r="P60" s="334"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="426"/>
-      <c r="B61" s="428"/>
-      <c r="C61" s="426"/>
-      <c r="D61" s="426"/>
-      <c r="E61" s="426"/>
+      <c r="A61" s="430"/>
+      <c r="B61" s="432"/>
+      <c r="C61" s="430"/>
+      <c r="D61" s="430"/>
+      <c r="E61" s="430"/>
       <c r="F61" s="339" t="s">
         <v>42</v>
       </c>
@@ -8532,29 +8509,26 @@
         <f t="shared" si="1"/>
         <v>1681500.0000000002</v>
       </c>
-      <c r="M61" s="340"/>
-      <c r="N61" s="340"/>
-      <c r="O61" s="340">
+      <c r="M61" s="340">
         <f>L61</f>
         <v>1681500.0000000002</v>
       </c>
+      <c r="N61" s="340"/>
       <c r="P61" s="339"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A62" s="425">
+      <c r="A62" s="429">
         <v>455</v>
       </c>
-      <c r="B62" s="427">
+      <c r="B62" s="431">
         <v>43946</v>
       </c>
-      <c r="C62" s="425" t="s">
-        <v>98</v>
-      </c>
-      <c r="D62" s="425" t="s">
+      <c r="C62" s="429"/>
+      <c r="D62" s="429" t="s">
+        <v>130</v>
+      </c>
+      <c r="E62" s="429" t="s">
         <v>131</v>
-      </c>
-      <c r="E62" s="425" t="s">
-        <v>132</v>
       </c>
       <c r="F62" s="334" t="s">
         <v>38</v>
@@ -8586,11 +8560,11 @@
       <c r="P62" s="334"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A63" s="430"/>
-      <c r="B63" s="429"/>
-      <c r="C63" s="430"/>
-      <c r="D63" s="430"/>
-      <c r="E63" s="430"/>
+      <c r="A63" s="434"/>
+      <c r="B63" s="433"/>
+      <c r="C63" s="434"/>
+      <c r="D63" s="434"/>
+      <c r="E63" s="434"/>
       <c r="F63" s="365" t="s">
         <v>39</v>
       </c>
@@ -8621,11 +8595,11 @@
       <c r="P63" s="365"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A64" s="430"/>
-      <c r="B64" s="429"/>
-      <c r="C64" s="430"/>
-      <c r="D64" s="430"/>
-      <c r="E64" s="430"/>
+      <c r="A64" s="434"/>
+      <c r="B64" s="433"/>
+      <c r="C64" s="434"/>
+      <c r="D64" s="434"/>
+      <c r="E64" s="434"/>
       <c r="F64" s="365" t="s">
         <v>42</v>
       </c>
@@ -8656,11 +8630,11 @@
       <c r="P64" s="365"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A65" s="430"/>
-      <c r="B65" s="429"/>
-      <c r="C65" s="430"/>
-      <c r="D65" s="430"/>
-      <c r="E65" s="430"/>
+      <c r="A65" s="434"/>
+      <c r="B65" s="433"/>
+      <c r="C65" s="434"/>
+      <c r="D65" s="434"/>
+      <c r="E65" s="434"/>
       <c r="F65" s="365" t="s">
         <v>45</v>
       </c>
@@ -8691,11 +8665,11 @@
       <c r="P65" s="365"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A66" s="430"/>
-      <c r="B66" s="429"/>
-      <c r="C66" s="430"/>
-      <c r="D66" s="430"/>
-      <c r="E66" s="430"/>
+      <c r="A66" s="434"/>
+      <c r="B66" s="433"/>
+      <c r="C66" s="434"/>
+      <c r="D66" s="434"/>
+      <c r="E66" s="434"/>
       <c r="F66" s="365" t="s">
         <v>44</v>
       </c>
@@ -8726,11 +8700,11 @@
       <c r="P66" s="365"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A67" s="430"/>
-      <c r="B67" s="429"/>
-      <c r="C67" s="430"/>
-      <c r="D67" s="430"/>
-      <c r="E67" s="430"/>
+      <c r="A67" s="434"/>
+      <c r="B67" s="433"/>
+      <c r="C67" s="434"/>
+      <c r="D67" s="434"/>
+      <c r="E67" s="434"/>
       <c r="F67" s="365" t="s">
         <v>40</v>
       </c>
@@ -8761,11 +8735,11 @@
       <c r="P67" s="365"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A68" s="430"/>
-      <c r="B68" s="429"/>
-      <c r="C68" s="430"/>
-      <c r="D68" s="430"/>
-      <c r="E68" s="430"/>
+      <c r="A68" s="434"/>
+      <c r="B68" s="433"/>
+      <c r="C68" s="434"/>
+      <c r="D68" s="434"/>
+      <c r="E68" s="434"/>
       <c r="F68" s="365" t="s">
         <v>72</v>
       </c>
@@ -8796,11 +8770,11 @@
       <c r="P68" s="365"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A69" s="430"/>
-      <c r="B69" s="429"/>
-      <c r="C69" s="430"/>
-      <c r="D69" s="430"/>
-      <c r="E69" s="430"/>
+      <c r="A69" s="434"/>
+      <c r="B69" s="433"/>
+      <c r="C69" s="434"/>
+      <c r="D69" s="434"/>
+      <c r="E69" s="434"/>
       <c r="F69" s="365" t="s">
         <v>41</v>
       </c>
@@ -8831,11 +8805,11 @@
       <c r="P69" s="365"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A70" s="426"/>
-      <c r="B70" s="428"/>
-      <c r="C70" s="426"/>
-      <c r="D70" s="426"/>
-      <c r="E70" s="426"/>
+      <c r="A70" s="430"/>
+      <c r="B70" s="432"/>
+      <c r="C70" s="430"/>
+      <c r="D70" s="430"/>
+      <c r="E70" s="430"/>
       <c r="F70" s="339" t="s">
         <v>73</v>
       </c>
@@ -8879,7 +8853,7 @@
         <v>62</v>
       </c>
       <c r="E71" s="327" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F71" s="329" t="s">
         <v>45</v>
@@ -8911,20 +8885,20 @@
       <c r="P71" s="329"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A72" s="442">
+      <c r="A72" s="446">
         <v>457</v>
       </c>
-      <c r="B72" s="439">
+      <c r="B72" s="443">
         <v>43947</v>
       </c>
-      <c r="C72" s="442" t="s">
+      <c r="C72" s="446" t="s">
         <v>98</v>
       </c>
-      <c r="D72" s="442" t="s">
-        <v>167</v>
-      </c>
-      <c r="E72" s="442" t="s">
-        <v>129</v>
+      <c r="D72" s="446" t="s">
+        <v>166</v>
+      </c>
+      <c r="E72" s="446" t="s">
+        <v>128</v>
       </c>
       <c r="F72" s="334" t="s">
         <v>45</v>
@@ -8940,25 +8914,26 @@
         <v>970000</v>
       </c>
       <c r="J72" s="335"/>
-      <c r="K72" s="337"/>
+      <c r="K72" s="337">
+        <v>0.41</v>
+      </c>
       <c r="L72" s="330">
         <f t="shared" si="1"/>
-        <v>970000</v>
-      </c>
-      <c r="M72" s="335"/>
+        <v>572300.00000000012</v>
+      </c>
+      <c r="M72" s="335">
+        <f>L72</f>
+        <v>572300.00000000012</v>
+      </c>
       <c r="N72" s="335"/>
-      <c r="O72" s="335">
-        <f t="shared" ref="O72:O78" si="8">L72</f>
-        <v>970000</v>
-      </c>
       <c r="P72" s="334"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A73" s="443"/>
-      <c r="B73" s="440"/>
-      <c r="C73" s="443"/>
-      <c r="D73" s="443"/>
-      <c r="E73" s="443"/>
+      <c r="A73" s="447"/>
+      <c r="B73" s="444"/>
+      <c r="C73" s="447"/>
+      <c r="D73" s="447"/>
+      <c r="E73" s="447"/>
       <c r="F73" s="365" t="s">
         <v>40</v>
       </c>
@@ -8974,26 +8949,25 @@
       </c>
       <c r="J73" s="366"/>
       <c r="K73" s="367">
-        <v>0.5</v>
+        <v>0.41</v>
       </c>
       <c r="L73" s="330">
         <f t="shared" si="1"/>
-        <v>550000</v>
-      </c>
-      <c r="M73" s="366"/>
+        <v>649000.00000000012</v>
+      </c>
+      <c r="M73" s="366">
+        <f>L73</f>
+        <v>649000.00000000012</v>
+      </c>
       <c r="N73" s="366"/>
-      <c r="O73" s="366">
-        <f t="shared" si="8"/>
-        <v>550000</v>
-      </c>
       <c r="P73" s="365"/>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A74" s="444"/>
-      <c r="B74" s="441"/>
-      <c r="C74" s="444"/>
-      <c r="D74" s="444"/>
-      <c r="E74" s="444"/>
+      <c r="A74" s="448"/>
+      <c r="B74" s="445"/>
+      <c r="C74" s="448"/>
+      <c r="D74" s="448"/>
+      <c r="E74" s="448"/>
       <c r="F74" s="339" t="s">
         <v>41</v>
       </c>
@@ -9008,20 +8982,21 @@
         <v>910000</v>
       </c>
       <c r="J74" s="340"/>
-      <c r="K74" s="341"/>
+      <c r="K74" s="341">
+        <v>0.41</v>
+      </c>
       <c r="L74" s="330">
         <f t="shared" si="1"/>
-        <v>910000</v>
-      </c>
-      <c r="M74" s="340"/>
+        <v>536900.00000000012</v>
+      </c>
+      <c r="M74" s="340">
+        <f>L74</f>
+        <v>536900.00000000012</v>
+      </c>
       <c r="N74" s="340"/>
-      <c r="O74" s="340">
-        <f t="shared" si="8"/>
-        <v>910000</v>
-      </c>
       <c r="P74" s="339"/>
     </row>
-    <row r="75" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" s="327">
         <v>458</v>
       </c>
@@ -9035,7 +9010,7 @@
         <v>101</v>
       </c>
       <c r="E75" s="327" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F75" s="329" t="s">
         <v>38</v>
@@ -9052,20 +9027,20 @@
       </c>
       <c r="J75" s="330"/>
       <c r="K75" s="331">
-        <v>0.35</v>
+        <v>0.41</v>
       </c>
       <c r="L75" s="330">
         <f t="shared" si="1"/>
-        <v>295750</v>
+        <v>268450.00000000006</v>
       </c>
       <c r="M75" s="330">
         <f>L75</f>
-        <v>295750</v>
+        <v>268450.00000000006</v>
       </c>
       <c r="N75" s="330"/>
       <c r="O75" s="330"/>
       <c r="P75" s="350" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
@@ -9075,14 +9050,12 @@
       <c r="B76" s="328">
         <v>43947</v>
       </c>
-      <c r="C76" s="327" t="s">
-        <v>98</v>
-      </c>
+      <c r="C76" s="327"/>
       <c r="D76" s="327" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E76" s="327" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F76" s="329" t="s">
         <v>38</v>
@@ -9108,26 +9081,26 @@
       <c r="M76" s="330"/>
       <c r="N76" s="330"/>
       <c r="O76" s="330">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="O76" si="8">L76</f>
         <v>8190000</v>
       </c>
       <c r="P76" s="329"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A77" s="425">
+      <c r="A77" s="429">
         <v>1144</v>
       </c>
-      <c r="B77" s="427">
+      <c r="B77" s="431">
         <v>43949</v>
       </c>
-      <c r="C77" s="425" t="s">
+      <c r="C77" s="429" t="s">
         <v>98</v>
       </c>
-      <c r="D77" s="425" t="s">
-        <v>183</v>
-      </c>
-      <c r="E77" s="425" t="s">
-        <v>175</v>
+      <c r="D77" s="429" t="s">
+        <v>180</v>
+      </c>
+      <c r="E77" s="429" t="s">
+        <v>173</v>
       </c>
       <c r="F77" s="334" t="s">
         <v>40</v>
@@ -9144,26 +9117,25 @@
       </c>
       <c r="J77" s="335"/>
       <c r="K77" s="337">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="L77" s="335">
         <f>I77*(1-K77)</f>
-        <v>550000</v>
-      </c>
-      <c r="M77" s="335"/>
+        <v>324500.00000000006</v>
+      </c>
+      <c r="M77" s="335">
+        <f>L77</f>
+        <v>324500.00000000006</v>
+      </c>
       <c r="N77" s="335"/>
-      <c r="O77" s="335">
-        <f t="shared" si="8"/>
-        <v>550000</v>
-      </c>
       <c r="P77" s="334"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A78" s="426"/>
-      <c r="B78" s="428"/>
-      <c r="C78" s="426"/>
-      <c r="D78" s="426"/>
-      <c r="E78" s="426"/>
+      <c r="A78" s="430"/>
+      <c r="B78" s="432"/>
+      <c r="C78" s="430"/>
+      <c r="D78" s="430"/>
+      <c r="E78" s="430"/>
       <c r="F78" s="339" t="s">
         <v>41</v>
       </c>
@@ -9179,29 +9151,28 @@
       </c>
       <c r="J78" s="340"/>
       <c r="K78" s="341">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="L78" s="340">
         <f>I78*(1-K78)</f>
-        <v>455000</v>
-      </c>
-      <c r="M78" s="340"/>
+        <v>268450.00000000006</v>
+      </c>
+      <c r="M78" s="340">
+        <f>L78</f>
+        <v>268450.00000000006</v>
+      </c>
       <c r="N78" s="340"/>
-      <c r="O78" s="340">
-        <f t="shared" si="8"/>
-        <v>455000</v>
-      </c>
       <c r="P78" s="339"/>
     </row>
     <row r="79" spans="1:17" s="388" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="419" t="s">
-        <v>184</v>
-      </c>
-      <c r="B79" s="419"/>
-      <c r="C79" s="419"/>
-      <c r="D79" s="419"/>
-      <c r="E79" s="419"/>
-      <c r="F79" s="419"/>
+      <c r="A79" s="420" t="s">
+        <v>181</v>
+      </c>
+      <c r="B79" s="420"/>
+      <c r="C79" s="420"/>
+      <c r="D79" s="420"/>
+      <c r="E79" s="420"/>
+      <c r="F79" s="420"/>
       <c r="G79" s="383">
         <f>SUM(G9:G78)</f>
         <v>774</v>
@@ -9215,23 +9186,23 @@
       <c r="K79" s="385"/>
       <c r="L79" s="387">
         <f>SUM(L9:L78)</f>
-        <v>194070700</v>
+        <v>191587150</v>
       </c>
       <c r="M79" s="384"/>
       <c r="N79" s="384"/>
       <c r="O79" s="384"/>
-      <c r="P79" s="420"/>
-      <c r="Q79" s="421"/>
+      <c r="P79" s="421"/>
+      <c r="Q79" s="422"/>
     </row>
     <row r="80" spans="1:17" s="388" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="418" t="s">
-        <v>185</v>
-      </c>
-      <c r="B80" s="418"/>
-      <c r="C80" s="418"/>
-      <c r="D80" s="418"/>
-      <c r="E80" s="418"/>
-      <c r="F80" s="418"/>
+      <c r="A80" s="419" t="s">
+        <v>182</v>
+      </c>
+      <c r="B80" s="419"/>
+      <c r="C80" s="419"/>
+      <c r="D80" s="419"/>
+      <c r="E80" s="419"/>
+      <c r="F80" s="419"/>
       <c r="G80" s="383">
         <f>G79</f>
         <v>774</v>
@@ -9242,23 +9213,23 @@
       <c r="K80" s="385"/>
       <c r="L80" s="387">
         <f>L79</f>
-        <v>194070700</v>
+        <v>191587150</v>
       </c>
       <c r="M80" s="389"/>
       <c r="N80" s="389"/>
       <c r="O80" s="389"/>
-      <c r="P80" s="420"/>
-      <c r="Q80" s="421"/>
+      <c r="P80" s="421"/>
+      <c r="Q80" s="422"/>
     </row>
     <row r="81" spans="1:16" s="388" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="418" t="s">
-        <v>186</v>
-      </c>
-      <c r="B81" s="418"/>
-      <c r="C81" s="418"/>
-      <c r="D81" s="418"/>
-      <c r="E81" s="418"/>
-      <c r="F81" s="418"/>
+      <c r="A81" s="419" t="s">
+        <v>183</v>
+      </c>
+      <c r="B81" s="419"/>
+      <c r="C81" s="419"/>
+      <c r="D81" s="419"/>
+      <c r="E81" s="419"/>
+      <c r="F81" s="419"/>
       <c r="G81" s="390" t="s">
         <v>61</v>
       </c>
@@ -9268,7 +9239,7 @@
       <c r="K81" s="390"/>
       <c r="L81" s="387">
         <f>SUM(M9:M78)</f>
-        <v>2068600.0000000002</v>
+        <v>15171850.000000002</v>
       </c>
       <c r="M81" s="389"/>
       <c r="N81" s="389"/>
@@ -9276,14 +9247,14 @@
       <c r="P81" s="391"/>
     </row>
     <row r="82" spans="1:16" s="388" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="418" t="s">
-        <v>187</v>
-      </c>
-      <c r="B82" s="418"/>
-      <c r="C82" s="418"/>
-      <c r="D82" s="418"/>
-      <c r="E82" s="418"/>
-      <c r="F82" s="418"/>
+      <c r="A82" s="419" t="s">
+        <v>184</v>
+      </c>
+      <c r="B82" s="419"/>
+      <c r="C82" s="419"/>
+      <c r="D82" s="419"/>
+      <c r="E82" s="419"/>
+      <c r="F82" s="419"/>
       <c r="G82" s="389"/>
       <c r="H82" s="389"/>
       <c r="I82" s="384"/>
@@ -9291,7 +9262,7 @@
       <c r="K82" s="385"/>
       <c r="L82" s="387">
         <f>SUM(N9:N78)</f>
-        <v>45564350</v>
+        <v>65257650.000000007</v>
       </c>
       <c r="M82" s="389"/>
       <c r="N82" s="389"/>
@@ -9299,14 +9270,14 @@
       <c r="P82" s="391"/>
     </row>
     <row r="83" spans="1:16" s="388" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="549" t="s">
-        <v>216</v>
-      </c>
-      <c r="B83" s="550"/>
-      <c r="C83" s="550"/>
-      <c r="D83" s="550"/>
-      <c r="E83" s="550"/>
-      <c r="F83" s="551"/>
+      <c r="A83" s="423" t="s">
+        <v>213</v>
+      </c>
+      <c r="B83" s="424"/>
+      <c r="C83" s="424"/>
+      <c r="D83" s="424"/>
+      <c r="E83" s="424"/>
+      <c r="F83" s="425"/>
       <c r="G83" s="389"/>
       <c r="H83" s="389"/>
       <c r="I83" s="384"/>
@@ -9314,7 +9285,7 @@
       <c r="K83" s="385"/>
       <c r="L83" s="387">
         <f>'Hàng khách trả'!L22</f>
-        <v>66001750</v>
+        <v>65815200</v>
       </c>
       <c r="M83" s="389"/>
       <c r="N83" s="389"/>
@@ -9322,14 +9293,14 @@
       <c r="P83" s="391"/>
     </row>
     <row r="84" spans="1:16" s="388" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="418" t="s">
-        <v>188</v>
-      </c>
-      <c r="B84" s="418"/>
-      <c r="C84" s="418"/>
-      <c r="D84" s="418"/>
-      <c r="E84" s="418"/>
-      <c r="F84" s="418"/>
+      <c r="A84" s="419" t="s">
+        <v>185</v>
+      </c>
+      <c r="B84" s="419"/>
+      <c r="C84" s="419"/>
+      <c r="D84" s="419"/>
+      <c r="E84" s="419"/>
+      <c r="F84" s="419"/>
       <c r="G84" s="389"/>
       <c r="H84" s="389"/>
       <c r="I84" s="384"/>
@@ -9337,7 +9308,7 @@
       <c r="K84" s="385"/>
       <c r="L84" s="387">
         <f>SUM(O9:O78)-L83</f>
-        <v>80436000</v>
+        <v>45342450</v>
       </c>
       <c r="M84" s="389"/>
       <c r="N84" s="389"/>
@@ -9347,7 +9318,7 @@
     <row r="87" spans="1:16" s="392" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C87" s="393"/>
       <c r="E87" s="394" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F87" s="393"/>
       <c r="G87" s="393"/>
@@ -9484,6 +9455,792 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="117"/>
+    <col min="2" max="2" width="12" style="117" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="117"/>
+    <col min="4" max="4" width="12.7109375" style="117" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="117" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="117"/>
+    <col min="8" max="8" width="9.28515625" style="117" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14" style="117" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="209"/>
+    <col min="12" max="12" width="17" style="270" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="117"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="110" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="475" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="475"/>
+      <c r="C3" s="475"/>
+      <c r="D3" s="475"/>
+      <c r="E3" s="475"/>
+      <c r="F3" s="475"/>
+      <c r="G3" s="475"/>
+      <c r="H3" s="475"/>
+      <c r="I3" s="475"/>
+      <c r="J3" s="475"/>
+      <c r="K3" s="475"/>
+      <c r="L3" s="475"/>
+      <c r="M3" s="475"/>
+      <c r="N3" s="475"/>
+      <c r="O3" s="475"/>
+      <c r="P3" s="475"/>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="476" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="476"/>
+      <c r="C4" s="476"/>
+      <c r="D4" s="476"/>
+      <c r="E4" s="476"/>
+      <c r="F4" s="476"/>
+      <c r="G4" s="476"/>
+      <c r="H4" s="476"/>
+      <c r="I4" s="476"/>
+      <c r="J4" s="476"/>
+      <c r="K4" s="477"/>
+      <c r="L4" s="476"/>
+      <c r="M4" s="476"/>
+      <c r="N4" s="476"/>
+      <c r="O4" s="476"/>
+      <c r="P4" s="476"/>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="478" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="480" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="482" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="482" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="482"/>
+      <c r="F5" s="482"/>
+      <c r="G5" s="484" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="484"/>
+      <c r="I5" s="484"/>
+      <c r="J5" s="484"/>
+      <c r="K5" s="485"/>
+      <c r="L5" s="486" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="484" t="s">
+        <v>71</v>
+      </c>
+      <c r="N5" s="484"/>
+      <c r="O5" s="484"/>
+      <c r="P5" s="488" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="57" x14ac:dyDescent="0.25">
+      <c r="A6" s="479"/>
+      <c r="B6" s="481"/>
+      <c r="C6" s="483"/>
+      <c r="D6" s="112" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="116" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="116" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="116" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="116" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="115" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="113" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="114" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="487"/>
+      <c r="M6" s="116" t="s">
+        <v>57</v>
+      </c>
+      <c r="N6" s="116" t="s">
+        <v>58</v>
+      </c>
+      <c r="O6" s="116" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" s="489"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="472">
+        <v>1</v>
+      </c>
+      <c r="B7" s="469">
+        <v>43937</v>
+      </c>
+      <c r="C7" s="118"/>
+      <c r="D7" s="472" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="472" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="118">
+        <v>12</v>
+      </c>
+      <c r="I7" s="119">
+        <v>455000</v>
+      </c>
+      <c r="J7" s="119">
+        <f>H7*I7</f>
+        <v>5460000</v>
+      </c>
+      <c r="K7" s="210">
+        <v>0.5</v>
+      </c>
+      <c r="L7" s="271">
+        <f>J7*(1-K7)</f>
+        <v>2730000</v>
+      </c>
+      <c r="M7" s="118"/>
+      <c r="N7" s="118"/>
+      <c r="O7" s="118"/>
+      <c r="P7" s="128"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="474"/>
+      <c r="B8" s="471"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="474"/>
+      <c r="E8" s="474"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="122">
+        <v>2</v>
+      </c>
+      <c r="I8" s="123">
+        <v>485000</v>
+      </c>
+      <c r="J8" s="123">
+        <f t="shared" ref="J8:J21" si="0">H8*I8</f>
+        <v>970000</v>
+      </c>
+      <c r="K8" s="211">
+        <v>0.5</v>
+      </c>
+      <c r="L8" s="271">
+        <f t="shared" ref="L8:L21" si="1">J8*(1-K8)</f>
+        <v>485000</v>
+      </c>
+      <c r="M8" s="122"/>
+      <c r="N8" s="122"/>
+      <c r="O8" s="122"/>
+      <c r="P8" s="129"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="472">
+        <v>2</v>
+      </c>
+      <c r="B9" s="469">
+        <v>43940</v>
+      </c>
+      <c r="C9" s="118"/>
+      <c r="D9" s="472" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="472" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" s="118"/>
+      <c r="G9" s="118" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="118">
+        <v>12</v>
+      </c>
+      <c r="I9" s="119">
+        <v>485000</v>
+      </c>
+      <c r="J9" s="119">
+        <f t="shared" si="0"/>
+        <v>5820000</v>
+      </c>
+      <c r="K9" s="210">
+        <v>0.35</v>
+      </c>
+      <c r="L9" s="271">
+        <f t="shared" si="1"/>
+        <v>3783000</v>
+      </c>
+      <c r="M9" s="118"/>
+      <c r="N9" s="118"/>
+      <c r="O9" s="118"/>
+      <c r="P9" s="128"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="473"/>
+      <c r="B10" s="470"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="473"/>
+      <c r="E10" s="473"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="120" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="120">
+        <v>12</v>
+      </c>
+      <c r="I10" s="121">
+        <v>485000</v>
+      </c>
+      <c r="J10" s="121">
+        <f t="shared" si="0"/>
+        <v>5820000</v>
+      </c>
+      <c r="K10" s="210">
+        <v>0.35</v>
+      </c>
+      <c r="L10" s="271">
+        <f t="shared" si="1"/>
+        <v>3783000</v>
+      </c>
+      <c r="M10" s="120"/>
+      <c r="N10" s="120"/>
+      <c r="O10" s="120"/>
+      <c r="P10" s="130"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="473"/>
+      <c r="B11" s="470"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="473"/>
+      <c r="E11" s="473"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="120">
+        <v>38</v>
+      </c>
+      <c r="I11" s="121">
+        <v>550000</v>
+      </c>
+      <c r="J11" s="121">
+        <f t="shared" si="0"/>
+        <v>20900000</v>
+      </c>
+      <c r="K11" s="210">
+        <v>0.35</v>
+      </c>
+      <c r="L11" s="271">
+        <f t="shared" si="1"/>
+        <v>13585000</v>
+      </c>
+      <c r="M11" s="120"/>
+      <c r="N11" s="120"/>
+      <c r="O11" s="120"/>
+      <c r="P11" s="130"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="473"/>
+      <c r="B12" s="470"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="473"/>
+      <c r="E12" s="473"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="120" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="120">
+        <v>20</v>
+      </c>
+      <c r="I12" s="121">
+        <v>450000</v>
+      </c>
+      <c r="J12" s="121">
+        <f t="shared" si="0"/>
+        <v>9000000</v>
+      </c>
+      <c r="K12" s="210">
+        <v>0.35</v>
+      </c>
+      <c r="L12" s="271">
+        <f t="shared" si="1"/>
+        <v>5850000</v>
+      </c>
+      <c r="M12" s="120"/>
+      <c r="N12" s="120"/>
+      <c r="O12" s="120"/>
+      <c r="P12" s="130"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="473"/>
+      <c r="B13" s="470"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="473"/>
+      <c r="E13" s="473"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="120">
+        <v>12</v>
+      </c>
+      <c r="I13" s="121">
+        <v>455000</v>
+      </c>
+      <c r="J13" s="121">
+        <f t="shared" si="0"/>
+        <v>5460000</v>
+      </c>
+      <c r="K13" s="210">
+        <v>0.35</v>
+      </c>
+      <c r="L13" s="271">
+        <f t="shared" si="1"/>
+        <v>3549000</v>
+      </c>
+      <c r="M13" s="120"/>
+      <c r="N13" s="120"/>
+      <c r="O13" s="120"/>
+      <c r="P13" s="130"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="474"/>
+      <c r="B14" s="471"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="474"/>
+      <c r="E14" s="474"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="122" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="122">
+        <v>24</v>
+      </c>
+      <c r="I14" s="123">
+        <v>455000</v>
+      </c>
+      <c r="J14" s="123">
+        <f t="shared" si="0"/>
+        <v>10920000</v>
+      </c>
+      <c r="K14" s="210">
+        <v>0.35</v>
+      </c>
+      <c r="L14" s="271">
+        <f t="shared" si="1"/>
+        <v>7098000</v>
+      </c>
+      <c r="M14" s="122"/>
+      <c r="N14" s="122"/>
+      <c r="O14" s="122"/>
+      <c r="P14" s="129"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="472">
+        <v>3</v>
+      </c>
+      <c r="B15" s="469">
+        <v>43940</v>
+      </c>
+      <c r="C15" s="118"/>
+      <c r="D15" s="472" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="472" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" s="118"/>
+      <c r="G15" s="118" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="118">
+        <v>22</v>
+      </c>
+      <c r="I15" s="119">
+        <v>455000</v>
+      </c>
+      <c r="J15" s="119">
+        <f t="shared" si="0"/>
+        <v>10010000</v>
+      </c>
+      <c r="K15" s="210">
+        <v>0.35</v>
+      </c>
+      <c r="L15" s="271">
+        <f t="shared" si="1"/>
+        <v>6506500</v>
+      </c>
+      <c r="M15" s="118"/>
+      <c r="N15" s="118"/>
+      <c r="O15" s="118"/>
+      <c r="P15" s="128"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="473"/>
+      <c r="B16" s="470"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="473"/>
+      <c r="E16" s="473"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="120" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="120">
+        <v>22</v>
+      </c>
+      <c r="I16" s="121">
+        <v>465000</v>
+      </c>
+      <c r="J16" s="121">
+        <f t="shared" si="0"/>
+        <v>10230000</v>
+      </c>
+      <c r="K16" s="210">
+        <v>0.35</v>
+      </c>
+      <c r="L16" s="271">
+        <f t="shared" si="1"/>
+        <v>6649500</v>
+      </c>
+      <c r="M16" s="120"/>
+      <c r="N16" s="120"/>
+      <c r="O16" s="120"/>
+      <c r="P16" s="130"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="473"/>
+      <c r="B17" s="470"/>
+      <c r="C17" s="120"/>
+      <c r="D17" s="473"/>
+      <c r="E17" s="473"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="120" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" s="120">
+        <v>8</v>
+      </c>
+      <c r="I17" s="121">
+        <v>475000</v>
+      </c>
+      <c r="J17" s="121">
+        <f t="shared" si="0"/>
+        <v>3800000</v>
+      </c>
+      <c r="K17" s="210">
+        <v>0.35</v>
+      </c>
+      <c r="L17" s="271">
+        <f t="shared" si="1"/>
+        <v>2470000</v>
+      </c>
+      <c r="M17" s="120"/>
+      <c r="N17" s="120"/>
+      <c r="O17" s="120"/>
+      <c r="P17" s="130"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="473"/>
+      <c r="B18" s="470"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="473"/>
+      <c r="E18" s="473"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="120" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="120">
+        <v>5</v>
+      </c>
+      <c r="I18" s="121">
+        <v>485000</v>
+      </c>
+      <c r="J18" s="121">
+        <f t="shared" si="0"/>
+        <v>2425000</v>
+      </c>
+      <c r="K18" s="210">
+        <v>0.35</v>
+      </c>
+      <c r="L18" s="271">
+        <f t="shared" si="1"/>
+        <v>1576250</v>
+      </c>
+      <c r="M18" s="120"/>
+      <c r="N18" s="120"/>
+      <c r="O18" s="120"/>
+      <c r="P18" s="130"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="473"/>
+      <c r="B19" s="470"/>
+      <c r="C19" s="120"/>
+      <c r="D19" s="473"/>
+      <c r="E19" s="473"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="120" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="120">
+        <v>11</v>
+      </c>
+      <c r="I19" s="121">
+        <v>550000</v>
+      </c>
+      <c r="J19" s="121">
+        <f t="shared" si="0"/>
+        <v>6050000</v>
+      </c>
+      <c r="K19" s="210">
+        <v>0.35</v>
+      </c>
+      <c r="L19" s="271">
+        <f t="shared" si="1"/>
+        <v>3932500</v>
+      </c>
+      <c r="M19" s="120"/>
+      <c r="N19" s="120"/>
+      <c r="O19" s="120"/>
+      <c r="P19" s="130"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="474"/>
+      <c r="B20" s="471"/>
+      <c r="C20" s="122"/>
+      <c r="D20" s="474"/>
+      <c r="E20" s="474"/>
+      <c r="F20" s="122"/>
+      <c r="G20" s="122" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" s="122">
+        <v>12</v>
+      </c>
+      <c r="I20" s="123">
+        <v>455000</v>
+      </c>
+      <c r="J20" s="123">
+        <f t="shared" si="0"/>
+        <v>5460000</v>
+      </c>
+      <c r="K20" s="210">
+        <v>0.35</v>
+      </c>
+      <c r="L20" s="271">
+        <f t="shared" si="1"/>
+        <v>3549000</v>
+      </c>
+      <c r="M20" s="122"/>
+      <c r="N20" s="122"/>
+      <c r="O20" s="122"/>
+      <c r="P20" s="129"/>
+    </row>
+    <row r="21" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="124">
+        <v>4</v>
+      </c>
+      <c r="B21" s="131">
+        <v>43948</v>
+      </c>
+      <c r="C21" s="118" t="s">
+        <v>228</v>
+      </c>
+      <c r="D21" s="127" t="s">
+        <v>177</v>
+      </c>
+      <c r="E21" s="118" t="s">
+        <v>178</v>
+      </c>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="124">
+        <v>1</v>
+      </c>
+      <c r="I21" s="125">
+        <v>455000</v>
+      </c>
+      <c r="J21" s="119">
+        <f t="shared" si="0"/>
+        <v>455000</v>
+      </c>
+      <c r="K21" s="210">
+        <v>0.41</v>
+      </c>
+      <c r="L21" s="271">
+        <f t="shared" si="1"/>
+        <v>268450.00000000006</v>
+      </c>
+      <c r="M21" s="118"/>
+      <c r="N21" s="118"/>
+      <c r="O21" s="118"/>
+      <c r="P21" s="118"/>
+    </row>
+    <row r="22" spans="1:16" s="278" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="468" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="468"/>
+      <c r="C22" s="468"/>
+      <c r="D22" s="468"/>
+      <c r="E22" s="468"/>
+      <c r="F22" s="468"/>
+      <c r="G22" s="274"/>
+      <c r="H22" s="274">
+        <f>SUM(H7:H21)</f>
+        <v>213</v>
+      </c>
+      <c r="I22" s="275">
+        <f>SUM(I7:I21)</f>
+        <v>7160000</v>
+      </c>
+      <c r="J22" s="275">
+        <f>SUM(J7:J21)</f>
+        <v>102780000</v>
+      </c>
+      <c r="K22" s="276"/>
+      <c r="L22" s="277">
+        <f>SUM(L7:L21)</f>
+        <v>65815200</v>
+      </c>
+      <c r="M22" s="274"/>
+      <c r="N22" s="274"/>
+      <c r="O22" s="274"/>
+      <c r="P22" s="274"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H23" s="126"/>
+      <c r="I23" s="126"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H24" s="126"/>
+      <c r="I24" s="126"/>
+    </row>
+    <row r="25" spans="1:16" s="93" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="95"/>
+      <c r="E25" s="152" t="s">
+        <v>225</v>
+      </c>
+      <c r="F25" s="95"/>
+      <c r="G25" s="95"/>
+      <c r="H25" s="95"/>
+      <c r="I25" s="95"/>
+      <c r="L25" s="152" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="93" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="5"/>
+      <c r="E26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="L26" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H27" s="126"/>
+      <c r="I27" s="126"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H28" s="126"/>
+      <c r="I28" s="126"/>
+    </row>
+    <row r="29" spans="1:16" s="216" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="152"/>
+      <c r="E29" s="152"/>
+      <c r="F29" s="221"/>
+      <c r="G29" s="221"/>
+      <c r="L29" s="282" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H30" s="126"/>
+      <c r="I30" s="126"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H31" s="126"/>
+      <c r="I31" s="126"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H32" s="126"/>
+      <c r="I32" s="126"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="D9:D14"/>
+    <mergeCell ref="E9:E14"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="E15:E20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -9536,24 +10293,24 @@
       <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="464" t="s">
+      <c r="A4" s="490" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="464"/>
-      <c r="C4" s="464"/>
-      <c r="D4" s="464"/>
-      <c r="E4" s="464"/>
+      <c r="B4" s="490"/>
+      <c r="C4" s="490"/>
+      <c r="D4" s="490"/>
+      <c r="E4" s="490"/>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="465" t="s">
-        <v>215</v>
-      </c>
-      <c r="B5" s="465"/>
-      <c r="C5" s="465"/>
-      <c r="D5" s="465"/>
-      <c r="E5" s="465"/>
+      <c r="A5" s="491" t="s">
+        <v>212</v>
+      </c>
+      <c r="B5" s="491"/>
+      <c r="C5" s="491"/>
+      <c r="D5" s="491"/>
+      <c r="E5" s="491"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
@@ -9598,7 +10355,7 @@
       </c>
       <c r="D8" s="101">
         <f>'DOANH THU'!L80</f>
-        <v>194070700</v>
+        <v>191587150</v>
       </c>
       <c r="E8" s="100"/>
       <c r="F8" s="92"/>
@@ -9614,7 +10371,7 @@
       <c r="C9" s="103"/>
       <c r="D9" s="104">
         <f>'DOANH THU'!L81</f>
-        <v>2068600.0000000002</v>
+        <v>15171850.000000002</v>
       </c>
       <c r="E9" s="103"/>
       <c r="F9" s="92"/>
@@ -9630,7 +10387,7 @@
       <c r="C10" s="103"/>
       <c r="D10" s="104">
         <f>'DOANH THU'!L82</f>
-        <v>45564350</v>
+        <v>65257650.000000007</v>
       </c>
       <c r="E10" s="103"/>
       <c r="F10" s="92"/>
@@ -9639,12 +10396,12 @@
     <row r="11" spans="1:7" s="93" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="272"/>
       <c r="B11" s="279" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C11" s="281"/>
       <c r="D11" s="280">
         <f>'Hàng khách trả'!L22</f>
-        <v>66001750</v>
+        <v>65815200</v>
       </c>
       <c r="E11" s="273"/>
       <c r="F11" s="92"/>
@@ -9658,7 +10415,7 @@
       <c r="C12" s="108"/>
       <c r="D12" s="109">
         <f>D8-D9-D10-D11</f>
-        <v>80436000</v>
+        <v>45342450</v>
       </c>
       <c r="E12" s="106"/>
       <c r="F12" s="92"/>
@@ -9746,7 +10503,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C19" s="21"/>
       <c r="D19" s="22">
@@ -9827,10 +10584,10 @@
       <c r="E24" s="32"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="466" t="s">
+      <c r="A25" s="492" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="466"/>
+      <c r="B25" s="492"/>
       <c r="C25" s="32"/>
       <c r="D25" s="26">
         <f>C24-D24</f>
@@ -9840,7 +10597,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="2" t="s">
@@ -9876,7 +10633,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
@@ -9932,17 +10689,17 @@
       <c r="J3" s="17"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="474" t="s">
-        <v>173</v>
-      </c>
-      <c r="B4" s="474"/>
-      <c r="C4" s="474"/>
-      <c r="D4" s="474"/>
-      <c r="E4" s="474"/>
-      <c r="F4" s="474"/>
-      <c r="G4" s="474"/>
-      <c r="H4" s="474"/>
-      <c r="I4" s="474"/>
+      <c r="A4" s="500" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" s="500"/>
+      <c r="C4" s="500"/>
+      <c r="D4" s="500"/>
+      <c r="E4" s="500"/>
+      <c r="F4" s="500"/>
+      <c r="G4" s="500"/>
+      <c r="H4" s="500"/>
+      <c r="I4" s="500"/>
       <c r="J4" s="46"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -9958,33 +10715,33 @@
       <c r="J5" s="46"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="475" t="s">
-        <v>169</v>
-      </c>
-      <c r="B6" s="476" t="s">
+      <c r="A6" s="501" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" s="502" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="475" t="s">
+      <c r="C6" s="501" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="477" t="s">
+      <c r="D6" s="503" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="477"/>
-      <c r="F6" s="477"/>
-      <c r="G6" s="477"/>
-      <c r="H6" s="478"/>
-      <c r="I6" s="475" t="s">
+      <c r="E6" s="503"/>
+      <c r="F6" s="503"/>
+      <c r="G6" s="503"/>
+      <c r="H6" s="504"/>
+      <c r="I6" s="501" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="472" t="s">
+      <c r="J6" s="498" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="475"/>
-      <c r="B7" s="476"/>
-      <c r="C7" s="475"/>
+      <c r="A7" s="501"/>
+      <c r="B7" s="502"/>
+      <c r="C7" s="501"/>
       <c r="D7" s="48" t="s">
         <v>33</v>
       </c>
@@ -10000,8 +10757,8 @@
       <c r="H7" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="475"/>
-      <c r="J7" s="473"/>
+      <c r="I7" s="501"/>
+      <c r="J7" s="499"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="198">
@@ -10104,10 +10861,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="55"/>
-      <c r="B11" s="471" t="s">
+      <c r="B11" s="497" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="471"/>
+      <c r="C11" s="497"/>
       <c r="D11" s="55"/>
       <c r="E11" s="55"/>
       <c r="F11" s="55"/>
@@ -10126,47 +10883,47 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="467" t="s">
+      <c r="A12" s="493" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="468"/>
-      <c r="C12" s="468"/>
-      <c r="D12" s="468"/>
-      <c r="E12" s="468"/>
-      <c r="F12" s="468"/>
-      <c r="G12" s="468"/>
-      <c r="H12" s="468"/>
-      <c r="I12" s="469"/>
+      <c r="B12" s="494"/>
+      <c r="C12" s="494"/>
+      <c r="D12" s="494"/>
+      <c r="E12" s="494"/>
+      <c r="F12" s="494"/>
+      <c r="G12" s="494"/>
+      <c r="H12" s="494"/>
+      <c r="I12" s="495"/>
       <c r="J12" s="206" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G13" s="59"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="470"/>
-      <c r="B14" s="470"/>
-      <c r="C14" s="470"/>
-      <c r="E14" s="470" t="s">
+      <c r="A14" s="496"/>
+      <c r="B14" s="496"/>
+      <c r="C14" s="496"/>
+      <c r="E14" s="496" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="470"/>
-      <c r="G14" s="470"/>
-      <c r="H14" s="470"/>
-      <c r="I14" s="470"/>
+      <c r="F14" s="496"/>
+      <c r="G14" s="496"/>
+      <c r="H14" s="496"/>
+      <c r="I14" s="496"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="470"/>
-      <c r="B19" s="470"/>
-      <c r="C19" s="470"/>
-      <c r="E19" s="470" t="s">
+      <c r="A19" s="496"/>
+      <c r="B19" s="496"/>
+      <c r="C19" s="496"/>
+      <c r="E19" s="496" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="470"/>
-      <c r="G19" s="470"/>
-      <c r="H19" s="470"/>
-      <c r="I19" s="470"/>
+      <c r="F19" s="496"/>
+      <c r="G19" s="496"/>
+      <c r="H19" s="496"/>
+      <c r="I19" s="496"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -10189,7 +10946,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
@@ -10212,13 +10969,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="492" t="s">
+      <c r="A1" s="518" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="492"/>
-      <c r="C1" s="492"/>
-      <c r="D1" s="492"/>
-      <c r="E1" s="492"/>
+      <c r="B1" s="518"/>
+      <c r="C1" s="518"/>
+      <c r="D1" s="518"/>
+      <c r="E1" s="518"/>
       <c r="F1" s="43"/>
       <c r="G1" s="43"/>
       <c r="H1" s="43"/>
@@ -10246,16 +11003,16 @@
       <c r="I3" s="17"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="474" t="s">
-        <v>170</v>
-      </c>
-      <c r="B4" s="474"/>
-      <c r="C4" s="474"/>
-      <c r="D4" s="474"/>
-      <c r="E4" s="474"/>
-      <c r="F4" s="474"/>
-      <c r="G4" s="474"/>
-      <c r="H4" s="474"/>
+      <c r="A4" s="500" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" s="500"/>
+      <c r="C4" s="500"/>
+      <c r="D4" s="500"/>
+      <c r="E4" s="500"/>
+      <c r="F4" s="500"/>
+      <c r="G4" s="500"/>
+      <c r="H4" s="500"/>
       <c r="I4" s="46"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -10270,29 +11027,29 @@
       <c r="I5" s="46"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="493" t="s">
-        <v>169</v>
-      </c>
-      <c r="B6" s="495" t="s">
+      <c r="A6" s="519" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" s="521" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="496" t="s">
+      <c r="C6" s="522" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="496"/>
-      <c r="E6" s="496"/>
-      <c r="F6" s="496"/>
-      <c r="G6" s="497"/>
-      <c r="H6" s="498" t="s">
+      <c r="D6" s="522"/>
+      <c r="E6" s="522"/>
+      <c r="F6" s="522"/>
+      <c r="G6" s="523"/>
+      <c r="H6" s="524" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="484" t="s">
+      <c r="I6" s="510" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="494"/>
-      <c r="B7" s="476"/>
+      <c r="A7" s="520"/>
+      <c r="B7" s="502"/>
       <c r="C7" s="151" t="s">
         <v>33</v>
       </c>
@@ -10308,8 +11065,8 @@
       <c r="G7" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="475"/>
-      <c r="I7" s="485"/>
+      <c r="H7" s="501"/>
+      <c r="I7" s="511"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="183">
@@ -10339,7 +11096,7 @@
         <v>3221400.0000000005</v>
       </c>
       <c r="I8" s="184" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10407,10 +11164,10 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="486">
+      <c r="A11" s="512">
         <v>328</v>
       </c>
-      <c r="B11" s="489">
+      <c r="B11" s="515">
         <v>43936</v>
       </c>
       <c r="C11" s="170" t="s">
@@ -10439,8 +11196,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="487"/>
-      <c r="B12" s="490"/>
+      <c r="A12" s="513"/>
+      <c r="B12" s="516"/>
       <c r="C12" s="102" t="s">
         <v>39</v>
       </c>
@@ -10467,8 +11224,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="487"/>
-      <c r="B13" s="490"/>
+      <c r="A13" s="513"/>
+      <c r="B13" s="516"/>
       <c r="C13" s="102" t="s">
         <v>42</v>
       </c>
@@ -10495,8 +11252,8 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="488"/>
-      <c r="B14" s="491"/>
+      <c r="A14" s="514"/>
+      <c r="B14" s="517"/>
       <c r="C14" s="175" t="s">
         <v>73</v>
       </c>
@@ -10555,10 +11312,10 @@
       </c>
     </row>
     <row r="16" spans="1:9" s="289" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="480">
+      <c r="A16" s="506">
         <v>342</v>
       </c>
-      <c r="B16" s="482">
+      <c r="B16" s="508">
         <v>43942</v>
       </c>
       <c r="C16" s="283" t="s">
@@ -10587,8 +11344,8 @@
       </c>
     </row>
     <row r="17" spans="1:9" s="289" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="481"/>
-      <c r="B17" s="483"/>
+      <c r="A17" s="507"/>
+      <c r="B17" s="509"/>
       <c r="C17" s="290" t="s">
         <v>39</v>
       </c>
@@ -10736,32 +11493,32 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="477" t="s">
-        <v>172</v>
-      </c>
-      <c r="B22" s="477"/>
-      <c r="C22" s="477"/>
-      <c r="D22" s="477"/>
-      <c r="E22" s="477"/>
-      <c r="F22" s="477"/>
-      <c r="G22" s="477"/>
-      <c r="H22" s="477"/>
+      <c r="A22" s="503" t="s">
+        <v>170</v>
+      </c>
+      <c r="B22" s="503"/>
+      <c r="C22" s="503"/>
+      <c r="D22" s="503"/>
+      <c r="E22" s="503"/>
+      <c r="F22" s="503"/>
+      <c r="G22" s="503"/>
+      <c r="H22" s="503"/>
       <c r="I22" s="195">
         <f>1088000-I16-I17</f>
         <v>270849.99999999988</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="479" t="s">
+      <c r="A23" s="505" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="479"/>
-      <c r="C23" s="479"/>
-      <c r="D23" s="479"/>
-      <c r="E23" s="479"/>
-      <c r="F23" s="479"/>
-      <c r="G23" s="479"/>
-      <c r="H23" s="479"/>
+      <c r="B23" s="505"/>
+      <c r="C23" s="505"/>
+      <c r="D23" s="505"/>
+      <c r="E23" s="505"/>
+      <c r="F23" s="505"/>
+      <c r="G23" s="505"/>
+      <c r="H23" s="505"/>
       <c r="I23" s="58">
         <f>H8-I22</f>
         <v>2950550.0000000005</v>
@@ -10779,8 +11536,8 @@
       <c r="I24" s="197"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="470"/>
-      <c r="B25" s="470"/>
+      <c r="A25" s="496"/>
+      <c r="B25" s="496"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -10792,8 +11549,8 @@
       <c r="H27" s="59"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="470"/>
-      <c r="B29" s="470"/>
+      <c r="A29" s="496"/>
+      <c r="B29" s="496"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
@@ -10824,7 +11581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L25"/>
   <sheetViews>
@@ -11669,38 +12426,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="60" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="499" t="s">
+      <c r="A1" s="525" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="499"/>
-      <c r="C1" s="499"/>
-      <c r="D1" s="499"/>
+      <c r="B1" s="525"/>
+      <c r="C1" s="525"/>
+      <c r="D1" s="525"/>
       <c r="E1" s="132"/>
-      <c r="F1" s="500" t="s">
+      <c r="F1" s="526" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="500"/>
-      <c r="H1" s="500"/>
-      <c r="I1" s="500"/>
-      <c r="J1" s="500"/>
-      <c r="K1" s="500"/>
+      <c r="G1" s="526"/>
+      <c r="H1" s="526"/>
+      <c r="I1" s="526"/>
+      <c r="J1" s="526"/>
+      <c r="K1" s="526"/>
     </row>
     <row r="2" spans="1:12" s="60" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="501" t="s">
+      <c r="A2" s="527" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="501"/>
-      <c r="C2" s="501"/>
-      <c r="D2" s="501"/>
+      <c r="B2" s="527"/>
+      <c r="C2" s="527"/>
+      <c r="D2" s="527"/>
       <c r="E2" s="132"/>
-      <c r="F2" s="502" t="s">
+      <c r="F2" s="528" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="502"/>
-      <c r="H2" s="502"/>
-      <c r="I2" s="502"/>
-      <c r="J2" s="502"/>
-      <c r="K2" s="502"/>
+      <c r="G2" s="528"/>
+      <c r="H2" s="528"/>
+      <c r="I2" s="528"/>
+      <c r="J2" s="528"/>
+      <c r="K2" s="528"/>
     </row>
     <row r="3" spans="1:12" s="60" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="61"/>
@@ -11713,77 +12470,77 @@
       <c r="I3" s="133"/>
     </row>
     <row r="4" spans="1:12" s="63" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="503" t="s">
+      <c r="A4" s="529" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="529"/>
+      <c r="C4" s="529"/>
+      <c r="D4" s="529"/>
+      <c r="E4" s="529"/>
+      <c r="F4" s="529"/>
+      <c r="G4" s="529"/>
+      <c r="H4" s="529"/>
+      <c r="I4" s="529"/>
+      <c r="J4" s="529"/>
+      <c r="K4" s="529"/>
+      <c r="L4" s="529"/>
+    </row>
+    <row r="5" spans="1:12" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="530" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="530"/>
+      <c r="C5" s="530"/>
+      <c r="D5" s="530"/>
+      <c r="E5" s="530"/>
+      <c r="F5" s="530"/>
+      <c r="G5" s="530"/>
+      <c r="H5" s="530"/>
+      <c r="I5" s="530"/>
+      <c r="J5" s="530"/>
+      <c r="K5" s="530"/>
+      <c r="L5" s="530"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J6" s="531" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="503"/>
-      <c r="C4" s="503"/>
-      <c r="D4" s="503"/>
-      <c r="E4" s="503"/>
-      <c r="F4" s="503"/>
-      <c r="G4" s="503"/>
-      <c r="H4" s="503"/>
-      <c r="I4" s="503"/>
-      <c r="J4" s="503"/>
-      <c r="K4" s="503"/>
-      <c r="L4" s="503"/>
-    </row>
-    <row r="5" spans="1:12" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="504" t="s">
-        <v>139</v>
-      </c>
-      <c r="B5" s="504"/>
-      <c r="C5" s="504"/>
-      <c r="D5" s="504"/>
-      <c r="E5" s="504"/>
-      <c r="F5" s="504"/>
-      <c r="G5" s="504"/>
-      <c r="H5" s="504"/>
-      <c r="I5" s="504"/>
-      <c r="J5" s="504"/>
-      <c r="K5" s="504"/>
-      <c r="L5" s="504"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J6" s="505" t="s">
-        <v>138</v>
-      </c>
-      <c r="K6" s="505"/>
-      <c r="L6" s="505"/>
+      <c r="K6" s="531"/>
+      <c r="L6" s="531"/>
     </row>
     <row r="7" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="66" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="67" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="67" t="s">
+      <c r="D7" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="67" t="s">
+      <c r="E7" s="145" t="s">
         <v>142</v>
       </c>
-      <c r="E7" s="145" t="s">
+      <c r="F7" s="66" t="s">
         <v>143</v>
       </c>
-      <c r="F7" s="66" t="s">
+      <c r="G7" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="G7" s="66" t="s">
+      <c r="H7" s="66" t="s">
         <v>145</v>
       </c>
-      <c r="H7" s="66" t="s">
+      <c r="I7" s="66" t="s">
+        <v>164</v>
+      </c>
+      <c r="J7" s="66" t="s">
         <v>146</v>
       </c>
-      <c r="I7" s="66" t="s">
-        <v>165</v>
-      </c>
-      <c r="J7" s="66" t="s">
+      <c r="K7" s="68" t="s">
         <v>147</v>
-      </c>
-      <c r="K7" s="68" t="s">
-        <v>148</v>
       </c>
       <c r="L7" s="66" t="s">
         <v>22</v>
@@ -11795,31 +12552,31 @@
       <c r="C8" s="71"/>
       <c r="D8" s="71"/>
       <c r="E8" s="73" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F8" s="73" t="s">
+        <v>148</v>
+      </c>
+      <c r="G8" s="73" t="s">
         <v>149</v>
       </c>
-      <c r="G8" s="73" t="s">
+      <c r="H8" s="73" t="s">
         <v>150</v>
       </c>
-      <c r="H8" s="73" t="s">
+      <c r="I8" s="73" t="s">
         <v>151</v>
       </c>
-      <c r="I8" s="73" t="s">
+      <c r="J8" s="74" t="s">
         <v>152</v>
-      </c>
-      <c r="J8" s="74" t="s">
-        <v>153</v>
       </c>
       <c r="K8" s="71"/>
       <c r="L8" s="72"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="506" t="s">
-        <v>154</v>
-      </c>
-      <c r="B9" s="507"/>
+      <c r="A9" s="532" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" s="533"/>
       <c r="C9" s="71"/>
       <c r="D9" s="71"/>
       <c r="E9" s="73"/>
@@ -11839,7 +12596,7 @@
         <v>49</v>
       </c>
       <c r="C10" s="76" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D10" s="77">
         <v>15000000</v>
@@ -11869,10 +12626,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="76" t="s">
         <v>156</v>
-      </c>
-      <c r="C11" s="76" t="s">
-        <v>157</v>
       </c>
       <c r="D11" s="77">
         <v>10000000</v>
@@ -11902,10 +12659,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="75" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" s="76" t="s">
         <v>158</v>
-      </c>
-      <c r="C12" s="76" t="s">
-        <v>159</v>
       </c>
       <c r="D12" s="77">
         <v>6000000</v>
@@ -11938,7 +12695,7 @@
         <v>48</v>
       </c>
       <c r="C13" s="81" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D13" s="82">
         <v>6000000</v>
@@ -11966,11 +12723,11 @@
       <c r="L13" s="80"/>
     </row>
     <row r="14" spans="1:12" s="88" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="511" t="s">
+      <c r="A14" s="536" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="512"/>
-      <c r="C14" s="513"/>
+      <c r="B14" s="537"/>
+      <c r="C14" s="538"/>
       <c r="D14" s="141">
         <f>SUM(D10:D13)</f>
         <v>37000000</v>
@@ -11997,10 +12754,10 @@
       <c r="L14" s="143"/>
     </row>
     <row r="15" spans="1:12" s="79" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="508" t="s">
-        <v>161</v>
-      </c>
-      <c r="B15" s="509"/>
+      <c r="A15" s="534" t="s">
+        <v>160</v>
+      </c>
+      <c r="B15" s="535"/>
       <c r="C15" s="135"/>
       <c r="D15" s="136"/>
       <c r="E15" s="150">
@@ -12020,10 +12777,10 @@
         <v>1</v>
       </c>
       <c r="B16" s="80" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C16" s="81" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D16" s="82">
         <v>10000000</v>
@@ -12051,10 +12808,10 @@
         <v>2</v>
       </c>
       <c r="B17" s="84" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17" s="85" t="s">
         <v>163</v>
-      </c>
-      <c r="C17" s="85" t="s">
-        <v>164</v>
       </c>
       <c r="D17" s="86">
         <v>5000000</v>
@@ -12083,11 +12840,11 @@
       <c r="L17" s="84"/>
     </row>
     <row r="18" spans="1:12" s="88" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="511" t="s">
+      <c r="A18" s="536" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="512"/>
-      <c r="C18" s="513"/>
+      <c r="B18" s="537"/>
+      <c r="C18" s="538"/>
       <c r="D18" s="144">
         <f>SUM(D16:D17)</f>
         <v>15000000</v>
@@ -12114,18 +12871,18 @@
       <c r="L18" s="143"/>
     </row>
     <row r="20" spans="1:12" s="88" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B20" s="510"/>
-      <c r="C20" s="510"/>
-      <c r="D20" s="510"/>
+      <c r="B20" s="475"/>
+      <c r="C20" s="475"/>
+      <c r="D20" s="475"/>
       <c r="E20" s="134"/>
-      <c r="H20" s="510"/>
-      <c r="I20" s="510"/>
-      <c r="J20" s="510"/>
-      <c r="K20" s="510"/>
+      <c r="H20" s="475"/>
+      <c r="I20" s="475"/>
+      <c r="J20" s="475"/>
+      <c r="K20" s="475"/>
     </row>
     <row r="21" spans="1:12" s="93" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="152" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C21" s="95"/>
       <c r="E21" s="95"/>
@@ -12176,790 +12933,6 @@
   </mergeCells>
   <pageMargins left="0.37" right="0.28000000000000003" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P32"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="117"/>
-    <col min="2" max="2" width="12" style="117" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="117"/>
-    <col min="4" max="4" width="12.7109375" style="117" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="117" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="117"/>
-    <col min="8" max="8" width="9.28515625" style="117" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14" style="117" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="209"/>
-    <col min="12" max="12" width="17" style="270" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="117"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="111" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="110" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="510" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="510"/>
-      <c r="C3" s="510"/>
-      <c r="D3" s="510"/>
-      <c r="E3" s="510"/>
-      <c r="F3" s="510"/>
-      <c r="G3" s="510"/>
-      <c r="H3" s="510"/>
-      <c r="I3" s="510"/>
-      <c r="J3" s="510"/>
-      <c r="K3" s="510"/>
-      <c r="L3" s="510"/>
-      <c r="M3" s="510"/>
-      <c r="N3" s="510"/>
-      <c r="O3" s="510"/>
-      <c r="P3" s="510"/>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="521" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" s="521"/>
-      <c r="C4" s="521"/>
-      <c r="D4" s="521"/>
-      <c r="E4" s="521"/>
-      <c r="F4" s="521"/>
-      <c r="G4" s="521"/>
-      <c r="H4" s="521"/>
-      <c r="I4" s="521"/>
-      <c r="J4" s="521"/>
-      <c r="K4" s="522"/>
-      <c r="L4" s="521"/>
-      <c r="M4" s="521"/>
-      <c r="N4" s="521"/>
-      <c r="O4" s="521"/>
-      <c r="P4" s="521"/>
-    </row>
-    <row r="5" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="523" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="525" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="527" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="527" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="527"/>
-      <c r="F5" s="527"/>
-      <c r="G5" s="529" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="529"/>
-      <c r="I5" s="529"/>
-      <c r="J5" s="529"/>
-      <c r="K5" s="530"/>
-      <c r="L5" s="531" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" s="529" t="s">
-        <v>71</v>
-      </c>
-      <c r="N5" s="529"/>
-      <c r="O5" s="529"/>
-      <c r="P5" s="533" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="57" x14ac:dyDescent="0.25">
-      <c r="A6" s="524"/>
-      <c r="B6" s="526"/>
-      <c r="C6" s="528"/>
-      <c r="D6" s="112" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="116" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" s="116" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="116" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="116" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="115" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" s="113" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" s="114" t="s">
-        <v>37</v>
-      </c>
-      <c r="L6" s="532"/>
-      <c r="M6" s="116" t="s">
-        <v>57</v>
-      </c>
-      <c r="N6" s="116" t="s">
-        <v>58</v>
-      </c>
-      <c r="O6" s="116" t="s">
-        <v>59</v>
-      </c>
-      <c r="P6" s="534"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="518">
-        <v>1</v>
-      </c>
-      <c r="B7" s="515">
-        <v>43937</v>
-      </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="518" t="s">
-        <v>100</v>
-      </c>
-      <c r="E7" s="518" t="s">
-        <v>95</v>
-      </c>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="118">
-        <v>12</v>
-      </c>
-      <c r="I7" s="119">
-        <v>455000</v>
-      </c>
-      <c r="J7" s="119">
-        <f>H7*I7</f>
-        <v>5460000</v>
-      </c>
-      <c r="K7" s="210">
-        <v>0.5</v>
-      </c>
-      <c r="L7" s="271">
-        <f>J7*(1-K7)</f>
-        <v>2730000</v>
-      </c>
-      <c r="M7" s="118"/>
-      <c r="N7" s="118"/>
-      <c r="O7" s="118"/>
-      <c r="P7" s="128"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="520"/>
-      <c r="B8" s="517"/>
-      <c r="C8" s="122"/>
-      <c r="D8" s="520"/>
-      <c r="E8" s="520"/>
-      <c r="F8" s="122"/>
-      <c r="G8" s="122" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="122">
-        <v>2</v>
-      </c>
-      <c r="I8" s="123">
-        <v>485000</v>
-      </c>
-      <c r="J8" s="123">
-        <f t="shared" ref="J8:J21" si="0">H8*I8</f>
-        <v>970000</v>
-      </c>
-      <c r="K8" s="211">
-        <v>0.5</v>
-      </c>
-      <c r="L8" s="271">
-        <f t="shared" ref="L8:L21" si="1">J8*(1-K8)</f>
-        <v>485000</v>
-      </c>
-      <c r="M8" s="122"/>
-      <c r="N8" s="122"/>
-      <c r="O8" s="122"/>
-      <c r="P8" s="129"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="518">
-        <v>2</v>
-      </c>
-      <c r="B9" s="515">
-        <v>43940</v>
-      </c>
-      <c r="C9" s="118"/>
-      <c r="D9" s="518" t="s">
-        <v>107</v>
-      </c>
-      <c r="E9" s="518" t="s">
-        <v>105</v>
-      </c>
-      <c r="F9" s="118"/>
-      <c r="G9" s="118" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="118">
-        <v>12</v>
-      </c>
-      <c r="I9" s="119">
-        <v>485000</v>
-      </c>
-      <c r="J9" s="119">
-        <f t="shared" si="0"/>
-        <v>5820000</v>
-      </c>
-      <c r="K9" s="210">
-        <v>0.35</v>
-      </c>
-      <c r="L9" s="271">
-        <f t="shared" si="1"/>
-        <v>3783000</v>
-      </c>
-      <c r="M9" s="118"/>
-      <c r="N9" s="118"/>
-      <c r="O9" s="118"/>
-      <c r="P9" s="128"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="519"/>
-      <c r="B10" s="516"/>
-      <c r="C10" s="120"/>
-      <c r="D10" s="519"/>
-      <c r="E10" s="519"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="120">
-        <v>12</v>
-      </c>
-      <c r="I10" s="121">
-        <v>485000</v>
-      </c>
-      <c r="J10" s="121">
-        <f t="shared" si="0"/>
-        <v>5820000</v>
-      </c>
-      <c r="K10" s="210">
-        <v>0.35</v>
-      </c>
-      <c r="L10" s="271">
-        <f t="shared" si="1"/>
-        <v>3783000</v>
-      </c>
-      <c r="M10" s="120"/>
-      <c r="N10" s="120"/>
-      <c r="O10" s="120"/>
-      <c r="P10" s="130"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="519"/>
-      <c r="B11" s="516"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="519"/>
-      <c r="E11" s="519"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="120">
-        <v>38</v>
-      </c>
-      <c r="I11" s="121">
-        <v>550000</v>
-      </c>
-      <c r="J11" s="121">
-        <f t="shared" si="0"/>
-        <v>20900000</v>
-      </c>
-      <c r="K11" s="210">
-        <v>0.35</v>
-      </c>
-      <c r="L11" s="271">
-        <f t="shared" si="1"/>
-        <v>13585000</v>
-      </c>
-      <c r="M11" s="120"/>
-      <c r="N11" s="120"/>
-      <c r="O11" s="120"/>
-      <c r="P11" s="130"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="519"/>
-      <c r="B12" s="516"/>
-      <c r="C12" s="120"/>
-      <c r="D12" s="519"/>
-      <c r="E12" s="519"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="120" t="s">
-        <v>72</v>
-      </c>
-      <c r="H12" s="120">
-        <v>20</v>
-      </c>
-      <c r="I12" s="121">
-        <v>450000</v>
-      </c>
-      <c r="J12" s="121">
-        <f t="shared" si="0"/>
-        <v>9000000</v>
-      </c>
-      <c r="K12" s="210">
-        <v>0.35</v>
-      </c>
-      <c r="L12" s="271">
-        <f t="shared" si="1"/>
-        <v>5850000</v>
-      </c>
-      <c r="M12" s="120"/>
-      <c r="N12" s="120"/>
-      <c r="O12" s="120"/>
-      <c r="P12" s="130"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="519"/>
-      <c r="B13" s="516"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="519"/>
-      <c r="E13" s="519"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="120" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="120">
-        <v>12</v>
-      </c>
-      <c r="I13" s="121">
-        <v>455000</v>
-      </c>
-      <c r="J13" s="121">
-        <f t="shared" si="0"/>
-        <v>5460000</v>
-      </c>
-      <c r="K13" s="210">
-        <v>0.35</v>
-      </c>
-      <c r="L13" s="271">
-        <f t="shared" si="1"/>
-        <v>3549000</v>
-      </c>
-      <c r="M13" s="120"/>
-      <c r="N13" s="120"/>
-      <c r="O13" s="120"/>
-      <c r="P13" s="130"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="520"/>
-      <c r="B14" s="517"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="520"/>
-      <c r="E14" s="520"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="122" t="s">
-        <v>73</v>
-      </c>
-      <c r="H14" s="122">
-        <v>24</v>
-      </c>
-      <c r="I14" s="123">
-        <v>455000</v>
-      </c>
-      <c r="J14" s="123">
-        <f t="shared" si="0"/>
-        <v>10920000</v>
-      </c>
-      <c r="K14" s="210">
-        <v>0.35</v>
-      </c>
-      <c r="L14" s="271">
-        <f t="shared" si="1"/>
-        <v>7098000</v>
-      </c>
-      <c r="M14" s="122"/>
-      <c r="N14" s="122"/>
-      <c r="O14" s="122"/>
-      <c r="P14" s="129"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="518">
-        <v>3</v>
-      </c>
-      <c r="B15" s="515">
-        <v>43940</v>
-      </c>
-      <c r="C15" s="118"/>
-      <c r="D15" s="518" t="s">
-        <v>108</v>
-      </c>
-      <c r="E15" s="518" t="s">
-        <v>109</v>
-      </c>
-      <c r="F15" s="118"/>
-      <c r="G15" s="118" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="118">
-        <v>22</v>
-      </c>
-      <c r="I15" s="119">
-        <v>455000</v>
-      </c>
-      <c r="J15" s="119">
-        <f t="shared" si="0"/>
-        <v>10010000</v>
-      </c>
-      <c r="K15" s="210">
-        <v>0.35</v>
-      </c>
-      <c r="L15" s="271">
-        <f t="shared" si="1"/>
-        <v>6506500</v>
-      </c>
-      <c r="M15" s="118"/>
-      <c r="N15" s="118"/>
-      <c r="O15" s="118"/>
-      <c r="P15" s="128"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="519"/>
-      <c r="B16" s="516"/>
-      <c r="C16" s="120"/>
-      <c r="D16" s="519"/>
-      <c r="E16" s="519"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="120" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" s="120">
-        <v>22</v>
-      </c>
-      <c r="I16" s="121">
-        <v>465000</v>
-      </c>
-      <c r="J16" s="121">
-        <f t="shared" si="0"/>
-        <v>10230000</v>
-      </c>
-      <c r="K16" s="210">
-        <v>0.35</v>
-      </c>
-      <c r="L16" s="271">
-        <f t="shared" si="1"/>
-        <v>6649500</v>
-      </c>
-      <c r="M16" s="120"/>
-      <c r="N16" s="120"/>
-      <c r="O16" s="120"/>
-      <c r="P16" s="130"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="519"/>
-      <c r="B17" s="516"/>
-      <c r="C17" s="120"/>
-      <c r="D17" s="519"/>
-      <c r="E17" s="519"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="120" t="s">
-        <v>42</v>
-      </c>
-      <c r="H17" s="120">
-        <v>8</v>
-      </c>
-      <c r="I17" s="121">
-        <v>475000</v>
-      </c>
-      <c r="J17" s="121">
-        <f t="shared" si="0"/>
-        <v>3800000</v>
-      </c>
-      <c r="K17" s="210">
-        <v>0.35</v>
-      </c>
-      <c r="L17" s="271">
-        <f t="shared" si="1"/>
-        <v>2470000</v>
-      </c>
-      <c r="M17" s="120"/>
-      <c r="N17" s="120"/>
-      <c r="O17" s="120"/>
-      <c r="P17" s="130"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="519"/>
-      <c r="B18" s="516"/>
-      <c r="C18" s="120"/>
-      <c r="D18" s="519"/>
-      <c r="E18" s="519"/>
-      <c r="F18" s="120"/>
-      <c r="G18" s="120" t="s">
-        <v>45</v>
-      </c>
-      <c r="H18" s="120">
-        <v>5</v>
-      </c>
-      <c r="I18" s="121">
-        <v>485000</v>
-      </c>
-      <c r="J18" s="121">
-        <f t="shared" si="0"/>
-        <v>2425000</v>
-      </c>
-      <c r="K18" s="210">
-        <v>0.35</v>
-      </c>
-      <c r="L18" s="271">
-        <f t="shared" si="1"/>
-        <v>1576250</v>
-      </c>
-      <c r="M18" s="120"/>
-      <c r="N18" s="120"/>
-      <c r="O18" s="120"/>
-      <c r="P18" s="130"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="519"/>
-      <c r="B19" s="516"/>
-      <c r="C19" s="120"/>
-      <c r="D19" s="519"/>
-      <c r="E19" s="519"/>
-      <c r="F19" s="120"/>
-      <c r="G19" s="120" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="120">
-        <v>11</v>
-      </c>
-      <c r="I19" s="121">
-        <v>550000</v>
-      </c>
-      <c r="J19" s="121">
-        <f t="shared" si="0"/>
-        <v>6050000</v>
-      </c>
-      <c r="K19" s="210">
-        <v>0.35</v>
-      </c>
-      <c r="L19" s="271">
-        <f t="shared" si="1"/>
-        <v>3932500</v>
-      </c>
-      <c r="M19" s="120"/>
-      <c r="N19" s="120"/>
-      <c r="O19" s="120"/>
-      <c r="P19" s="130"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="520"/>
-      <c r="B20" s="517"/>
-      <c r="C20" s="122"/>
-      <c r="D20" s="520"/>
-      <c r="E20" s="520"/>
-      <c r="F20" s="122"/>
-      <c r="G20" s="122" t="s">
-        <v>73</v>
-      </c>
-      <c r="H20" s="122">
-        <v>12</v>
-      </c>
-      <c r="I20" s="123">
-        <v>455000</v>
-      </c>
-      <c r="J20" s="123">
-        <f t="shared" si="0"/>
-        <v>5460000</v>
-      </c>
-      <c r="K20" s="210">
-        <v>0.35</v>
-      </c>
-      <c r="L20" s="271">
-        <f t="shared" si="1"/>
-        <v>3549000</v>
-      </c>
-      <c r="M20" s="122"/>
-      <c r="N20" s="122"/>
-      <c r="O20" s="122"/>
-      <c r="P20" s="129"/>
-    </row>
-    <row r="21" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="124">
-        <v>4</v>
-      </c>
-      <c r="B21" s="131">
-        <v>43948</v>
-      </c>
-      <c r="C21" s="118"/>
-      <c r="D21" s="127" t="s">
-        <v>180</v>
-      </c>
-      <c r="E21" s="118" t="s">
-        <v>181</v>
-      </c>
-      <c r="F21" s="118"/>
-      <c r="G21" s="118" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" s="124">
-        <v>1</v>
-      </c>
-      <c r="I21" s="125">
-        <v>455000</v>
-      </c>
-      <c r="J21" s="119">
-        <f t="shared" si="0"/>
-        <v>455000</v>
-      </c>
-      <c r="K21" s="210">
-        <v>0</v>
-      </c>
-      <c r="L21" s="271">
-        <f t="shared" si="1"/>
-        <v>455000</v>
-      </c>
-      <c r="M21" s="118"/>
-      <c r="N21" s="118"/>
-      <c r="O21" s="118"/>
-      <c r="P21" s="118"/>
-    </row>
-    <row r="22" spans="1:16" s="278" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="514" t="s">
-        <v>88</v>
-      </c>
-      <c r="B22" s="514"/>
-      <c r="C22" s="514"/>
-      <c r="D22" s="514"/>
-      <c r="E22" s="514"/>
-      <c r="F22" s="514"/>
-      <c r="G22" s="274"/>
-      <c r="H22" s="274">
-        <f>SUM(H7:H21)</f>
-        <v>213</v>
-      </c>
-      <c r="I22" s="275">
-        <f>SUM(I7:I21)</f>
-        <v>7160000</v>
-      </c>
-      <c r="J22" s="275">
-        <f>SUM(J7:J21)</f>
-        <v>102780000</v>
-      </c>
-      <c r="K22" s="276"/>
-      <c r="L22" s="277">
-        <f>SUM(L7:L21)</f>
-        <v>66001750</v>
-      </c>
-      <c r="M22" s="274"/>
-      <c r="N22" s="274"/>
-      <c r="O22" s="274"/>
-      <c r="P22" s="274"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H23" s="126"/>
-      <c r="I23" s="126"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H24" s="126"/>
-      <c r="I24" s="126"/>
-    </row>
-    <row r="25" spans="1:16" s="93" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="95"/>
-      <c r="E25" s="152" t="s">
-        <v>229</v>
-      </c>
-      <c r="F25" s="95"/>
-      <c r="G25" s="95"/>
-      <c r="H25" s="95"/>
-      <c r="I25" s="95"/>
-      <c r="L25" s="152" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" s="93" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="5"/>
-      <c r="E26" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="L26" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H27" s="126"/>
-      <c r="I27" s="126"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H28" s="126"/>
-      <c r="I28" s="126"/>
-    </row>
-    <row r="29" spans="1:16" s="216" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="152"/>
-      <c r="E29" s="152"/>
-      <c r="F29" s="221"/>
-      <c r="G29" s="221"/>
-      <c r="L29" s="282" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H30" s="126"/>
-      <c r="I30" s="126"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H31" s="126"/>
-      <c r="I31" s="126"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H32" s="126"/>
-      <c r="I32" s="126"/>
-    </row>
-  </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="D9:D14"/>
-    <mergeCell ref="E9:E14"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="D15:D20"/>
-    <mergeCell ref="E15:E20"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -12988,13 +12961,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="492" t="s">
+      <c r="A1" s="518" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="492"/>
-      <c r="C1" s="492"/>
-      <c r="D1" s="492"/>
-      <c r="E1" s="492"/>
+      <c r="B1" s="518"/>
+      <c r="C1" s="518"/>
+      <c r="D1" s="518"/>
+      <c r="E1" s="518"/>
       <c r="F1" s="43"/>
       <c r="G1" s="43"/>
       <c r="H1" s="43"/>
@@ -13022,16 +12995,16 @@
       <c r="I3" s="94"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="474" t="s">
-        <v>225</v>
-      </c>
-      <c r="B4" s="474"/>
-      <c r="C4" s="474"/>
-      <c r="D4" s="474"/>
-      <c r="E4" s="474"/>
-      <c r="F4" s="474"/>
-      <c r="G4" s="474"/>
-      <c r="H4" s="474"/>
+      <c r="A4" s="500" t="s">
+        <v>222</v>
+      </c>
+      <c r="B4" s="500"/>
+      <c r="C4" s="500"/>
+      <c r="D4" s="500"/>
+      <c r="E4" s="500"/>
+      <c r="F4" s="500"/>
+      <c r="G4" s="500"/>
+      <c r="H4" s="500"/>
       <c r="I4" s="46"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -13046,29 +13019,29 @@
       <c r="I5" s="46"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="475" t="s">
-        <v>169</v>
-      </c>
-      <c r="B6" s="476" t="s">
+      <c r="A6" s="501" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" s="502" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="477" t="s">
+      <c r="C6" s="503" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="477"/>
-      <c r="E6" s="477"/>
-      <c r="F6" s="477"/>
-      <c r="G6" s="478"/>
-      <c r="H6" s="475" t="s">
+      <c r="D6" s="503"/>
+      <c r="E6" s="503"/>
+      <c r="F6" s="503"/>
+      <c r="G6" s="504"/>
+      <c r="H6" s="501" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="472" t="s">
+      <c r="I6" s="498" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="475"/>
-      <c r="B7" s="476"/>
+      <c r="A7" s="501"/>
+      <c r="B7" s="502"/>
       <c r="C7" s="297" t="s">
         <v>33</v>
       </c>
@@ -13084,8 +13057,8 @@
       <c r="G7" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="475"/>
-      <c r="I7" s="473"/>
+      <c r="H7" s="501"/>
+      <c r="I7" s="499"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="315">
@@ -13118,10 +13091,10 @@
       <c r="J8" s="59"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="539">
+      <c r="A9" s="543">
         <v>452</v>
       </c>
-      <c r="B9" s="542">
+      <c r="B9" s="546">
         <v>43942</v>
       </c>
       <c r="C9" s="99" t="s">
@@ -13147,8 +13120,8 @@
       <c r="I9" s="311"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="540"/>
-      <c r="B10" s="543"/>
+      <c r="A10" s="544"/>
+      <c r="B10" s="547"/>
       <c r="C10" s="102" t="s">
         <v>41</v>
       </c>
@@ -13172,8 +13145,8 @@
       <c r="I10" s="312"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="541"/>
-      <c r="B11" s="544"/>
+      <c r="A11" s="545"/>
+      <c r="B11" s="548"/>
       <c r="C11" s="305" t="s">
         <v>73</v>
       </c>
@@ -13220,78 +13193,78 @@
       <c r="I12" s="314"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="548" t="s">
-        <v>222</v>
-      </c>
-      <c r="B13" s="548"/>
-      <c r="C13" s="548"/>
-      <c r="D13" s="548"/>
-      <c r="E13" s="548"/>
-      <c r="F13" s="548"/>
-      <c r="G13" s="548"/>
-      <c r="H13" s="548"/>
+      <c r="A13" s="552" t="s">
+        <v>219</v>
+      </c>
+      <c r="B13" s="552"/>
+      <c r="C13" s="552"/>
+      <c r="D13" s="552"/>
+      <c r="E13" s="552"/>
+      <c r="F13" s="552"/>
+      <c r="G13" s="552"/>
+      <c r="H13" s="552"/>
       <c r="I13" s="195">
         <f>H12</f>
         <v>19328400.000000004</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="548" t="s">
-        <v>220</v>
-      </c>
-      <c r="B14" s="548"/>
-      <c r="C14" s="548"/>
-      <c r="D14" s="548"/>
-      <c r="E14" s="548"/>
-      <c r="F14" s="548"/>
-      <c r="G14" s="548"/>
-      <c r="H14" s="548"/>
+      <c r="A14" s="552" t="s">
+        <v>217</v>
+      </c>
+      <c r="B14" s="552"/>
+      <c r="C14" s="552"/>
+      <c r="D14" s="552"/>
+      <c r="E14" s="552"/>
+      <c r="F14" s="552"/>
+      <c r="G14" s="552"/>
+      <c r="H14" s="552"/>
       <c r="I14" s="195">
         <v>23794300</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="545" t="s">
-        <v>219</v>
-      </c>
-      <c r="B15" s="546"/>
-      <c r="C15" s="546"/>
-      <c r="D15" s="546"/>
-      <c r="E15" s="546"/>
-      <c r="F15" s="546"/>
-      <c r="G15" s="546"/>
-      <c r="H15" s="547"/>
+      <c r="A15" s="549" t="s">
+        <v>216</v>
+      </c>
+      <c r="B15" s="550"/>
+      <c r="C15" s="550"/>
+      <c r="D15" s="550"/>
+      <c r="E15" s="550"/>
+      <c r="F15" s="550"/>
+      <c r="G15" s="550"/>
+      <c r="H15" s="551"/>
       <c r="I15" s="195">
         <v>10000000</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="545" t="s">
-        <v>221</v>
-      </c>
-      <c r="B16" s="546"/>
-      <c r="C16" s="546"/>
-      <c r="D16" s="546"/>
-      <c r="E16" s="546"/>
-      <c r="F16" s="546"/>
-      <c r="G16" s="546"/>
-      <c r="H16" s="547"/>
+      <c r="A16" s="549" t="s">
+        <v>218</v>
+      </c>
+      <c r="B16" s="550"/>
+      <c r="C16" s="550"/>
+      <c r="D16" s="550"/>
+      <c r="E16" s="550"/>
+      <c r="F16" s="550"/>
+      <c r="G16" s="550"/>
+      <c r="H16" s="551"/>
       <c r="I16" s="195">
         <f>'Bảng lương'!J16</f>
         <v>7538461.538461539</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="536" t="s">
-        <v>217</v>
-      </c>
-      <c r="B17" s="537"/>
-      <c r="C17" s="537"/>
-      <c r="D17" s="537"/>
-      <c r="E17" s="537"/>
-      <c r="F17" s="537"/>
-      <c r="G17" s="537"/>
-      <c r="H17" s="538"/>
+      <c r="A17" s="540" t="s">
+        <v>214</v>
+      </c>
+      <c r="B17" s="541"/>
+      <c r="C17" s="541"/>
+      <c r="D17" s="541"/>
+      <c r="E17" s="541"/>
+      <c r="F17" s="541"/>
+      <c r="G17" s="541"/>
+      <c r="H17" s="542"/>
       <c r="I17" s="58">
         <f>I13+I14-I15-I16</f>
         <v>25584238.46153846</v>
@@ -13309,10 +13282,10 @@
       <c r="I18" s="197"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="470"/>
-      <c r="B19" s="470"/>
+      <c r="A19" s="496"/>
+      <c r="B19" s="496"/>
       <c r="F19" s="9" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G19" s="9"/>
       <c r="I19" s="9" t="s">
@@ -13323,25 +13296,25 @@
       <c r="H21" s="59"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="470"/>
-      <c r="B23" s="470"/>
+      <c r="A23" s="496"/>
+      <c r="B23" s="496"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
     </row>
     <row r="26" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="535" t="s">
-        <v>223</v>
-      </c>
-      <c r="B26" s="535"/>
-      <c r="C26" s="535"/>
-      <c r="D26" s="535"/>
-      <c r="E26" s="535"/>
-      <c r="F26" s="535"/>
-      <c r="G26" s="535"/>
-      <c r="H26" s="535"/>
-      <c r="I26" s="535"/>
+      <c r="A26" s="539" t="s">
+        <v>220</v>
+      </c>
+      <c r="B26" s="539"/>
+      <c r="C26" s="539"/>
+      <c r="D26" s="539"/>
+      <c r="E26" s="539"/>
+      <c r="F26" s="539"/>
+      <c r="G26" s="539"/>
+      <c r="H26" s="539"/>
+      <c r="I26" s="539"/>
     </row>
   </sheetData>
   <mergeCells count="17">

--- a/KẾ TOÁN - THÁI HẰNG/Báo cáo/EXCEL/NANOMILK 4_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/Báo cáo/EXCEL/NANOMILK 4_2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9930" yWindow="375" windowWidth="9345" windowHeight="8010" tabRatio="815"/>
+    <workbookView xWindow="9930" yWindow="375" windowWidth="9345" windowHeight="8010" tabRatio="815" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="THU CHI" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="296">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -995,6 +995,9 @@
   </si>
   <si>
     <t>PT00059</t>
+  </si>
+  <si>
+    <t>Đã thanh toán hay chưa</t>
   </si>
 </sst>
 </file>
@@ -1878,7 +1881,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="550">
+  <cellXfs count="547">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2774,15 +2777,6 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2818,53 +2812,179 @@
     <xf numFmtId="0" fontId="34" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="23" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="23" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="23" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="34" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="34" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="34" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="33" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="33" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="33" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="33" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="33" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="33" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="34" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="34" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="34" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2887,192 +3007,66 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="34" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="34" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="34" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="34" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="34" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="34" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="33" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="27" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="33" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="27" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="33" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="33" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="33" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="19" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="33" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="19" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="25" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="27" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="27" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="19" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="19" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3091,6 +3085,30 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3103,45 +3121,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3187,6 +3166,48 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="31" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="31" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3202,32 +3223,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3266,9 +3263,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3306,8 +3300,8 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>216364</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>126067</xdr:rowOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3627,9 +3621,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Q196"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A157" sqref="A157:XFD157"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F194" sqref="F194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3710,16 +3704,16 @@
       <c r="Q3" s="226"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="414" t="s">
+      <c r="A4" s="399" t="s">
         <v>260</v>
       </c>
-      <c r="B4" s="414"/>
-      <c r="C4" s="414"/>
-      <c r="D4" s="414"/>
-      <c r="E4" s="414"/>
-      <c r="F4" s="414"/>
-      <c r="G4" s="414"/>
-      <c r="H4" s="414"/>
+      <c r="B4" s="399"/>
+      <c r="C4" s="399"/>
+      <c r="D4" s="399"/>
+      <c r="E4" s="399"/>
+      <c r="F4" s="399"/>
+      <c r="G4" s="399"/>
+      <c r="H4" s="399"/>
       <c r="I4" s="226"/>
       <c r="J4" s="226"/>
       <c r="K4" s="226"/>
@@ -3743,7 +3737,7 @@
       <c r="A6" s="400" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="408" t="s">
+      <c r="B6" s="405" t="s">
         <v>229</v>
       </c>
       <c r="C6" s="400" t="s">
@@ -3763,7 +3757,7 @@
     </row>
     <row r="7" spans="1:17" s="224" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="401"/>
-      <c r="B7" s="405"/>
+      <c r="B7" s="406"/>
       <c r="C7" s="401"/>
       <c r="D7" s="403"/>
       <c r="E7" s="228" t="s">
@@ -4099,7 +4093,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="209">
         <v>43920</v>
       </c>
@@ -4119,7 +4113,7 @@
       <c r="G24" s="212"/>
       <c r="H24" s="231"/>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="209">
         <v>43921</v>
       </c>
@@ -4139,7 +4133,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="209">
         <v>43921</v>
       </c>
@@ -4159,7 +4153,7 @@
       <c r="G26" s="212"/>
       <c r="H26" s="231"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="209">
         <v>43921</v>
       </c>
@@ -4179,7 +4173,7 @@
       <c r="G27" s="212"/>
       <c r="H27" s="231"/>
     </row>
-    <row r="28" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="209">
         <v>43922</v>
       </c>
@@ -4199,7 +4193,7 @@
       <c r="G28" s="212"/>
       <c r="H28" s="231"/>
     </row>
-    <row r="29" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="209">
         <v>43925</v>
       </c>
@@ -4219,7 +4213,7 @@
       <c r="G29" s="212"/>
       <c r="H29" s="231"/>
     </row>
-    <row r="30" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="209">
         <v>43929</v>
       </c>
@@ -4259,7 +4253,7 @@
       </c>
       <c r="H31" s="231"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="209">
         <v>43931</v>
       </c>
@@ -4279,7 +4273,7 @@
       <c r="G32" s="212"/>
       <c r="H32" s="231"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="209">
         <v>43932</v>
       </c>
@@ -4299,7 +4293,7 @@
       <c r="G33" s="212"/>
       <c r="H33" s="231"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="209">
         <v>43933</v>
       </c>
@@ -4339,7 +4333,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="209">
         <v>43935</v>
       </c>
@@ -4359,7 +4353,7 @@
       <c r="G36" s="212"/>
       <c r="H36" s="231"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="209">
         <v>43936</v>
       </c>
@@ -4399,7 +4393,7 @@
       </c>
       <c r="H38" s="231"/>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="209">
         <v>43941</v>
       </c>
@@ -4419,7 +4413,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="209">
         <v>43941</v>
       </c>
@@ -4459,7 +4453,7 @@
         <v>19043</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="209">
         <v>43941</v>
       </c>
@@ -4519,7 +4513,7 @@
         <v>1469000</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="209">
         <v>43942</v>
       </c>
@@ -4539,7 +4533,7 @@
       <c r="G45" s="212"/>
       <c r="H45" s="231"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="209">
         <v>43942</v>
       </c>
@@ -4559,7 +4553,7 @@
       <c r="G46" s="212"/>
       <c r="H46" s="231"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="209">
         <v>43942</v>
       </c>
@@ -4579,7 +4573,7 @@
       <c r="G47" s="212"/>
       <c r="H47" s="231"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="209">
         <v>43942</v>
       </c>
@@ -4599,7 +4593,7 @@
       <c r="G48" s="212"/>
       <c r="H48" s="231"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="209">
         <v>43943</v>
       </c>
@@ -4639,7 +4633,7 @@
         <v>4050000</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="209">
         <v>43944</v>
       </c>
@@ -4659,7 +4653,7 @@
       <c r="G51" s="212"/>
       <c r="H51" s="231"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="209">
         <v>43944</v>
       </c>
@@ -4679,7 +4673,7 @@
       <c r="G52" s="212"/>
       <c r="H52" s="231"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="209">
         <v>43944</v>
       </c>
@@ -4699,7 +4693,7 @@
       <c r="G53" s="212"/>
       <c r="H53" s="231"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="209">
         <v>43944</v>
       </c>
@@ -4779,7 +4773,7 @@
         <v>270000</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="209">
         <v>43946</v>
       </c>
@@ -4839,7 +4833,7 @@
       </c>
       <c r="H60" s="231"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="209">
         <v>43946</v>
       </c>
@@ -4859,7 +4853,7 @@
       <c r="G61" s="212"/>
       <c r="H61" s="231"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="209">
         <v>43947</v>
       </c>
@@ -4899,7 +4893,7 @@
       </c>
       <c r="H63" s="231"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="209">
         <v>43947</v>
       </c>
@@ -4939,7 +4933,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="209">
         <v>43949</v>
       </c>
@@ -4959,7 +4953,7 @@
       <c r="G66" s="212"/>
       <c r="H66" s="231"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="209">
         <v>43949</v>
       </c>
@@ -5062,7 +5056,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="209">
         <v>43951</v>
       </c>
@@ -5123,12 +5117,12 @@
       </c>
     </row>
     <row r="75" spans="1:10" s="234" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="411" t="s">
+      <c r="A75" s="396" t="s">
         <v>10</v>
       </c>
-      <c r="B75" s="412"/>
-      <c r="C75" s="412"/>
-      <c r="D75" s="413"/>
+      <c r="B75" s="397"/>
+      <c r="C75" s="397"/>
+      <c r="D75" s="398"/>
       <c r="E75" s="233">
         <f>SUM(E8:E74)</f>
         <v>55887450</v>
@@ -5159,11 +5153,11 @@
       <c r="J76" s="235"/>
     </row>
     <row r="77" spans="1:10" s="234" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A77" s="410" t="s">
+      <c r="A77" s="407" t="s">
         <v>201</v>
       </c>
-      <c r="B77" s="410"/>
-      <c r="C77" s="410"/>
+      <c r="B77" s="407"/>
+      <c r="C77" s="407"/>
       <c r="D77" s="236"/>
       <c r="E77" s="237"/>
       <c r="F77" s="237"/>
@@ -5185,10 +5179,10 @@
     <row r="79" spans="1:10" s="234" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A79" s="236"/>
       <c r="B79" s="236"/>
-      <c r="C79" s="409" t="s">
+      <c r="C79" s="408" t="s">
         <v>286</v>
       </c>
-      <c r="D79" s="409"/>
+      <c r="D79" s="408"/>
       <c r="E79" s="237"/>
       <c r="F79" s="237"/>
       <c r="G79" s="237"/>
@@ -5199,7 +5193,7 @@
       <c r="A80" s="400" t="s">
         <v>4</v>
       </c>
-      <c r="B80" s="408" t="s">
+      <c r="B80" s="405" t="s">
         <v>229</v>
       </c>
       <c r="C80" s="400" t="s">
@@ -5219,7 +5213,7 @@
     </row>
     <row r="81" spans="1:10" s="224" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="401"/>
-      <c r="B81" s="405"/>
+      <c r="B81" s="406"/>
       <c r="C81" s="401"/>
       <c r="D81" s="403"/>
       <c r="E81" s="228" t="s">
@@ -5303,10 +5297,10 @@
     <row r="86" spans="1:10" s="234" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A86" s="236"/>
       <c r="B86" s="236"/>
-      <c r="C86" s="409" t="s">
+      <c r="C86" s="408" t="s">
         <v>287</v>
       </c>
-      <c r="D86" s="409"/>
+      <c r="D86" s="408"/>
       <c r="E86" s="237"/>
       <c r="F86" s="237"/>
       <c r="G86" s="237"/>
@@ -5317,7 +5311,7 @@
       <c r="A87" s="400" t="s">
         <v>4</v>
       </c>
-      <c r="B87" s="408" t="s">
+      <c r="B87" s="405" t="s">
         <v>229</v>
       </c>
       <c r="C87" s="400" t="s">
@@ -5337,7 +5331,7 @@
     </row>
     <row r="88" spans="1:10" s="224" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="401"/>
-      <c r="B88" s="405"/>
+      <c r="B88" s="406"/>
       <c r="C88" s="401"/>
       <c r="D88" s="403"/>
       <c r="E88" s="228" t="s">
@@ -5402,10 +5396,10 @@
     <row r="92" spans="1:10" s="234" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A92" s="236"/>
       <c r="B92" s="236"/>
-      <c r="C92" s="399" t="s">
+      <c r="C92" s="409" t="s">
         <v>25</v>
       </c>
-      <c r="D92" s="399"/>
+      <c r="D92" s="409"/>
       <c r="E92" s="237"/>
       <c r="F92" s="237"/>
       <c r="G92" s="237"/>
@@ -5416,7 +5410,9 @@
       <c r="A93" s="400" t="s">
         <v>4</v>
       </c>
-      <c r="B93" s="383"/>
+      <c r="B93" s="405" t="s">
+        <v>229</v>
+      </c>
       <c r="C93" s="400" t="s">
         <v>5</v>
       </c>
@@ -5434,7 +5430,7 @@
     </row>
     <row r="94" spans="1:10" s="224" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="401"/>
-      <c r="B94" s="384"/>
+      <c r="B94" s="406"/>
       <c r="C94" s="401"/>
       <c r="D94" s="403"/>
       <c r="E94" s="228" t="s">
@@ -5559,10 +5555,10 @@
     <row r="101" spans="1:10" s="234" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A101" s="236"/>
       <c r="B101" s="236"/>
-      <c r="C101" s="399" t="s">
+      <c r="C101" s="409" t="s">
         <v>69</v>
       </c>
-      <c r="D101" s="399"/>
+      <c r="D101" s="409"/>
       <c r="E101" s="237"/>
       <c r="F101" s="237"/>
       <c r="G101" s="237"/>
@@ -5573,7 +5569,7 @@
       <c r="A102" s="400" t="s">
         <v>4</v>
       </c>
-      <c r="B102" s="408" t="s">
+      <c r="B102" s="405" t="s">
         <v>288</v>
       </c>
       <c r="C102" s="400" t="s">
@@ -5593,7 +5589,7 @@
     </row>
     <row r="103" spans="1:10" s="224" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="401"/>
-      <c r="B103" s="405"/>
+      <c r="B103" s="406"/>
       <c r="C103" s="401"/>
       <c r="D103" s="403"/>
       <c r="E103" s="228" t="s">
@@ -5775,10 +5771,10 @@
     <row r="113" spans="1:10" s="234" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A113" s="236"/>
       <c r="B113" s="236"/>
-      <c r="C113" s="399" t="s">
+      <c r="C113" s="409" t="s">
         <v>9</v>
       </c>
-      <c r="D113" s="399"/>
+      <c r="D113" s="409"/>
       <c r="E113" s="237"/>
       <c r="F113" s="237"/>
       <c r="G113" s="237"/>
@@ -5789,7 +5785,9 @@
       <c r="A114" s="400" t="s">
         <v>4</v>
       </c>
-      <c r="B114" s="383"/>
+      <c r="B114" s="405" t="s">
+        <v>229</v>
+      </c>
       <c r="C114" s="400" t="s">
         <v>5</v>
       </c>
@@ -5807,7 +5805,7 @@
     </row>
     <row r="115" spans="1:10" s="224" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="401"/>
-      <c r="B115" s="384"/>
+      <c r="B115" s="406"/>
       <c r="C115" s="401"/>
       <c r="D115" s="403"/>
       <c r="E115" s="228" t="s">
@@ -6129,38 +6127,40 @@
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="261"/>
       <c r="B132" s="261"/>
-      <c r="C132" s="399" t="s">
+      <c r="C132" s="409" t="s">
         <v>129</v>
       </c>
-      <c r="D132" s="399"/>
+      <c r="D132" s="409"/>
       <c r="E132" s="262"/>
       <c r="F132" s="263"/>
       <c r="G132" s="262"/>
       <c r="H132" s="264"/>
     </row>
     <row r="133" spans="1:8" s="224" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="405" t="s">
+      <c r="A133" s="406" t="s">
         <v>4</v>
       </c>
-      <c r="B133" s="385"/>
-      <c r="C133" s="405" t="s">
+      <c r="B133" s="405" t="s">
+        <v>229</v>
+      </c>
+      <c r="C133" s="406" t="s">
         <v>5</v>
       </c>
-      <c r="D133" s="406" t="s">
+      <c r="D133" s="410" t="s">
         <v>6</v>
       </c>
-      <c r="E133" s="407" t="s">
+      <c r="E133" s="411" t="s">
         <v>7</v>
       </c>
-      <c r="F133" s="407"/>
-      <c r="G133" s="407" t="s">
+      <c r="F133" s="411"/>
+      <c r="G133" s="411" t="s">
         <v>8</v>
       </c>
-      <c r="H133" s="407"/>
+      <c r="H133" s="411"/>
     </row>
     <row r="134" spans="1:8" s="224" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="401"/>
-      <c r="B134" s="384"/>
+      <c r="B134" s="406"/>
       <c r="C134" s="401"/>
       <c r="D134" s="403"/>
       <c r="E134" s="228" t="s">
@@ -6783,16 +6783,18 @@
       <c r="H165" s="243"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C166" s="399" t="s">
+      <c r="C166" s="409" t="s">
         <v>189</v>
       </c>
-      <c r="D166" s="399"/>
+      <c r="D166" s="409"/>
     </row>
     <row r="167" spans="1:8" s="224" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="400" t="s">
         <v>4</v>
       </c>
-      <c r="B167" s="383"/>
+      <c r="B167" s="405" t="s">
+        <v>229</v>
+      </c>
       <c r="C167" s="400" t="s">
         <v>5</v>
       </c>
@@ -6810,7 +6812,7 @@
     </row>
     <row r="168" spans="1:8" s="224" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="401"/>
-      <c r="B168" s="384"/>
+      <c r="B168" s="406"/>
       <c r="C168" s="401"/>
       <c r="D168" s="403"/>
       <c r="E168" s="228" t="s">
@@ -6893,16 +6895,18 @@
       <c r="H172" s="241"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C173" s="399" t="s">
+      <c r="C173" s="409" t="s">
         <v>12</v>
       </c>
-      <c r="D173" s="399"/>
+      <c r="D173" s="409"/>
     </row>
     <row r="174" spans="1:8" s="224" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="400" t="s">
         <v>4</v>
       </c>
-      <c r="B174" s="383"/>
+      <c r="B174" s="405" t="s">
+        <v>229</v>
+      </c>
       <c r="C174" s="400" t="s">
         <v>5</v>
       </c>
@@ -6920,7 +6924,7 @@
     </row>
     <row r="175" spans="1:8" s="224" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="401"/>
-      <c r="B175" s="384"/>
+      <c r="B175" s="406"/>
       <c r="C175" s="401"/>
       <c r="D175" s="403"/>
       <c r="E175" s="228" t="s">
@@ -7083,16 +7087,18 @@
       <c r="H183" s="243"/>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C184" s="399" t="s">
+      <c r="C184" s="409" t="s">
         <v>13</v>
       </c>
-      <c r="D184" s="399"/>
+      <c r="D184" s="409"/>
     </row>
     <row r="185" spans="1:10" s="224" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="400" t="s">
         <v>4</v>
       </c>
-      <c r="B185" s="383"/>
+      <c r="B185" s="405" t="s">
+        <v>229</v>
+      </c>
       <c r="C185" s="400" t="s">
         <v>5</v>
       </c>
@@ -7110,7 +7116,7 @@
     </row>
     <row r="186" spans="1:10" s="224" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="401"/>
-      <c r="B186" s="384"/>
+      <c r="B186" s="406"/>
       <c r="C186" s="401"/>
       <c r="D186" s="403"/>
       <c r="E186" s="228" t="s">
@@ -7130,7 +7136,9 @@
       <c r="A187" s="209">
         <v>43921</v>
       </c>
-      <c r="B187" s="209"/>
+      <c r="B187" s="209" t="s">
+        <v>270</v>
+      </c>
       <c r="C187" s="210" t="s">
         <v>127</v>
       </c>
@@ -7148,7 +7156,9 @@
       <c r="A188" s="244">
         <v>43941</v>
       </c>
-      <c r="B188" s="244"/>
+      <c r="B188" s="209" t="s">
+        <v>273</v>
+      </c>
       <c r="C188" s="245" t="s">
         <v>127</v>
       </c>
@@ -7216,26 +7226,56 @@
   <autoFilter ref="A6:H75">
     <filterColumn colId="2">
       <filters>
-        <filter val="Hàng hóa"/>
+        <filter val="Vận chuyển"/>
       </filters>
     </filterColumn>
     <filterColumn colId="4" hiddenButton="1" showButton="0"/>
     <filterColumn colId="6" hiddenButton="1" showButton="0"/>
   </autoFilter>
-  <mergeCells count="66">
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="D80:D81"/>
+  <mergeCells count="72">
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="B167:B168"/>
+    <mergeCell ref="B174:B175"/>
+    <mergeCell ref="C184:D184"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C166:D166"/>
+    <mergeCell ref="C173:D173"/>
+    <mergeCell ref="A185:A186"/>
+    <mergeCell ref="C185:C186"/>
+    <mergeCell ref="D185:D186"/>
+    <mergeCell ref="E185:F185"/>
+    <mergeCell ref="G185:H185"/>
+    <mergeCell ref="B185:B186"/>
+    <mergeCell ref="A174:A175"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="D174:D175"/>
+    <mergeCell ref="E174:F174"/>
+    <mergeCell ref="G174:H174"/>
+    <mergeCell ref="A167:A168"/>
+    <mergeCell ref="C167:C168"/>
+    <mergeCell ref="D167:D168"/>
+    <mergeCell ref="E167:F167"/>
+    <mergeCell ref="G167:H167"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="E133:F133"/>
+    <mergeCell ref="G133:H133"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="B102:B103"/>
     <mergeCell ref="E80:F80"/>
     <mergeCell ref="G80:H80"/>
     <mergeCell ref="A93:A94"/>
@@ -7252,43 +7292,19 @@
     <mergeCell ref="D87:D88"/>
     <mergeCell ref="E87:F87"/>
     <mergeCell ref="G87:H87"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="G114:H114"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="E133:F133"/>
-    <mergeCell ref="G133:H133"/>
-    <mergeCell ref="A167:A168"/>
-    <mergeCell ref="C167:C168"/>
-    <mergeCell ref="D167:D168"/>
-    <mergeCell ref="E167:F167"/>
-    <mergeCell ref="G167:H167"/>
-    <mergeCell ref="A174:A175"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="D174:D175"/>
-    <mergeCell ref="E174:F174"/>
-    <mergeCell ref="G174:H174"/>
-    <mergeCell ref="A185:A186"/>
-    <mergeCell ref="C185:C186"/>
-    <mergeCell ref="D185:D186"/>
-    <mergeCell ref="E185:F185"/>
-    <mergeCell ref="G185:H185"/>
-    <mergeCell ref="C184:D184"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C166:D166"/>
-    <mergeCell ref="C173:D173"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B6:B7"/>
   </mergeCells>
   <pageMargins left="0.37" right="0.21" top="0.46" bottom="0.45" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -7301,8 +7317,8 @@
   <dimension ref="A1:Q90"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <pane ySplit="7" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N54" sqref="N54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -7326,13 +7342,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="312" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="433" t="s">
+      <c r="A1" s="448" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="433"/>
-      <c r="C1" s="433"/>
-      <c r="D1" s="433"/>
-      <c r="E1" s="433"/>
+      <c r="B1" s="448"/>
+      <c r="C1" s="448"/>
+      <c r="D1" s="448"/>
+      <c r="E1" s="448"/>
       <c r="H1" s="313"/>
       <c r="I1" s="313"/>
       <c r="J1" s="313"/>
@@ -7362,53 +7378,53 @@
       <c r="P2" s="317"/>
     </row>
     <row r="3" spans="1:16" s="312" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="441" t="s">
+      <c r="A3" s="452" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="441"/>
-      <c r="C3" s="441"/>
-      <c r="D3" s="441"/>
-      <c r="E3" s="441"/>
-      <c r="F3" s="441"/>
-      <c r="G3" s="441"/>
-      <c r="H3" s="441"/>
-      <c r="I3" s="441"/>
-      <c r="J3" s="441"/>
-      <c r="K3" s="441"/>
-      <c r="L3" s="441"/>
-      <c r="M3" s="441"/>
-      <c r="N3" s="441"/>
-      <c r="O3" s="441"/>
-      <c r="P3" s="441"/>
+      <c r="B3" s="452"/>
+      <c r="C3" s="452"/>
+      <c r="D3" s="452"/>
+      <c r="E3" s="452"/>
+      <c r="F3" s="452"/>
+      <c r="G3" s="452"/>
+      <c r="H3" s="452"/>
+      <c r="I3" s="452"/>
+      <c r="J3" s="452"/>
+      <c r="K3" s="452"/>
+      <c r="L3" s="452"/>
+      <c r="M3" s="452"/>
+      <c r="N3" s="452"/>
+      <c r="O3" s="452"/>
+      <c r="P3" s="452"/>
     </row>
     <row r="4" spans="1:16" s="312" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="441" t="s">
+      <c r="A4" s="452" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="441"/>
-      <c r="C4" s="441"/>
-      <c r="D4" s="441"/>
-      <c r="E4" s="441"/>
-      <c r="F4" s="441"/>
-      <c r="G4" s="441"/>
-      <c r="H4" s="441"/>
-      <c r="I4" s="441"/>
-      <c r="J4" s="441"/>
-      <c r="K4" s="441"/>
-      <c r="L4" s="441"/>
-      <c r="M4" s="441"/>
-      <c r="N4" s="441"/>
-      <c r="O4" s="441"/>
-      <c r="P4" s="441"/>
+      <c r="B4" s="452"/>
+      <c r="C4" s="452"/>
+      <c r="D4" s="452"/>
+      <c r="E4" s="452"/>
+      <c r="F4" s="452"/>
+      <c r="G4" s="452"/>
+      <c r="H4" s="452"/>
+      <c r="I4" s="452"/>
+      <c r="J4" s="452"/>
+      <c r="K4" s="452"/>
+      <c r="L4" s="452"/>
+      <c r="M4" s="452"/>
+      <c r="N4" s="452"/>
+      <c r="O4" s="452"/>
+      <c r="P4" s="452"/>
     </row>
     <row r="5" spans="1:16" s="312" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="442" t="s">
+      <c r="A5" s="439" t="s">
         <v>162</v>
       </c>
       <c r="B5" s="444" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="442" t="s">
+      <c r="C5" s="439" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="446" t="s">
@@ -7424,77 +7440,77 @@
       <c r="J5" s="447"/>
       <c r="K5" s="447"/>
       <c r="L5" s="447"/>
-      <c r="M5" s="448"/>
-      <c r="N5" s="448"/>
-      <c r="O5" s="448"/>
-      <c r="P5" s="449" t="s">
+      <c r="M5" s="441"/>
+      <c r="N5" s="441"/>
+      <c r="O5" s="441"/>
+      <c r="P5" s="442" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="312" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="443"/>
+      <c r="A6" s="440"/>
       <c r="B6" s="445"/>
-      <c r="C6" s="443"/>
-      <c r="D6" s="442" t="s">
+      <c r="C6" s="440"/>
+      <c r="D6" s="439" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="442" t="s">
+      <c r="E6" s="439" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="442" t="s">
+      <c r="F6" s="439" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="442" t="s">
+      <c r="G6" s="439" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="451" t="s">
+      <c r="H6" s="433" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="451" t="s">
+      <c r="I6" s="433" t="s">
         <v>54</v>
       </c>
-      <c r="J6" s="456" t="s">
+      <c r="J6" s="438" t="s">
         <v>36</v>
       </c>
-      <c r="K6" s="456"/>
-      <c r="L6" s="451" t="s">
+      <c r="K6" s="438"/>
+      <c r="L6" s="433" t="s">
         <v>55</v>
       </c>
-      <c r="M6" s="451" t="s">
+      <c r="M6" s="433" t="s">
         <v>65</v>
       </c>
-      <c r="N6" s="451" t="s">
+      <c r="N6" s="433" t="s">
         <v>188</v>
       </c>
-      <c r="O6" s="451" t="s">
+      <c r="O6" s="433" t="s">
         <v>213</v>
       </c>
-      <c r="P6" s="450"/>
+      <c r="P6" s="443"/>
     </row>
     <row r="7" spans="1:16" s="312" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="443"/>
+      <c r="A7" s="440"/>
       <c r="B7" s="445"/>
-      <c r="C7" s="443"/>
-      <c r="D7" s="443"/>
-      <c r="E7" s="443"/>
-      <c r="F7" s="443"/>
-      <c r="G7" s="443"/>
-      <c r="H7" s="452"/>
-      <c r="I7" s="452"/>
+      <c r="C7" s="440"/>
+      <c r="D7" s="440"/>
+      <c r="E7" s="440"/>
+      <c r="F7" s="440"/>
+      <c r="G7" s="440"/>
+      <c r="H7" s="434"/>
+      <c r="I7" s="434"/>
       <c r="J7" s="320" t="s">
         <v>214</v>
       </c>
       <c r="K7" s="321" t="s">
         <v>56</v>
       </c>
-      <c r="L7" s="452"/>
-      <c r="M7" s="452"/>
-      <c r="N7" s="452"/>
-      <c r="O7" s="452"/>
-      <c r="P7" s="450"/>
+      <c r="L7" s="434"/>
+      <c r="M7" s="434"/>
+      <c r="N7" s="434"/>
+      <c r="O7" s="434"/>
+      <c r="P7" s="443"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="393">
+      <c r="A8" s="390">
         <v>318</v>
       </c>
       <c r="B8" s="323">
@@ -7538,7 +7554,7 @@
       <c r="P8" s="324"/>
     </row>
     <row r="9" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="393">
+      <c r="A9" s="390">
         <v>316</v>
       </c>
       <c r="B9" s="323">
@@ -7583,7 +7599,7 @@
       <c r="P9" s="324"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="393">
+      <c r="A10" s="390">
         <v>317</v>
       </c>
       <c r="B10" s="323">
@@ -7626,7 +7642,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="393">
+      <c r="A11" s="390">
         <v>319</v>
       </c>
       <c r="B11" s="323">
@@ -7671,17 +7687,17 @@
       <c r="P11" s="324"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="425">
+      <c r="A12" s="412">
         <v>320</v>
       </c>
-      <c r="B12" s="427">
+      <c r="B12" s="449">
         <v>43921</v>
       </c>
-      <c r="C12" s="429"/>
-      <c r="D12" s="429" t="s">
+      <c r="C12" s="425"/>
+      <c r="D12" s="425" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="429" t="s">
+      <c r="E12" s="425" t="s">
         <v>101</v>
       </c>
       <c r="F12" s="329" t="s">
@@ -7712,14 +7728,14 @@
         <f>L12</f>
         <v>6442800.0000000009</v>
       </c>
-      <c r="P12" s="422"/>
+      <c r="P12" s="431"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="426"/>
-      <c r="B13" s="428"/>
-      <c r="C13" s="430"/>
-      <c r="D13" s="430"/>
-      <c r="E13" s="430"/>
+      <c r="A13" s="413"/>
+      <c r="B13" s="451"/>
+      <c r="C13" s="427"/>
+      <c r="D13" s="427"/>
+      <c r="E13" s="427"/>
       <c r="F13" s="334" t="s">
         <v>44</v>
       </c>
@@ -7746,10 +7762,10 @@
         <f>L13</f>
         <v>3433800.0000000005</v>
       </c>
-      <c r="P13" s="424"/>
+      <c r="P13" s="432"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="398">
+      <c r="A14" s="395">
         <v>321</v>
       </c>
       <c r="B14" s="339">
@@ -7794,7 +7810,7 @@
       <c r="P14" s="341"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="396">
+      <c r="A15" s="393">
         <v>539</v>
       </c>
       <c r="B15" s="323">
@@ -7840,7 +7856,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="393">
+      <c r="A16" s="390">
         <v>323</v>
       </c>
       <c r="B16" s="346">
@@ -7883,7 +7899,7 @@
       <c r="P16" s="347"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="393">
+      <c r="A17" s="390">
         <v>1142</v>
       </c>
       <c r="B17" s="346">
@@ -7928,7 +7944,7 @@
       <c r="P17" s="347"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="393">
+      <c r="A18" s="390">
         <v>325</v>
       </c>
       <c r="B18" s="323">
@@ -7973,7 +7989,7 @@
       <c r="P18" s="324"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="396">
+      <c r="A19" s="393">
         <v>538</v>
       </c>
       <c r="B19" s="346">
@@ -8018,7 +8034,7 @@
       <c r="P19" s="347"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="393">
+      <c r="A20" s="390">
         <v>326</v>
       </c>
       <c r="B20" s="346">
@@ -8062,17 +8078,17 @@
       <c r="P20" s="347"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="434">
+      <c r="A21" s="415">
         <v>327</v>
       </c>
-      <c r="B21" s="435">
+      <c r="B21" s="422">
         <v>43935</v>
       </c>
-      <c r="C21" s="438"/>
-      <c r="D21" s="457" t="s">
+      <c r="C21" s="416"/>
+      <c r="D21" s="428" t="s">
         <v>95</v>
       </c>
-      <c r="E21" s="438" t="s">
+      <c r="E21" s="416" t="s">
         <v>90</v>
       </c>
       <c r="F21" s="350" t="s">
@@ -8105,11 +8121,11 @@
       <c r="P21" s="350"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="434"/>
-      <c r="B22" s="436"/>
-      <c r="C22" s="439"/>
-      <c r="D22" s="458"/>
-      <c r="E22" s="439"/>
+      <c r="A22" s="415"/>
+      <c r="B22" s="423"/>
+      <c r="C22" s="417"/>
+      <c r="D22" s="429"/>
+      <c r="E22" s="417"/>
       <c r="F22" s="353" t="s">
         <v>41</v>
       </c>
@@ -8140,11 +8156,11 @@
       <c r="P22" s="353"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="434"/>
-      <c r="B23" s="436"/>
-      <c r="C23" s="439"/>
-      <c r="D23" s="458"/>
-      <c r="E23" s="439"/>
+      <c r="A23" s="415"/>
+      <c r="B23" s="423"/>
+      <c r="C23" s="417"/>
+      <c r="D23" s="429"/>
+      <c r="E23" s="417"/>
       <c r="F23" s="353" t="s">
         <v>44</v>
       </c>
@@ -8175,11 +8191,11 @@
       <c r="P23" s="353"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="434"/>
-      <c r="B24" s="436"/>
-      <c r="C24" s="439"/>
-      <c r="D24" s="458"/>
-      <c r="E24" s="439"/>
+      <c r="A24" s="415"/>
+      <c r="B24" s="423"/>
+      <c r="C24" s="417"/>
+      <c r="D24" s="429"/>
+      <c r="E24" s="417"/>
       <c r="F24" s="353" t="s">
         <v>43</v>
       </c>
@@ -8210,11 +8226,11 @@
       <c r="P24" s="353"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="434"/>
-      <c r="B25" s="436"/>
-      <c r="C25" s="439"/>
-      <c r="D25" s="458"/>
-      <c r="E25" s="439"/>
+      <c r="A25" s="415"/>
+      <c r="B25" s="423"/>
+      <c r="C25" s="417"/>
+      <c r="D25" s="429"/>
+      <c r="E25" s="417"/>
       <c r="F25" s="353" t="s">
         <v>39</v>
       </c>
@@ -8245,11 +8261,11 @@
       <c r="P25" s="353"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="434"/>
-      <c r="B26" s="436"/>
-      <c r="C26" s="439"/>
-      <c r="D26" s="458"/>
-      <c r="E26" s="439"/>
+      <c r="A26" s="415"/>
+      <c r="B26" s="423"/>
+      <c r="C26" s="417"/>
+      <c r="D26" s="429"/>
+      <c r="E26" s="417"/>
       <c r="F26" s="353" t="s">
         <v>40</v>
       </c>
@@ -8280,11 +8296,11 @@
       <c r="P26" s="353"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="434"/>
-      <c r="B27" s="437"/>
-      <c r="C27" s="440"/>
-      <c r="D27" s="459"/>
-      <c r="E27" s="440"/>
+      <c r="A27" s="415"/>
+      <c r="B27" s="424"/>
+      <c r="C27" s="418"/>
+      <c r="D27" s="430"/>
+      <c r="E27" s="418"/>
       <c r="F27" s="356" t="s">
         <v>68</v>
       </c>
@@ -8315,7 +8331,7 @@
       <c r="P27" s="356"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="397">
+      <c r="A28" s="394">
         <v>329</v>
       </c>
       <c r="B28" s="323">
@@ -8360,19 +8376,19 @@
       <c r="P28" s="324"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="434">
+      <c r="A29" s="415">
         <v>328</v>
       </c>
-      <c r="B29" s="427">
+      <c r="B29" s="449">
         <v>43936</v>
       </c>
-      <c r="C29" s="429" t="s">
+      <c r="C29" s="425" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="429" t="s">
+      <c r="D29" s="425" t="s">
         <v>97</v>
       </c>
-      <c r="E29" s="429" t="s">
+      <c r="E29" s="425" t="s">
         <v>98</v>
       </c>
       <c r="F29" s="329" t="s">
@@ -8405,11 +8421,11 @@
       <c r="P29" s="329"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="434"/>
-      <c r="B30" s="431"/>
-      <c r="C30" s="432"/>
-      <c r="D30" s="432"/>
-      <c r="E30" s="432"/>
+      <c r="A30" s="415"/>
+      <c r="B30" s="450"/>
+      <c r="C30" s="426"/>
+      <c r="D30" s="426"/>
+      <c r="E30" s="426"/>
       <c r="F30" s="359" t="s">
         <v>38</v>
       </c>
@@ -8440,11 +8456,11 @@
       <c r="P30" s="359"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="434"/>
-      <c r="B31" s="431"/>
-      <c r="C31" s="432"/>
-      <c r="D31" s="432"/>
-      <c r="E31" s="432"/>
+      <c r="A31" s="415"/>
+      <c r="B31" s="450"/>
+      <c r="C31" s="426"/>
+      <c r="D31" s="426"/>
+      <c r="E31" s="426"/>
       <c r="F31" s="359" t="s">
         <v>41</v>
       </c>
@@ -8475,11 +8491,11 @@
       <c r="P31" s="359"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="434"/>
-      <c r="B32" s="428"/>
-      <c r="C32" s="430"/>
-      <c r="D32" s="430"/>
-      <c r="E32" s="430"/>
+      <c r="A32" s="415"/>
+      <c r="B32" s="451"/>
+      <c r="C32" s="427"/>
+      <c r="D32" s="427"/>
+      <c r="E32" s="427"/>
       <c r="F32" s="334" t="s">
         <v>68</v>
       </c>
@@ -8510,17 +8526,17 @@
       <c r="P32" s="334"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="393">
+      <c r="A33" s="390">
         <v>331</v>
       </c>
       <c r="B33" s="323">
         <v>43937</v>
       </c>
-      <c r="C33" s="386"/>
-      <c r="D33" s="386" t="s">
+      <c r="C33" s="383"/>
+      <c r="D33" s="383" t="s">
         <v>99</v>
       </c>
-      <c r="E33" s="386" t="s">
+      <c r="E33" s="383" t="s">
         <v>100</v>
       </c>
       <c r="F33" s="324" t="s">
@@ -8553,7 +8569,7 @@
       <c r="P33" s="324"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="393">
+      <c r="A34" s="390">
         <v>1131</v>
       </c>
       <c r="B34" s="323">
@@ -8596,7 +8612,7 @@
       <c r="P34" s="324"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="393">
+      <c r="A35" s="390">
         <v>335</v>
       </c>
       <c r="B35" s="323">
@@ -8641,7 +8657,7 @@
       <c r="P35" s="324"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="393">
+      <c r="A36" s="390">
         <v>336</v>
       </c>
       <c r="B36" s="323">
@@ -8684,19 +8700,19 @@
       <c r="P36" s="324"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="425">
+      <c r="A37" s="412">
         <v>346</v>
       </c>
-      <c r="B37" s="435">
+      <c r="B37" s="422">
         <v>43941</v>
       </c>
-      <c r="C37" s="438" t="s">
+      <c r="C37" s="416" t="s">
         <v>93</v>
       </c>
-      <c r="D37" s="438" t="s">
+      <c r="D37" s="416" t="s">
         <v>119</v>
       </c>
-      <c r="E37" s="438" t="s">
+      <c r="E37" s="416" t="s">
         <v>120</v>
       </c>
       <c r="F37" s="329" t="s">
@@ -8729,11 +8745,11 @@
       <c r="P37" s="329"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="460"/>
-      <c r="B38" s="436"/>
-      <c r="C38" s="439"/>
-      <c r="D38" s="439"/>
-      <c r="E38" s="439"/>
+      <c r="A38" s="414"/>
+      <c r="B38" s="423"/>
+      <c r="C38" s="417"/>
+      <c r="D38" s="417"/>
+      <c r="E38" s="417"/>
       <c r="F38" s="359" t="s">
         <v>41</v>
       </c>
@@ -8764,11 +8780,11 @@
       <c r="P38" s="359"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="460"/>
-      <c r="B39" s="436"/>
-      <c r="C39" s="439"/>
-      <c r="D39" s="439"/>
-      <c r="E39" s="439"/>
+      <c r="A39" s="414"/>
+      <c r="B39" s="423"/>
+      <c r="C39" s="417"/>
+      <c r="D39" s="417"/>
+      <c r="E39" s="417"/>
       <c r="F39" s="359" t="s">
         <v>43</v>
       </c>
@@ -8799,11 +8815,11 @@
       <c r="P39" s="359"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="426"/>
-      <c r="B40" s="437"/>
-      <c r="C40" s="440"/>
-      <c r="D40" s="440"/>
-      <c r="E40" s="440"/>
+      <c r="A40" s="413"/>
+      <c r="B40" s="424"/>
+      <c r="C40" s="418"/>
+      <c r="D40" s="418"/>
+      <c r="E40" s="418"/>
       <c r="F40" s="334" t="s">
         <v>67</v>
       </c>
@@ -8834,17 +8850,17 @@
       <c r="P40" s="334"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="434">
+      <c r="A41" s="415">
         <v>345</v>
       </c>
-      <c r="B41" s="427">
+      <c r="B41" s="449">
         <v>43941</v>
       </c>
-      <c r="C41" s="429"/>
-      <c r="D41" s="429" t="s">
+      <c r="C41" s="425"/>
+      <c r="D41" s="425" t="s">
         <v>107</v>
       </c>
-      <c r="E41" s="429" t="s">
+      <c r="E41" s="425" t="s">
         <v>101</v>
       </c>
       <c r="F41" s="329" t="s">
@@ -8876,14 +8892,14 @@
         <v>6192800.0000000009</v>
       </c>
       <c r="O41" s="330"/>
-      <c r="P41" s="453"/>
+      <c r="P41" s="435"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="434"/>
-      <c r="B42" s="431"/>
-      <c r="C42" s="432"/>
-      <c r="D42" s="432"/>
-      <c r="E42" s="432"/>
+      <c r="A42" s="415"/>
+      <c r="B42" s="450"/>
+      <c r="C42" s="426"/>
+      <c r="D42" s="426"/>
+      <c r="E42" s="426"/>
       <c r="F42" s="359" t="s">
         <v>38</v>
       </c>
@@ -8911,14 +8927,14 @@
         <v>3292200.0000000005</v>
       </c>
       <c r="O42" s="360"/>
-      <c r="P42" s="455"/>
+      <c r="P42" s="437"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="434"/>
-      <c r="B43" s="431"/>
-      <c r="C43" s="432"/>
-      <c r="D43" s="432"/>
-      <c r="E43" s="432"/>
+      <c r="A43" s="415"/>
+      <c r="B43" s="450"/>
+      <c r="C43" s="426"/>
+      <c r="D43" s="426"/>
+      <c r="E43" s="426"/>
       <c r="F43" s="359" t="s">
         <v>41</v>
       </c>
@@ -8946,14 +8962,14 @@
         <v>3363000.0000000005</v>
       </c>
       <c r="O43" s="360"/>
-      <c r="P43" s="455"/>
+      <c r="P43" s="437"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="434"/>
-      <c r="B44" s="428"/>
-      <c r="C44" s="430"/>
-      <c r="D44" s="430"/>
-      <c r="E44" s="430"/>
+      <c r="A44" s="415"/>
+      <c r="B44" s="451"/>
+      <c r="C44" s="427"/>
+      <c r="D44" s="427"/>
+      <c r="E44" s="427"/>
       <c r="F44" s="334" t="s">
         <v>44</v>
       </c>
@@ -8981,22 +8997,22 @@
         <v>3433800.0000000005</v>
       </c>
       <c r="O44" s="335"/>
-      <c r="P44" s="454"/>
+      <c r="P44" s="436"/>
     </row>
     <row r="45" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="425">
+      <c r="A45" s="412">
         <v>342</v>
       </c>
-      <c r="B45" s="435">
+      <c r="B45" s="422">
         <v>43942</v>
       </c>
-      <c r="C45" s="438" t="s">
+      <c r="C45" s="416" t="s">
         <v>42</v>
       </c>
-      <c r="D45" s="438" t="s">
+      <c r="D45" s="416" t="s">
         <v>42</v>
       </c>
-      <c r="E45" s="438" t="s">
+      <c r="E45" s="416" t="s">
         <v>76</v>
       </c>
       <c r="F45" s="329" t="s">
@@ -9026,14 +9042,14 @@
         <v>268450.00000000006</v>
       </c>
       <c r="O45" s="330"/>
-      <c r="P45" s="453"/>
+      <c r="P45" s="435"/>
     </row>
     <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="426"/>
-      <c r="B46" s="437"/>
-      <c r="C46" s="440"/>
-      <c r="D46" s="440"/>
-      <c r="E46" s="440"/>
+      <c r="A46" s="413"/>
+      <c r="B46" s="424"/>
+      <c r="C46" s="418"/>
+      <c r="D46" s="418"/>
+      <c r="E46" s="418"/>
       <c r="F46" s="334" t="s">
         <v>38</v>
       </c>
@@ -9061,10 +9077,10 @@
         <v>548700.00000000012</v>
       </c>
       <c r="O46" s="335"/>
-      <c r="P46" s="454"/>
+      <c r="P46" s="436"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="393">
+      <c r="A47" s="390">
         <v>340</v>
       </c>
       <c r="B47" s="323">
@@ -9109,7 +9125,7 @@
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="393">
+      <c r="A48" s="390">
         <v>1132</v>
       </c>
       <c r="B48" s="323">
@@ -9156,17 +9172,17 @@
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="425">
+      <c r="A49" s="412">
         <v>452</v>
       </c>
-      <c r="B49" s="427">
+      <c r="B49" s="449">
         <v>43942</v>
       </c>
-      <c r="C49" s="429"/>
-      <c r="D49" s="429" t="s">
+      <c r="C49" s="425"/>
+      <c r="D49" s="425" t="s">
         <v>99</v>
       </c>
-      <c r="E49" s="429" t="s">
+      <c r="E49" s="425" t="s">
         <v>100</v>
       </c>
       <c r="F49" s="329" t="s">
@@ -9196,16 +9212,16 @@
         <v>6442800.0000000009</v>
       </c>
       <c r="O49" s="330"/>
-      <c r="P49" s="422" t="s">
+      <c r="P49" s="431" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="460"/>
-      <c r="B50" s="431"/>
-      <c r="C50" s="432"/>
-      <c r="D50" s="432"/>
-      <c r="E50" s="432"/>
+      <c r="A50" s="414"/>
+      <c r="B50" s="450"/>
+      <c r="C50" s="426"/>
+      <c r="D50" s="426"/>
+      <c r="E50" s="426"/>
       <c r="F50" s="359" t="s">
         <v>40</v>
       </c>
@@ -9233,14 +9249,14 @@
         <v>3221400.0000000005</v>
       </c>
       <c r="O50" s="360"/>
-      <c r="P50" s="423"/>
+      <c r="P50" s="453"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="426"/>
-      <c r="B51" s="428"/>
-      <c r="C51" s="430"/>
-      <c r="D51" s="430"/>
-      <c r="E51" s="430"/>
+      <c r="A51" s="413"/>
+      <c r="B51" s="451"/>
+      <c r="C51" s="427"/>
+      <c r="D51" s="427"/>
+      <c r="E51" s="427"/>
       <c r="F51" s="334" t="s">
         <v>68</v>
       </c>
@@ -9271,10 +9287,10 @@
         <f>L49+L50+L51-N49-N50-N51</f>
         <v>2885600.0000000019</v>
       </c>
-      <c r="P51" s="424"/>
+      <c r="P51" s="432"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="393">
+      <c r="A52" s="390">
         <v>1133</v>
       </c>
       <c r="B52" s="323">
@@ -9321,7 +9337,7 @@
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="393">
+      <c r="A53" s="390">
         <v>348</v>
       </c>
       <c r="B53" s="323">
@@ -9366,7 +9382,7 @@
       <c r="P53" s="324"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="393">
+      <c r="A54" s="390">
         <v>347</v>
       </c>
       <c r="B54" s="323">
@@ -9411,7 +9427,7 @@
       <c r="P54" s="324"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="393">
+      <c r="A55" s="390">
         <v>350</v>
       </c>
       <c r="B55" s="323">
@@ -9454,7 +9470,7 @@
       <c r="P55" s="324"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="393">
+      <c r="A56" s="390">
         <v>1135</v>
       </c>
       <c r="B56" s="323">
@@ -9499,7 +9515,7 @@
       <c r="P56" s="324"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="393">
+      <c r="A57" s="390">
         <v>1136</v>
       </c>
       <c r="B57" s="323">
@@ -9544,7 +9560,7 @@
       <c r="P57" s="324"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="393">
+      <c r="A58" s="390">
         <v>1137</v>
       </c>
       <c r="B58" s="323">
@@ -9589,19 +9605,19 @@
       <c r="P58" s="324"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="425">
+      <c r="A59" s="412">
         <v>456</v>
       </c>
-      <c r="B59" s="427">
+      <c r="B59" s="449">
         <v>43946</v>
       </c>
-      <c r="C59" s="429" t="s">
+      <c r="C59" s="425" t="s">
         <v>93</v>
       </c>
-      <c r="D59" s="429" t="s">
+      <c r="D59" s="425" t="s">
         <v>122</v>
       </c>
-      <c r="E59" s="429" t="s">
+      <c r="E59" s="425" t="s">
         <v>123</v>
       </c>
       <c r="F59" s="329" t="s">
@@ -9633,11 +9649,11 @@
       <c r="P59" s="329"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="426"/>
-      <c r="B60" s="428"/>
-      <c r="C60" s="430"/>
-      <c r="D60" s="430"/>
-      <c r="E60" s="430"/>
+      <c r="A60" s="413"/>
+      <c r="B60" s="451"/>
+      <c r="C60" s="427"/>
+      <c r="D60" s="427"/>
+      <c r="E60" s="427"/>
       <c r="F60" s="334" t="s">
         <v>41</v>
       </c>
@@ -9667,17 +9683,17 @@
       <c r="P60" s="334"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="425">
+      <c r="A61" s="412">
         <v>455</v>
       </c>
-      <c r="B61" s="427">
+      <c r="B61" s="449">
         <v>43946</v>
       </c>
-      <c r="C61" s="429"/>
-      <c r="D61" s="429" t="s">
+      <c r="C61" s="425"/>
+      <c r="D61" s="425" t="s">
         <v>125</v>
       </c>
-      <c r="E61" s="429" t="s">
+      <c r="E61" s="425" t="s">
         <v>126</v>
       </c>
       <c r="F61" s="329" t="s">
@@ -9710,11 +9726,11 @@
       <c r="P61" s="329"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A62" s="460"/>
-      <c r="B62" s="431"/>
-      <c r="C62" s="432"/>
-      <c r="D62" s="432"/>
-      <c r="E62" s="432"/>
+      <c r="A62" s="414"/>
+      <c r="B62" s="450"/>
+      <c r="C62" s="426"/>
+      <c r="D62" s="426"/>
+      <c r="E62" s="426"/>
       <c r="F62" s="359" t="s">
         <v>38</v>
       </c>
@@ -9745,11 +9761,11 @@
       <c r="P62" s="359"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A63" s="460"/>
-      <c r="B63" s="431"/>
-      <c r="C63" s="432"/>
-      <c r="D63" s="432"/>
-      <c r="E63" s="432"/>
+      <c r="A63" s="414"/>
+      <c r="B63" s="450"/>
+      <c r="C63" s="426"/>
+      <c r="D63" s="426"/>
+      <c r="E63" s="426"/>
       <c r="F63" s="359" t="s">
         <v>41</v>
       </c>
@@ -9780,11 +9796,11 @@
       <c r="P63" s="359"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A64" s="460"/>
-      <c r="B64" s="431"/>
-      <c r="C64" s="432"/>
-      <c r="D64" s="432"/>
-      <c r="E64" s="432"/>
+      <c r="A64" s="414"/>
+      <c r="B64" s="450"/>
+      <c r="C64" s="426"/>
+      <c r="D64" s="426"/>
+      <c r="E64" s="426"/>
       <c r="F64" s="359" t="s">
         <v>44</v>
       </c>
@@ -9815,11 +9831,11 @@
       <c r="P64" s="359"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A65" s="460"/>
-      <c r="B65" s="431"/>
-      <c r="C65" s="432"/>
-      <c r="D65" s="432"/>
-      <c r="E65" s="432"/>
+      <c r="A65" s="414"/>
+      <c r="B65" s="450"/>
+      <c r="C65" s="426"/>
+      <c r="D65" s="426"/>
+      <c r="E65" s="426"/>
       <c r="F65" s="359" t="s">
         <v>43</v>
       </c>
@@ -9850,11 +9866,11 @@
       <c r="P65" s="359"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A66" s="460"/>
-      <c r="B66" s="431"/>
-      <c r="C66" s="432"/>
-      <c r="D66" s="432"/>
-      <c r="E66" s="432"/>
+      <c r="A66" s="414"/>
+      <c r="B66" s="450"/>
+      <c r="C66" s="426"/>
+      <c r="D66" s="426"/>
+      <c r="E66" s="426"/>
       <c r="F66" s="359" t="s">
         <v>39</v>
       </c>
@@ -9885,11 +9901,11 @@
       <c r="P66" s="359"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A67" s="460"/>
-      <c r="B67" s="431"/>
-      <c r="C67" s="432"/>
-      <c r="D67" s="432"/>
-      <c r="E67" s="432"/>
+      <c r="A67" s="414"/>
+      <c r="B67" s="450"/>
+      <c r="C67" s="426"/>
+      <c r="D67" s="426"/>
+      <c r="E67" s="426"/>
       <c r="F67" s="359" t="s">
         <v>67</v>
       </c>
@@ -9920,11 +9936,11 @@
       <c r="P67" s="359"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A68" s="460"/>
-      <c r="B68" s="431"/>
-      <c r="C68" s="432"/>
-      <c r="D68" s="432"/>
-      <c r="E68" s="432"/>
+      <c r="A68" s="414"/>
+      <c r="B68" s="450"/>
+      <c r="C68" s="426"/>
+      <c r="D68" s="426"/>
+      <c r="E68" s="426"/>
       <c r="F68" s="359" t="s">
         <v>40</v>
       </c>
@@ -9955,11 +9971,11 @@
       <c r="P68" s="359"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A69" s="426"/>
-      <c r="B69" s="428"/>
-      <c r="C69" s="430"/>
-      <c r="D69" s="430"/>
-      <c r="E69" s="430"/>
+      <c r="A69" s="413"/>
+      <c r="B69" s="451"/>
+      <c r="C69" s="427"/>
+      <c r="D69" s="427"/>
+      <c r="E69" s="427"/>
       <c r="F69" s="334" t="s">
         <v>68</v>
       </c>
@@ -9990,7 +10006,7 @@
       <c r="P69" s="334"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A70" s="393">
+      <c r="A70" s="390">
         <v>1140</v>
       </c>
       <c r="B70" s="323">
@@ -10035,19 +10051,19 @@
       <c r="P70" s="324"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A71" s="461">
+      <c r="A71" s="419">
         <v>457</v>
       </c>
-      <c r="B71" s="435">
+      <c r="B71" s="422">
         <v>43947</v>
       </c>
-      <c r="C71" s="438" t="s">
+      <c r="C71" s="416" t="s">
         <v>93</v>
       </c>
-      <c r="D71" s="438" t="s">
+      <c r="D71" s="416" t="s">
         <v>161</v>
       </c>
-      <c r="E71" s="438" t="s">
+      <c r="E71" s="416" t="s">
         <v>123</v>
       </c>
       <c r="F71" s="329" t="s">
@@ -10079,11 +10095,11 @@
       <c r="P71" s="329"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A72" s="462"/>
-      <c r="B72" s="436"/>
-      <c r="C72" s="439"/>
-      <c r="D72" s="439"/>
-      <c r="E72" s="439"/>
+      <c r="A72" s="420"/>
+      <c r="B72" s="423"/>
+      <c r="C72" s="417"/>
+      <c r="D72" s="417"/>
+      <c r="E72" s="417"/>
       <c r="F72" s="359" t="s">
         <v>39</v>
       </c>
@@ -10113,11 +10129,11 @@
       <c r="P72" s="359"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A73" s="463"/>
-      <c r="B73" s="437"/>
-      <c r="C73" s="440"/>
-      <c r="D73" s="440"/>
-      <c r="E73" s="440"/>
+      <c r="A73" s="421"/>
+      <c r="B73" s="424"/>
+      <c r="C73" s="418"/>
+      <c r="D73" s="418"/>
+      <c r="E73" s="418"/>
       <c r="F73" s="334" t="s">
         <v>40</v>
       </c>
@@ -10147,7 +10163,7 @@
       <c r="P73" s="334"/>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A74" s="393">
+      <c r="A74" s="390">
         <v>458</v>
       </c>
       <c r="B74" s="323">
@@ -10194,7 +10210,7 @@
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A75" s="393">
+      <c r="A75" s="390">
         <v>459</v>
       </c>
       <c r="B75" s="323">
@@ -10237,19 +10253,19 @@
       <c r="P75" s="324"/>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A76" s="425">
+      <c r="A76" s="412">
         <v>1144</v>
       </c>
-      <c r="B76" s="427">
+      <c r="B76" s="449">
         <v>43949</v>
       </c>
-      <c r="C76" s="429" t="s">
+      <c r="C76" s="425" t="s">
         <v>93</v>
       </c>
-      <c r="D76" s="429" t="s">
+      <c r="D76" s="425" t="s">
         <v>175</v>
       </c>
-      <c r="E76" s="429" t="s">
+      <c r="E76" s="425" t="s">
         <v>168</v>
       </c>
       <c r="F76" s="329" t="s">
@@ -10281,11 +10297,11 @@
       <c r="P76" s="329"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A77" s="426"/>
-      <c r="B77" s="428"/>
-      <c r="C77" s="430"/>
-      <c r="D77" s="430"/>
-      <c r="E77" s="430"/>
+      <c r="A77" s="413"/>
+      <c r="B77" s="451"/>
+      <c r="C77" s="427"/>
+      <c r="D77" s="427"/>
+      <c r="E77" s="427"/>
       <c r="F77" s="334" t="s">
         <v>40</v>
       </c>
@@ -10315,14 +10331,14 @@
       <c r="P77" s="334"/>
     </row>
     <row r="78" spans="1:17" s="367" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="416" t="s">
+      <c r="A78" s="455" t="s">
         <v>176</v>
       </c>
-      <c r="B78" s="416"/>
-      <c r="C78" s="416"/>
-      <c r="D78" s="416"/>
-      <c r="E78" s="416"/>
-      <c r="F78" s="416"/>
+      <c r="B78" s="455"/>
+      <c r="C78" s="455"/>
+      <c r="D78" s="455"/>
+      <c r="E78" s="455"/>
+      <c r="F78" s="455"/>
       <c r="G78" s="362">
         <f>SUM(G8:G77)</f>
         <v>774</v>
@@ -10341,18 +10357,18 @@
       <c r="M78" s="363"/>
       <c r="N78" s="363"/>
       <c r="O78" s="363"/>
-      <c r="P78" s="417"/>
-      <c r="Q78" s="418"/>
+      <c r="P78" s="456"/>
+      <c r="Q78" s="457"/>
     </row>
     <row r="79" spans="1:17" s="367" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="415" t="s">
+      <c r="A79" s="454" t="s">
         <v>177</v>
       </c>
-      <c r="B79" s="415"/>
-      <c r="C79" s="415"/>
-      <c r="D79" s="415"/>
-      <c r="E79" s="415"/>
-      <c r="F79" s="415"/>
+      <c r="B79" s="454"/>
+      <c r="C79" s="454"/>
+      <c r="D79" s="454"/>
+      <c r="E79" s="454"/>
+      <c r="F79" s="454"/>
       <c r="G79" s="362">
         <f>G78</f>
         <v>774</v>
@@ -10368,18 +10384,18 @@
       <c r="M79" s="368"/>
       <c r="N79" s="368"/>
       <c r="O79" s="368"/>
-      <c r="P79" s="417"/>
-      <c r="Q79" s="418"/>
+      <c r="P79" s="456"/>
+      <c r="Q79" s="457"/>
     </row>
     <row r="80" spans="1:17" s="367" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="415" t="s">
+      <c r="A80" s="454" t="s">
         <v>178</v>
       </c>
-      <c r="B80" s="415"/>
-      <c r="C80" s="415"/>
-      <c r="D80" s="415"/>
-      <c r="E80" s="415"/>
-      <c r="F80" s="415"/>
+      <c r="B80" s="454"/>
+      <c r="C80" s="454"/>
+      <c r="D80" s="454"/>
+      <c r="E80" s="454"/>
+      <c r="F80" s="454"/>
       <c r="G80" s="369" t="s">
         <v>57</v>
       </c>
@@ -10397,14 +10413,14 @@
       <c r="P80" s="370"/>
     </row>
     <row r="81" spans="1:16" s="367" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="415" t="s">
+      <c r="A81" s="454" t="s">
         <v>179</v>
       </c>
-      <c r="B81" s="415"/>
-      <c r="C81" s="415"/>
-      <c r="D81" s="415"/>
-      <c r="E81" s="415"/>
-      <c r="F81" s="415"/>
+      <c r="B81" s="454"/>
+      <c r="C81" s="454"/>
+      <c r="D81" s="454"/>
+      <c r="E81" s="454"/>
+      <c r="F81" s="454"/>
       <c r="G81" s="368"/>
       <c r="H81" s="368"/>
       <c r="I81" s="363"/>
@@ -10420,14 +10436,14 @@
       <c r="P81" s="370"/>
     </row>
     <row r="82" spans="1:16" s="367" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="419" t="s">
+      <c r="A82" s="458" t="s">
         <v>203</v>
       </c>
-      <c r="B82" s="420"/>
-      <c r="C82" s="420"/>
-      <c r="D82" s="420"/>
-      <c r="E82" s="420"/>
-      <c r="F82" s="421"/>
+      <c r="B82" s="459"/>
+      <c r="C82" s="459"/>
+      <c r="D82" s="459"/>
+      <c r="E82" s="459"/>
+      <c r="F82" s="460"/>
       <c r="G82" s="368"/>
       <c r="H82" s="368"/>
       <c r="I82" s="363"/>
@@ -10443,14 +10459,14 @@
       <c r="P82" s="370"/>
     </row>
     <row r="83" spans="1:16" s="367" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="415" t="s">
+      <c r="A83" s="454" t="s">
         <v>180</v>
       </c>
-      <c r="B83" s="415"/>
-      <c r="C83" s="415"/>
-      <c r="D83" s="415"/>
-      <c r="E83" s="415"/>
-      <c r="F83" s="415"/>
+      <c r="B83" s="454"/>
+      <c r="C83" s="454"/>
+      <c r="D83" s="454"/>
+      <c r="E83" s="454"/>
+      <c r="F83" s="454"/>
       <c r="G83" s="368"/>
       <c r="H83" s="368"/>
       <c r="I83" s="363"/>
@@ -10508,54 +10524,30 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="88">
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A21:A27"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="E71:E73"/>
-    <mergeCell ref="A61:A69"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="D71:D73"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="B21:B27"/>
-    <mergeCell ref="C21:C27"/>
-    <mergeCell ref="D21:D27"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="E49:E51"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="E21:E27"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="P45:P46"/>
-    <mergeCell ref="P41:P44"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:P7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:L5"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="P78:P79"/>
+    <mergeCell ref="Q78:Q79"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="P49:P51"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="B61:B69"/>
+    <mergeCell ref="C61:C69"/>
+    <mergeCell ref="D61:D69"/>
+    <mergeCell ref="E61:E69"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A41:A44"/>
     <mergeCell ref="B41:B44"/>
@@ -10572,30 +10564,54 @@
     <mergeCell ref="B29:B32"/>
     <mergeCell ref="A3:P3"/>
     <mergeCell ref="A4:P4"/>
-    <mergeCell ref="P49:P51"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="B61:B69"/>
-    <mergeCell ref="C61:C69"/>
-    <mergeCell ref="D61:D69"/>
-    <mergeCell ref="E61:E69"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="P78:P79"/>
-    <mergeCell ref="Q78:Q79"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:L5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:P7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="E21:E27"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="P45:P46"/>
+    <mergeCell ref="P41:P44"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="B21:B27"/>
+    <mergeCell ref="C21:C27"/>
+    <mergeCell ref="D21:D27"/>
+    <mergeCell ref="E71:E73"/>
+    <mergeCell ref="A61:A69"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="D71:D73"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="A29:A32"/>
   </mergeCells>
   <pageMargins left="0.19" right="0.22" top="0.4" bottom="0.42" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -10636,67 +10652,67 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="471" t="s">
+      <c r="A3" s="466" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="471"/>
-      <c r="C3" s="471"/>
-      <c r="D3" s="471"/>
-      <c r="E3" s="471"/>
-      <c r="F3" s="471"/>
-      <c r="G3" s="471"/>
-      <c r="H3" s="471"/>
-      <c r="I3" s="471"/>
-      <c r="J3" s="471"/>
-      <c r="K3" s="471"/>
-      <c r="L3" s="471"/>
+      <c r="B3" s="466"/>
+      <c r="C3" s="466"/>
+      <c r="D3" s="466"/>
+      <c r="E3" s="466"/>
+      <c r="F3" s="466"/>
+      <c r="G3" s="466"/>
+      <c r="H3" s="466"/>
+      <c r="I3" s="466"/>
+      <c r="J3" s="466"/>
+      <c r="K3" s="466"/>
+      <c r="L3" s="466"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="472" t="s">
+      <c r="A4" s="467" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="472"/>
-      <c r="C4" s="472"/>
-      <c r="D4" s="472"/>
-      <c r="E4" s="472"/>
-      <c r="F4" s="472"/>
-      <c r="G4" s="472"/>
-      <c r="H4" s="472"/>
-      <c r="I4" s="472"/>
-      <c r="J4" s="472"/>
-      <c r="K4" s="473"/>
-      <c r="L4" s="472"/>
+      <c r="B4" s="467"/>
+      <c r="C4" s="467"/>
+      <c r="D4" s="467"/>
+      <c r="E4" s="467"/>
+      <c r="F4" s="467"/>
+      <c r="G4" s="467"/>
+      <c r="H4" s="467"/>
+      <c r="I4" s="467"/>
+      <c r="J4" s="467"/>
+      <c r="K4" s="468"/>
+      <c r="L4" s="467"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="474" t="s">
+      <c r="A5" s="469" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="476" t="s">
+      <c r="B5" s="471" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="478" t="s">
+      <c r="C5" s="473" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="478" t="s">
+      <c r="D5" s="473" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="478"/>
-      <c r="F5" s="478"/>
-      <c r="G5" s="480" t="s">
+      <c r="E5" s="473"/>
+      <c r="F5" s="473"/>
+      <c r="G5" s="475" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="480"/>
-      <c r="I5" s="480"/>
-      <c r="J5" s="480"/>
-      <c r="K5" s="481"/>
-      <c r="L5" s="482" t="s">
+      <c r="H5" s="475"/>
+      <c r="I5" s="475"/>
+      <c r="J5" s="475"/>
+      <c r="K5" s="476"/>
+      <c r="L5" s="477" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="475"/>
-      <c r="B6" s="477"/>
-      <c r="C6" s="479"/>
+      <c r="A6" s="470"/>
+      <c r="B6" s="472"/>
+      <c r="C6" s="474"/>
       <c r="D6" s="112" t="s">
         <v>51</v>
       </c>
@@ -10721,23 +10737,23 @@
       <c r="K6" s="114" t="s">
         <v>36</v>
       </c>
-      <c r="L6" s="483"/>
+      <c r="L6" s="478"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="467">
+      <c r="A7" s="461">
         <v>1130</v>
       </c>
       <c r="B7" s="464">
         <v>43937</v>
       </c>
-      <c r="C7" s="467"/>
-      <c r="D7" s="467" t="s">
+      <c r="C7" s="461"/>
+      <c r="D7" s="461" t="s">
         <v>95</v>
       </c>
-      <c r="E7" s="467" t="s">
+      <c r="E7" s="461" t="s">
         <v>90</v>
       </c>
-      <c r="F7" s="467"/>
+      <c r="F7" s="461"/>
       <c r="G7" s="118" t="s">
         <v>37</v>
       </c>
@@ -10760,12 +10776,12 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="469"/>
-      <c r="B8" s="466"/>
-      <c r="C8" s="469"/>
-      <c r="D8" s="469"/>
-      <c r="E8" s="469"/>
-      <c r="F8" s="469"/>
+      <c r="A8" s="462"/>
+      <c r="B8" s="465"/>
+      <c r="C8" s="462"/>
+      <c r="D8" s="462"/>
+      <c r="E8" s="462"/>
+      <c r="F8" s="462"/>
       <c r="G8" s="122" t="s">
         <v>44</v>
       </c>
@@ -10788,20 +10804,20 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="467">
+      <c r="A9" s="461">
         <v>333</v>
       </c>
       <c r="B9" s="464">
         <v>43940</v>
       </c>
-      <c r="C9" s="467"/>
-      <c r="D9" s="467" t="s">
+      <c r="C9" s="461"/>
+      <c r="D9" s="461" t="s">
         <v>102</v>
       </c>
-      <c r="E9" s="467" t="s">
+      <c r="E9" s="461" t="s">
         <v>100</v>
       </c>
-      <c r="F9" s="467"/>
+      <c r="F9" s="461"/>
       <c r="G9" s="118" t="s">
         <v>44</v>
       </c>
@@ -10824,12 +10840,12 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="468"/>
-      <c r="B10" s="465"/>
-      <c r="C10" s="468"/>
-      <c r="D10" s="468"/>
-      <c r="E10" s="468"/>
-      <c r="F10" s="468"/>
+      <c r="A10" s="463"/>
+      <c r="B10" s="479"/>
+      <c r="C10" s="463"/>
+      <c r="D10" s="463"/>
+      <c r="E10" s="463"/>
+      <c r="F10" s="463"/>
       <c r="G10" s="120" t="s">
         <v>43</v>
       </c>
@@ -10852,12 +10868,12 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="468"/>
-      <c r="B11" s="465"/>
-      <c r="C11" s="468"/>
-      <c r="D11" s="468"/>
-      <c r="E11" s="468"/>
-      <c r="F11" s="468"/>
+      <c r="A11" s="463"/>
+      <c r="B11" s="479"/>
+      <c r="C11" s="463"/>
+      <c r="D11" s="463"/>
+      <c r="E11" s="463"/>
+      <c r="F11" s="463"/>
       <c r="G11" s="120" t="s">
         <v>39</v>
       </c>
@@ -10880,12 +10896,12 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="468"/>
-      <c r="B12" s="465"/>
-      <c r="C12" s="468"/>
-      <c r="D12" s="468"/>
-      <c r="E12" s="468"/>
-      <c r="F12" s="468"/>
+      <c r="A12" s="463"/>
+      <c r="B12" s="479"/>
+      <c r="C12" s="463"/>
+      <c r="D12" s="463"/>
+      <c r="E12" s="463"/>
+      <c r="F12" s="463"/>
       <c r="G12" s="120" t="s">
         <v>67</v>
       </c>
@@ -10908,12 +10924,12 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="468"/>
-      <c r="B13" s="465"/>
-      <c r="C13" s="468"/>
-      <c r="D13" s="468"/>
-      <c r="E13" s="468"/>
-      <c r="F13" s="468"/>
+      <c r="A13" s="463"/>
+      <c r="B13" s="479"/>
+      <c r="C13" s="463"/>
+      <c r="D13" s="463"/>
+      <c r="E13" s="463"/>
+      <c r="F13" s="463"/>
       <c r="G13" s="120" t="s">
         <v>40</v>
       </c>
@@ -10936,12 +10952,12 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="469"/>
-      <c r="B14" s="466"/>
-      <c r="C14" s="469"/>
-      <c r="D14" s="469"/>
-      <c r="E14" s="469"/>
-      <c r="F14" s="469"/>
+      <c r="A14" s="462"/>
+      <c r="B14" s="465"/>
+      <c r="C14" s="462"/>
+      <c r="D14" s="462"/>
+      <c r="E14" s="462"/>
+      <c r="F14" s="462"/>
       <c r="G14" s="122" t="s">
         <v>68</v>
       </c>
@@ -10964,20 +10980,20 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="467">
+      <c r="A15" s="461">
         <v>332</v>
       </c>
       <c r="B15" s="464">
         <v>43940</v>
       </c>
-      <c r="C15" s="467"/>
-      <c r="D15" s="467" t="s">
+      <c r="C15" s="461"/>
+      <c r="D15" s="461" t="s">
         <v>103</v>
       </c>
-      <c r="E15" s="467" t="s">
+      <c r="E15" s="461" t="s">
         <v>104</v>
       </c>
-      <c r="F15" s="467"/>
+      <c r="F15" s="461"/>
       <c r="G15" s="118" t="s">
         <v>37</v>
       </c>
@@ -11000,12 +11016,12 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="468"/>
-      <c r="B16" s="465"/>
-      <c r="C16" s="468"/>
-      <c r="D16" s="468"/>
-      <c r="E16" s="468"/>
-      <c r="F16" s="468"/>
+      <c r="A16" s="463"/>
+      <c r="B16" s="479"/>
+      <c r="C16" s="463"/>
+      <c r="D16" s="463"/>
+      <c r="E16" s="463"/>
+      <c r="F16" s="463"/>
       <c r="G16" s="120" t="s">
         <v>38</v>
       </c>
@@ -11028,12 +11044,12 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="468"/>
-      <c r="B17" s="465"/>
-      <c r="C17" s="468"/>
-      <c r="D17" s="468"/>
-      <c r="E17" s="468"/>
-      <c r="F17" s="468"/>
+      <c r="A17" s="463"/>
+      <c r="B17" s="479"/>
+      <c r="C17" s="463"/>
+      <c r="D17" s="463"/>
+      <c r="E17" s="463"/>
+      <c r="F17" s="463"/>
       <c r="G17" s="120" t="s">
         <v>41</v>
       </c>
@@ -11056,12 +11072,12 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="468"/>
-      <c r="B18" s="465"/>
-      <c r="C18" s="468"/>
-      <c r="D18" s="468"/>
-      <c r="E18" s="468"/>
-      <c r="F18" s="468"/>
+      <c r="A18" s="463"/>
+      <c r="B18" s="479"/>
+      <c r="C18" s="463"/>
+      <c r="D18" s="463"/>
+      <c r="E18" s="463"/>
+      <c r="F18" s="463"/>
       <c r="G18" s="120" t="s">
         <v>44</v>
       </c>
@@ -11084,12 +11100,12 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="468"/>
-      <c r="B19" s="465"/>
-      <c r="C19" s="468"/>
-      <c r="D19" s="468"/>
-      <c r="E19" s="468"/>
-      <c r="F19" s="468"/>
+      <c r="A19" s="463"/>
+      <c r="B19" s="479"/>
+      <c r="C19" s="463"/>
+      <c r="D19" s="463"/>
+      <c r="E19" s="463"/>
+      <c r="F19" s="463"/>
       <c r="G19" s="120" t="s">
         <v>39</v>
       </c>
@@ -11112,12 +11128,12 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="469"/>
-      <c r="B20" s="466"/>
-      <c r="C20" s="469"/>
-      <c r="D20" s="469"/>
-      <c r="E20" s="469"/>
-      <c r="F20" s="469"/>
+      <c r="A20" s="462"/>
+      <c r="B20" s="465"/>
+      <c r="C20" s="462"/>
+      <c r="D20" s="462"/>
+      <c r="E20" s="462"/>
+      <c r="F20" s="462"/>
       <c r="G20" s="122" t="s">
         <v>68</v>
       </c>
@@ -11140,30 +11156,30 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="467">
+      <c r="A21" s="461">
         <v>775</v>
       </c>
       <c r="B21" s="464">
         <v>43944</v>
       </c>
-      <c r="C21" s="467"/>
-      <c r="D21" s="467" t="s">
+      <c r="C21" s="461"/>
+      <c r="D21" s="461" t="s">
         <v>293</v>
       </c>
-      <c r="E21" s="467" t="s">
+      <c r="E21" s="461" t="s">
         <v>216</v>
       </c>
-      <c r="F21" s="467"/>
-      <c r="G21" s="394" t="s">
+      <c r="F21" s="461"/>
+      <c r="G21" s="391" t="s">
         <v>37</v>
       </c>
-      <c r="H21" s="394">
+      <c r="H21" s="391">
         <v>1</v>
       </c>
-      <c r="I21" s="395">
+      <c r="I21" s="392">
         <v>455000</v>
       </c>
-      <c r="J21" s="395">
+      <c r="J21" s="392">
         <f t="shared" si="0"/>
         <v>455000</v>
       </c>
@@ -11176,22 +11192,22 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="469"/>
-      <c r="B22" s="466"/>
-      <c r="C22" s="469"/>
-      <c r="D22" s="469"/>
-      <c r="E22" s="469"/>
-      <c r="F22" s="469"/>
-      <c r="G22" s="394" t="s">
+      <c r="A22" s="462"/>
+      <c r="B22" s="465"/>
+      <c r="C22" s="462"/>
+      <c r="D22" s="462"/>
+      <c r="E22" s="462"/>
+      <c r="F22" s="462"/>
+      <c r="G22" s="391" t="s">
         <v>44</v>
       </c>
-      <c r="H22" s="394">
+      <c r="H22" s="391">
         <v>1</v>
       </c>
-      <c r="I22" s="395">
+      <c r="I22" s="392">
         <v>485000</v>
       </c>
-      <c r="J22" s="395">
+      <c r="J22" s="392">
         <f t="shared" si="0"/>
         <v>485000</v>
       </c>
@@ -11242,14 +11258,14 @@
       </c>
     </row>
     <row r="24" spans="1:12" s="273" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="470" t="s">
+      <c r="A24" s="480" t="s">
         <v>83</v>
       </c>
-      <c r="B24" s="470"/>
-      <c r="C24" s="470"/>
-      <c r="D24" s="470"/>
-      <c r="E24" s="470"/>
-      <c r="F24" s="470"/>
+      <c r="B24" s="480"/>
+      <c r="C24" s="480"/>
+      <c r="D24" s="480"/>
+      <c r="E24" s="480"/>
+      <c r="F24" s="480"/>
       <c r="G24" s="269"/>
       <c r="H24" s="269">
         <f>SUM(H7:H23)</f>
@@ -11334,14 +11350,15 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F9:F14"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="E15:E20"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="F15:F20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="E21:E22"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C21:C22"/>
@@ -11356,17 +11373,16 @@
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="B9:B14"/>
     <mergeCell ref="D9:D14"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="D15:D20"/>
-    <mergeCell ref="E15:E20"/>
-    <mergeCell ref="C15:C20"/>
-    <mergeCell ref="F15:F20"/>
-    <mergeCell ref="F21:F22"/>
     <mergeCell ref="E9:E14"/>
     <mergeCell ref="C9:C14"/>
-    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F9:F14"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="C7:C8"/>
   </mergeCells>
   <pageMargins left="0.24" right="0.28000000000000003" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -11427,24 +11443,24 @@
       <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="484" t="s">
+      <c r="A4" s="481" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="484"/>
-      <c r="C4" s="484"/>
-      <c r="D4" s="484"/>
-      <c r="E4" s="484"/>
+      <c r="B4" s="481"/>
+      <c r="C4" s="481"/>
+      <c r="D4" s="481"/>
+      <c r="E4" s="481"/>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="485" t="s">
+      <c r="A5" s="482" t="s">
         <v>202</v>
       </c>
-      <c r="B5" s="485"/>
-      <c r="C5" s="485"/>
-      <c r="D5" s="485"/>
-      <c r="E5" s="485"/>
+      <c r="B5" s="482"/>
+      <c r="C5" s="482"/>
+      <c r="D5" s="482"/>
+      <c r="E5" s="482"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
@@ -11507,7 +11523,7 @@
         <f>'DOANH THU'!L80</f>
         <v>15171850.000000002</v>
       </c>
-      <c r="E9" s="487">
+      <c r="E9" s="484">
         <f>D9+D10+D11</f>
         <v>90579500.000000015</v>
       </c>
@@ -11526,7 +11542,7 @@
         <f>'DOANH THU'!L81</f>
         <v>65407650.000000007</v>
       </c>
-      <c r="E10" s="488"/>
+      <c r="E10" s="485"/>
       <c r="F10" s="92"/>
       <c r="G10" s="92"/>
     </row>
@@ -11536,10 +11552,10 @@
         <v>290</v>
       </c>
       <c r="C11" s="268"/>
-      <c r="D11" s="391">
+      <c r="D11" s="388">
         <v>10000000</v>
       </c>
-      <c r="E11" s="489"/>
+      <c r="E11" s="486"/>
       <c r="F11" s="92"/>
       <c r="G11" s="92"/>
     </row>
@@ -11569,7 +11585,7 @@
       </c>
       <c r="E13" s="106"/>
       <c r="F13" s="92"/>
-      <c r="G13" s="392">
+      <c r="G13" s="389">
         <f>E9-C17</f>
         <v>0</v>
       </c>
@@ -11627,15 +11643,15 @@
       <c r="A18" s="29">
         <v>2</v>
       </c>
-      <c r="B18" s="387" t="s">
+      <c r="B18" s="384" t="s">
         <v>289</v>
       </c>
-      <c r="C18" s="388"/>
-      <c r="D18" s="389">
+      <c r="C18" s="385"/>
+      <c r="D18" s="386">
         <f>'THU CHI'!H90</f>
         <v>3371000</v>
       </c>
-      <c r="E18" s="390"/>
+      <c r="E18" s="387"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="29">
@@ -11751,10 +11767,10 @@
       <c r="E26" s="32"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="486" t="s">
+      <c r="A27" s="483" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="486"/>
+      <c r="B27" s="483"/>
       <c r="C27" s="32"/>
       <c r="D27" s="26">
         <f>C26-D26</f>
@@ -11857,17 +11873,17 @@
       <c r="J3" s="17"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="497" t="s">
+      <c r="A4" s="490" t="s">
         <v>166</v>
       </c>
-      <c r="B4" s="497"/>
-      <c r="C4" s="497"/>
-      <c r="D4" s="497"/>
-      <c r="E4" s="497"/>
-      <c r="F4" s="497"/>
-      <c r="G4" s="497"/>
-      <c r="H4" s="497"/>
-      <c r="I4" s="497"/>
+      <c r="B4" s="490"/>
+      <c r="C4" s="490"/>
+      <c r="D4" s="490"/>
+      <c r="E4" s="490"/>
+      <c r="F4" s="490"/>
+      <c r="G4" s="490"/>
+      <c r="H4" s="490"/>
+      <c r="I4" s="490"/>
       <c r="J4" s="46"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -11883,33 +11899,33 @@
       <c r="J5" s="46"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="498" t="s">
+      <c r="A6" s="491" t="s">
         <v>162</v>
       </c>
-      <c r="B6" s="499" t="s">
+      <c r="B6" s="492" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="498" t="s">
+      <c r="C6" s="491" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="500" t="s">
+      <c r="D6" s="493" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="500"/>
-      <c r="F6" s="500"/>
-      <c r="G6" s="500"/>
-      <c r="H6" s="501"/>
-      <c r="I6" s="498" t="s">
+      <c r="E6" s="493"/>
+      <c r="F6" s="493"/>
+      <c r="G6" s="493"/>
+      <c r="H6" s="494"/>
+      <c r="I6" s="491" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="495" t="s">
+      <c r="J6" s="488" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="498"/>
-      <c r="B7" s="499"/>
-      <c r="C7" s="498"/>
+      <c r="A7" s="491"/>
+      <c r="B7" s="492"/>
+      <c r="C7" s="491"/>
       <c r="D7" s="48" t="s">
         <v>32</v>
       </c>
@@ -11925,8 +11941,8 @@
       <c r="H7" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="498"/>
-      <c r="J7" s="496"/>
+      <c r="I7" s="491"/>
+      <c r="J7" s="489"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="195">
@@ -12029,10 +12045,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="55"/>
-      <c r="B11" s="494" t="s">
+      <c r="B11" s="487" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="494"/>
+      <c r="C11" s="487"/>
       <c r="D11" s="55"/>
       <c r="E11" s="55"/>
       <c r="F11" s="55"/>
@@ -12051,17 +12067,17 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="490" t="s">
+      <c r="A12" s="495" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="491"/>
-      <c r="C12" s="491"/>
-      <c r="D12" s="491"/>
-      <c r="E12" s="491"/>
-      <c r="F12" s="491"/>
-      <c r="G12" s="491"/>
-      <c r="H12" s="491"/>
-      <c r="I12" s="492"/>
+      <c r="B12" s="496"/>
+      <c r="C12" s="496"/>
+      <c r="D12" s="496"/>
+      <c r="E12" s="496"/>
+      <c r="F12" s="496"/>
+      <c r="G12" s="496"/>
+      <c r="H12" s="496"/>
+      <c r="I12" s="497"/>
       <c r="J12" s="203" t="s">
         <v>167</v>
       </c>
@@ -12070,31 +12086,36 @@
       <c r="G13" s="59"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="493"/>
-      <c r="B14" s="493"/>
-      <c r="C14" s="493"/>
-      <c r="E14" s="493" t="s">
+      <c r="A14" s="498"/>
+      <c r="B14" s="498"/>
+      <c r="C14" s="498"/>
+      <c r="E14" s="498" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="493"/>
-      <c r="G14" s="493"/>
-      <c r="H14" s="493"/>
-      <c r="I14" s="493"/>
+      <c r="F14" s="498"/>
+      <c r="G14" s="498"/>
+      <c r="H14" s="498"/>
+      <c r="I14" s="498"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="493"/>
-      <c r="B19" s="493"/>
-      <c r="C19" s="493"/>
-      <c r="E19" s="493" t="s">
+      <c r="A19" s="498"/>
+      <c r="B19" s="498"/>
+      <c r="C19" s="498"/>
+      <c r="E19" s="498" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="493"/>
-      <c r="G19" s="493"/>
-      <c r="H19" s="493"/>
-      <c r="I19" s="493"/>
+      <c r="F19" s="498"/>
+      <c r="G19" s="498"/>
+      <c r="H19" s="498"/>
+      <c r="I19" s="498"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="E19:I19"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="A4:I4"/>
@@ -12103,11 +12124,6 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:I7"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="E19:I19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -12137,13 +12153,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="515" t="s">
+      <c r="A1" s="507" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="515"/>
-      <c r="C1" s="515"/>
-      <c r="D1" s="515"/>
-      <c r="E1" s="515"/>
+      <c r="B1" s="507"/>
+      <c r="C1" s="507"/>
+      <c r="D1" s="507"/>
+      <c r="E1" s="507"/>
       <c r="F1" s="43"/>
       <c r="G1" s="43"/>
       <c r="H1" s="43"/>
@@ -12171,16 +12187,16 @@
       <c r="I3" s="17"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="497" t="s">
+      <c r="A4" s="490" t="s">
         <v>163</v>
       </c>
-      <c r="B4" s="497"/>
-      <c r="C4" s="497"/>
-      <c r="D4" s="497"/>
-      <c r="E4" s="497"/>
-      <c r="F4" s="497"/>
-      <c r="G4" s="497"/>
-      <c r="H4" s="497"/>
+      <c r="B4" s="490"/>
+      <c r="C4" s="490"/>
+      <c r="D4" s="490"/>
+      <c r="E4" s="490"/>
+      <c r="F4" s="490"/>
+      <c r="G4" s="490"/>
+      <c r="H4" s="490"/>
       <c r="I4" s="46"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -12195,29 +12211,29 @@
       <c r="I5" s="46"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="516" t="s">
+      <c r="A6" s="508" t="s">
         <v>162</v>
       </c>
-      <c r="B6" s="518" t="s">
+      <c r="B6" s="510" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="519" t="s">
+      <c r="C6" s="511" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="519"/>
-      <c r="E6" s="519"/>
-      <c r="F6" s="519"/>
-      <c r="G6" s="520"/>
-      <c r="H6" s="521" t="s">
+      <c r="D6" s="511"/>
+      <c r="E6" s="511"/>
+      <c r="F6" s="511"/>
+      <c r="G6" s="512"/>
+      <c r="H6" s="513" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="507" t="s">
+      <c r="I6" s="499" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="517"/>
-      <c r="B7" s="499"/>
+      <c r="A7" s="509"/>
+      <c r="B7" s="492"/>
       <c r="C7" s="148" t="s">
         <v>32</v>
       </c>
@@ -12233,8 +12249,8 @@
       <c r="G7" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="498"/>
-      <c r="I7" s="508"/>
+      <c r="H7" s="491"/>
+      <c r="I7" s="500"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="180">
@@ -12332,10 +12348,10 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="509">
+      <c r="A11" s="501">
         <v>328</v>
       </c>
-      <c r="B11" s="512">
+      <c r="B11" s="504">
         <v>43936</v>
       </c>
       <c r="C11" s="167" t="s">
@@ -12364,8 +12380,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="510"/>
-      <c r="B12" s="513"/>
+      <c r="A12" s="502"/>
+      <c r="B12" s="505"/>
       <c r="C12" s="102" t="s">
         <v>38</v>
       </c>
@@ -12392,8 +12408,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="510"/>
-      <c r="B13" s="513"/>
+      <c r="A13" s="502"/>
+      <c r="B13" s="505"/>
       <c r="C13" s="102" t="s">
         <v>41</v>
       </c>
@@ -12420,8 +12436,8 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="511"/>
-      <c r="B14" s="514"/>
+      <c r="A14" s="503"/>
+      <c r="B14" s="506"/>
       <c r="C14" s="172" t="s">
         <v>68</v>
       </c>
@@ -12480,10 +12496,10 @@
       </c>
     </row>
     <row r="16" spans="1:9" s="284" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="503">
+      <c r="A16" s="515">
         <v>342</v>
       </c>
-      <c r="B16" s="505">
+      <c r="B16" s="517">
         <v>43942</v>
       </c>
       <c r="C16" s="278" t="s">
@@ -12512,8 +12528,8 @@
       </c>
     </row>
     <row r="17" spans="1:9" s="284" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="504"/>
-      <c r="B17" s="506"/>
+      <c r="A17" s="516"/>
+      <c r="B17" s="518"/>
       <c r="C17" s="285" t="s">
         <v>38</v>
       </c>
@@ -12661,32 +12677,32 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="500" t="s">
+      <c r="A22" s="493" t="s">
         <v>165</v>
       </c>
-      <c r="B22" s="500"/>
-      <c r="C22" s="500"/>
-      <c r="D22" s="500"/>
-      <c r="E22" s="500"/>
-      <c r="F22" s="500"/>
-      <c r="G22" s="500"/>
-      <c r="H22" s="500"/>
+      <c r="B22" s="493"/>
+      <c r="C22" s="493"/>
+      <c r="D22" s="493"/>
+      <c r="E22" s="493"/>
+      <c r="F22" s="493"/>
+      <c r="G22" s="493"/>
+      <c r="H22" s="493"/>
       <c r="I22" s="192">
         <f>1088000-I16-I17</f>
         <v>270849.99999999988</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="502" t="s">
+      <c r="A23" s="514" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="502"/>
-      <c r="C23" s="502"/>
-      <c r="D23" s="502"/>
-      <c r="E23" s="502"/>
-      <c r="F23" s="502"/>
-      <c r="G23" s="502"/>
-      <c r="H23" s="502"/>
+      <c r="B23" s="514"/>
+      <c r="C23" s="514"/>
+      <c r="D23" s="514"/>
+      <c r="E23" s="514"/>
+      <c r="F23" s="514"/>
+      <c r="G23" s="514"/>
+      <c r="H23" s="514"/>
       <c r="I23" s="58">
         <f>H8-I22</f>
         <v>2950550.0000000005</v>
@@ -12704,8 +12720,8 @@
       <c r="I24" s="194"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="493"/>
-      <c r="B25" s="493"/>
+      <c r="A25" s="498"/>
+      <c r="B25" s="498"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -12717,8 +12733,8 @@
       <c r="H27" s="59"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="493"/>
-      <c r="B29" s="493"/>
+      <c r="A29" s="498"/>
+      <c r="B29" s="498"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
@@ -12728,6 +12744,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="B11:B14"/>
@@ -12737,12 +12759,6 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="H6:H7"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -13594,38 +13610,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="60" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="522" t="s">
+      <c r="A1" s="528" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="522"/>
-      <c r="C1" s="522"/>
-      <c r="D1" s="522"/>
+      <c r="B1" s="528"/>
+      <c r="C1" s="528"/>
+      <c r="D1" s="528"/>
       <c r="E1" s="129"/>
-      <c r="F1" s="523" t="s">
+      <c r="F1" s="529" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="523"/>
-      <c r="H1" s="523"/>
-      <c r="I1" s="523"/>
-      <c r="J1" s="523"/>
-      <c r="K1" s="523"/>
+      <c r="G1" s="529"/>
+      <c r="H1" s="529"/>
+      <c r="I1" s="529"/>
+      <c r="J1" s="529"/>
+      <c r="K1" s="529"/>
     </row>
     <row r="2" spans="1:12" s="60" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="524" t="s">
+      <c r="A2" s="530" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="524"/>
-      <c r="C2" s="524"/>
-      <c r="D2" s="524"/>
+      <c r="B2" s="530"/>
+      <c r="C2" s="530"/>
+      <c r="D2" s="530"/>
       <c r="E2" s="129"/>
-      <c r="F2" s="525" t="s">
+      <c r="F2" s="531" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="525"/>
-      <c r="H2" s="525"/>
-      <c r="I2" s="525"/>
-      <c r="J2" s="525"/>
-      <c r="K2" s="525"/>
+      <c r="G2" s="531"/>
+      <c r="H2" s="531"/>
+      <c r="I2" s="531"/>
+      <c r="J2" s="531"/>
+      <c r="K2" s="531"/>
     </row>
     <row r="3" spans="1:12" s="60" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="61"/>
@@ -13638,43 +13654,43 @@
       <c r="I3" s="130"/>
     </row>
     <row r="4" spans="1:12" s="63" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="526" t="s">
+      <c r="A4" s="532" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="526"/>
-      <c r="C4" s="526"/>
-      <c r="D4" s="526"/>
-      <c r="E4" s="526"/>
-      <c r="F4" s="526"/>
-      <c r="G4" s="526"/>
-      <c r="H4" s="526"/>
-      <c r="I4" s="526"/>
-      <c r="J4" s="526"/>
-      <c r="K4" s="526"/>
-      <c r="L4" s="526"/>
+      <c r="B4" s="532"/>
+      <c r="C4" s="532"/>
+      <c r="D4" s="532"/>
+      <c r="E4" s="532"/>
+      <c r="F4" s="532"/>
+      <c r="G4" s="532"/>
+      <c r="H4" s="532"/>
+      <c r="I4" s="532"/>
+      <c r="J4" s="532"/>
+      <c r="K4" s="532"/>
+      <c r="L4" s="532"/>
     </row>
     <row r="5" spans="1:12" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="527" t="s">
+      <c r="A5" s="519" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="527"/>
-      <c r="C5" s="527"/>
-      <c r="D5" s="527"/>
-      <c r="E5" s="527"/>
-      <c r="F5" s="527"/>
-      <c r="G5" s="527"/>
-      <c r="H5" s="527"/>
-      <c r="I5" s="527"/>
-      <c r="J5" s="527"/>
-      <c r="K5" s="527"/>
-      <c r="L5" s="527"/>
+      <c r="B5" s="519"/>
+      <c r="C5" s="519"/>
+      <c r="D5" s="519"/>
+      <c r="E5" s="519"/>
+      <c r="F5" s="519"/>
+      <c r="G5" s="519"/>
+      <c r="H5" s="519"/>
+      <c r="I5" s="519"/>
+      <c r="J5" s="519"/>
+      <c r="K5" s="519"/>
+      <c r="L5" s="519"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J6" s="528" t="s">
+      <c r="J6" s="520" t="s">
         <v>132</v>
       </c>
-      <c r="K6" s="528"/>
-      <c r="L6" s="528"/>
+      <c r="K6" s="520"/>
+      <c r="L6" s="520"/>
     </row>
     <row r="7" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="66" t="s">
@@ -13741,10 +13757,10 @@
       <c r="L8" s="72"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="529" t="s">
+      <c r="A9" s="521" t="s">
         <v>148</v>
       </c>
-      <c r="B9" s="530"/>
+      <c r="B9" s="522"/>
       <c r="C9" s="71"/>
       <c r="D9" s="71"/>
       <c r="E9" s="73"/>
@@ -13891,11 +13907,11 @@
       <c r="L13" s="80"/>
     </row>
     <row r="14" spans="1:12" s="88" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="533" t="s">
+      <c r="A14" s="525" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="534"/>
-      <c r="C14" s="535"/>
+      <c r="B14" s="526"/>
+      <c r="C14" s="527"/>
       <c r="D14" s="138">
         <f>SUM(D10:D13)</f>
         <v>37000000</v>
@@ -13922,10 +13938,10 @@
       <c r="L14" s="140"/>
     </row>
     <row r="15" spans="1:12" s="79" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="531" t="s">
+      <c r="A15" s="523" t="s">
         <v>155</v>
       </c>
-      <c r="B15" s="532"/>
+      <c r="B15" s="524"/>
       <c r="C15" s="132"/>
       <c r="D15" s="133"/>
       <c r="E15" s="147">
@@ -14008,11 +14024,11 @@
       <c r="L17" s="84"/>
     </row>
     <row r="18" spans="1:12" s="88" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="533" t="s">
+      <c r="A18" s="525" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="534"/>
-      <c r="C18" s="535"/>
+      <c r="B18" s="526"/>
+      <c r="C18" s="527"/>
       <c r="D18" s="141">
         <f>SUM(D16:D17)</f>
         <v>15000000</v>
@@ -14039,14 +14055,14 @@
       <c r="L18" s="140"/>
     </row>
     <row r="20" spans="1:12" s="88" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B20" s="471"/>
-      <c r="C20" s="471"/>
-      <c r="D20" s="471"/>
+      <c r="B20" s="466"/>
+      <c r="C20" s="466"/>
+      <c r="D20" s="466"/>
       <c r="E20" s="131"/>
-      <c r="H20" s="471"/>
-      <c r="I20" s="471"/>
-      <c r="J20" s="471"/>
-      <c r="K20" s="471"/>
+      <c r="H20" s="466"/>
+      <c r="I20" s="466"/>
+      <c r="J20" s="466"/>
+      <c r="K20" s="466"/>
     </row>
     <row r="21" spans="1:12" s="93" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="149" t="s">
@@ -14085,6 +14101,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="A4:L4"/>
     <mergeCell ref="A5:L5"/>
     <mergeCell ref="J6:L6"/>
     <mergeCell ref="A9:B9"/>
@@ -14093,11 +14114,6 @@
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="A4:L4"/>
   </mergeCells>
   <pageMargins left="0.37" right="0.28000000000000003" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -14108,8 +14124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14129,13 +14145,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="515" t="s">
+      <c r="A1" s="507" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="515"/>
-      <c r="C1" s="515"/>
-      <c r="D1" s="515"/>
-      <c r="E1" s="515"/>
+      <c r="B1" s="507"/>
+      <c r="C1" s="507"/>
+      <c r="D1" s="507"/>
+      <c r="E1" s="507"/>
       <c r="F1" s="43"/>
       <c r="G1" s="43"/>
       <c r="H1" s="43"/>
@@ -14163,16 +14179,16 @@
       <c r="I3" s="94"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="497" t="s">
+      <c r="A4" s="490" t="s">
         <v>212</v>
       </c>
-      <c r="B4" s="497"/>
-      <c r="C4" s="497"/>
-      <c r="D4" s="497"/>
-      <c r="E4" s="497"/>
-      <c r="F4" s="497"/>
-      <c r="G4" s="497"/>
-      <c r="H4" s="497"/>
+      <c r="B4" s="490"/>
+      <c r="C4" s="490"/>
+      <c r="D4" s="490"/>
+      <c r="E4" s="490"/>
+      <c r="F4" s="490"/>
+      <c r="G4" s="490"/>
+      <c r="H4" s="490"/>
       <c r="I4" s="46"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -14187,29 +14203,29 @@
       <c r="I5" s="46"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="498" t="s">
+      <c r="A6" s="491" t="s">
         <v>162</v>
       </c>
-      <c r="B6" s="499" t="s">
+      <c r="B6" s="492" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="500" t="s">
+      <c r="C6" s="493" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="500"/>
-      <c r="E6" s="500"/>
-      <c r="F6" s="500"/>
-      <c r="G6" s="501"/>
-      <c r="H6" s="498" t="s">
+      <c r="D6" s="493"/>
+      <c r="E6" s="493"/>
+      <c r="F6" s="493"/>
+      <c r="G6" s="494"/>
+      <c r="H6" s="491" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="495" t="s">
+      <c r="I6" s="488" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="498"/>
-      <c r="B7" s="499"/>
+      <c r="A7" s="491"/>
+      <c r="B7" s="492"/>
       <c r="C7" s="292" t="s">
         <v>32</v>
       </c>
@@ -14225,8 +14241,8 @@
       <c r="G7" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="498"/>
-      <c r="I7" s="496"/>
+      <c r="H7" s="491"/>
+      <c r="I7" s="489"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="310">
@@ -14259,10 +14275,10 @@
       <c r="J8" s="59"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="540">
+      <c r="A9" s="538">
         <v>452</v>
       </c>
-      <c r="B9" s="543">
+      <c r="B9" s="541">
         <v>43942</v>
       </c>
       <c r="C9" s="99" t="s">
@@ -14288,8 +14304,8 @@
       <c r="I9" s="306"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="541"/>
-      <c r="B10" s="544"/>
+      <c r="A10" s="539"/>
+      <c r="B10" s="542"/>
       <c r="C10" s="102" t="s">
         <v>40</v>
       </c>
@@ -14313,8 +14329,8 @@
       <c r="I10" s="307"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="542"/>
-      <c r="B11" s="545"/>
+      <c r="A11" s="540"/>
+      <c r="B11" s="543"/>
       <c r="C11" s="300" t="s">
         <v>68</v>
       </c>
@@ -14361,84 +14377,87 @@
       <c r="I12" s="309"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="549" t="s">
+      <c r="A13" s="533" t="s">
         <v>209</v>
       </c>
-      <c r="B13" s="549"/>
-      <c r="C13" s="549"/>
-      <c r="D13" s="549"/>
-      <c r="E13" s="549"/>
-      <c r="F13" s="549"/>
-      <c r="G13" s="549"/>
-      <c r="H13" s="549"/>
+      <c r="B13" s="533"/>
+      <c r="C13" s="533"/>
+      <c r="D13" s="533"/>
+      <c r="E13" s="533"/>
+      <c r="F13" s="533"/>
+      <c r="G13" s="533"/>
+      <c r="H13" s="533"/>
       <c r="I13" s="192">
         <f>H12</f>
         <v>19328400.000000004</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="549" t="s">
+      <c r="A14" s="533" t="s">
         <v>207</v>
       </c>
-      <c r="B14" s="549"/>
-      <c r="C14" s="549"/>
-      <c r="D14" s="549"/>
-      <c r="E14" s="549"/>
-      <c r="F14" s="549"/>
-      <c r="G14" s="549"/>
-      <c r="H14" s="549"/>
+      <c r="B14" s="533"/>
+      <c r="C14" s="533"/>
+      <c r="D14" s="533"/>
+      <c r="E14" s="533"/>
+      <c r="F14" s="533"/>
+      <c r="G14" s="533"/>
+      <c r="H14" s="533"/>
       <c r="I14" s="192">
         <v>23794300</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="546" t="s">
+      <c r="A15" s="544" t="s">
         <v>206</v>
       </c>
-      <c r="B15" s="547"/>
-      <c r="C15" s="547"/>
-      <c r="D15" s="547"/>
-      <c r="E15" s="547"/>
-      <c r="F15" s="547"/>
-      <c r="G15" s="547"/>
-      <c r="H15" s="548"/>
+      <c r="B15" s="545"/>
+      <c r="C15" s="545"/>
+      <c r="D15" s="545"/>
+      <c r="E15" s="545"/>
+      <c r="F15" s="545"/>
+      <c r="G15" s="545"/>
+      <c r="H15" s="546"/>
       <c r="I15" s="192">
         <v>10000000</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="546" t="s">
+      <c r="A16" s="544" t="s">
         <v>208</v>
       </c>
-      <c r="B16" s="547"/>
-      <c r="C16" s="547"/>
-      <c r="D16" s="547"/>
-      <c r="E16" s="547"/>
-      <c r="F16" s="547"/>
-      <c r="G16" s="547"/>
-      <c r="H16" s="548"/>
+      <c r="B16" s="545"/>
+      <c r="C16" s="545"/>
+      <c r="D16" s="545"/>
+      <c r="E16" s="545"/>
+      <c r="F16" s="545"/>
+      <c r="G16" s="545"/>
+      <c r="H16" s="546"/>
       <c r="I16" s="192">
         <f>'Bảng lương'!J16</f>
         <v>7538461.538461539</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="537" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="535" t="s">
         <v>204</v>
       </c>
-      <c r="B17" s="538"/>
-      <c r="C17" s="538"/>
-      <c r="D17" s="538"/>
-      <c r="E17" s="538"/>
-      <c r="F17" s="538"/>
-      <c r="G17" s="538"/>
-      <c r="H17" s="539"/>
+      <c r="B17" s="536"/>
+      <c r="C17" s="536"/>
+      <c r="D17" s="536"/>
+      <c r="E17" s="536"/>
+      <c r="F17" s="536"/>
+      <c r="G17" s="536"/>
+      <c r="H17" s="537"/>
       <c r="I17" s="58">
         <f>I13+I14-I15-I16</f>
         <v>25584238.46153846</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K17" s="42" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="193"/>
       <c r="B18" s="193"/>
       <c r="C18" s="193"/>
@@ -14449,9 +14468,9 @@
       <c r="H18" s="193"/>
       <c r="I18" s="194"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="493"/>
-      <c r="B19" s="493"/>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="498"/>
+      <c r="B19" s="498"/>
       <c r="F19" s="9" t="s">
         <v>205</v>
       </c>
@@ -14460,40 +14479,32 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H21" s="59"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="493"/>
-      <c r="B23" s="493"/>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="498"/>
+      <c r="B23" s="498"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
     </row>
-    <row r="26" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="536" t="s">
+    <row r="26" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="534" t="s">
         <v>210</v>
       </c>
-      <c r="B26" s="536"/>
-      <c r="C26" s="536"/>
-      <c r="D26" s="536"/>
-      <c r="E26" s="536"/>
-      <c r="F26" s="536"/>
-      <c r="G26" s="536"/>
-      <c r="H26" s="536"/>
-      <c r="I26" s="536"/>
+      <c r="B26" s="534"/>
+      <c r="C26" s="534"/>
+      <c r="D26" s="534"/>
+      <c r="E26" s="534"/>
+      <c r="F26" s="534"/>
+      <c r="G26" s="534"/>
+      <c r="H26" s="534"/>
+      <c r="I26" s="534"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:H7"/>
     <mergeCell ref="A26:I26"/>
     <mergeCell ref="A17:H17"/>
     <mergeCell ref="A19:B19"/>
@@ -14503,6 +14514,14 @@
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="A15:H15"/>
     <mergeCell ref="A13:H13"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/KẾ TOÁN - THÁI HẰNG/Báo cáo/EXCEL/NANOMILK 4_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/Báo cáo/EXCEL/NANOMILK 4_2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9930" yWindow="375" windowWidth="9345" windowHeight="8010" tabRatio="815" activeTab="7"/>
+    <workbookView xWindow="9930" yWindow="375" windowWidth="9345" windowHeight="8010" tabRatio="815"/>
   </bookViews>
   <sheets>
     <sheet name="THU CHI" sheetId="1" r:id="rId1"/>
@@ -2812,6 +2812,42 @@
     <xf numFmtId="0" fontId="34" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="23" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="23" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2824,41 +2860,35 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="23" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="23" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2866,12 +2896,39 @@
     <xf numFmtId="0" fontId="34" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="168" fontId="34" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="34" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="34" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="168" fontId="34" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="34" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="34" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2881,32 +2938,53 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="34" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="34" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="34" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="33" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="33" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="33" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="33" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="33" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="33" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2917,109 +2995,37 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="33" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="33" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="33" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="33" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="33" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="33" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="34" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="34" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="34" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3061,12 +3067,6 @@
     <xf numFmtId="167" fontId="19" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3085,6 +3085,18 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3109,17 +3121,20 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="31" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="31" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3166,19 +3181,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3208,24 +3223,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3263,6 +3260,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3300,8 +3300,8 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>216364</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>126067</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3618,12 +3618,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q196"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F194" sqref="F194"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3704,16 +3703,16 @@
       <c r="Q3" s="226"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="399" t="s">
+      <c r="A4" s="411" t="s">
         <v>260</v>
       </c>
-      <c r="B4" s="399"/>
-      <c r="C4" s="399"/>
-      <c r="D4" s="399"/>
-      <c r="E4" s="399"/>
-      <c r="F4" s="399"/>
-      <c r="G4" s="399"/>
-      <c r="H4" s="399"/>
+      <c r="B4" s="411"/>
+      <c r="C4" s="411"/>
+      <c r="D4" s="411"/>
+      <c r="E4" s="411"/>
+      <c r="F4" s="411"/>
+      <c r="G4" s="411"/>
+      <c r="H4" s="411"/>
       <c r="I4" s="226"/>
       <c r="J4" s="226"/>
       <c r="K4" s="226"/>
@@ -3734,32 +3733,32 @@
       <c r="H5" s="223"/>
     </row>
     <row r="6" spans="1:17" s="224" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="400" t="s">
+      <c r="A6" s="399" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="405" t="s">
+      <c r="B6" s="396" t="s">
         <v>229</v>
       </c>
-      <c r="C6" s="400" t="s">
+      <c r="C6" s="399" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="402" t="s">
+      <c r="D6" s="401" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="404" t="s">
+      <c r="E6" s="403" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="404"/>
-      <c r="G6" s="404" t="s">
+      <c r="F6" s="403"/>
+      <c r="G6" s="403" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="404"/>
-    </row>
-    <row r="7" spans="1:17" s="224" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="401"/>
-      <c r="B7" s="406"/>
-      <c r="C7" s="401"/>
-      <c r="D7" s="403"/>
+      <c r="H6" s="403"/>
+    </row>
+    <row r="7" spans="1:17" s="224" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="400"/>
+      <c r="B7" s="397"/>
+      <c r="C7" s="400"/>
+      <c r="D7" s="402"/>
       <c r="E7" s="228" t="s">
         <v>188</v>
       </c>
@@ -3773,7 +3772,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="209">
         <v>43905</v>
       </c>
@@ -3793,7 +3792,7 @@
         <v>892000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="209">
         <v>43910</v>
       </c>
@@ -3813,7 +3812,7 @@
         <v>143000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="209">
         <v>43910</v>
       </c>
@@ -3833,7 +3832,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="209">
         <v>43912</v>
       </c>
@@ -3853,7 +3852,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="209">
         <v>43912</v>
       </c>
@@ -3873,7 +3872,7 @@
         <v>504300</v>
       </c>
     </row>
-    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="209">
         <v>43912</v>
       </c>
@@ -3893,7 +3892,7 @@
         <v>2718182</v>
       </c>
     </row>
-    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="209">
         <v>43914</v>
       </c>
@@ -3913,7 +3912,7 @@
         <v>382000</v>
       </c>
     </row>
-    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="209">
         <v>43915</v>
       </c>
@@ -3933,7 +3932,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="209">
         <v>43915</v>
       </c>
@@ -3953,7 +3952,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="209">
         <v>43915</v>
       </c>
@@ -3973,7 +3972,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="209">
         <v>43915</v>
       </c>
@@ -3993,7 +3992,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="209">
         <v>43915</v>
       </c>
@@ -4013,7 +4012,7 @@
         <v>136864</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="209">
         <v>43915</v>
       </c>
@@ -4033,7 +4032,7 @@
         <v>4200000</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="209">
         <v>43915</v>
       </c>
@@ -4053,7 +4052,7 @@
         <v>1014600</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="209">
         <v>43919</v>
       </c>
@@ -4073,7 +4072,7 @@
         <v>130800</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="209">
         <v>43920</v>
       </c>
@@ -4093,7 +4092,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="209">
         <v>43920</v>
       </c>
@@ -4133,7 +4132,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="209">
         <v>43921</v>
       </c>
@@ -4153,7 +4152,7 @@
       <c r="G26" s="212"/>
       <c r="H26" s="231"/>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="209">
         <v>43921</v>
       </c>
@@ -4173,7 +4172,7 @@
       <c r="G27" s="212"/>
       <c r="H27" s="231"/>
     </row>
-    <row r="28" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="209">
         <v>43922</v>
       </c>
@@ -4193,7 +4192,7 @@
       <c r="G28" s="212"/>
       <c r="H28" s="231"/>
     </row>
-    <row r="29" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="209">
         <v>43925</v>
       </c>
@@ -4213,7 +4212,7 @@
       <c r="G29" s="212"/>
       <c r="H29" s="231"/>
     </row>
-    <row r="30" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="209">
         <v>43929</v>
       </c>
@@ -4233,7 +4232,7 @@
       <c r="G30" s="212"/>
       <c r="H30" s="231"/>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="209">
         <v>43929</v>
       </c>
@@ -4253,7 +4252,7 @@
       </c>
       <c r="H31" s="231"/>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="209">
         <v>43931</v>
       </c>
@@ -4273,7 +4272,7 @@
       <c r="G32" s="212"/>
       <c r="H32" s="231"/>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="209">
         <v>43932</v>
       </c>
@@ -4293,7 +4292,7 @@
       <c r="G33" s="212"/>
       <c r="H33" s="231"/>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="209">
         <v>43933</v>
       </c>
@@ -4313,7 +4312,7 @@
       <c r="G34" s="212"/>
       <c r="H34" s="231"/>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="209">
         <v>43934</v>
       </c>
@@ -4333,7 +4332,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="209">
         <v>43935</v>
       </c>
@@ -4353,7 +4352,7 @@
       <c r="G36" s="212"/>
       <c r="H36" s="231"/>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="209">
         <v>43936</v>
       </c>
@@ -4373,7 +4372,7 @@
       <c r="G37" s="212"/>
       <c r="H37" s="231"/>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="209">
         <v>43939</v>
       </c>
@@ -4413,7 +4412,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="209">
         <v>43941</v>
       </c>
@@ -4433,7 +4432,7 @@
       <c r="G40" s="212"/>
       <c r="H40" s="231"/>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="209">
         <v>43941</v>
       </c>
@@ -4453,7 +4452,7 @@
         <v>19043</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="209">
         <v>43941</v>
       </c>
@@ -4473,7 +4472,7 @@
       <c r="G42" s="212"/>
       <c r="H42" s="231"/>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="209">
         <v>43942</v>
       </c>
@@ -4493,7 +4492,7 @@
       </c>
       <c r="H43" s="231"/>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="209">
         <v>43942</v>
       </c>
@@ -4513,7 +4512,7 @@
         <v>1469000</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="209">
         <v>43942</v>
       </c>
@@ -4533,7 +4532,7 @@
       <c r="G45" s="212"/>
       <c r="H45" s="231"/>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="209">
         <v>43942</v>
       </c>
@@ -4553,7 +4552,7 @@
       <c r="G46" s="212"/>
       <c r="H46" s="231"/>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="209">
         <v>43942</v>
       </c>
@@ -4573,7 +4572,7 @@
       <c r="G47" s="212"/>
       <c r="H47" s="231"/>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="209">
         <v>43942</v>
       </c>
@@ -4593,7 +4592,7 @@
       <c r="G48" s="212"/>
       <c r="H48" s="231"/>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="209">
         <v>43943</v>
       </c>
@@ -4613,7 +4612,7 @@
       <c r="G49" s="212"/>
       <c r="H49" s="231"/>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="209">
         <v>43944</v>
       </c>
@@ -4633,7 +4632,7 @@
         <v>4050000</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="209">
         <v>43944</v>
       </c>
@@ -4653,7 +4652,7 @@
       <c r="G51" s="212"/>
       <c r="H51" s="231"/>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="209">
         <v>43944</v>
       </c>
@@ -4673,7 +4672,7 @@
       <c r="G52" s="212"/>
       <c r="H52" s="231"/>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="209">
         <v>43944</v>
       </c>
@@ -4693,7 +4692,7 @@
       <c r="G53" s="212"/>
       <c r="H53" s="231"/>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="209">
         <v>43944</v>
       </c>
@@ -4713,7 +4712,7 @@
       <c r="G54" s="212"/>
       <c r="H54" s="231"/>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="209">
         <v>43944</v>
       </c>
@@ -4733,7 +4732,7 @@
         <v>3371000</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="209">
         <v>43945</v>
       </c>
@@ -4753,7 +4752,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="209">
         <v>43946</v>
       </c>
@@ -4773,7 +4772,7 @@
         <v>270000</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="209">
         <v>43946</v>
       </c>
@@ -4793,7 +4792,7 @@
       <c r="G58" s="212"/>
       <c r="H58" s="231"/>
     </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="209">
         <v>43946</v>
       </c>
@@ -4813,7 +4812,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="209">
         <v>43946</v>
       </c>
@@ -4833,7 +4832,7 @@
       </c>
       <c r="H60" s="231"/>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="209">
         <v>43946</v>
       </c>
@@ -4853,7 +4852,7 @@
       <c r="G61" s="212"/>
       <c r="H61" s="231"/>
     </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="209">
         <v>43947</v>
       </c>
@@ -4873,7 +4872,7 @@
       <c r="G62" s="212"/>
       <c r="H62" s="231"/>
     </row>
-    <row r="63" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="209">
         <v>43948</v>
       </c>
@@ -4893,7 +4892,7 @@
       </c>
       <c r="H63" s="231"/>
     </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="209">
         <v>43947</v>
       </c>
@@ -4913,7 +4912,7 @@
       <c r="G64" s="212"/>
       <c r="H64" s="231"/>
     </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="209">
         <v>43947</v>
       </c>
@@ -4933,7 +4932,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="209">
         <v>43949</v>
       </c>
@@ -4953,7 +4952,7 @@
       <c r="G66" s="212"/>
       <c r="H66" s="231"/>
     </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="209">
         <v>43949</v>
       </c>
@@ -4973,7 +4972,7 @@
       <c r="G67" s="212"/>
       <c r="H67" s="231"/>
     </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="209">
         <v>43951</v>
       </c>
@@ -4994,7 +4993,7 @@
         <v>225000</v>
       </c>
     </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="209">
         <v>43951</v>
       </c>
@@ -5015,7 +5014,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="209">
         <v>43951</v>
       </c>
@@ -5035,7 +5034,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="209">
         <v>43951</v>
       </c>
@@ -5056,7 +5055,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="209">
         <v>43951</v>
       </c>
@@ -5076,7 +5075,7 @@
       <c r="G72" s="212"/>
       <c r="H72" s="231"/>
     </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="209">
         <v>43951</v>
       </c>
@@ -5096,7 +5095,7 @@
         <v>2950550</v>
       </c>
     </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="209">
         <v>43951</v>
       </c>
@@ -5116,13 +5115,13 @@
         <v>540000</v>
       </c>
     </row>
-    <row r="75" spans="1:10" s="234" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="396" t="s">
+    <row r="75" spans="1:10" s="234" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A75" s="408" t="s">
         <v>10</v>
       </c>
-      <c r="B75" s="397"/>
-      <c r="C75" s="397"/>
-      <c r="D75" s="398"/>
+      <c r="B75" s="409"/>
+      <c r="C75" s="409"/>
+      <c r="D75" s="410"/>
       <c r="E75" s="233">
         <f>SUM(E8:E74)</f>
         <v>55887450</v>
@@ -5179,10 +5178,10 @@
     <row r="79" spans="1:10" s="234" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A79" s="236"/>
       <c r="B79" s="236"/>
-      <c r="C79" s="408" t="s">
+      <c r="C79" s="406" t="s">
         <v>286</v>
       </c>
-      <c r="D79" s="408"/>
+      <c r="D79" s="406"/>
       <c r="E79" s="237"/>
       <c r="F79" s="237"/>
       <c r="G79" s="237"/>
@@ -5190,32 +5189,32 @@
       <c r="J79" s="235"/>
     </row>
     <row r="80" spans="1:10" s="224" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="400" t="s">
+      <c r="A80" s="399" t="s">
         <v>4</v>
       </c>
-      <c r="B80" s="405" t="s">
+      <c r="B80" s="396" t="s">
         <v>229</v>
       </c>
-      <c r="C80" s="400" t="s">
+      <c r="C80" s="399" t="s">
         <v>5</v>
       </c>
-      <c r="D80" s="402" t="s">
+      <c r="D80" s="401" t="s">
         <v>6</v>
       </c>
-      <c r="E80" s="404" t="s">
+      <c r="E80" s="403" t="s">
         <v>7</v>
       </c>
-      <c r="F80" s="404"/>
-      <c r="G80" s="404" t="s">
+      <c r="F80" s="403"/>
+      <c r="G80" s="403" t="s">
         <v>8</v>
       </c>
-      <c r="H80" s="404"/>
+      <c r="H80" s="403"/>
     </row>
     <row r="81" spans="1:10" s="224" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="401"/>
-      <c r="B81" s="406"/>
-      <c r="C81" s="401"/>
-      <c r="D81" s="403"/>
+      <c r="A81" s="400"/>
+      <c r="B81" s="397"/>
+      <c r="C81" s="400"/>
+      <c r="D81" s="402"/>
       <c r="E81" s="228" t="s">
         <v>188</v>
       </c>
@@ -5297,10 +5296,10 @@
     <row r="86" spans="1:10" s="234" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A86" s="236"/>
       <c r="B86" s="236"/>
-      <c r="C86" s="408" t="s">
+      <c r="C86" s="406" t="s">
         <v>287</v>
       </c>
-      <c r="D86" s="408"/>
+      <c r="D86" s="406"/>
       <c r="E86" s="237"/>
       <c r="F86" s="237"/>
       <c r="G86" s="237"/>
@@ -5308,32 +5307,32 @@
       <c r="J86" s="235"/>
     </row>
     <row r="87" spans="1:10" s="224" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="400" t="s">
+      <c r="A87" s="399" t="s">
         <v>4</v>
       </c>
-      <c r="B87" s="405" t="s">
+      <c r="B87" s="396" t="s">
         <v>229</v>
       </c>
-      <c r="C87" s="400" t="s">
+      <c r="C87" s="399" t="s">
         <v>5</v>
       </c>
-      <c r="D87" s="402" t="s">
+      <c r="D87" s="401" t="s">
         <v>6</v>
       </c>
-      <c r="E87" s="404" t="s">
+      <c r="E87" s="403" t="s">
         <v>7</v>
       </c>
-      <c r="F87" s="404"/>
-      <c r="G87" s="404" t="s">
+      <c r="F87" s="403"/>
+      <c r="G87" s="403" t="s">
         <v>8</v>
       </c>
-      <c r="H87" s="404"/>
+      <c r="H87" s="403"/>
     </row>
     <row r="88" spans="1:10" s="224" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="401"/>
-      <c r="B88" s="406"/>
-      <c r="C88" s="401"/>
-      <c r="D88" s="403"/>
+      <c r="A88" s="400"/>
+      <c r="B88" s="397"/>
+      <c r="C88" s="400"/>
+      <c r="D88" s="402"/>
       <c r="E88" s="228" t="s">
         <v>188</v>
       </c>
@@ -5396,10 +5395,10 @@
     <row r="92" spans="1:10" s="234" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A92" s="236"/>
       <c r="B92" s="236"/>
-      <c r="C92" s="409" t="s">
+      <c r="C92" s="398" t="s">
         <v>25</v>
       </c>
-      <c r="D92" s="409"/>
+      <c r="D92" s="398"/>
       <c r="E92" s="237"/>
       <c r="F92" s="237"/>
       <c r="G92" s="237"/>
@@ -5407,32 +5406,32 @@
       <c r="J92" s="235"/>
     </row>
     <row r="93" spans="1:10" s="224" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="400" t="s">
+      <c r="A93" s="399" t="s">
         <v>4</v>
       </c>
-      <c r="B93" s="405" t="s">
+      <c r="B93" s="396" t="s">
         <v>229</v>
       </c>
-      <c r="C93" s="400" t="s">
+      <c r="C93" s="399" t="s">
         <v>5</v>
       </c>
-      <c r="D93" s="402" t="s">
+      <c r="D93" s="401" t="s">
         <v>6</v>
       </c>
-      <c r="E93" s="404" t="s">
+      <c r="E93" s="403" t="s">
         <v>7</v>
       </c>
-      <c r="F93" s="404"/>
-      <c r="G93" s="404" t="s">
+      <c r="F93" s="403"/>
+      <c r="G93" s="403" t="s">
         <v>8</v>
       </c>
-      <c r="H93" s="404"/>
+      <c r="H93" s="403"/>
     </row>
     <row r="94" spans="1:10" s="224" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="401"/>
-      <c r="B94" s="406"/>
-      <c r="C94" s="401"/>
-      <c r="D94" s="403"/>
+      <c r="A94" s="400"/>
+      <c r="B94" s="397"/>
+      <c r="C94" s="400"/>
+      <c r="D94" s="402"/>
       <c r="E94" s="228" t="s">
         <v>188</v>
       </c>
@@ -5555,10 +5554,10 @@
     <row r="101" spans="1:10" s="234" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A101" s="236"/>
       <c r="B101" s="236"/>
-      <c r="C101" s="409" t="s">
+      <c r="C101" s="398" t="s">
         <v>69</v>
       </c>
-      <c r="D101" s="409"/>
+      <c r="D101" s="398"/>
       <c r="E101" s="237"/>
       <c r="F101" s="237"/>
       <c r="G101" s="237"/>
@@ -5566,32 +5565,32 @@
       <c r="J101" s="235"/>
     </row>
     <row r="102" spans="1:10" s="224" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="400" t="s">
+      <c r="A102" s="399" t="s">
         <v>4</v>
       </c>
-      <c r="B102" s="405" t="s">
+      <c r="B102" s="396" t="s">
         <v>288</v>
       </c>
-      <c r="C102" s="400" t="s">
+      <c r="C102" s="399" t="s">
         <v>5</v>
       </c>
-      <c r="D102" s="402" t="s">
+      <c r="D102" s="401" t="s">
         <v>6</v>
       </c>
-      <c r="E102" s="404" t="s">
+      <c r="E102" s="403" t="s">
         <v>7</v>
       </c>
-      <c r="F102" s="404"/>
-      <c r="G102" s="404" t="s">
+      <c r="F102" s="403"/>
+      <c r="G102" s="403" t="s">
         <v>8</v>
       </c>
-      <c r="H102" s="404"/>
+      <c r="H102" s="403"/>
     </row>
     <row r="103" spans="1:10" s="224" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="401"/>
-      <c r="B103" s="406"/>
-      <c r="C103" s="401"/>
-      <c r="D103" s="403"/>
+      <c r="A103" s="400"/>
+      <c r="B103" s="397"/>
+      <c r="C103" s="400"/>
+      <c r="D103" s="402"/>
       <c r="E103" s="228" t="s">
         <v>188</v>
       </c>
@@ -5771,10 +5770,10 @@
     <row r="113" spans="1:10" s="234" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A113" s="236"/>
       <c r="B113" s="236"/>
-      <c r="C113" s="409" t="s">
+      <c r="C113" s="398" t="s">
         <v>9</v>
       </c>
-      <c r="D113" s="409"/>
+      <c r="D113" s="398"/>
       <c r="E113" s="237"/>
       <c r="F113" s="237"/>
       <c r="G113" s="237"/>
@@ -5782,32 +5781,32 @@
       <c r="J113" s="235"/>
     </row>
     <row r="114" spans="1:10" s="224" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="400" t="s">
+      <c r="A114" s="399" t="s">
         <v>4</v>
       </c>
-      <c r="B114" s="405" t="s">
+      <c r="B114" s="396" t="s">
         <v>229</v>
       </c>
-      <c r="C114" s="400" t="s">
+      <c r="C114" s="399" t="s">
         <v>5</v>
       </c>
-      <c r="D114" s="402" t="s">
+      <c r="D114" s="401" t="s">
         <v>6</v>
       </c>
-      <c r="E114" s="404" t="s">
+      <c r="E114" s="403" t="s">
         <v>7</v>
       </c>
-      <c r="F114" s="404"/>
-      <c r="G114" s="404" t="s">
+      <c r="F114" s="403"/>
+      <c r="G114" s="403" t="s">
         <v>8</v>
       </c>
-      <c r="H114" s="404"/>
+      <c r="H114" s="403"/>
     </row>
     <row r="115" spans="1:10" s="224" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="401"/>
-      <c r="B115" s="406"/>
-      <c r="C115" s="401"/>
-      <c r="D115" s="403"/>
+      <c r="A115" s="400"/>
+      <c r="B115" s="397"/>
+      <c r="C115" s="400"/>
+      <c r="D115" s="402"/>
       <c r="E115" s="228" t="s">
         <v>188</v>
       </c>
@@ -6127,42 +6126,42 @@
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="261"/>
       <c r="B132" s="261"/>
-      <c r="C132" s="409" t="s">
+      <c r="C132" s="398" t="s">
         <v>129</v>
       </c>
-      <c r="D132" s="409"/>
+      <c r="D132" s="398"/>
       <c r="E132" s="262"/>
       <c r="F132" s="263"/>
       <c r="G132" s="262"/>
       <c r="H132" s="264"/>
     </row>
     <row r="133" spans="1:8" s="224" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="406" t="s">
+      <c r="A133" s="397" t="s">
         <v>4</v>
       </c>
-      <c r="B133" s="405" t="s">
+      <c r="B133" s="396" t="s">
         <v>229</v>
       </c>
-      <c r="C133" s="406" t="s">
+      <c r="C133" s="397" t="s">
         <v>5</v>
       </c>
-      <c r="D133" s="410" t="s">
+      <c r="D133" s="404" t="s">
         <v>6</v>
       </c>
-      <c r="E133" s="411" t="s">
+      <c r="E133" s="405" t="s">
         <v>7</v>
       </c>
-      <c r="F133" s="411"/>
-      <c r="G133" s="411" t="s">
+      <c r="F133" s="405"/>
+      <c r="G133" s="405" t="s">
         <v>8</v>
       </c>
-      <c r="H133" s="411"/>
+      <c r="H133" s="405"/>
     </row>
     <row r="134" spans="1:8" s="224" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="401"/>
-      <c r="B134" s="406"/>
-      <c r="C134" s="401"/>
-      <c r="D134" s="403"/>
+      <c r="A134" s="400"/>
+      <c r="B134" s="397"/>
+      <c r="C134" s="400"/>
+      <c r="D134" s="402"/>
       <c r="E134" s="228" t="s">
         <v>188</v>
       </c>
@@ -6783,38 +6782,38 @@
       <c r="H165" s="243"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C166" s="409" t="s">
+      <c r="C166" s="398" t="s">
         <v>189</v>
       </c>
-      <c r="D166" s="409"/>
+      <c r="D166" s="398"/>
     </row>
     <row r="167" spans="1:8" s="224" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="400" t="s">
+      <c r="A167" s="399" t="s">
         <v>4</v>
       </c>
-      <c r="B167" s="405" t="s">
+      <c r="B167" s="396" t="s">
         <v>229</v>
       </c>
-      <c r="C167" s="400" t="s">
+      <c r="C167" s="399" t="s">
         <v>5</v>
       </c>
-      <c r="D167" s="402" t="s">
+      <c r="D167" s="401" t="s">
         <v>6</v>
       </c>
-      <c r="E167" s="404" t="s">
+      <c r="E167" s="403" t="s">
         <v>7</v>
       </c>
-      <c r="F167" s="404"/>
-      <c r="G167" s="404" t="s">
+      <c r="F167" s="403"/>
+      <c r="G167" s="403" t="s">
         <v>8</v>
       </c>
-      <c r="H167" s="404"/>
+      <c r="H167" s="403"/>
     </row>
     <row r="168" spans="1:8" s="224" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="401"/>
-      <c r="B168" s="406"/>
-      <c r="C168" s="401"/>
-      <c r="D168" s="403"/>
+      <c r="A168" s="400"/>
+      <c r="B168" s="397"/>
+      <c r="C168" s="400"/>
+      <c r="D168" s="402"/>
       <c r="E168" s="228" t="s">
         <v>188</v>
       </c>
@@ -6895,38 +6894,38 @@
       <c r="H172" s="241"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C173" s="409" t="s">
+      <c r="C173" s="398" t="s">
         <v>12</v>
       </c>
-      <c r="D173" s="409"/>
+      <c r="D173" s="398"/>
     </row>
     <row r="174" spans="1:8" s="224" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="400" t="s">
+      <c r="A174" s="399" t="s">
         <v>4</v>
       </c>
-      <c r="B174" s="405" t="s">
+      <c r="B174" s="396" t="s">
         <v>229</v>
       </c>
-      <c r="C174" s="400" t="s">
+      <c r="C174" s="399" t="s">
         <v>5</v>
       </c>
-      <c r="D174" s="402" t="s">
+      <c r="D174" s="401" t="s">
         <v>6</v>
       </c>
-      <c r="E174" s="404" t="s">
+      <c r="E174" s="403" t="s">
         <v>7</v>
       </c>
-      <c r="F174" s="404"/>
-      <c r="G174" s="404" t="s">
+      <c r="F174" s="403"/>
+      <c r="G174" s="403" t="s">
         <v>8</v>
       </c>
-      <c r="H174" s="404"/>
+      <c r="H174" s="403"/>
     </row>
     <row r="175" spans="1:8" s="224" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="401"/>
-      <c r="B175" s="406"/>
-      <c r="C175" s="401"/>
-      <c r="D175" s="403"/>
+      <c r="A175" s="400"/>
+      <c r="B175" s="397"/>
+      <c r="C175" s="400"/>
+      <c r="D175" s="402"/>
       <c r="E175" s="228" t="s">
         <v>188</v>
       </c>
@@ -7087,38 +7086,38 @@
       <c r="H183" s="243"/>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C184" s="409" t="s">
+      <c r="C184" s="398" t="s">
         <v>13</v>
       </c>
-      <c r="D184" s="409"/>
+      <c r="D184" s="398"/>
     </row>
     <row r="185" spans="1:10" s="224" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="400" t="s">
+      <c r="A185" s="399" t="s">
         <v>4</v>
       </c>
-      <c r="B185" s="405" t="s">
+      <c r="B185" s="396" t="s">
         <v>229</v>
       </c>
-      <c r="C185" s="400" t="s">
+      <c r="C185" s="399" t="s">
         <v>5</v>
       </c>
-      <c r="D185" s="402" t="s">
+      <c r="D185" s="401" t="s">
         <v>6</v>
       </c>
-      <c r="E185" s="404" t="s">
+      <c r="E185" s="403" t="s">
         <v>7</v>
       </c>
-      <c r="F185" s="404"/>
-      <c r="G185" s="404" t="s">
+      <c r="F185" s="403"/>
+      <c r="G185" s="403" t="s">
         <v>8</v>
       </c>
-      <c r="H185" s="404"/>
+      <c r="H185" s="403"/>
     </row>
     <row r="186" spans="1:10" s="224" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="401"/>
-      <c r="B186" s="406"/>
-      <c r="C186" s="401"/>
-      <c r="D186" s="403"/>
+      <c r="A186" s="400"/>
+      <c r="B186" s="397"/>
+      <c r="C186" s="400"/>
+      <c r="D186" s="402"/>
       <c r="E186" s="228" t="s">
         <v>188</v>
       </c>
@@ -7224,58 +7223,23 @@
     </row>
   </sheetData>
   <autoFilter ref="A6:H75">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Vận chuyển"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="4" hiddenButton="1" showButton="0"/>
     <filterColumn colId="6" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="72">
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="B167:B168"/>
-    <mergeCell ref="B174:B175"/>
-    <mergeCell ref="C184:D184"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C166:D166"/>
-    <mergeCell ref="C173:D173"/>
-    <mergeCell ref="A185:A186"/>
-    <mergeCell ref="C185:C186"/>
-    <mergeCell ref="D185:D186"/>
-    <mergeCell ref="E185:F185"/>
-    <mergeCell ref="G185:H185"/>
-    <mergeCell ref="B185:B186"/>
-    <mergeCell ref="A174:A175"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="D174:D175"/>
-    <mergeCell ref="E174:F174"/>
-    <mergeCell ref="G174:H174"/>
-    <mergeCell ref="A167:A168"/>
-    <mergeCell ref="C167:C168"/>
-    <mergeCell ref="D167:D168"/>
-    <mergeCell ref="E167:F167"/>
-    <mergeCell ref="G167:H167"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="E133:F133"/>
-    <mergeCell ref="G133:H133"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="G114:H114"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="D80:D81"/>
     <mergeCell ref="E80:F80"/>
     <mergeCell ref="G80:H80"/>
     <mergeCell ref="A93:A94"/>
@@ -7292,19 +7256,49 @@
     <mergeCell ref="D87:D88"/>
     <mergeCell ref="E87:F87"/>
     <mergeCell ref="G87:H87"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="E133:F133"/>
+    <mergeCell ref="G133:H133"/>
+    <mergeCell ref="A167:A168"/>
+    <mergeCell ref="C167:C168"/>
+    <mergeCell ref="D167:D168"/>
+    <mergeCell ref="E167:F167"/>
+    <mergeCell ref="G167:H167"/>
+    <mergeCell ref="A174:A175"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="D174:D175"/>
+    <mergeCell ref="E174:F174"/>
+    <mergeCell ref="G174:H174"/>
+    <mergeCell ref="A185:A186"/>
+    <mergeCell ref="C185:C186"/>
+    <mergeCell ref="D185:D186"/>
+    <mergeCell ref="E185:F185"/>
+    <mergeCell ref="G185:H185"/>
+    <mergeCell ref="B185:B186"/>
+    <mergeCell ref="C184:D184"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C166:D166"/>
+    <mergeCell ref="C173:D173"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="B167:B168"/>
+    <mergeCell ref="B174:B175"/>
   </mergeCells>
   <pageMargins left="0.37" right="0.21" top="0.46" bottom="0.45" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -7342,13 +7336,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="312" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="448" t="s">
+      <c r="A1" s="430" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="448"/>
-      <c r="C1" s="448"/>
-      <c r="D1" s="448"/>
-      <c r="E1" s="448"/>
+      <c r="B1" s="430"/>
+      <c r="C1" s="430"/>
+      <c r="D1" s="430"/>
+      <c r="E1" s="430"/>
       <c r="H1" s="313"/>
       <c r="I1" s="313"/>
       <c r="J1" s="313"/>
@@ -7378,78 +7372,78 @@
       <c r="P2" s="317"/>
     </row>
     <row r="3" spans="1:16" s="312" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="452" t="s">
+      <c r="A3" s="438" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="452"/>
-      <c r="C3" s="452"/>
-      <c r="D3" s="452"/>
-      <c r="E3" s="452"/>
-      <c r="F3" s="452"/>
-      <c r="G3" s="452"/>
-      <c r="H3" s="452"/>
-      <c r="I3" s="452"/>
-      <c r="J3" s="452"/>
-      <c r="K3" s="452"/>
-      <c r="L3" s="452"/>
-      <c r="M3" s="452"/>
-      <c r="N3" s="452"/>
-      <c r="O3" s="452"/>
-      <c r="P3" s="452"/>
+      <c r="B3" s="438"/>
+      <c r="C3" s="438"/>
+      <c r="D3" s="438"/>
+      <c r="E3" s="438"/>
+      <c r="F3" s="438"/>
+      <c r="G3" s="438"/>
+      <c r="H3" s="438"/>
+      <c r="I3" s="438"/>
+      <c r="J3" s="438"/>
+      <c r="K3" s="438"/>
+      <c r="L3" s="438"/>
+      <c r="M3" s="438"/>
+      <c r="N3" s="438"/>
+      <c r="O3" s="438"/>
+      <c r="P3" s="438"/>
     </row>
     <row r="4" spans="1:16" s="312" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="452" t="s">
+      <c r="A4" s="438" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="452"/>
-      <c r="C4" s="452"/>
-      <c r="D4" s="452"/>
-      <c r="E4" s="452"/>
-      <c r="F4" s="452"/>
-      <c r="G4" s="452"/>
-      <c r="H4" s="452"/>
-      <c r="I4" s="452"/>
-      <c r="J4" s="452"/>
-      <c r="K4" s="452"/>
-      <c r="L4" s="452"/>
-      <c r="M4" s="452"/>
-      <c r="N4" s="452"/>
-      <c r="O4" s="452"/>
-      <c r="P4" s="452"/>
+      <c r="B4" s="438"/>
+      <c r="C4" s="438"/>
+      <c r="D4" s="438"/>
+      <c r="E4" s="438"/>
+      <c r="F4" s="438"/>
+      <c r="G4" s="438"/>
+      <c r="H4" s="438"/>
+      <c r="I4" s="438"/>
+      <c r="J4" s="438"/>
+      <c r="K4" s="438"/>
+      <c r="L4" s="438"/>
+      <c r="M4" s="438"/>
+      <c r="N4" s="438"/>
+      <c r="O4" s="438"/>
+      <c r="P4" s="438"/>
     </row>
     <row r="5" spans="1:16" s="312" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="439" t="s">
         <v>162</v>
       </c>
-      <c r="B5" s="444" t="s">
+      <c r="B5" s="441" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="439" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="446" t="s">
+      <c r="D5" s="443" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="446"/>
-      <c r="F5" s="447" t="s">
+      <c r="E5" s="443"/>
+      <c r="F5" s="444" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="447"/>
-      <c r="H5" s="447"/>
-      <c r="I5" s="447"/>
-      <c r="J5" s="447"/>
-      <c r="K5" s="447"/>
-      <c r="L5" s="447"/>
-      <c r="M5" s="441"/>
-      <c r="N5" s="441"/>
-      <c r="O5" s="441"/>
-      <c r="P5" s="442" t="s">
+      <c r="G5" s="444"/>
+      <c r="H5" s="444"/>
+      <c r="I5" s="444"/>
+      <c r="J5" s="444"/>
+      <c r="K5" s="444"/>
+      <c r="L5" s="444"/>
+      <c r="M5" s="445"/>
+      <c r="N5" s="445"/>
+      <c r="O5" s="445"/>
+      <c r="P5" s="446" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="312" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="440"/>
-      <c r="B6" s="445"/>
+      <c r="B6" s="442"/>
       <c r="C6" s="440"/>
       <c r="D6" s="439" t="s">
         <v>51</v>
@@ -7463,51 +7457,51 @@
       <c r="G6" s="439" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="433" t="s">
+      <c r="H6" s="448" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="433" t="s">
+      <c r="I6" s="448" t="s">
         <v>54</v>
       </c>
-      <c r="J6" s="438" t="s">
+      <c r="J6" s="453" t="s">
         <v>36</v>
       </c>
-      <c r="K6" s="438"/>
-      <c r="L6" s="433" t="s">
+      <c r="K6" s="453"/>
+      <c r="L6" s="448" t="s">
         <v>55</v>
       </c>
-      <c r="M6" s="433" t="s">
+      <c r="M6" s="448" t="s">
         <v>65</v>
       </c>
-      <c r="N6" s="433" t="s">
+      <c r="N6" s="448" t="s">
         <v>188</v>
       </c>
-      <c r="O6" s="433" t="s">
+      <c r="O6" s="448" t="s">
         <v>213</v>
       </c>
-      <c r="P6" s="443"/>
+      <c r="P6" s="447"/>
     </row>
     <row r="7" spans="1:16" s="312" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="440"/>
-      <c r="B7" s="445"/>
+      <c r="B7" s="442"/>
       <c r="C7" s="440"/>
       <c r="D7" s="440"/>
       <c r="E7" s="440"/>
       <c r="F7" s="440"/>
       <c r="G7" s="440"/>
-      <c r="H7" s="434"/>
-      <c r="I7" s="434"/>
+      <c r="H7" s="449"/>
+      <c r="I7" s="449"/>
       <c r="J7" s="320" t="s">
         <v>214</v>
       </c>
       <c r="K7" s="321" t="s">
         <v>56</v>
       </c>
-      <c r="L7" s="434"/>
-      <c r="M7" s="434"/>
-      <c r="N7" s="434"/>
-      <c r="O7" s="434"/>
-      <c r="P7" s="443"/>
+      <c r="L7" s="449"/>
+      <c r="M7" s="449"/>
+      <c r="N7" s="449"/>
+      <c r="O7" s="449"/>
+      <c r="P7" s="447"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="390">
@@ -7687,17 +7681,17 @@
       <c r="P11" s="324"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="412">
+      <c r="A12" s="422">
         <v>320</v>
       </c>
-      <c r="B12" s="449">
+      <c r="B12" s="424">
         <v>43921</v>
       </c>
-      <c r="C12" s="425"/>
-      <c r="D12" s="425" t="s">
+      <c r="C12" s="426"/>
+      <c r="D12" s="426" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="425" t="s">
+      <c r="E12" s="426" t="s">
         <v>101</v>
       </c>
       <c r="F12" s="329" t="s">
@@ -7728,11 +7722,11 @@
         <f>L12</f>
         <v>6442800.0000000009</v>
       </c>
-      <c r="P12" s="431"/>
+      <c r="P12" s="419"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="413"/>
-      <c r="B13" s="451"/>
+      <c r="A13" s="423"/>
+      <c r="B13" s="425"/>
       <c r="C13" s="427"/>
       <c r="D13" s="427"/>
       <c r="E13" s="427"/>
@@ -7762,7 +7756,7 @@
         <f>L13</f>
         <v>3433800.0000000005</v>
       </c>
-      <c r="P13" s="432"/>
+      <c r="P13" s="421"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="395">
@@ -8078,17 +8072,17 @@
       <c r="P20" s="347"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="415">
+      <c r="A21" s="431">
         <v>327</v>
       </c>
-      <c r="B21" s="422">
+      <c r="B21" s="432">
         <v>43935</v>
       </c>
-      <c r="C21" s="416"/>
-      <c r="D21" s="428" t="s">
+      <c r="C21" s="435"/>
+      <c r="D21" s="454" t="s">
         <v>95</v>
       </c>
-      <c r="E21" s="416" t="s">
+      <c r="E21" s="435" t="s">
         <v>90</v>
       </c>
       <c r="F21" s="350" t="s">
@@ -8121,11 +8115,11 @@
       <c r="P21" s="350"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="415"/>
-      <c r="B22" s="423"/>
-      <c r="C22" s="417"/>
-      <c r="D22" s="429"/>
-      <c r="E22" s="417"/>
+      <c r="A22" s="431"/>
+      <c r="B22" s="433"/>
+      <c r="C22" s="436"/>
+      <c r="D22" s="455"/>
+      <c r="E22" s="436"/>
       <c r="F22" s="353" t="s">
         <v>41</v>
       </c>
@@ -8156,11 +8150,11 @@
       <c r="P22" s="353"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="415"/>
-      <c r="B23" s="423"/>
-      <c r="C23" s="417"/>
-      <c r="D23" s="429"/>
-      <c r="E23" s="417"/>
+      <c r="A23" s="431"/>
+      <c r="B23" s="433"/>
+      <c r="C23" s="436"/>
+      <c r="D23" s="455"/>
+      <c r="E23" s="436"/>
       <c r="F23" s="353" t="s">
         <v>44</v>
       </c>
@@ -8191,11 +8185,11 @@
       <c r="P23" s="353"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="415"/>
-      <c r="B24" s="423"/>
-      <c r="C24" s="417"/>
-      <c r="D24" s="429"/>
-      <c r="E24" s="417"/>
+      <c r="A24" s="431"/>
+      <c r="B24" s="433"/>
+      <c r="C24" s="436"/>
+      <c r="D24" s="455"/>
+      <c r="E24" s="436"/>
       <c r="F24" s="353" t="s">
         <v>43</v>
       </c>
@@ -8226,11 +8220,11 @@
       <c r="P24" s="353"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="415"/>
-      <c r="B25" s="423"/>
-      <c r="C25" s="417"/>
-      <c r="D25" s="429"/>
-      <c r="E25" s="417"/>
+      <c r="A25" s="431"/>
+      <c r="B25" s="433"/>
+      <c r="C25" s="436"/>
+      <c r="D25" s="455"/>
+      <c r="E25" s="436"/>
       <c r="F25" s="353" t="s">
         <v>39</v>
       </c>
@@ -8261,11 +8255,11 @@
       <c r="P25" s="353"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="415"/>
-      <c r="B26" s="423"/>
-      <c r="C26" s="417"/>
-      <c r="D26" s="429"/>
-      <c r="E26" s="417"/>
+      <c r="A26" s="431"/>
+      <c r="B26" s="433"/>
+      <c r="C26" s="436"/>
+      <c r="D26" s="455"/>
+      <c r="E26" s="436"/>
       <c r="F26" s="353" t="s">
         <v>40</v>
       </c>
@@ -8296,11 +8290,11 @@
       <c r="P26" s="353"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="415"/>
-      <c r="B27" s="424"/>
-      <c r="C27" s="418"/>
-      <c r="D27" s="430"/>
-      <c r="E27" s="418"/>
+      <c r="A27" s="431"/>
+      <c r="B27" s="434"/>
+      <c r="C27" s="437"/>
+      <c r="D27" s="456"/>
+      <c r="E27" s="437"/>
       <c r="F27" s="356" t="s">
         <v>68</v>
       </c>
@@ -8376,19 +8370,19 @@
       <c r="P28" s="324"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="415">
+      <c r="A29" s="431">
         <v>328</v>
       </c>
-      <c r="B29" s="449">
+      <c r="B29" s="424">
         <v>43936</v>
       </c>
-      <c r="C29" s="425" t="s">
+      <c r="C29" s="426" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="425" t="s">
+      <c r="D29" s="426" t="s">
         <v>97</v>
       </c>
-      <c r="E29" s="425" t="s">
+      <c r="E29" s="426" t="s">
         <v>98</v>
       </c>
       <c r="F29" s="329" t="s">
@@ -8421,11 +8415,11 @@
       <c r="P29" s="329"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="415"/>
-      <c r="B30" s="450"/>
-      <c r="C30" s="426"/>
-      <c r="D30" s="426"/>
-      <c r="E30" s="426"/>
+      <c r="A30" s="431"/>
+      <c r="B30" s="428"/>
+      <c r="C30" s="429"/>
+      <c r="D30" s="429"/>
+      <c r="E30" s="429"/>
       <c r="F30" s="359" t="s">
         <v>38</v>
       </c>
@@ -8456,11 +8450,11 @@
       <c r="P30" s="359"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="415"/>
-      <c r="B31" s="450"/>
-      <c r="C31" s="426"/>
-      <c r="D31" s="426"/>
-      <c r="E31" s="426"/>
+      <c r="A31" s="431"/>
+      <c r="B31" s="428"/>
+      <c r="C31" s="429"/>
+      <c r="D31" s="429"/>
+      <c r="E31" s="429"/>
       <c r="F31" s="359" t="s">
         <v>41</v>
       </c>
@@ -8491,8 +8485,8 @@
       <c r="P31" s="359"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="415"/>
-      <c r="B32" s="451"/>
+      <c r="A32" s="431"/>
+      <c r="B32" s="425"/>
       <c r="C32" s="427"/>
       <c r="D32" s="427"/>
       <c r="E32" s="427"/>
@@ -8700,19 +8694,19 @@
       <c r="P36" s="324"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="412">
+      <c r="A37" s="422">
         <v>346</v>
       </c>
-      <c r="B37" s="422">
+      <c r="B37" s="432">
         <v>43941</v>
       </c>
-      <c r="C37" s="416" t="s">
+      <c r="C37" s="435" t="s">
         <v>93</v>
       </c>
-      <c r="D37" s="416" t="s">
+      <c r="D37" s="435" t="s">
         <v>119</v>
       </c>
-      <c r="E37" s="416" t="s">
+      <c r="E37" s="435" t="s">
         <v>120</v>
       </c>
       <c r="F37" s="329" t="s">
@@ -8745,11 +8739,11 @@
       <c r="P37" s="329"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="414"/>
-      <c r="B38" s="423"/>
-      <c r="C38" s="417"/>
-      <c r="D38" s="417"/>
-      <c r="E38" s="417"/>
+      <c r="A38" s="457"/>
+      <c r="B38" s="433"/>
+      <c r="C38" s="436"/>
+      <c r="D38" s="436"/>
+      <c r="E38" s="436"/>
       <c r="F38" s="359" t="s">
         <v>41</v>
       </c>
@@ -8780,11 +8774,11 @@
       <c r="P38" s="359"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="414"/>
-      <c r="B39" s="423"/>
-      <c r="C39" s="417"/>
-      <c r="D39" s="417"/>
-      <c r="E39" s="417"/>
+      <c r="A39" s="457"/>
+      <c r="B39" s="433"/>
+      <c r="C39" s="436"/>
+      <c r="D39" s="436"/>
+      <c r="E39" s="436"/>
       <c r="F39" s="359" t="s">
         <v>43</v>
       </c>
@@ -8815,11 +8809,11 @@
       <c r="P39" s="359"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="413"/>
-      <c r="B40" s="424"/>
-      <c r="C40" s="418"/>
-      <c r="D40" s="418"/>
-      <c r="E40" s="418"/>
+      <c r="A40" s="423"/>
+      <c r="B40" s="434"/>
+      <c r="C40" s="437"/>
+      <c r="D40" s="437"/>
+      <c r="E40" s="437"/>
       <c r="F40" s="334" t="s">
         <v>67</v>
       </c>
@@ -8850,17 +8844,17 @@
       <c r="P40" s="334"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="415">
+      <c r="A41" s="431">
         <v>345</v>
       </c>
-      <c r="B41" s="449">
+      <c r="B41" s="424">
         <v>43941</v>
       </c>
-      <c r="C41" s="425"/>
-      <c r="D41" s="425" t="s">
+      <c r="C41" s="426"/>
+      <c r="D41" s="426" t="s">
         <v>107</v>
       </c>
-      <c r="E41" s="425" t="s">
+      <c r="E41" s="426" t="s">
         <v>101</v>
       </c>
       <c r="F41" s="329" t="s">
@@ -8892,14 +8886,14 @@
         <v>6192800.0000000009</v>
       </c>
       <c r="O41" s="330"/>
-      <c r="P41" s="435"/>
+      <c r="P41" s="450"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="415"/>
-      <c r="B42" s="450"/>
-      <c r="C42" s="426"/>
-      <c r="D42" s="426"/>
-      <c r="E42" s="426"/>
+      <c r="A42" s="431"/>
+      <c r="B42" s="428"/>
+      <c r="C42" s="429"/>
+      <c r="D42" s="429"/>
+      <c r="E42" s="429"/>
       <c r="F42" s="359" t="s">
         <v>38</v>
       </c>
@@ -8927,14 +8921,14 @@
         <v>3292200.0000000005</v>
       </c>
       <c r="O42" s="360"/>
-      <c r="P42" s="437"/>
+      <c r="P42" s="452"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="415"/>
-      <c r="B43" s="450"/>
-      <c r="C43" s="426"/>
-      <c r="D43" s="426"/>
-      <c r="E43" s="426"/>
+      <c r="A43" s="431"/>
+      <c r="B43" s="428"/>
+      <c r="C43" s="429"/>
+      <c r="D43" s="429"/>
+      <c r="E43" s="429"/>
       <c r="F43" s="359" t="s">
         <v>41</v>
       </c>
@@ -8962,11 +8956,11 @@
         <v>3363000.0000000005</v>
       </c>
       <c r="O43" s="360"/>
-      <c r="P43" s="437"/>
+      <c r="P43" s="452"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="415"/>
-      <c r="B44" s="451"/>
+      <c r="A44" s="431"/>
+      <c r="B44" s="425"/>
       <c r="C44" s="427"/>
       <c r="D44" s="427"/>
       <c r="E44" s="427"/>
@@ -8997,22 +8991,22 @@
         <v>3433800.0000000005</v>
       </c>
       <c r="O44" s="335"/>
-      <c r="P44" s="436"/>
+      <c r="P44" s="451"/>
     </row>
     <row r="45" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="412">
+      <c r="A45" s="422">
         <v>342</v>
       </c>
-      <c r="B45" s="422">
+      <c r="B45" s="432">
         <v>43942</v>
       </c>
-      <c r="C45" s="416" t="s">
+      <c r="C45" s="435" t="s">
         <v>42</v>
       </c>
-      <c r="D45" s="416" t="s">
+      <c r="D45" s="435" t="s">
         <v>42</v>
       </c>
-      <c r="E45" s="416" t="s">
+      <c r="E45" s="435" t="s">
         <v>76</v>
       </c>
       <c r="F45" s="329" t="s">
@@ -9042,14 +9036,14 @@
         <v>268450.00000000006</v>
       </c>
       <c r="O45" s="330"/>
-      <c r="P45" s="435"/>
+      <c r="P45" s="450"/>
     </row>
     <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="413"/>
-      <c r="B46" s="424"/>
-      <c r="C46" s="418"/>
-      <c r="D46" s="418"/>
-      <c r="E46" s="418"/>
+      <c r="A46" s="423"/>
+      <c r="B46" s="434"/>
+      <c r="C46" s="437"/>
+      <c r="D46" s="437"/>
+      <c r="E46" s="437"/>
       <c r="F46" s="334" t="s">
         <v>38</v>
       </c>
@@ -9077,7 +9071,7 @@
         <v>548700.00000000012</v>
       </c>
       <c r="O46" s="335"/>
-      <c r="P46" s="436"/>
+      <c r="P46" s="451"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="390">
@@ -9172,17 +9166,17 @@
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="412">
+      <c r="A49" s="422">
         <v>452</v>
       </c>
-      <c r="B49" s="449">
+      <c r="B49" s="424">
         <v>43942</v>
       </c>
-      <c r="C49" s="425"/>
-      <c r="D49" s="425" t="s">
+      <c r="C49" s="426"/>
+      <c r="D49" s="426" t="s">
         <v>99</v>
       </c>
-      <c r="E49" s="425" t="s">
+      <c r="E49" s="426" t="s">
         <v>100</v>
       </c>
       <c r="F49" s="329" t="s">
@@ -9212,16 +9206,16 @@
         <v>6442800.0000000009</v>
       </c>
       <c r="O49" s="330"/>
-      <c r="P49" s="431" t="s">
+      <c r="P49" s="419" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="414"/>
-      <c r="B50" s="450"/>
-      <c r="C50" s="426"/>
-      <c r="D50" s="426"/>
-      <c r="E50" s="426"/>
+      <c r="A50" s="457"/>
+      <c r="B50" s="428"/>
+      <c r="C50" s="429"/>
+      <c r="D50" s="429"/>
+      <c r="E50" s="429"/>
       <c r="F50" s="359" t="s">
         <v>40</v>
       </c>
@@ -9249,11 +9243,11 @@
         <v>3221400.0000000005</v>
       </c>
       <c r="O50" s="360"/>
-      <c r="P50" s="453"/>
+      <c r="P50" s="420"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="413"/>
-      <c r="B51" s="451"/>
+      <c r="A51" s="423"/>
+      <c r="B51" s="425"/>
       <c r="C51" s="427"/>
       <c r="D51" s="427"/>
       <c r="E51" s="427"/>
@@ -9287,7 +9281,7 @@
         <f>L49+L50+L51-N49-N50-N51</f>
         <v>2885600.0000000019</v>
       </c>
-      <c r="P51" s="432"/>
+      <c r="P51" s="421"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="390">
@@ -9605,19 +9599,19 @@
       <c r="P58" s="324"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="412">
+      <c r="A59" s="422">
         <v>456</v>
       </c>
-      <c r="B59" s="449">
+      <c r="B59" s="424">
         <v>43946</v>
       </c>
-      <c r="C59" s="425" t="s">
+      <c r="C59" s="426" t="s">
         <v>93</v>
       </c>
-      <c r="D59" s="425" t="s">
+      <c r="D59" s="426" t="s">
         <v>122</v>
       </c>
-      <c r="E59" s="425" t="s">
+      <c r="E59" s="426" t="s">
         <v>123</v>
       </c>
       <c r="F59" s="329" t="s">
@@ -9649,8 +9643,8 @@
       <c r="P59" s="329"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="413"/>
-      <c r="B60" s="451"/>
+      <c r="A60" s="423"/>
+      <c r="B60" s="425"/>
       <c r="C60" s="427"/>
       <c r="D60" s="427"/>
       <c r="E60" s="427"/>
@@ -9683,17 +9677,17 @@
       <c r="P60" s="334"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="412">
+      <c r="A61" s="422">
         <v>455</v>
       </c>
-      <c r="B61" s="449">
+      <c r="B61" s="424">
         <v>43946</v>
       </c>
-      <c r="C61" s="425"/>
-      <c r="D61" s="425" t="s">
+      <c r="C61" s="426"/>
+      <c r="D61" s="426" t="s">
         <v>125</v>
       </c>
-      <c r="E61" s="425" t="s">
+      <c r="E61" s="426" t="s">
         <v>126</v>
       </c>
       <c r="F61" s="329" t="s">
@@ -9726,11 +9720,11 @@
       <c r="P61" s="329"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A62" s="414"/>
-      <c r="B62" s="450"/>
-      <c r="C62" s="426"/>
-      <c r="D62" s="426"/>
-      <c r="E62" s="426"/>
+      <c r="A62" s="457"/>
+      <c r="B62" s="428"/>
+      <c r="C62" s="429"/>
+      <c r="D62" s="429"/>
+      <c r="E62" s="429"/>
       <c r="F62" s="359" t="s">
         <v>38</v>
       </c>
@@ -9761,11 +9755,11 @@
       <c r="P62" s="359"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A63" s="414"/>
-      <c r="B63" s="450"/>
-      <c r="C63" s="426"/>
-      <c r="D63" s="426"/>
-      <c r="E63" s="426"/>
+      <c r="A63" s="457"/>
+      <c r="B63" s="428"/>
+      <c r="C63" s="429"/>
+      <c r="D63" s="429"/>
+      <c r="E63" s="429"/>
       <c r="F63" s="359" t="s">
         <v>41</v>
       </c>
@@ -9796,11 +9790,11 @@
       <c r="P63" s="359"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A64" s="414"/>
-      <c r="B64" s="450"/>
-      <c r="C64" s="426"/>
-      <c r="D64" s="426"/>
-      <c r="E64" s="426"/>
+      <c r="A64" s="457"/>
+      <c r="B64" s="428"/>
+      <c r="C64" s="429"/>
+      <c r="D64" s="429"/>
+      <c r="E64" s="429"/>
       <c r="F64" s="359" t="s">
         <v>44</v>
       </c>
@@ -9831,11 +9825,11 @@
       <c r="P64" s="359"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A65" s="414"/>
-      <c r="B65" s="450"/>
-      <c r="C65" s="426"/>
-      <c r="D65" s="426"/>
-      <c r="E65" s="426"/>
+      <c r="A65" s="457"/>
+      <c r="B65" s="428"/>
+      <c r="C65" s="429"/>
+      <c r="D65" s="429"/>
+      <c r="E65" s="429"/>
       <c r="F65" s="359" t="s">
         <v>43</v>
       </c>
@@ -9866,11 +9860,11 @@
       <c r="P65" s="359"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A66" s="414"/>
-      <c r="B66" s="450"/>
-      <c r="C66" s="426"/>
-      <c r="D66" s="426"/>
-      <c r="E66" s="426"/>
+      <c r="A66" s="457"/>
+      <c r="B66" s="428"/>
+      <c r="C66" s="429"/>
+      <c r="D66" s="429"/>
+      <c r="E66" s="429"/>
       <c r="F66" s="359" t="s">
         <v>39</v>
       </c>
@@ -9901,11 +9895,11 @@
       <c r="P66" s="359"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A67" s="414"/>
-      <c r="B67" s="450"/>
-      <c r="C67" s="426"/>
-      <c r="D67" s="426"/>
-      <c r="E67" s="426"/>
+      <c r="A67" s="457"/>
+      <c r="B67" s="428"/>
+      <c r="C67" s="429"/>
+      <c r="D67" s="429"/>
+      <c r="E67" s="429"/>
       <c r="F67" s="359" t="s">
         <v>67</v>
       </c>
@@ -9936,11 +9930,11 @@
       <c r="P67" s="359"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A68" s="414"/>
-      <c r="B68" s="450"/>
-      <c r="C68" s="426"/>
-      <c r="D68" s="426"/>
-      <c r="E68" s="426"/>
+      <c r="A68" s="457"/>
+      <c r="B68" s="428"/>
+      <c r="C68" s="429"/>
+      <c r="D68" s="429"/>
+      <c r="E68" s="429"/>
       <c r="F68" s="359" t="s">
         <v>40</v>
       </c>
@@ -9971,8 +9965,8 @@
       <c r="P68" s="359"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A69" s="413"/>
-      <c r="B69" s="451"/>
+      <c r="A69" s="423"/>
+      <c r="B69" s="425"/>
       <c r="C69" s="427"/>
       <c r="D69" s="427"/>
       <c r="E69" s="427"/>
@@ -10051,19 +10045,19 @@
       <c r="P70" s="324"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A71" s="419">
+      <c r="A71" s="458">
         <v>457</v>
       </c>
-      <c r="B71" s="422">
+      <c r="B71" s="432">
         <v>43947</v>
       </c>
-      <c r="C71" s="416" t="s">
+      <c r="C71" s="435" t="s">
         <v>93</v>
       </c>
-      <c r="D71" s="416" t="s">
+      <c r="D71" s="435" t="s">
         <v>161</v>
       </c>
-      <c r="E71" s="416" t="s">
+      <c r="E71" s="435" t="s">
         <v>123</v>
       </c>
       <c r="F71" s="329" t="s">
@@ -10095,11 +10089,11 @@
       <c r="P71" s="329"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A72" s="420"/>
-      <c r="B72" s="423"/>
-      <c r="C72" s="417"/>
-      <c r="D72" s="417"/>
-      <c r="E72" s="417"/>
+      <c r="A72" s="459"/>
+      <c r="B72" s="433"/>
+      <c r="C72" s="436"/>
+      <c r="D72" s="436"/>
+      <c r="E72" s="436"/>
       <c r="F72" s="359" t="s">
         <v>39</v>
       </c>
@@ -10129,11 +10123,11 @@
       <c r="P72" s="359"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A73" s="421"/>
-      <c r="B73" s="424"/>
-      <c r="C73" s="418"/>
-      <c r="D73" s="418"/>
-      <c r="E73" s="418"/>
+      <c r="A73" s="460"/>
+      <c r="B73" s="434"/>
+      <c r="C73" s="437"/>
+      <c r="D73" s="437"/>
+      <c r="E73" s="437"/>
       <c r="F73" s="334" t="s">
         <v>40</v>
       </c>
@@ -10253,19 +10247,19 @@
       <c r="P75" s="324"/>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A76" s="412">
+      <c r="A76" s="422">
         <v>1144</v>
       </c>
-      <c r="B76" s="449">
+      <c r="B76" s="424">
         <v>43949</v>
       </c>
-      <c r="C76" s="425" t="s">
+      <c r="C76" s="426" t="s">
         <v>93</v>
       </c>
-      <c r="D76" s="425" t="s">
+      <c r="D76" s="426" t="s">
         <v>175</v>
       </c>
-      <c r="E76" s="425" t="s">
+      <c r="E76" s="426" t="s">
         <v>168</v>
       </c>
       <c r="F76" s="329" t="s">
@@ -10297,8 +10291,8 @@
       <c r="P76" s="329"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A77" s="413"/>
-      <c r="B77" s="451"/>
+      <c r="A77" s="423"/>
+      <c r="B77" s="425"/>
       <c r="C77" s="427"/>
       <c r="D77" s="427"/>
       <c r="E77" s="427"/>
@@ -10331,14 +10325,14 @@
       <c r="P77" s="334"/>
     </row>
     <row r="78" spans="1:17" s="367" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="455" t="s">
+      <c r="A78" s="413" t="s">
         <v>176</v>
       </c>
-      <c r="B78" s="455"/>
-      <c r="C78" s="455"/>
-      <c r="D78" s="455"/>
-      <c r="E78" s="455"/>
-      <c r="F78" s="455"/>
+      <c r="B78" s="413"/>
+      <c r="C78" s="413"/>
+      <c r="D78" s="413"/>
+      <c r="E78" s="413"/>
+      <c r="F78" s="413"/>
       <c r="G78" s="362">
         <f>SUM(G8:G77)</f>
         <v>774</v>
@@ -10357,18 +10351,18 @@
       <c r="M78" s="363"/>
       <c r="N78" s="363"/>
       <c r="O78" s="363"/>
-      <c r="P78" s="456"/>
-      <c r="Q78" s="457"/>
+      <c r="P78" s="414"/>
+      <c r="Q78" s="415"/>
     </row>
     <row r="79" spans="1:17" s="367" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="454" t="s">
+      <c r="A79" s="412" t="s">
         <v>177</v>
       </c>
-      <c r="B79" s="454"/>
-      <c r="C79" s="454"/>
-      <c r="D79" s="454"/>
-      <c r="E79" s="454"/>
-      <c r="F79" s="454"/>
+      <c r="B79" s="412"/>
+      <c r="C79" s="412"/>
+      <c r="D79" s="412"/>
+      <c r="E79" s="412"/>
+      <c r="F79" s="412"/>
       <c r="G79" s="362">
         <f>G78</f>
         <v>774</v>
@@ -10384,18 +10378,18 @@
       <c r="M79" s="368"/>
       <c r="N79" s="368"/>
       <c r="O79" s="368"/>
-      <c r="P79" s="456"/>
-      <c r="Q79" s="457"/>
+      <c r="P79" s="414"/>
+      <c r="Q79" s="415"/>
     </row>
     <row r="80" spans="1:17" s="367" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="454" t="s">
+      <c r="A80" s="412" t="s">
         <v>178</v>
       </c>
-      <c r="B80" s="454"/>
-      <c r="C80" s="454"/>
-      <c r="D80" s="454"/>
-      <c r="E80" s="454"/>
-      <c r="F80" s="454"/>
+      <c r="B80" s="412"/>
+      <c r="C80" s="412"/>
+      <c r="D80" s="412"/>
+      <c r="E80" s="412"/>
+      <c r="F80" s="412"/>
       <c r="G80" s="369" t="s">
         <v>57</v>
       </c>
@@ -10413,14 +10407,14 @@
       <c r="P80" s="370"/>
     </row>
     <row r="81" spans="1:16" s="367" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="454" t="s">
+      <c r="A81" s="412" t="s">
         <v>179</v>
       </c>
-      <c r="B81" s="454"/>
-      <c r="C81" s="454"/>
-      <c r="D81" s="454"/>
-      <c r="E81" s="454"/>
-      <c r="F81" s="454"/>
+      <c r="B81" s="412"/>
+      <c r="C81" s="412"/>
+      <c r="D81" s="412"/>
+      <c r="E81" s="412"/>
+      <c r="F81" s="412"/>
       <c r="G81" s="368"/>
       <c r="H81" s="368"/>
       <c r="I81" s="363"/>
@@ -10436,14 +10430,14 @@
       <c r="P81" s="370"/>
     </row>
     <row r="82" spans="1:16" s="367" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="458" t="s">
+      <c r="A82" s="416" t="s">
         <v>203</v>
       </c>
-      <c r="B82" s="459"/>
-      <c r="C82" s="459"/>
-      <c r="D82" s="459"/>
-      <c r="E82" s="459"/>
-      <c r="F82" s="460"/>
+      <c r="B82" s="417"/>
+      <c r="C82" s="417"/>
+      <c r="D82" s="417"/>
+      <c r="E82" s="417"/>
+      <c r="F82" s="418"/>
       <c r="G82" s="368"/>
       <c r="H82" s="368"/>
       <c r="I82" s="363"/>
@@ -10459,14 +10453,14 @@
       <c r="P82" s="370"/>
     </row>
     <row r="83" spans="1:16" s="367" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="454" t="s">
+      <c r="A83" s="412" t="s">
         <v>180</v>
       </c>
-      <c r="B83" s="454"/>
-      <c r="C83" s="454"/>
-      <c r="D83" s="454"/>
-      <c r="E83" s="454"/>
-      <c r="F83" s="454"/>
+      <c r="B83" s="412"/>
+      <c r="C83" s="412"/>
+      <c r="D83" s="412"/>
+      <c r="E83" s="412"/>
+      <c r="F83" s="412"/>
       <c r="G83" s="368"/>
       <c r="H83" s="368"/>
       <c r="I83" s="363"/>
@@ -10524,14 +10518,70 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="88">
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="P78:P79"/>
-    <mergeCell ref="Q78:Q79"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="E71:E73"/>
+    <mergeCell ref="A61:A69"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="D71:D73"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="B21:B27"/>
+    <mergeCell ref="C21:C27"/>
+    <mergeCell ref="D21:D27"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="E21:E27"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="P45:P46"/>
+    <mergeCell ref="P41:P44"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:P7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:L5"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="D41:D44"/>
+    <mergeCell ref="E41:E44"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="C37:C40"/>
+    <mergeCell ref="D37:D40"/>
+    <mergeCell ref="E37:E40"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A4:P4"/>
     <mergeCell ref="P49:P51"/>
     <mergeCell ref="A76:A77"/>
     <mergeCell ref="B76:B77"/>
@@ -10548,70 +10598,14 @@
     <mergeCell ref="E59:E60"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="C49:C51"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="D41:D44"/>
-    <mergeCell ref="E41:E44"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="C37:C40"/>
-    <mergeCell ref="D37:D40"/>
-    <mergeCell ref="E37:E40"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:L5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:P7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="E21:E27"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="P45:P46"/>
-    <mergeCell ref="P41:P44"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="E49:E51"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="B21:B27"/>
-    <mergeCell ref="C21:C27"/>
-    <mergeCell ref="D21:D27"/>
-    <mergeCell ref="E71:E73"/>
-    <mergeCell ref="A61:A69"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="D71:D73"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A21:A27"/>
-    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="P78:P79"/>
+    <mergeCell ref="Q78:Q79"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="A82:F82"/>
   </mergeCells>
   <pageMargins left="0.19" right="0.22" top="0.4" bottom="0.42" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -10652,67 +10646,67 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="466" t="s">
+      <c r="A3" s="468" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="466"/>
-      <c r="C3" s="466"/>
-      <c r="D3" s="466"/>
-      <c r="E3" s="466"/>
-      <c r="F3" s="466"/>
-      <c r="G3" s="466"/>
-      <c r="H3" s="466"/>
-      <c r="I3" s="466"/>
-      <c r="J3" s="466"/>
-      <c r="K3" s="466"/>
-      <c r="L3" s="466"/>
+      <c r="B3" s="468"/>
+      <c r="C3" s="468"/>
+      <c r="D3" s="468"/>
+      <c r="E3" s="468"/>
+      <c r="F3" s="468"/>
+      <c r="G3" s="468"/>
+      <c r="H3" s="468"/>
+      <c r="I3" s="468"/>
+      <c r="J3" s="468"/>
+      <c r="K3" s="468"/>
+      <c r="L3" s="468"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="467" t="s">
+      <c r="A4" s="469" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="467"/>
-      <c r="C4" s="467"/>
-      <c r="D4" s="467"/>
-      <c r="E4" s="467"/>
-      <c r="F4" s="467"/>
-      <c r="G4" s="467"/>
-      <c r="H4" s="467"/>
-      <c r="I4" s="467"/>
-      <c r="J4" s="467"/>
-      <c r="K4" s="468"/>
-      <c r="L4" s="467"/>
+      <c r="B4" s="469"/>
+      <c r="C4" s="469"/>
+      <c r="D4" s="469"/>
+      <c r="E4" s="469"/>
+      <c r="F4" s="469"/>
+      <c r="G4" s="469"/>
+      <c r="H4" s="469"/>
+      <c r="I4" s="469"/>
+      <c r="J4" s="469"/>
+      <c r="K4" s="470"/>
+      <c r="L4" s="469"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="469" t="s">
+      <c r="A5" s="471" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="471" t="s">
+      <c r="B5" s="473" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="473" t="s">
+      <c r="C5" s="475" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="473" t="s">
+      <c r="D5" s="475" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="473"/>
-      <c r="F5" s="473"/>
-      <c r="G5" s="475" t="s">
+      <c r="E5" s="475"/>
+      <c r="F5" s="475"/>
+      <c r="G5" s="477" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="475"/>
-      <c r="I5" s="475"/>
-      <c r="J5" s="475"/>
-      <c r="K5" s="476"/>
-      <c r="L5" s="477" t="s">
+      <c r="H5" s="477"/>
+      <c r="I5" s="477"/>
+      <c r="J5" s="477"/>
+      <c r="K5" s="478"/>
+      <c r="L5" s="479" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="470"/>
-      <c r="B6" s="472"/>
-      <c r="C6" s="474"/>
+      <c r="A6" s="472"/>
+      <c r="B6" s="474"/>
+      <c r="C6" s="476"/>
       <c r="D6" s="112" t="s">
         <v>51</v>
       </c>
@@ -10737,23 +10731,23 @@
       <c r="K6" s="114" t="s">
         <v>36</v>
       </c>
-      <c r="L6" s="478"/>
+      <c r="L6" s="480"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="461">
+      <c r="A7" s="465">
         <v>1130</v>
       </c>
-      <c r="B7" s="464">
+      <c r="B7" s="462">
         <v>43937</v>
       </c>
-      <c r="C7" s="461"/>
-      <c r="D7" s="461" t="s">
+      <c r="C7" s="465"/>
+      <c r="D7" s="465" t="s">
         <v>95</v>
       </c>
-      <c r="E7" s="461" t="s">
+      <c r="E7" s="465" t="s">
         <v>90</v>
       </c>
-      <c r="F7" s="461"/>
+      <c r="F7" s="465"/>
       <c r="G7" s="118" t="s">
         <v>37</v>
       </c>
@@ -10776,12 +10770,12 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="462"/>
-      <c r="B8" s="465"/>
-      <c r="C8" s="462"/>
-      <c r="D8" s="462"/>
-      <c r="E8" s="462"/>
-      <c r="F8" s="462"/>
+      <c r="A8" s="467"/>
+      <c r="B8" s="464"/>
+      <c r="C8" s="467"/>
+      <c r="D8" s="467"/>
+      <c r="E8" s="467"/>
+      <c r="F8" s="467"/>
       <c r="G8" s="122" t="s">
         <v>44</v>
       </c>
@@ -10804,20 +10798,20 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="461">
+      <c r="A9" s="465">
         <v>333</v>
       </c>
-      <c r="B9" s="464">
+      <c r="B9" s="462">
         <v>43940</v>
       </c>
-      <c r="C9" s="461"/>
-      <c r="D9" s="461" t="s">
+      <c r="C9" s="465"/>
+      <c r="D9" s="465" t="s">
         <v>102</v>
       </c>
-      <c r="E9" s="461" t="s">
+      <c r="E9" s="465" t="s">
         <v>100</v>
       </c>
-      <c r="F9" s="461"/>
+      <c r="F9" s="465"/>
       <c r="G9" s="118" t="s">
         <v>44</v>
       </c>
@@ -10840,12 +10834,12 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="463"/>
-      <c r="B10" s="479"/>
-      <c r="C10" s="463"/>
-      <c r="D10" s="463"/>
-      <c r="E10" s="463"/>
-      <c r="F10" s="463"/>
+      <c r="A10" s="466"/>
+      <c r="B10" s="463"/>
+      <c r="C10" s="466"/>
+      <c r="D10" s="466"/>
+      <c r="E10" s="466"/>
+      <c r="F10" s="466"/>
       <c r="G10" s="120" t="s">
         <v>43</v>
       </c>
@@ -10868,12 +10862,12 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="463"/>
-      <c r="B11" s="479"/>
-      <c r="C11" s="463"/>
-      <c r="D11" s="463"/>
-      <c r="E11" s="463"/>
-      <c r="F11" s="463"/>
+      <c r="A11" s="466"/>
+      <c r="B11" s="463"/>
+      <c r="C11" s="466"/>
+      <c r="D11" s="466"/>
+      <c r="E11" s="466"/>
+      <c r="F11" s="466"/>
       <c r="G11" s="120" t="s">
         <v>39</v>
       </c>
@@ -10896,12 +10890,12 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="463"/>
-      <c r="B12" s="479"/>
-      <c r="C12" s="463"/>
-      <c r="D12" s="463"/>
-      <c r="E12" s="463"/>
-      <c r="F12" s="463"/>
+      <c r="A12" s="466"/>
+      <c r="B12" s="463"/>
+      <c r="C12" s="466"/>
+      <c r="D12" s="466"/>
+      <c r="E12" s="466"/>
+      <c r="F12" s="466"/>
       <c r="G12" s="120" t="s">
         <v>67</v>
       </c>
@@ -10924,12 +10918,12 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="463"/>
-      <c r="B13" s="479"/>
-      <c r="C13" s="463"/>
-      <c r="D13" s="463"/>
-      <c r="E13" s="463"/>
-      <c r="F13" s="463"/>
+      <c r="A13" s="466"/>
+      <c r="B13" s="463"/>
+      <c r="C13" s="466"/>
+      <c r="D13" s="466"/>
+      <c r="E13" s="466"/>
+      <c r="F13" s="466"/>
       <c r="G13" s="120" t="s">
         <v>40</v>
       </c>
@@ -10952,12 +10946,12 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="462"/>
-      <c r="B14" s="465"/>
-      <c r="C14" s="462"/>
-      <c r="D14" s="462"/>
-      <c r="E14" s="462"/>
-      <c r="F14" s="462"/>
+      <c r="A14" s="467"/>
+      <c r="B14" s="464"/>
+      <c r="C14" s="467"/>
+      <c r="D14" s="467"/>
+      <c r="E14" s="467"/>
+      <c r="F14" s="467"/>
       <c r="G14" s="122" t="s">
         <v>68</v>
       </c>
@@ -10980,20 +10974,20 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="461">
+      <c r="A15" s="465">
         <v>332</v>
       </c>
-      <c r="B15" s="464">
+      <c r="B15" s="462">
         <v>43940</v>
       </c>
-      <c r="C15" s="461"/>
-      <c r="D15" s="461" t="s">
+      <c r="C15" s="465"/>
+      <c r="D15" s="465" t="s">
         <v>103</v>
       </c>
-      <c r="E15" s="461" t="s">
+      <c r="E15" s="465" t="s">
         <v>104</v>
       </c>
-      <c r="F15" s="461"/>
+      <c r="F15" s="465"/>
       <c r="G15" s="118" t="s">
         <v>37</v>
       </c>
@@ -11016,12 +11010,12 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="463"/>
-      <c r="B16" s="479"/>
-      <c r="C16" s="463"/>
-      <c r="D16" s="463"/>
-      <c r="E16" s="463"/>
-      <c r="F16" s="463"/>
+      <c r="A16" s="466"/>
+      <c r="B16" s="463"/>
+      <c r="C16" s="466"/>
+      <c r="D16" s="466"/>
+      <c r="E16" s="466"/>
+      <c r="F16" s="466"/>
       <c r="G16" s="120" t="s">
         <v>38</v>
       </c>
@@ -11044,12 +11038,12 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="463"/>
-      <c r="B17" s="479"/>
-      <c r="C17" s="463"/>
-      <c r="D17" s="463"/>
-      <c r="E17" s="463"/>
-      <c r="F17" s="463"/>
+      <c r="A17" s="466"/>
+      <c r="B17" s="463"/>
+      <c r="C17" s="466"/>
+      <c r="D17" s="466"/>
+      <c r="E17" s="466"/>
+      <c r="F17" s="466"/>
       <c r="G17" s="120" t="s">
         <v>41</v>
       </c>
@@ -11072,12 +11066,12 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="463"/>
-      <c r="B18" s="479"/>
-      <c r="C18" s="463"/>
-      <c r="D18" s="463"/>
-      <c r="E18" s="463"/>
-      <c r="F18" s="463"/>
+      <c r="A18" s="466"/>
+      <c r="B18" s="463"/>
+      <c r="C18" s="466"/>
+      <c r="D18" s="466"/>
+      <c r="E18" s="466"/>
+      <c r="F18" s="466"/>
       <c r="G18" s="120" t="s">
         <v>44</v>
       </c>
@@ -11100,12 +11094,12 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="463"/>
-      <c r="B19" s="479"/>
-      <c r="C19" s="463"/>
-      <c r="D19" s="463"/>
-      <c r="E19" s="463"/>
-      <c r="F19" s="463"/>
+      <c r="A19" s="466"/>
+      <c r="B19" s="463"/>
+      <c r="C19" s="466"/>
+      <c r="D19" s="466"/>
+      <c r="E19" s="466"/>
+      <c r="F19" s="466"/>
       <c r="G19" s="120" t="s">
         <v>39</v>
       </c>
@@ -11128,12 +11122,12 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="462"/>
-      <c r="B20" s="465"/>
-      <c r="C20" s="462"/>
-      <c r="D20" s="462"/>
-      <c r="E20" s="462"/>
-      <c r="F20" s="462"/>
+      <c r="A20" s="467"/>
+      <c r="B20" s="464"/>
+      <c r="C20" s="467"/>
+      <c r="D20" s="467"/>
+      <c r="E20" s="467"/>
+      <c r="F20" s="467"/>
       <c r="G20" s="122" t="s">
         <v>68</v>
       </c>
@@ -11156,20 +11150,20 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="461">
+      <c r="A21" s="465">
         <v>775</v>
       </c>
-      <c r="B21" s="464">
+      <c r="B21" s="462">
         <v>43944</v>
       </c>
-      <c r="C21" s="461"/>
-      <c r="D21" s="461" t="s">
+      <c r="C21" s="465"/>
+      <c r="D21" s="465" t="s">
         <v>293</v>
       </c>
-      <c r="E21" s="461" t="s">
+      <c r="E21" s="465" t="s">
         <v>216</v>
       </c>
-      <c r="F21" s="461"/>
+      <c r="F21" s="465"/>
       <c r="G21" s="391" t="s">
         <v>37</v>
       </c>
@@ -11192,12 +11186,12 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="462"/>
-      <c r="B22" s="465"/>
-      <c r="C22" s="462"/>
-      <c r="D22" s="462"/>
-      <c r="E22" s="462"/>
-      <c r="F22" s="462"/>
+      <c r="A22" s="467"/>
+      <c r="B22" s="464"/>
+      <c r="C22" s="467"/>
+      <c r="D22" s="467"/>
+      <c r="E22" s="467"/>
+      <c r="F22" s="467"/>
       <c r="G22" s="391" t="s">
         <v>44</v>
       </c>
@@ -11258,14 +11252,14 @@
       </c>
     </row>
     <row r="24" spans="1:12" s="273" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="480" t="s">
+      <c r="A24" s="461" t="s">
         <v>83</v>
       </c>
-      <c r="B24" s="480"/>
-      <c r="C24" s="480"/>
-      <c r="D24" s="480"/>
-      <c r="E24" s="480"/>
-      <c r="F24" s="480"/>
+      <c r="B24" s="461"/>
+      <c r="C24" s="461"/>
+      <c r="D24" s="461"/>
+      <c r="E24" s="461"/>
+      <c r="F24" s="461"/>
       <c r="G24" s="269"/>
       <c r="H24" s="269">
         <f>SUM(H7:H23)</f>
@@ -11350,6 +11344,26 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="D9:D14"/>
+    <mergeCell ref="E9:E14"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F9:F14"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="L5:L6"/>
     <mergeCell ref="A24:F24"/>
     <mergeCell ref="B15:B20"/>
     <mergeCell ref="A15:A20"/>
@@ -11363,26 +11377,6 @@
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="D21:D22"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="D9:D14"/>
-    <mergeCell ref="E9:E14"/>
-    <mergeCell ref="C9:C14"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F9:F14"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="C7:C8"/>
   </mergeCells>
   <pageMargins left="0.24" right="0.28000000000000003" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -11873,17 +11867,17 @@
       <c r="J3" s="17"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="490" t="s">
+      <c r="A4" s="494" t="s">
         <v>166</v>
       </c>
-      <c r="B4" s="490"/>
-      <c r="C4" s="490"/>
-      <c r="D4" s="490"/>
-      <c r="E4" s="490"/>
-      <c r="F4" s="490"/>
-      <c r="G4" s="490"/>
-      <c r="H4" s="490"/>
-      <c r="I4" s="490"/>
+      <c r="B4" s="494"/>
+      <c r="C4" s="494"/>
+      <c r="D4" s="494"/>
+      <c r="E4" s="494"/>
+      <c r="F4" s="494"/>
+      <c r="G4" s="494"/>
+      <c r="H4" s="494"/>
+      <c r="I4" s="494"/>
       <c r="J4" s="46"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -11899,33 +11893,33 @@
       <c r="J5" s="46"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="491" t="s">
+      <c r="A6" s="495" t="s">
         <v>162</v>
       </c>
-      <c r="B6" s="492" t="s">
+      <c r="B6" s="496" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="491" t="s">
+      <c r="C6" s="495" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="493" t="s">
+      <c r="D6" s="497" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="493"/>
-      <c r="F6" s="493"/>
-      <c r="G6" s="493"/>
-      <c r="H6" s="494"/>
-      <c r="I6" s="491" t="s">
+      <c r="E6" s="497"/>
+      <c r="F6" s="497"/>
+      <c r="G6" s="497"/>
+      <c r="H6" s="498"/>
+      <c r="I6" s="495" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="488" t="s">
+      <c r="J6" s="492" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="491"/>
-      <c r="B7" s="492"/>
-      <c r="C7" s="491"/>
+      <c r="A7" s="495"/>
+      <c r="B7" s="496"/>
+      <c r="C7" s="495"/>
       <c r="D7" s="48" t="s">
         <v>32</v>
       </c>
@@ -11941,8 +11935,8 @@
       <c r="H7" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="491"/>
-      <c r="J7" s="489"/>
+      <c r="I7" s="495"/>
+      <c r="J7" s="493"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="195">
@@ -12045,10 +12039,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="55"/>
-      <c r="B11" s="487" t="s">
+      <c r="B11" s="491" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="487"/>
+      <c r="C11" s="491"/>
       <c r="D11" s="55"/>
       <c r="E11" s="55"/>
       <c r="F11" s="55"/>
@@ -12067,17 +12061,17 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="495" t="s">
+      <c r="A12" s="487" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="496"/>
-      <c r="C12" s="496"/>
-      <c r="D12" s="496"/>
-      <c r="E12" s="496"/>
-      <c r="F12" s="496"/>
-      <c r="G12" s="496"/>
-      <c r="H12" s="496"/>
-      <c r="I12" s="497"/>
+      <c r="B12" s="488"/>
+      <c r="C12" s="488"/>
+      <c r="D12" s="488"/>
+      <c r="E12" s="488"/>
+      <c r="F12" s="488"/>
+      <c r="G12" s="488"/>
+      <c r="H12" s="488"/>
+      <c r="I12" s="489"/>
       <c r="J12" s="203" t="s">
         <v>167</v>
       </c>
@@ -12086,36 +12080,31 @@
       <c r="G13" s="59"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="498"/>
-      <c r="B14" s="498"/>
-      <c r="C14" s="498"/>
-      <c r="E14" s="498" t="s">
+      <c r="A14" s="490"/>
+      <c r="B14" s="490"/>
+      <c r="C14" s="490"/>
+      <c r="E14" s="490" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="498"/>
-      <c r="G14" s="498"/>
-      <c r="H14" s="498"/>
-      <c r="I14" s="498"/>
+      <c r="F14" s="490"/>
+      <c r="G14" s="490"/>
+      <c r="H14" s="490"/>
+      <c r="I14" s="490"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="498"/>
-      <c r="B19" s="498"/>
-      <c r="C19" s="498"/>
-      <c r="E19" s="498" t="s">
+      <c r="A19" s="490"/>
+      <c r="B19" s="490"/>
+      <c r="C19" s="490"/>
+      <c r="E19" s="490" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="498"/>
-      <c r="G19" s="498"/>
-      <c r="H19" s="498"/>
-      <c r="I19" s="498"/>
+      <c r="F19" s="490"/>
+      <c r="G19" s="490"/>
+      <c r="H19" s="490"/>
+      <c r="I19" s="490"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="E19:I19"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="A4:I4"/>
@@ -12124,6 +12113,11 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="E19:I19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -12153,13 +12147,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="507" t="s">
+      <c r="A1" s="512" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="507"/>
-      <c r="C1" s="507"/>
-      <c r="D1" s="507"/>
-      <c r="E1" s="507"/>
+      <c r="B1" s="512"/>
+      <c r="C1" s="512"/>
+      <c r="D1" s="512"/>
+      <c r="E1" s="512"/>
       <c r="F1" s="43"/>
       <c r="G1" s="43"/>
       <c r="H1" s="43"/>
@@ -12187,16 +12181,16 @@
       <c r="I3" s="17"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="490" t="s">
+      <c r="A4" s="494" t="s">
         <v>163</v>
       </c>
-      <c r="B4" s="490"/>
-      <c r="C4" s="490"/>
-      <c r="D4" s="490"/>
-      <c r="E4" s="490"/>
-      <c r="F4" s="490"/>
-      <c r="G4" s="490"/>
-      <c r="H4" s="490"/>
+      <c r="B4" s="494"/>
+      <c r="C4" s="494"/>
+      <c r="D4" s="494"/>
+      <c r="E4" s="494"/>
+      <c r="F4" s="494"/>
+      <c r="G4" s="494"/>
+      <c r="H4" s="494"/>
       <c r="I4" s="46"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -12211,29 +12205,29 @@
       <c r="I5" s="46"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="508" t="s">
+      <c r="A6" s="513" t="s">
         <v>162</v>
       </c>
-      <c r="B6" s="510" t="s">
+      <c r="B6" s="515" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="511" t="s">
+      <c r="C6" s="516" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="511"/>
-      <c r="E6" s="511"/>
-      <c r="F6" s="511"/>
-      <c r="G6" s="512"/>
-      <c r="H6" s="513" t="s">
+      <c r="D6" s="516"/>
+      <c r="E6" s="516"/>
+      <c r="F6" s="516"/>
+      <c r="G6" s="517"/>
+      <c r="H6" s="518" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="499" t="s">
+      <c r="I6" s="504" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="509"/>
-      <c r="B7" s="492"/>
+      <c r="A7" s="514"/>
+      <c r="B7" s="496"/>
       <c r="C7" s="148" t="s">
         <v>32</v>
       </c>
@@ -12249,8 +12243,8 @@
       <c r="G7" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="491"/>
-      <c r="I7" s="500"/>
+      <c r="H7" s="495"/>
+      <c r="I7" s="505"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="180">
@@ -12348,10 +12342,10 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="501">
+      <c r="A11" s="506">
         <v>328</v>
       </c>
-      <c r="B11" s="504">
+      <c r="B11" s="509">
         <v>43936</v>
       </c>
       <c r="C11" s="167" t="s">
@@ -12380,8 +12374,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="502"/>
-      <c r="B12" s="505"/>
+      <c r="A12" s="507"/>
+      <c r="B12" s="510"/>
       <c r="C12" s="102" t="s">
         <v>38</v>
       </c>
@@ -12408,8 +12402,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="502"/>
-      <c r="B13" s="505"/>
+      <c r="A13" s="507"/>
+      <c r="B13" s="510"/>
       <c r="C13" s="102" t="s">
         <v>41</v>
       </c>
@@ -12436,8 +12430,8 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="503"/>
-      <c r="B14" s="506"/>
+      <c r="A14" s="508"/>
+      <c r="B14" s="511"/>
       <c r="C14" s="172" t="s">
         <v>68</v>
       </c>
@@ -12496,10 +12490,10 @@
       </c>
     </row>
     <row r="16" spans="1:9" s="284" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="515">
+      <c r="A16" s="500">
         <v>342</v>
       </c>
-      <c r="B16" s="517">
+      <c r="B16" s="502">
         <v>43942</v>
       </c>
       <c r="C16" s="278" t="s">
@@ -12528,8 +12522,8 @@
       </c>
     </row>
     <row r="17" spans="1:9" s="284" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="516"/>
-      <c r="B17" s="518"/>
+      <c r="A17" s="501"/>
+      <c r="B17" s="503"/>
       <c r="C17" s="285" t="s">
         <v>38</v>
       </c>
@@ -12677,32 +12671,32 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="493" t="s">
+      <c r="A22" s="497" t="s">
         <v>165</v>
       </c>
-      <c r="B22" s="493"/>
-      <c r="C22" s="493"/>
-      <c r="D22" s="493"/>
-      <c r="E22" s="493"/>
-      <c r="F22" s="493"/>
-      <c r="G22" s="493"/>
-      <c r="H22" s="493"/>
+      <c r="B22" s="497"/>
+      <c r="C22" s="497"/>
+      <c r="D22" s="497"/>
+      <c r="E22" s="497"/>
+      <c r="F22" s="497"/>
+      <c r="G22" s="497"/>
+      <c r="H22" s="497"/>
       <c r="I22" s="192">
         <f>1088000-I16-I17</f>
         <v>270849.99999999988</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="514" t="s">
+      <c r="A23" s="499" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="514"/>
-      <c r="C23" s="514"/>
-      <c r="D23" s="514"/>
-      <c r="E23" s="514"/>
-      <c r="F23" s="514"/>
-      <c r="G23" s="514"/>
-      <c r="H23" s="514"/>
+      <c r="B23" s="499"/>
+      <c r="C23" s="499"/>
+      <c r="D23" s="499"/>
+      <c r="E23" s="499"/>
+      <c r="F23" s="499"/>
+      <c r="G23" s="499"/>
+      <c r="H23" s="499"/>
       <c r="I23" s="58">
         <f>H8-I22</f>
         <v>2950550.0000000005</v>
@@ -12720,8 +12714,8 @@
       <c r="I24" s="194"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="498"/>
-      <c r="B25" s="498"/>
+      <c r="A25" s="490"/>
+      <c r="B25" s="490"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -12733,8 +12727,8 @@
       <c r="H27" s="59"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="498"/>
-      <c r="B29" s="498"/>
+      <c r="A29" s="490"/>
+      <c r="B29" s="490"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
@@ -12744,12 +12738,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="B11:B14"/>
@@ -12759,6 +12747,12 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="H6:H7"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -13610,38 +13604,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="60" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="528" t="s">
+      <c r="A1" s="519" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="528"/>
-      <c r="C1" s="528"/>
-      <c r="D1" s="528"/>
+      <c r="B1" s="519"/>
+      <c r="C1" s="519"/>
+      <c r="D1" s="519"/>
       <c r="E1" s="129"/>
-      <c r="F1" s="529" t="s">
+      <c r="F1" s="520" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="529"/>
-      <c r="H1" s="529"/>
-      <c r="I1" s="529"/>
-      <c r="J1" s="529"/>
-      <c r="K1" s="529"/>
+      <c r="G1" s="520"/>
+      <c r="H1" s="520"/>
+      <c r="I1" s="520"/>
+      <c r="J1" s="520"/>
+      <c r="K1" s="520"/>
     </row>
     <row r="2" spans="1:12" s="60" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="530" t="s">
+      <c r="A2" s="521" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="530"/>
-      <c r="C2" s="530"/>
-      <c r="D2" s="530"/>
+      <c r="B2" s="521"/>
+      <c r="C2" s="521"/>
+      <c r="D2" s="521"/>
       <c r="E2" s="129"/>
-      <c r="F2" s="531" t="s">
+      <c r="F2" s="522" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="531"/>
-      <c r="H2" s="531"/>
-      <c r="I2" s="531"/>
-      <c r="J2" s="531"/>
-      <c r="K2" s="531"/>
+      <c r="G2" s="522"/>
+      <c r="H2" s="522"/>
+      <c r="I2" s="522"/>
+      <c r="J2" s="522"/>
+      <c r="K2" s="522"/>
     </row>
     <row r="3" spans="1:12" s="60" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="61"/>
@@ -13654,43 +13648,43 @@
       <c r="I3" s="130"/>
     </row>
     <row r="4" spans="1:12" s="63" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="532" t="s">
+      <c r="A4" s="523" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="532"/>
-      <c r="C4" s="532"/>
-      <c r="D4" s="532"/>
-      <c r="E4" s="532"/>
-      <c r="F4" s="532"/>
-      <c r="G4" s="532"/>
-      <c r="H4" s="532"/>
-      <c r="I4" s="532"/>
-      <c r="J4" s="532"/>
-      <c r="K4" s="532"/>
-      <c r="L4" s="532"/>
+      <c r="B4" s="523"/>
+      <c r="C4" s="523"/>
+      <c r="D4" s="523"/>
+      <c r="E4" s="523"/>
+      <c r="F4" s="523"/>
+      <c r="G4" s="523"/>
+      <c r="H4" s="523"/>
+      <c r="I4" s="523"/>
+      <c r="J4" s="523"/>
+      <c r="K4" s="523"/>
+      <c r="L4" s="523"/>
     </row>
     <row r="5" spans="1:12" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="519" t="s">
+      <c r="A5" s="524" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="519"/>
-      <c r="C5" s="519"/>
-      <c r="D5" s="519"/>
-      <c r="E5" s="519"/>
-      <c r="F5" s="519"/>
-      <c r="G5" s="519"/>
-      <c r="H5" s="519"/>
-      <c r="I5" s="519"/>
-      <c r="J5" s="519"/>
-      <c r="K5" s="519"/>
-      <c r="L5" s="519"/>
+      <c r="B5" s="524"/>
+      <c r="C5" s="524"/>
+      <c r="D5" s="524"/>
+      <c r="E5" s="524"/>
+      <c r="F5" s="524"/>
+      <c r="G5" s="524"/>
+      <c r="H5" s="524"/>
+      <c r="I5" s="524"/>
+      <c r="J5" s="524"/>
+      <c r="K5" s="524"/>
+      <c r="L5" s="524"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J6" s="520" t="s">
+      <c r="J6" s="525" t="s">
         <v>132</v>
       </c>
-      <c r="K6" s="520"/>
-      <c r="L6" s="520"/>
+      <c r="K6" s="525"/>
+      <c r="L6" s="525"/>
     </row>
     <row r="7" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="66" t="s">
@@ -13757,10 +13751,10 @@
       <c r="L8" s="72"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="521" t="s">
+      <c r="A9" s="526" t="s">
         <v>148</v>
       </c>
-      <c r="B9" s="522"/>
+      <c r="B9" s="527"/>
       <c r="C9" s="71"/>
       <c r="D9" s="71"/>
       <c r="E9" s="73"/>
@@ -13907,11 +13901,11 @@
       <c r="L13" s="80"/>
     </row>
     <row r="14" spans="1:12" s="88" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="525" t="s">
+      <c r="A14" s="530" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="526"/>
-      <c r="C14" s="527"/>
+      <c r="B14" s="531"/>
+      <c r="C14" s="532"/>
       <c r="D14" s="138">
         <f>SUM(D10:D13)</f>
         <v>37000000</v>
@@ -13938,10 +13932,10 @@
       <c r="L14" s="140"/>
     </row>
     <row r="15" spans="1:12" s="79" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="523" t="s">
+      <c r="A15" s="528" t="s">
         <v>155</v>
       </c>
-      <c r="B15" s="524"/>
+      <c r="B15" s="529"/>
       <c r="C15" s="132"/>
       <c r="D15" s="133"/>
       <c r="E15" s="147">
@@ -14024,11 +14018,11 @@
       <c r="L17" s="84"/>
     </row>
     <row r="18" spans="1:12" s="88" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="525" t="s">
+      <c r="A18" s="530" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="526"/>
-      <c r="C18" s="527"/>
+      <c r="B18" s="531"/>
+      <c r="C18" s="532"/>
       <c r="D18" s="141">
         <f>SUM(D16:D17)</f>
         <v>15000000</v>
@@ -14055,14 +14049,14 @@
       <c r="L18" s="140"/>
     </row>
     <row r="20" spans="1:12" s="88" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B20" s="466"/>
-      <c r="C20" s="466"/>
-      <c r="D20" s="466"/>
+      <c r="B20" s="468"/>
+      <c r="C20" s="468"/>
+      <c r="D20" s="468"/>
       <c r="E20" s="131"/>
-      <c r="H20" s="466"/>
-      <c r="I20" s="466"/>
-      <c r="J20" s="466"/>
-      <c r="K20" s="466"/>
+      <c r="H20" s="468"/>
+      <c r="I20" s="468"/>
+      <c r="J20" s="468"/>
+      <c r="K20" s="468"/>
     </row>
     <row r="21" spans="1:12" s="93" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="149" t="s">
@@ -14101,11 +14095,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="A4:L4"/>
     <mergeCell ref="A5:L5"/>
     <mergeCell ref="J6:L6"/>
     <mergeCell ref="A9:B9"/>
@@ -14114,6 +14103,11 @@
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="A4:L4"/>
   </mergeCells>
   <pageMargins left="0.37" right="0.28000000000000003" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -14124,7 +14118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
@@ -14145,13 +14139,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="507" t="s">
+      <c r="A1" s="512" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="507"/>
-      <c r="C1" s="507"/>
-      <c r="D1" s="507"/>
-      <c r="E1" s="507"/>
+      <c r="B1" s="512"/>
+      <c r="C1" s="512"/>
+      <c r="D1" s="512"/>
+      <c r="E1" s="512"/>
       <c r="F1" s="43"/>
       <c r="G1" s="43"/>
       <c r="H1" s="43"/>
@@ -14179,16 +14173,16 @@
       <c r="I3" s="94"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="490" t="s">
+      <c r="A4" s="494" t="s">
         <v>212</v>
       </c>
-      <c r="B4" s="490"/>
-      <c r="C4" s="490"/>
-      <c r="D4" s="490"/>
-      <c r="E4" s="490"/>
-      <c r="F4" s="490"/>
-      <c r="G4" s="490"/>
-      <c r="H4" s="490"/>
+      <c r="B4" s="494"/>
+      <c r="C4" s="494"/>
+      <c r="D4" s="494"/>
+      <c r="E4" s="494"/>
+      <c r="F4" s="494"/>
+      <c r="G4" s="494"/>
+      <c r="H4" s="494"/>
       <c r="I4" s="46"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -14203,29 +14197,29 @@
       <c r="I5" s="46"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="491" t="s">
+      <c r="A6" s="495" t="s">
         <v>162</v>
       </c>
-      <c r="B6" s="492" t="s">
+      <c r="B6" s="496" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="493" t="s">
+      <c r="C6" s="497" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="493"/>
-      <c r="E6" s="493"/>
-      <c r="F6" s="493"/>
-      <c r="G6" s="494"/>
-      <c r="H6" s="491" t="s">
+      <c r="D6" s="497"/>
+      <c r="E6" s="497"/>
+      <c r="F6" s="497"/>
+      <c r="G6" s="498"/>
+      <c r="H6" s="495" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="488" t="s">
+      <c r="I6" s="492" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="491"/>
-      <c r="B7" s="492"/>
+      <c r="A7" s="495"/>
+      <c r="B7" s="496"/>
       <c r="C7" s="292" t="s">
         <v>32</v>
       </c>
@@ -14241,8 +14235,8 @@
       <c r="G7" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="491"/>
-      <c r="I7" s="489"/>
+      <c r="H7" s="495"/>
+      <c r="I7" s="493"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="310">
@@ -14275,10 +14269,10 @@
       <c r="J8" s="59"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="538">
+      <c r="A9" s="537">
         <v>452</v>
       </c>
-      <c r="B9" s="541">
+      <c r="B9" s="540">
         <v>43942</v>
       </c>
       <c r="C9" s="99" t="s">
@@ -14304,8 +14298,8 @@
       <c r="I9" s="306"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="539"/>
-      <c r="B10" s="542"/>
+      <c r="A10" s="538"/>
+      <c r="B10" s="541"/>
       <c r="C10" s="102" t="s">
         <v>40</v>
       </c>
@@ -14329,8 +14323,8 @@
       <c r="I10" s="307"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="540"/>
-      <c r="B11" s="543"/>
+      <c r="A11" s="539"/>
+      <c r="B11" s="542"/>
       <c r="C11" s="300" t="s">
         <v>68</v>
       </c>
@@ -14377,78 +14371,78 @@
       <c r="I12" s="309"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="533" t="s">
+      <c r="A13" s="546" t="s">
         <v>209</v>
       </c>
-      <c r="B13" s="533"/>
-      <c r="C13" s="533"/>
-      <c r="D13" s="533"/>
-      <c r="E13" s="533"/>
-      <c r="F13" s="533"/>
-      <c r="G13" s="533"/>
-      <c r="H13" s="533"/>
+      <c r="B13" s="546"/>
+      <c r="C13" s="546"/>
+      <c r="D13" s="546"/>
+      <c r="E13" s="546"/>
+      <c r="F13" s="546"/>
+      <c r="G13" s="546"/>
+      <c r="H13" s="546"/>
       <c r="I13" s="192">
         <f>H12</f>
         <v>19328400.000000004</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="533" t="s">
+      <c r="A14" s="546" t="s">
         <v>207</v>
       </c>
-      <c r="B14" s="533"/>
-      <c r="C14" s="533"/>
-      <c r="D14" s="533"/>
-      <c r="E14" s="533"/>
-      <c r="F14" s="533"/>
-      <c r="G14" s="533"/>
-      <c r="H14" s="533"/>
+      <c r="B14" s="546"/>
+      <c r="C14" s="546"/>
+      <c r="D14" s="546"/>
+      <c r="E14" s="546"/>
+      <c r="F14" s="546"/>
+      <c r="G14" s="546"/>
+      <c r="H14" s="546"/>
       <c r="I14" s="192">
         <v>23794300</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="544" t="s">
+      <c r="A15" s="543" t="s">
         <v>206</v>
       </c>
-      <c r="B15" s="545"/>
-      <c r="C15" s="545"/>
-      <c r="D15" s="545"/>
-      <c r="E15" s="545"/>
-      <c r="F15" s="545"/>
-      <c r="G15" s="545"/>
-      <c r="H15" s="546"/>
+      <c r="B15" s="544"/>
+      <c r="C15" s="544"/>
+      <c r="D15" s="544"/>
+      <c r="E15" s="544"/>
+      <c r="F15" s="544"/>
+      <c r="G15" s="544"/>
+      <c r="H15" s="545"/>
       <c r="I15" s="192">
         <v>10000000</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="544" t="s">
+      <c r="A16" s="543" t="s">
         <v>208</v>
       </c>
-      <c r="B16" s="545"/>
-      <c r="C16" s="545"/>
-      <c r="D16" s="545"/>
-      <c r="E16" s="545"/>
-      <c r="F16" s="545"/>
-      <c r="G16" s="545"/>
-      <c r="H16" s="546"/>
+      <c r="B16" s="544"/>
+      <c r="C16" s="544"/>
+      <c r="D16" s="544"/>
+      <c r="E16" s="544"/>
+      <c r="F16" s="544"/>
+      <c r="G16" s="544"/>
+      <c r="H16" s="545"/>
       <c r="I16" s="192">
         <f>'Bảng lương'!J16</f>
         <v>7538461.538461539</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="535" t="s">
+      <c r="A17" s="534" t="s">
         <v>204</v>
       </c>
-      <c r="B17" s="536"/>
-      <c r="C17" s="536"/>
-      <c r="D17" s="536"/>
-      <c r="E17" s="536"/>
-      <c r="F17" s="536"/>
-      <c r="G17" s="536"/>
-      <c r="H17" s="537"/>
+      <c r="B17" s="535"/>
+      <c r="C17" s="535"/>
+      <c r="D17" s="535"/>
+      <c r="E17" s="535"/>
+      <c r="F17" s="535"/>
+      <c r="G17" s="535"/>
+      <c r="H17" s="536"/>
       <c r="I17" s="58">
         <f>I13+I14-I15-I16</f>
         <v>25584238.46153846</v>
@@ -14469,8 +14463,8 @@
       <c r="I18" s="194"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="498"/>
-      <c r="B19" s="498"/>
+      <c r="A19" s="490"/>
+      <c r="B19" s="490"/>
       <c r="F19" s="9" t="s">
         <v>205</v>
       </c>
@@ -14483,28 +14477,36 @@
       <c r="H21" s="59"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="498"/>
-      <c r="B23" s="498"/>
+      <c r="A23" s="490"/>
+      <c r="B23" s="490"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
     </row>
     <row r="26" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="534" t="s">
+      <c r="A26" s="533" t="s">
         <v>210</v>
       </c>
-      <c r="B26" s="534"/>
-      <c r="C26" s="534"/>
-      <c r="D26" s="534"/>
-      <c r="E26" s="534"/>
-      <c r="F26" s="534"/>
-      <c r="G26" s="534"/>
-      <c r="H26" s="534"/>
-      <c r="I26" s="534"/>
+      <c r="B26" s="533"/>
+      <c r="C26" s="533"/>
+      <c r="D26" s="533"/>
+      <c r="E26" s="533"/>
+      <c r="F26" s="533"/>
+      <c r="G26" s="533"/>
+      <c r="H26" s="533"/>
+      <c r="I26" s="533"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:H7"/>
     <mergeCell ref="A26:I26"/>
     <mergeCell ref="A17:H17"/>
     <mergeCell ref="A19:B19"/>
@@ -14514,14 +14516,6 @@
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="A15:H15"/>
     <mergeCell ref="A13:H13"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/KẾ TOÁN - THÁI HẰNG/Báo cáo/EXCEL/NANOMILK 4_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/Báo cáo/EXCEL/NANOMILK 4_2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9930" yWindow="375" windowWidth="9345" windowHeight="8010" tabRatio="815" activeTab="6"/>
+    <workbookView xWindow="9930" yWindow="375" windowWidth="9345" windowHeight="8010" tabRatio="815"/>
   </bookViews>
   <sheets>
     <sheet name="THU CHI" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="319">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -903,6 +903,84 @@
   </si>
   <si>
     <t xml:space="preserve"> Số:T-NNM042020/PKT. MST: 0108806878</t>
+  </si>
+  <si>
+    <t>E Huân Thanh trì thanh toán tiền hàng 316</t>
+  </si>
+  <si>
+    <t>Chị Huệ Điện Biên thanh toán tiền hàng 320</t>
+  </si>
+  <si>
+    <t>Tâm văn phòng thanh toán tiền hàng 319</t>
+  </si>
+  <si>
+    <t>Tâm thanh toán tiền hàng 321</t>
+  </si>
+  <si>
+    <t>Chị Quân Thanh toán tiền hàng 539</t>
+  </si>
+  <si>
+    <t>Anh Lâm thanh toán tiền hàng 323</t>
+  </si>
+  <si>
+    <t>Chị Huân khách a lâm 325</t>
+  </si>
+  <si>
+    <t>Chị Quân Thanh toán tiền hàng 538</t>
+  </si>
+  <si>
+    <t>Em đông thanh trì thanh toán tiền hàng 326</t>
+  </si>
+  <si>
+    <t>Chị phú DVH thanh toán tiền hàng 329</t>
+  </si>
+  <si>
+    <t>Tâm thanh toán tiền hàng  328</t>
+  </si>
+  <si>
+    <t>Chị phương yên châu thanh toán tiền hàng 346</t>
+  </si>
+  <si>
+    <t>Chị Huệ Điện Biên thanh toán tiền hàng 345</t>
+  </si>
+  <si>
+    <t>Tâm thanh toán tiền hàng 342+1132</t>
+  </si>
+  <si>
+    <t>Tâm thanh toán tiền hàng 335</t>
+  </si>
+  <si>
+    <t>Tâm thanh toán tiền hàng 1135</t>
+  </si>
+  <si>
+    <t>Triệu sơn thanh toán tiền hàng 452</t>
+  </si>
+  <si>
+    <t>AL chị hằng bv việt đức 1133</t>
+  </si>
+  <si>
+    <t>Tâm thanh toán tiền hàng 348</t>
+  </si>
+  <si>
+    <t>Chị trường biển đỏ thanh toán tiền hàng 347</t>
+  </si>
+  <si>
+    <t>Chị Minh bigbuy thanh toán tiền hàng 456</t>
+  </si>
+  <si>
+    <t>Hằng kế toán thanh toán tiền hàng 1140</t>
+  </si>
+  <si>
+    <t>chị hà bigbuy thanh toán tiền hàng 457</t>
+  </si>
+  <si>
+    <t>Chị Phú thanh  toán tiền hàng 458</t>
+  </si>
+  <si>
+    <t>Hằng kế toán thanh toán tiền hàng 1136+11137</t>
+  </si>
+  <si>
+    <t>Chị chi cầu giấy thanh toán tiền hàng 1144</t>
   </si>
 </sst>
 </file>
@@ -2231,363 +2309,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="32" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="32" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="32" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="31" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="31" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="31" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="31" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="31" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="31" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="32" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="32" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="32" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2624,24 +2351,6 @@
     <xf numFmtId="167" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2652,27 +2361,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="30" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2685,12 +2373,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="30" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="30" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2705,6 +2387,402 @@
     <xf numFmtId="165" fontId="30" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="32" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="32" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="32" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="31" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="31" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="31" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="31" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="31" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="31" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="32" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="32" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="32" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="30" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="30" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2741,8 +2819,8 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>216364</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>126067</xdr:rowOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>58832</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3059,11 +3137,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q196"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3144,16 +3223,16 @@
       <c r="Q3" s="171"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="331" t="s">
+      <c r="A4" s="362" t="s">
         <v>251</v>
       </c>
-      <c r="B4" s="331"/>
-      <c r="C4" s="331"/>
-      <c r="D4" s="331"/>
-      <c r="E4" s="331"/>
-      <c r="F4" s="331"/>
-      <c r="G4" s="331"/>
-      <c r="H4" s="331"/>
+      <c r="B4" s="362"/>
+      <c r="C4" s="362"/>
+      <c r="D4" s="362"/>
+      <c r="E4" s="362"/>
+      <c r="F4" s="362"/>
+      <c r="G4" s="362"/>
+      <c r="H4" s="362"/>
       <c r="I4" s="171"/>
       <c r="J4" s="171"/>
       <c r="K4" s="171"/>
@@ -3174,32 +3253,32 @@
       <c r="H5" s="168"/>
     </row>
     <row r="6" spans="1:17" s="169" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="332" t="s">
+      <c r="A6" s="363" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="337" t="s">
+      <c r="B6" s="368" t="s">
         <v>220</v>
       </c>
-      <c r="C6" s="332" t="s">
+      <c r="C6" s="363" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="334" t="s">
+      <c r="D6" s="365" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="336" t="s">
+      <c r="E6" s="367" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="336"/>
-      <c r="G6" s="336" t="s">
+      <c r="F6" s="367"/>
+      <c r="G6" s="367" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="336"/>
-    </row>
-    <row r="7" spans="1:17" s="169" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="333"/>
-      <c r="B7" s="338"/>
-      <c r="C7" s="333"/>
-      <c r="D7" s="335"/>
+      <c r="H6" s="367"/>
+    </row>
+    <row r="7" spans="1:17" s="169" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="364"/>
+      <c r="B7" s="369"/>
+      <c r="C7" s="364"/>
+      <c r="D7" s="366"/>
       <c r="E7" s="173" t="s">
         <v>187</v>
       </c>
@@ -3213,7 +3292,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="154">
         <v>43905</v>
       </c>
@@ -3233,7 +3312,7 @@
         <v>892000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="154">
         <v>43910</v>
       </c>
@@ -3253,7 +3332,7 @@
         <v>143000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="154">
         <v>43910</v>
       </c>
@@ -3273,7 +3352,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="154">
         <v>43912</v>
       </c>
@@ -3293,7 +3372,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="154">
         <v>43912</v>
       </c>
@@ -3313,7 +3392,7 @@
         <v>504300</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="154">
         <v>43912</v>
       </c>
@@ -3333,7 +3412,7 @@
         <v>2718182</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="154">
         <v>43914</v>
       </c>
@@ -3353,7 +3432,7 @@
         <v>382000</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="154">
         <v>43915</v>
       </c>
@@ -3373,7 +3452,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="154">
         <v>43915</v>
       </c>
@@ -3393,7 +3472,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="154">
         <v>43915</v>
       </c>
@@ -3413,7 +3492,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="154">
         <v>43915</v>
       </c>
@@ -3433,7 +3512,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="154">
         <v>43915</v>
       </c>
@@ -3453,7 +3532,7 @@
         <v>136864</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="154">
         <v>43915</v>
       </c>
@@ -3473,7 +3552,7 @@
         <v>4200000</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="154">
         <v>43915</v>
       </c>
@@ -3493,7 +3572,7 @@
         <v>1014600</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="154">
         <v>43919</v>
       </c>
@@ -3513,7 +3592,7 @@
         <v>130800</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="154">
         <v>43920</v>
       </c>
@@ -3533,7 +3612,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="154">
         <v>43920</v>
       </c>
@@ -3544,7 +3623,7 @@
         <v>129</v>
       </c>
       <c r="D24" s="156" t="s">
-        <v>193</v>
+        <v>293</v>
       </c>
       <c r="E24" s="157">
         <v>805350</v>
@@ -3553,7 +3632,7 @@
       <c r="G24" s="157"/>
       <c r="H24" s="176"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="154">
         <v>43921</v>
       </c>
@@ -3573,7 +3652,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="154">
         <v>43921</v>
       </c>
@@ -3584,7 +3663,7 @@
         <v>129</v>
       </c>
       <c r="D26" s="156" t="s">
-        <v>198</v>
+        <v>294</v>
       </c>
       <c r="E26" s="157">
         <v>9876600</v>
@@ -3593,7 +3672,7 @@
       <c r="G26" s="157"/>
       <c r="H26" s="176"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="154">
         <v>43921</v>
       </c>
@@ -3604,7 +3683,7 @@
         <v>129</v>
       </c>
       <c r="D27" s="156" t="s">
-        <v>199</v>
+        <v>295</v>
       </c>
       <c r="E27" s="157">
         <v>548000</v>
@@ -3613,7 +3692,7 @@
       <c r="G27" s="157"/>
       <c r="H27" s="176"/>
     </row>
-    <row r="28" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="154">
         <v>43922</v>
       </c>
@@ -3624,7 +3703,7 @@
         <v>129</v>
       </c>
       <c r="D28" s="156" t="s">
-        <v>192</v>
+        <v>296</v>
       </c>
       <c r="E28" s="157">
         <v>268000</v>
@@ -3633,7 +3712,7 @@
       <c r="G28" s="157"/>
       <c r="H28" s="176"/>
     </row>
-    <row r="29" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="154">
         <v>43925</v>
       </c>
@@ -3644,7 +3723,7 @@
         <v>129</v>
       </c>
       <c r="D29" s="156" t="s">
-        <v>212</v>
+        <v>297</v>
       </c>
       <c r="E29" s="157"/>
       <c r="F29" s="174">
@@ -3653,7 +3732,7 @@
       <c r="G29" s="157"/>
       <c r="H29" s="176"/>
     </row>
-    <row r="30" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="154">
         <v>43929</v>
       </c>
@@ -3664,7 +3743,7 @@
         <v>129</v>
       </c>
       <c r="D30" s="156" t="s">
-        <v>213</v>
+        <v>298</v>
       </c>
       <c r="E30" s="157"/>
       <c r="F30" s="174">
@@ -3673,7 +3752,7 @@
       <c r="G30" s="157"/>
       <c r="H30" s="176"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="154">
         <v>43929</v>
       </c>
@@ -3693,7 +3772,7 @@
       </c>
       <c r="H31" s="176"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="154">
         <v>43931</v>
       </c>
@@ -3704,7 +3783,7 @@
         <v>129</v>
       </c>
       <c r="D32" s="156" t="s">
-        <v>214</v>
+        <v>299</v>
       </c>
       <c r="E32" s="157">
         <v>268450</v>
@@ -3713,7 +3792,7 @@
       <c r="G32" s="157"/>
       <c r="H32" s="176"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="154">
         <v>43932</v>
       </c>
@@ -3724,7 +3803,7 @@
         <v>129</v>
       </c>
       <c r="D33" s="156" t="s">
-        <v>212</v>
+        <v>300</v>
       </c>
       <c r="E33" s="157"/>
       <c r="F33" s="174">
@@ -3733,7 +3812,7 @@
       <c r="G33" s="157"/>
       <c r="H33" s="176"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="154">
         <v>43933</v>
       </c>
@@ -3744,7 +3823,7 @@
         <v>129</v>
       </c>
       <c r="D34" s="156" t="s">
-        <v>215</v>
+        <v>301</v>
       </c>
       <c r="E34" s="157"/>
       <c r="F34" s="174">
@@ -3753,7 +3832,7 @@
       <c r="G34" s="157"/>
       <c r="H34" s="176"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="154">
         <v>43934</v>
       </c>
@@ -3773,7 +3852,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="154">
         <v>43935</v>
       </c>
@@ -3784,7 +3863,7 @@
         <v>129</v>
       </c>
       <c r="D36" s="156" t="s">
-        <v>194</v>
+        <v>302</v>
       </c>
       <c r="E36" s="157">
         <v>324500</v>
@@ -3793,7 +3872,7 @@
       <c r="G36" s="157"/>
       <c r="H36" s="176"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="154">
         <v>43936</v>
       </c>
@@ -3804,7 +3883,7 @@
         <v>129</v>
       </c>
       <c r="D37" s="156" t="s">
-        <v>192</v>
+        <v>303</v>
       </c>
       <c r="E37" s="157">
         <v>1637150</v>
@@ -3813,7 +3892,7 @@
       <c r="G37" s="157"/>
       <c r="H37" s="176"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="154">
         <v>43939</v>
       </c>
@@ -3833,7 +3912,7 @@
       </c>
       <c r="H38" s="176"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="154">
         <v>43941</v>
       </c>
@@ -3853,7 +3932,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="154">
         <v>43941</v>
       </c>
@@ -3864,7 +3943,7 @@
         <v>129</v>
       </c>
       <c r="D40" s="156" t="s">
-        <v>197</v>
+        <v>304</v>
       </c>
       <c r="E40" s="157">
         <v>3799600</v>
@@ -3873,7 +3952,7 @@
       <c r="G40" s="157"/>
       <c r="H40" s="176"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="154">
         <v>43941</v>
       </c>
@@ -3893,7 +3972,7 @@
         <v>19043</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="154">
         <v>43941</v>
       </c>
@@ -3904,7 +3983,7 @@
         <v>129</v>
       </c>
       <c r="D42" s="156" t="s">
-        <v>198</v>
+        <v>305</v>
       </c>
       <c r="E42" s="157">
         <v>16281800</v>
@@ -3913,7 +3992,7 @@
       <c r="G42" s="157"/>
       <c r="H42" s="176"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="154">
         <v>43942</v>
       </c>
@@ -3933,7 +4012,7 @@
       </c>
       <c r="H43" s="176"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="154">
         <v>43942</v>
       </c>
@@ -3953,7 +4032,7 @@
         <v>1469000</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="154">
         <v>43942</v>
       </c>
@@ -3964,7 +4043,7 @@
         <v>129</v>
       </c>
       <c r="D45" s="156" t="s">
-        <v>192</v>
+        <v>306</v>
       </c>
       <c r="E45" s="157">
         <v>1088000</v>
@@ -3973,7 +4052,7 @@
       <c r="G45" s="157"/>
       <c r="H45" s="176"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="154">
         <v>43942</v>
       </c>
@@ -3984,7 +4063,7 @@
         <v>129</v>
       </c>
       <c r="D46" s="156" t="s">
-        <v>192</v>
+        <v>307</v>
       </c>
       <c r="E46" s="157">
         <v>274000</v>
@@ -3993,7 +4072,7 @@
       <c r="G46" s="157"/>
       <c r="H46" s="176"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="154">
         <v>43942</v>
       </c>
@@ -4004,7 +4083,7 @@
         <v>129</v>
       </c>
       <c r="D47" s="156" t="s">
-        <v>192</v>
+        <v>308</v>
       </c>
       <c r="E47" s="157">
         <v>286000</v>
@@ -4013,7 +4092,7 @@
       <c r="G47" s="157"/>
       <c r="H47" s="176"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="154">
         <v>43942</v>
       </c>
@@ -4024,7 +4103,7 @@
         <v>129</v>
       </c>
       <c r="D48" s="156" t="s">
-        <v>196</v>
+        <v>309</v>
       </c>
       <c r="E48" s="157">
         <v>10000000</v>
@@ -4033,7 +4112,7 @@
       <c r="G48" s="157"/>
       <c r="H48" s="176"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="154">
         <v>43943</v>
       </c>
@@ -4044,7 +4123,7 @@
         <v>129</v>
       </c>
       <c r="D49" s="156" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="E49" s="157"/>
       <c r="F49" s="174">
@@ -4053,7 +4132,7 @@
       <c r="G49" s="157"/>
       <c r="H49" s="176"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="154">
         <v>43944</v>
       </c>
@@ -4073,7 +4152,7 @@
         <v>4050000</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="154">
         <v>43944</v>
       </c>
@@ -4084,7 +4163,7 @@
         <v>129</v>
       </c>
       <c r="D51" s="156" t="s">
-        <v>192</v>
+        <v>311</v>
       </c>
       <c r="E51" s="157">
         <v>1430000</v>
@@ -4093,7 +4172,7 @@
       <c r="G51" s="157"/>
       <c r="H51" s="176"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="154">
         <v>43944</v>
       </c>
@@ -4113,7 +4192,7 @@
       <c r="G52" s="157"/>
       <c r="H52" s="176"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="154">
         <v>43944</v>
       </c>
@@ -4124,7 +4203,7 @@
         <v>129</v>
       </c>
       <c r="D53" s="156" t="s">
-        <v>195</v>
+        <v>317</v>
       </c>
       <c r="E53" s="157">
         <v>572300</v>
@@ -4133,7 +4212,7 @@
       <c r="G53" s="157"/>
       <c r="H53" s="176"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="154">
         <v>43944</v>
       </c>
@@ -4144,7 +4223,7 @@
         <v>129</v>
       </c>
       <c r="D54" s="156" t="s">
-        <v>130</v>
+        <v>312</v>
       </c>
       <c r="E54" s="157">
         <v>6442800</v>
@@ -4153,7 +4232,7 @@
       <c r="G54" s="157"/>
       <c r="H54" s="176"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="154">
         <v>43944</v>
       </c>
@@ -4173,7 +4252,7 @@
         <v>3371000</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="154">
         <v>43945</v>
       </c>
@@ -4193,7 +4272,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="154">
         <v>43946</v>
       </c>
@@ -4213,7 +4292,7 @@
         <v>270000</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="154">
         <v>43946</v>
       </c>
@@ -4224,7 +4303,7 @@
         <v>129</v>
       </c>
       <c r="D58" s="156" t="s">
-        <v>216</v>
+        <v>313</v>
       </c>
       <c r="E58" s="157"/>
       <c r="F58" s="174">
@@ -4233,7 +4312,7 @@
       <c r="G58" s="157"/>
       <c r="H58" s="176"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="154">
         <v>43946</v>
       </c>
@@ -4253,7 +4332,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="154">
         <v>43946</v>
       </c>
@@ -4273,7 +4352,7 @@
       </c>
       <c r="H60" s="176"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="154">
         <v>43946</v>
       </c>
@@ -4284,7 +4363,7 @@
         <v>129</v>
       </c>
       <c r="D61" s="177" t="s">
-        <v>195</v>
+        <v>314</v>
       </c>
       <c r="E61" s="157">
         <v>1716900</v>
@@ -4293,7 +4372,7 @@
       <c r="G61" s="157"/>
       <c r="H61" s="176"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="154">
         <v>43947</v>
       </c>
@@ -4304,7 +4383,7 @@
         <v>129</v>
       </c>
       <c r="D62" s="177" t="s">
-        <v>217</v>
+        <v>315</v>
       </c>
       <c r="E62" s="157"/>
       <c r="F62" s="174">
@@ -4313,7 +4392,7 @@
       <c r="G62" s="157"/>
       <c r="H62" s="176"/>
     </row>
-    <row r="63" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="154">
         <v>43948</v>
       </c>
@@ -4333,7 +4412,7 @@
       </c>
       <c r="H63" s="176"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="154">
         <v>43947</v>
       </c>
@@ -4344,7 +4423,7 @@
         <v>129</v>
       </c>
       <c r="D64" s="177" t="s">
-        <v>218</v>
+        <v>316</v>
       </c>
       <c r="E64" s="157"/>
       <c r="F64" s="174">
@@ -4353,7 +4432,7 @@
       <c r="G64" s="157"/>
       <c r="H64" s="176"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="154">
         <v>43947</v>
       </c>
@@ -4393,7 +4472,7 @@
       <c r="G66" s="157"/>
       <c r="H66" s="176"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="154">
         <v>43949</v>
       </c>
@@ -4404,7 +4483,7 @@
         <v>129</v>
       </c>
       <c r="D67" s="156" t="s">
-        <v>219</v>
+        <v>318</v>
       </c>
       <c r="E67" s="157"/>
       <c r="F67" s="174">
@@ -4413,7 +4492,7 @@
       <c r="G67" s="157"/>
       <c r="H67" s="176"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="154">
         <v>43951</v>
       </c>
@@ -4434,7 +4513,7 @@
         <v>225000</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="154">
         <v>43951</v>
       </c>
@@ -4455,7 +4534,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="154">
         <v>43951</v>
       </c>
@@ -4475,7 +4554,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="154">
         <v>43951</v>
       </c>
@@ -4496,7 +4575,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="154">
         <v>43951</v>
       </c>
@@ -4516,7 +4595,7 @@
       <c r="G72" s="157"/>
       <c r="H72" s="176"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="154">
         <v>43951</v>
       </c>
@@ -4536,7 +4615,7 @@
         <v>2950550</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="154">
         <v>43951</v>
       </c>
@@ -4556,13 +4635,13 @@
         <v>540000</v>
       </c>
     </row>
-    <row r="75" spans="1:10" s="179" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A75" s="328" t="s">
+    <row r="75" spans="1:10" s="179" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="359" t="s">
         <v>10</v>
       </c>
-      <c r="B75" s="329"/>
-      <c r="C75" s="329"/>
-      <c r="D75" s="330"/>
+      <c r="B75" s="360"/>
+      <c r="C75" s="360"/>
+      <c r="D75" s="361"/>
       <c r="E75" s="178">
         <f>SUM(E8:E74)</f>
         <v>55887450</v>
@@ -4593,11 +4672,11 @@
       <c r="J76" s="180"/>
     </row>
     <row r="77" spans="1:10" s="179" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A77" s="339" t="s">
+      <c r="A77" s="370" t="s">
         <v>200</v>
       </c>
-      <c r="B77" s="339"/>
-      <c r="C77" s="339"/>
+      <c r="B77" s="370"/>
+      <c r="C77" s="370"/>
       <c r="D77" s="181"/>
       <c r="E77" s="182"/>
       <c r="F77" s="182"/>
@@ -4619,10 +4698,10 @@
     <row r="79" spans="1:10" s="179" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A79" s="181"/>
       <c r="B79" s="181"/>
-      <c r="C79" s="340" t="s">
+      <c r="C79" s="371" t="s">
         <v>277</v>
       </c>
-      <c r="D79" s="340"/>
+      <c r="D79" s="371"/>
       <c r="E79" s="182"/>
       <c r="F79" s="182"/>
       <c r="G79" s="182"/>
@@ -4630,32 +4709,32 @@
       <c r="J79" s="180"/>
     </row>
     <row r="80" spans="1:10" s="169" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="332" t="s">
+      <c r="A80" s="363" t="s">
         <v>4</v>
       </c>
-      <c r="B80" s="337" t="s">
+      <c r="B80" s="368" t="s">
         <v>220</v>
       </c>
-      <c r="C80" s="332" t="s">
+      <c r="C80" s="363" t="s">
         <v>5</v>
       </c>
-      <c r="D80" s="334" t="s">
+      <c r="D80" s="365" t="s">
         <v>6</v>
       </c>
-      <c r="E80" s="336" t="s">
+      <c r="E80" s="367" t="s">
         <v>7</v>
       </c>
-      <c r="F80" s="336"/>
-      <c r="G80" s="336" t="s">
+      <c r="F80" s="367"/>
+      <c r="G80" s="367" t="s">
         <v>8</v>
       </c>
-      <c r="H80" s="336"/>
+      <c r="H80" s="367"/>
     </row>
     <row r="81" spans="1:10" s="169" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="333"/>
-      <c r="B81" s="338"/>
-      <c r="C81" s="333"/>
-      <c r="D81" s="335"/>
+      <c r="A81" s="364"/>
+      <c r="B81" s="369"/>
+      <c r="C81" s="364"/>
+      <c r="D81" s="366"/>
       <c r="E81" s="173" t="s">
         <v>187</v>
       </c>
@@ -4737,10 +4816,10 @@
     <row r="86" spans="1:10" s="179" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A86" s="181"/>
       <c r="B86" s="181"/>
-      <c r="C86" s="340" t="s">
+      <c r="C86" s="371" t="s">
         <v>278</v>
       </c>
-      <c r="D86" s="340"/>
+      <c r="D86" s="371"/>
       <c r="E86" s="182"/>
       <c r="F86" s="182"/>
       <c r="G86" s="182"/>
@@ -4748,32 +4827,32 @@
       <c r="J86" s="180"/>
     </row>
     <row r="87" spans="1:10" s="169" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="332" t="s">
+      <c r="A87" s="363" t="s">
         <v>4</v>
       </c>
-      <c r="B87" s="337" t="s">
+      <c r="B87" s="368" t="s">
         <v>220</v>
       </c>
-      <c r="C87" s="332" t="s">
+      <c r="C87" s="363" t="s">
         <v>5</v>
       </c>
-      <c r="D87" s="334" t="s">
+      <c r="D87" s="365" t="s">
         <v>6</v>
       </c>
-      <c r="E87" s="336" t="s">
+      <c r="E87" s="367" t="s">
         <v>7</v>
       </c>
-      <c r="F87" s="336"/>
-      <c r="G87" s="336" t="s">
+      <c r="F87" s="367"/>
+      <c r="G87" s="367" t="s">
         <v>8</v>
       </c>
-      <c r="H87" s="336"/>
+      <c r="H87" s="367"/>
     </row>
     <row r="88" spans="1:10" s="169" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="333"/>
-      <c r="B88" s="338"/>
-      <c r="C88" s="333"/>
-      <c r="D88" s="335"/>
+      <c r="A88" s="364"/>
+      <c r="B88" s="369"/>
+      <c r="C88" s="364"/>
+      <c r="D88" s="366"/>
       <c r="E88" s="173" t="s">
         <v>187</v>
       </c>
@@ -4836,10 +4915,10 @@
     <row r="92" spans="1:10" s="179" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A92" s="181"/>
       <c r="B92" s="181"/>
-      <c r="C92" s="341" t="s">
+      <c r="C92" s="372" t="s">
         <v>25</v>
       </c>
-      <c r="D92" s="341"/>
+      <c r="D92" s="372"/>
       <c r="E92" s="182"/>
       <c r="F92" s="182"/>
       <c r="G92" s="182"/>
@@ -4847,32 +4926,32 @@
       <c r="J92" s="180"/>
     </row>
     <row r="93" spans="1:10" s="169" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="332" t="s">
+      <c r="A93" s="363" t="s">
         <v>4</v>
       </c>
-      <c r="B93" s="337" t="s">
+      <c r="B93" s="368" t="s">
         <v>220</v>
       </c>
-      <c r="C93" s="332" t="s">
+      <c r="C93" s="363" t="s">
         <v>5</v>
       </c>
-      <c r="D93" s="334" t="s">
+      <c r="D93" s="365" t="s">
         <v>6</v>
       </c>
-      <c r="E93" s="336" t="s">
+      <c r="E93" s="367" t="s">
         <v>7</v>
       </c>
-      <c r="F93" s="336"/>
-      <c r="G93" s="336" t="s">
+      <c r="F93" s="367"/>
+      <c r="G93" s="367" t="s">
         <v>8</v>
       </c>
-      <c r="H93" s="336"/>
+      <c r="H93" s="367"/>
     </row>
     <row r="94" spans="1:10" s="169" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="333"/>
-      <c r="B94" s="338"/>
-      <c r="C94" s="333"/>
-      <c r="D94" s="335"/>
+      <c r="A94" s="364"/>
+      <c r="B94" s="369"/>
+      <c r="C94" s="364"/>
+      <c r="D94" s="366"/>
       <c r="E94" s="173" t="s">
         <v>187</v>
       </c>
@@ -4995,10 +5074,10 @@
     <row r="101" spans="1:10" s="179" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A101" s="181"/>
       <c r="B101" s="181"/>
-      <c r="C101" s="341" t="s">
+      <c r="C101" s="372" t="s">
         <v>69</v>
       </c>
-      <c r="D101" s="341"/>
+      <c r="D101" s="372"/>
       <c r="E101" s="182"/>
       <c r="F101" s="182"/>
       <c r="G101" s="182"/>
@@ -5006,32 +5085,32 @@
       <c r="J101" s="180"/>
     </row>
     <row r="102" spans="1:10" s="169" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="332" t="s">
+      <c r="A102" s="363" t="s">
         <v>4</v>
       </c>
-      <c r="B102" s="337" t="s">
+      <c r="B102" s="368" t="s">
         <v>279</v>
       </c>
-      <c r="C102" s="332" t="s">
+      <c r="C102" s="363" t="s">
         <v>5</v>
       </c>
-      <c r="D102" s="334" t="s">
+      <c r="D102" s="365" t="s">
         <v>6</v>
       </c>
-      <c r="E102" s="336" t="s">
+      <c r="E102" s="367" t="s">
         <v>7</v>
       </c>
-      <c r="F102" s="336"/>
-      <c r="G102" s="336" t="s">
+      <c r="F102" s="367"/>
+      <c r="G102" s="367" t="s">
         <v>8</v>
       </c>
-      <c r="H102" s="336"/>
+      <c r="H102" s="367"/>
     </row>
     <row r="103" spans="1:10" s="169" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="333"/>
-      <c r="B103" s="338"/>
-      <c r="C103" s="333"/>
-      <c r="D103" s="335"/>
+      <c r="A103" s="364"/>
+      <c r="B103" s="369"/>
+      <c r="C103" s="364"/>
+      <c r="D103" s="366"/>
       <c r="E103" s="173" t="s">
         <v>187</v>
       </c>
@@ -5211,10 +5290,10 @@
     <row r="113" spans="1:10" s="179" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A113" s="181"/>
       <c r="B113" s="181"/>
-      <c r="C113" s="341" t="s">
+      <c r="C113" s="372" t="s">
         <v>9</v>
       </c>
-      <c r="D113" s="341"/>
+      <c r="D113" s="372"/>
       <c r="E113" s="182"/>
       <c r="F113" s="182"/>
       <c r="G113" s="182"/>
@@ -5222,32 +5301,32 @@
       <c r="J113" s="180"/>
     </row>
     <row r="114" spans="1:10" s="169" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="332" t="s">
+      <c r="A114" s="363" t="s">
         <v>4</v>
       </c>
-      <c r="B114" s="337" t="s">
+      <c r="B114" s="368" t="s">
         <v>220</v>
       </c>
-      <c r="C114" s="332" t="s">
+      <c r="C114" s="363" t="s">
         <v>5</v>
       </c>
-      <c r="D114" s="334" t="s">
+      <c r="D114" s="365" t="s">
         <v>6</v>
       </c>
-      <c r="E114" s="336" t="s">
+      <c r="E114" s="367" t="s">
         <v>7</v>
       </c>
-      <c r="F114" s="336"/>
-      <c r="G114" s="336" t="s">
+      <c r="F114" s="367"/>
+      <c r="G114" s="367" t="s">
         <v>8</v>
       </c>
-      <c r="H114" s="336"/>
+      <c r="H114" s="367"/>
     </row>
     <row r="115" spans="1:10" s="169" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="333"/>
-      <c r="B115" s="338"/>
-      <c r="C115" s="333"/>
-      <c r="D115" s="335"/>
+      <c r="A115" s="364"/>
+      <c r="B115" s="369"/>
+      <c r="C115" s="364"/>
+      <c r="D115" s="366"/>
       <c r="E115" s="173" t="s">
         <v>187</v>
       </c>
@@ -5567,42 +5646,42 @@
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="206"/>
       <c r="B132" s="206"/>
-      <c r="C132" s="341" t="s">
+      <c r="C132" s="372" t="s">
         <v>129</v>
       </c>
-      <c r="D132" s="341"/>
+      <c r="D132" s="372"/>
       <c r="E132" s="207"/>
       <c r="F132" s="208"/>
       <c r="G132" s="207"/>
       <c r="H132" s="209"/>
     </row>
     <row r="133" spans="1:8" s="169" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="338" t="s">
+      <c r="A133" s="369" t="s">
         <v>4</v>
       </c>
-      <c r="B133" s="337" t="s">
+      <c r="B133" s="368" t="s">
         <v>220</v>
       </c>
-      <c r="C133" s="338" t="s">
+      <c r="C133" s="369" t="s">
         <v>5</v>
       </c>
-      <c r="D133" s="342" t="s">
+      <c r="D133" s="373" t="s">
         <v>6</v>
       </c>
-      <c r="E133" s="343" t="s">
+      <c r="E133" s="374" t="s">
         <v>7</v>
       </c>
-      <c r="F133" s="343"/>
-      <c r="G133" s="343" t="s">
+      <c r="F133" s="374"/>
+      <c r="G133" s="374" t="s">
         <v>8</v>
       </c>
-      <c r="H133" s="343"/>
+      <c r="H133" s="374"/>
     </row>
     <row r="134" spans="1:8" s="169" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="333"/>
-      <c r="B134" s="338"/>
-      <c r="C134" s="333"/>
-      <c r="D134" s="335"/>
+      <c r="A134" s="364"/>
+      <c r="B134" s="369"/>
+      <c r="C134" s="364"/>
+      <c r="D134" s="366"/>
       <c r="E134" s="173" t="s">
         <v>187</v>
       </c>
@@ -6223,38 +6302,38 @@
       <c r="H165" s="188"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C166" s="341" t="s">
+      <c r="C166" s="372" t="s">
         <v>188</v>
       </c>
-      <c r="D166" s="341"/>
+      <c r="D166" s="372"/>
     </row>
     <row r="167" spans="1:8" s="169" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="332" t="s">
+      <c r="A167" s="363" t="s">
         <v>4</v>
       </c>
-      <c r="B167" s="337" t="s">
+      <c r="B167" s="368" t="s">
         <v>220</v>
       </c>
-      <c r="C167" s="332" t="s">
+      <c r="C167" s="363" t="s">
         <v>5</v>
       </c>
-      <c r="D167" s="334" t="s">
+      <c r="D167" s="365" t="s">
         <v>6</v>
       </c>
-      <c r="E167" s="336" t="s">
+      <c r="E167" s="367" t="s">
         <v>7</v>
       </c>
-      <c r="F167" s="336"/>
-      <c r="G167" s="336" t="s">
+      <c r="F167" s="367"/>
+      <c r="G167" s="367" t="s">
         <v>8</v>
       </c>
-      <c r="H167" s="336"/>
+      <c r="H167" s="367"/>
     </row>
     <row r="168" spans="1:8" s="169" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="333"/>
-      <c r="B168" s="338"/>
-      <c r="C168" s="333"/>
-      <c r="D168" s="335"/>
+      <c r="A168" s="364"/>
+      <c r="B168" s="369"/>
+      <c r="C168" s="364"/>
+      <c r="D168" s="366"/>
       <c r="E168" s="173" t="s">
         <v>187</v>
       </c>
@@ -6335,38 +6414,38 @@
       <c r="H172" s="186"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C173" s="341" t="s">
+      <c r="C173" s="372" t="s">
         <v>12</v>
       </c>
-      <c r="D173" s="341"/>
+      <c r="D173" s="372"/>
     </row>
     <row r="174" spans="1:8" s="169" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="332" t="s">
+      <c r="A174" s="363" t="s">
         <v>4</v>
       </c>
-      <c r="B174" s="337" t="s">
+      <c r="B174" s="368" t="s">
         <v>220</v>
       </c>
-      <c r="C174" s="332" t="s">
+      <c r="C174" s="363" t="s">
         <v>5</v>
       </c>
-      <c r="D174" s="334" t="s">
+      <c r="D174" s="365" t="s">
         <v>6</v>
       </c>
-      <c r="E174" s="336" t="s">
+      <c r="E174" s="367" t="s">
         <v>7</v>
       </c>
-      <c r="F174" s="336"/>
-      <c r="G174" s="336" t="s">
+      <c r="F174" s="367"/>
+      <c r="G174" s="367" t="s">
         <v>8</v>
       </c>
-      <c r="H174" s="336"/>
+      <c r="H174" s="367"/>
     </row>
     <row r="175" spans="1:8" s="169" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="333"/>
-      <c r="B175" s="338"/>
-      <c r="C175" s="333"/>
-      <c r="D175" s="335"/>
+      <c r="A175" s="364"/>
+      <c r="B175" s="369"/>
+      <c r="C175" s="364"/>
+      <c r="D175" s="366"/>
       <c r="E175" s="173" t="s">
         <v>187</v>
       </c>
@@ -6527,38 +6606,38 @@
       <c r="H183" s="188"/>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C184" s="341" t="s">
+      <c r="C184" s="372" t="s">
         <v>13</v>
       </c>
-      <c r="D184" s="341"/>
+      <c r="D184" s="372"/>
     </row>
     <row r="185" spans="1:10" s="169" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="332" t="s">
+      <c r="A185" s="363" t="s">
         <v>4</v>
       </c>
-      <c r="B185" s="337" t="s">
+      <c r="B185" s="368" t="s">
         <v>220</v>
       </c>
-      <c r="C185" s="332" t="s">
+      <c r="C185" s="363" t="s">
         <v>5</v>
       </c>
-      <c r="D185" s="334" t="s">
+      <c r="D185" s="365" t="s">
         <v>6</v>
       </c>
-      <c r="E185" s="336" t="s">
+      <c r="E185" s="367" t="s">
         <v>7</v>
       </c>
-      <c r="F185" s="336"/>
-      <c r="G185" s="336" t="s">
+      <c r="F185" s="367"/>
+      <c r="G185" s="367" t="s">
         <v>8</v>
       </c>
-      <c r="H185" s="336"/>
+      <c r="H185" s="367"/>
     </row>
     <row r="186" spans="1:10" s="169" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="333"/>
-      <c r="B186" s="338"/>
-      <c r="C186" s="333"/>
-      <c r="D186" s="335"/>
+      <c r="A186" s="364"/>
+      <c r="B186" s="369"/>
+      <c r="C186" s="364"/>
+      <c r="D186" s="366"/>
       <c r="E186" s="173" t="s">
         <v>187</v>
       </c>
@@ -6664,6 +6743,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A6:H75">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="PT00022"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="4" hiddenButton="1" showButton="0"/>
     <filterColumn colId="6" hiddenButton="1" showButton="0"/>
   </autoFilter>
@@ -6752,8 +6836,8 @@
   <dimension ref="A1:Q90"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N54" sqref="N54"/>
+      <pane ySplit="7" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L76" sqref="L76:L77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -6777,13 +6861,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="241" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="380" t="s">
+      <c r="A1" s="411" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="380"/>
-      <c r="C1" s="380"/>
-      <c r="D1" s="380"/>
-      <c r="E1" s="380"/>
+      <c r="B1" s="411"/>
+      <c r="C1" s="411"/>
+      <c r="D1" s="411"/>
+      <c r="E1" s="411"/>
       <c r="H1" s="242"/>
       <c r="I1" s="242"/>
       <c r="J1" s="242"/>
@@ -6813,136 +6897,136 @@
       <c r="P2" s="246"/>
     </row>
     <row r="3" spans="1:16" s="241" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="384" t="s">
+      <c r="A3" s="415" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="384"/>
-      <c r="C3" s="384"/>
-      <c r="D3" s="384"/>
-      <c r="E3" s="384"/>
-      <c r="F3" s="384"/>
-      <c r="G3" s="384"/>
-      <c r="H3" s="384"/>
-      <c r="I3" s="384"/>
-      <c r="J3" s="384"/>
-      <c r="K3" s="384"/>
-      <c r="L3" s="384"/>
-      <c r="M3" s="384"/>
-      <c r="N3" s="384"/>
-      <c r="O3" s="384"/>
-      <c r="P3" s="384"/>
+      <c r="B3" s="415"/>
+      <c r="C3" s="415"/>
+      <c r="D3" s="415"/>
+      <c r="E3" s="415"/>
+      <c r="F3" s="415"/>
+      <c r="G3" s="415"/>
+      <c r="H3" s="415"/>
+      <c r="I3" s="415"/>
+      <c r="J3" s="415"/>
+      <c r="K3" s="415"/>
+      <c r="L3" s="415"/>
+      <c r="M3" s="415"/>
+      <c r="N3" s="415"/>
+      <c r="O3" s="415"/>
+      <c r="P3" s="415"/>
     </row>
     <row r="4" spans="1:16" s="241" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="384" t="s">
+      <c r="A4" s="415" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="384"/>
-      <c r="C4" s="384"/>
-      <c r="D4" s="384"/>
-      <c r="E4" s="384"/>
-      <c r="F4" s="384"/>
-      <c r="G4" s="384"/>
-      <c r="H4" s="384"/>
-      <c r="I4" s="384"/>
-      <c r="J4" s="384"/>
-      <c r="K4" s="384"/>
-      <c r="L4" s="384"/>
-      <c r="M4" s="384"/>
-      <c r="N4" s="384"/>
-      <c r="O4" s="384"/>
-      <c r="P4" s="384"/>
+      <c r="B4" s="415"/>
+      <c r="C4" s="415"/>
+      <c r="D4" s="415"/>
+      <c r="E4" s="415"/>
+      <c r="F4" s="415"/>
+      <c r="G4" s="415"/>
+      <c r="H4" s="415"/>
+      <c r="I4" s="415"/>
+      <c r="J4" s="415"/>
+      <c r="K4" s="415"/>
+      <c r="L4" s="415"/>
+      <c r="M4" s="415"/>
+      <c r="N4" s="415"/>
+      <c r="O4" s="415"/>
+      <c r="P4" s="415"/>
     </row>
     <row r="5" spans="1:16" s="241" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="371" t="s">
+      <c r="A5" s="402" t="s">
         <v>161</v>
       </c>
-      <c r="B5" s="376" t="s">
+      <c r="B5" s="407" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="371" t="s">
+      <c r="C5" s="402" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="378" t="s">
+      <c r="D5" s="409" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="378"/>
-      <c r="F5" s="379" t="s">
+      <c r="E5" s="409"/>
+      <c r="F5" s="410" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="379"/>
-      <c r="H5" s="379"/>
-      <c r="I5" s="379"/>
-      <c r="J5" s="379"/>
-      <c r="K5" s="379"/>
-      <c r="L5" s="379"/>
-      <c r="M5" s="373"/>
-      <c r="N5" s="373"/>
-      <c r="O5" s="373"/>
-      <c r="P5" s="374" t="s">
+      <c r="G5" s="410"/>
+      <c r="H5" s="410"/>
+      <c r="I5" s="410"/>
+      <c r="J5" s="410"/>
+      <c r="K5" s="410"/>
+      <c r="L5" s="410"/>
+      <c r="M5" s="404"/>
+      <c r="N5" s="404"/>
+      <c r="O5" s="404"/>
+      <c r="P5" s="405" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="241" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="372"/>
-      <c r="B6" s="377"/>
-      <c r="C6" s="372"/>
-      <c r="D6" s="371" t="s">
+      <c r="A6" s="403"/>
+      <c r="B6" s="408"/>
+      <c r="C6" s="403"/>
+      <c r="D6" s="402" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="371" t="s">
+      <c r="E6" s="402" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="371" t="s">
+      <c r="F6" s="402" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="371" t="s">
+      <c r="G6" s="402" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="365" t="s">
+      <c r="H6" s="396" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="365" t="s">
+      <c r="I6" s="396" t="s">
         <v>54</v>
       </c>
-      <c r="J6" s="370" t="s">
+      <c r="J6" s="401" t="s">
         <v>36</v>
       </c>
-      <c r="K6" s="370"/>
-      <c r="L6" s="365" t="s">
+      <c r="K6" s="401"/>
+      <c r="L6" s="396" t="s">
         <v>55</v>
       </c>
-      <c r="M6" s="365" t="s">
+      <c r="M6" s="396" t="s">
         <v>65</v>
       </c>
-      <c r="N6" s="365" t="s">
+      <c r="N6" s="396" t="s">
         <v>187</v>
       </c>
-      <c r="O6" s="365" t="s">
+      <c r="O6" s="396" t="s">
         <v>204</v>
       </c>
-      <c r="P6" s="375"/>
+      <c r="P6" s="406"/>
     </row>
     <row r="7" spans="1:16" s="241" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="372"/>
-      <c r="B7" s="377"/>
-      <c r="C7" s="372"/>
-      <c r="D7" s="372"/>
-      <c r="E7" s="372"/>
-      <c r="F7" s="372"/>
-      <c r="G7" s="372"/>
-      <c r="H7" s="366"/>
-      <c r="I7" s="366"/>
+      <c r="A7" s="403"/>
+      <c r="B7" s="408"/>
+      <c r="C7" s="403"/>
+      <c r="D7" s="403"/>
+      <c r="E7" s="403"/>
+      <c r="F7" s="403"/>
+      <c r="G7" s="403"/>
+      <c r="H7" s="397"/>
+      <c r="I7" s="397"/>
       <c r="J7" s="249" t="s">
         <v>205</v>
       </c>
       <c r="K7" s="250" t="s">
         <v>56</v>
       </c>
-      <c r="L7" s="366"/>
-      <c r="M7" s="366"/>
-      <c r="N7" s="366"/>
-      <c r="O7" s="366"/>
-      <c r="P7" s="375"/>
+      <c r="L7" s="397"/>
+      <c r="M7" s="397"/>
+      <c r="N7" s="397"/>
+      <c r="O7" s="397"/>
+      <c r="P7" s="406"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="319">
@@ -7122,17 +7206,17 @@
       <c r="P11" s="253"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="344">
+      <c r="A12" s="375">
         <v>320</v>
       </c>
-      <c r="B12" s="381">
+      <c r="B12" s="412">
         <v>43921</v>
       </c>
-      <c r="C12" s="357"/>
-      <c r="D12" s="357" t="s">
+      <c r="C12" s="388"/>
+      <c r="D12" s="388" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="357" t="s">
+      <c r="E12" s="388" t="s">
         <v>101</v>
       </c>
       <c r="F12" s="258" t="s">
@@ -7163,14 +7247,14 @@
         <f>L12</f>
         <v>6442800.0000000009</v>
       </c>
-      <c r="P12" s="363"/>
+      <c r="P12" s="394"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="345"/>
-      <c r="B13" s="383"/>
-      <c r="C13" s="359"/>
-      <c r="D13" s="359"/>
-      <c r="E13" s="359"/>
+      <c r="A13" s="376"/>
+      <c r="B13" s="414"/>
+      <c r="C13" s="390"/>
+      <c r="D13" s="390"/>
+      <c r="E13" s="390"/>
       <c r="F13" s="263" t="s">
         <v>44</v>
       </c>
@@ -7197,7 +7281,7 @@
         <f>L13</f>
         <v>3433800.0000000005</v>
       </c>
-      <c r="P13" s="364"/>
+      <c r="P13" s="395"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="324">
@@ -7513,17 +7597,17 @@
       <c r="P20" s="276"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="347">
+      <c r="A21" s="378">
         <v>327</v>
       </c>
-      <c r="B21" s="354">
+      <c r="B21" s="385">
         <v>43935</v>
       </c>
-      <c r="C21" s="348"/>
-      <c r="D21" s="360" t="s">
+      <c r="C21" s="379"/>
+      <c r="D21" s="391" t="s">
         <v>95</v>
       </c>
-      <c r="E21" s="348" t="s">
+      <c r="E21" s="379" t="s">
         <v>90</v>
       </c>
       <c r="F21" s="279" t="s">
@@ -7556,11 +7640,11 @@
       <c r="P21" s="279"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="347"/>
-      <c r="B22" s="355"/>
-      <c r="C22" s="349"/>
-      <c r="D22" s="361"/>
-      <c r="E22" s="349"/>
+      <c r="A22" s="378"/>
+      <c r="B22" s="386"/>
+      <c r="C22" s="380"/>
+      <c r="D22" s="392"/>
+      <c r="E22" s="380"/>
       <c r="F22" s="282" t="s">
         <v>41</v>
       </c>
@@ -7591,11 +7675,11 @@
       <c r="P22" s="282"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="347"/>
-      <c r="B23" s="355"/>
-      <c r="C23" s="349"/>
-      <c r="D23" s="361"/>
-      <c r="E23" s="349"/>
+      <c r="A23" s="378"/>
+      <c r="B23" s="386"/>
+      <c r="C23" s="380"/>
+      <c r="D23" s="392"/>
+      <c r="E23" s="380"/>
       <c r="F23" s="282" t="s">
         <v>44</v>
       </c>
@@ -7626,11 +7710,11 @@
       <c r="P23" s="282"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="347"/>
-      <c r="B24" s="355"/>
-      <c r="C24" s="349"/>
-      <c r="D24" s="361"/>
-      <c r="E24" s="349"/>
+      <c r="A24" s="378"/>
+      <c r="B24" s="386"/>
+      <c r="C24" s="380"/>
+      <c r="D24" s="392"/>
+      <c r="E24" s="380"/>
       <c r="F24" s="282" t="s">
         <v>43</v>
       </c>
@@ -7661,11 +7745,11 @@
       <c r="P24" s="282"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="347"/>
-      <c r="B25" s="355"/>
-      <c r="C25" s="349"/>
-      <c r="D25" s="361"/>
-      <c r="E25" s="349"/>
+      <c r="A25" s="378"/>
+      <c r="B25" s="386"/>
+      <c r="C25" s="380"/>
+      <c r="D25" s="392"/>
+      <c r="E25" s="380"/>
       <c r="F25" s="282" t="s">
         <v>39</v>
       </c>
@@ -7696,11 +7780,11 @@
       <c r="P25" s="282"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="347"/>
-      <c r="B26" s="355"/>
-      <c r="C26" s="349"/>
-      <c r="D26" s="361"/>
-      <c r="E26" s="349"/>
+      <c r="A26" s="378"/>
+      <c r="B26" s="386"/>
+      <c r="C26" s="380"/>
+      <c r="D26" s="392"/>
+      <c r="E26" s="380"/>
       <c r="F26" s="282" t="s">
         <v>40</v>
       </c>
@@ -7731,11 +7815,11 @@
       <c r="P26" s="282"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="347"/>
-      <c r="B27" s="356"/>
-      <c r="C27" s="350"/>
-      <c r="D27" s="362"/>
-      <c r="E27" s="350"/>
+      <c r="A27" s="378"/>
+      <c r="B27" s="387"/>
+      <c r="C27" s="381"/>
+      <c r="D27" s="393"/>
+      <c r="E27" s="381"/>
       <c r="F27" s="285" t="s">
         <v>68</v>
       </c>
@@ -7811,19 +7895,19 @@
       <c r="P28" s="253"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="347">
+      <c r="A29" s="378">
         <v>328</v>
       </c>
-      <c r="B29" s="381">
+      <c r="B29" s="412">
         <v>43936</v>
       </c>
-      <c r="C29" s="357" t="s">
+      <c r="C29" s="388" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="357" t="s">
+      <c r="D29" s="388" t="s">
         <v>97</v>
       </c>
-      <c r="E29" s="357" t="s">
+      <c r="E29" s="388" t="s">
         <v>98</v>
       </c>
       <c r="F29" s="258" t="s">
@@ -7856,11 +7940,11 @@
       <c r="P29" s="258"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="347"/>
-      <c r="B30" s="382"/>
-      <c r="C30" s="358"/>
-      <c r="D30" s="358"/>
-      <c r="E30" s="358"/>
+      <c r="A30" s="378"/>
+      <c r="B30" s="413"/>
+      <c r="C30" s="389"/>
+      <c r="D30" s="389"/>
+      <c r="E30" s="389"/>
       <c r="F30" s="288" t="s">
         <v>38</v>
       </c>
@@ -7891,11 +7975,11 @@
       <c r="P30" s="288"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="347"/>
-      <c r="B31" s="382"/>
-      <c r="C31" s="358"/>
-      <c r="D31" s="358"/>
-      <c r="E31" s="358"/>
+      <c r="A31" s="378"/>
+      <c r="B31" s="413"/>
+      <c r="C31" s="389"/>
+      <c r="D31" s="389"/>
+      <c r="E31" s="389"/>
       <c r="F31" s="288" t="s">
         <v>41</v>
       </c>
@@ -7926,11 +8010,11 @@
       <c r="P31" s="288"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="347"/>
-      <c r="B32" s="383"/>
-      <c r="C32" s="359"/>
-      <c r="D32" s="359"/>
-      <c r="E32" s="359"/>
+      <c r="A32" s="378"/>
+      <c r="B32" s="414"/>
+      <c r="C32" s="390"/>
+      <c r="D32" s="390"/>
+      <c r="E32" s="390"/>
       <c r="F32" s="263" t="s">
         <v>68</v>
       </c>
@@ -8135,19 +8219,19 @@
       <c r="P36" s="253"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="344">
+      <c r="A37" s="375">
         <v>346</v>
       </c>
-      <c r="B37" s="354">
+      <c r="B37" s="385">
         <v>43941</v>
       </c>
-      <c r="C37" s="348" t="s">
+      <c r="C37" s="379" t="s">
         <v>93</v>
       </c>
-      <c r="D37" s="348" t="s">
+      <c r="D37" s="379" t="s">
         <v>119</v>
       </c>
-      <c r="E37" s="348" t="s">
+      <c r="E37" s="379" t="s">
         <v>120</v>
       </c>
       <c r="F37" s="258" t="s">
@@ -8180,11 +8264,11 @@
       <c r="P37" s="258"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="346"/>
-      <c r="B38" s="355"/>
-      <c r="C38" s="349"/>
-      <c r="D38" s="349"/>
-      <c r="E38" s="349"/>
+      <c r="A38" s="377"/>
+      <c r="B38" s="386"/>
+      <c r="C38" s="380"/>
+      <c r="D38" s="380"/>
+      <c r="E38" s="380"/>
       <c r="F38" s="288" t="s">
         <v>41</v>
       </c>
@@ -8215,11 +8299,11 @@
       <c r="P38" s="288"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="346"/>
-      <c r="B39" s="355"/>
-      <c r="C39" s="349"/>
-      <c r="D39" s="349"/>
-      <c r="E39" s="349"/>
+      <c r="A39" s="377"/>
+      <c r="B39" s="386"/>
+      <c r="C39" s="380"/>
+      <c r="D39" s="380"/>
+      <c r="E39" s="380"/>
       <c r="F39" s="288" t="s">
         <v>43</v>
       </c>
@@ -8250,11 +8334,11 @@
       <c r="P39" s="288"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="345"/>
-      <c r="B40" s="356"/>
-      <c r="C40" s="350"/>
-      <c r="D40" s="350"/>
-      <c r="E40" s="350"/>
+      <c r="A40" s="376"/>
+      <c r="B40" s="387"/>
+      <c r="C40" s="381"/>
+      <c r="D40" s="381"/>
+      <c r="E40" s="381"/>
       <c r="F40" s="263" t="s">
         <v>67</v>
       </c>
@@ -8285,17 +8369,17 @@
       <c r="P40" s="263"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="347">
+      <c r="A41" s="378">
         <v>345</v>
       </c>
-      <c r="B41" s="381">
+      <c r="B41" s="412">
         <v>43941</v>
       </c>
-      <c r="C41" s="357"/>
-      <c r="D41" s="357" t="s">
+      <c r="C41" s="388"/>
+      <c r="D41" s="388" t="s">
         <v>107</v>
       </c>
-      <c r="E41" s="357" t="s">
+      <c r="E41" s="388" t="s">
         <v>101</v>
       </c>
       <c r="F41" s="258" t="s">
@@ -8327,14 +8411,14 @@
         <v>6192800.0000000009</v>
       </c>
       <c r="O41" s="259"/>
-      <c r="P41" s="367"/>
+      <c r="P41" s="398"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="347"/>
-      <c r="B42" s="382"/>
-      <c r="C42" s="358"/>
-      <c r="D42" s="358"/>
-      <c r="E42" s="358"/>
+      <c r="A42" s="378"/>
+      <c r="B42" s="413"/>
+      <c r="C42" s="389"/>
+      <c r="D42" s="389"/>
+      <c r="E42" s="389"/>
       <c r="F42" s="288" t="s">
         <v>38</v>
       </c>
@@ -8362,14 +8446,14 @@
         <v>3292200.0000000005</v>
       </c>
       <c r="O42" s="289"/>
-      <c r="P42" s="369"/>
+      <c r="P42" s="400"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="347"/>
-      <c r="B43" s="382"/>
-      <c r="C43" s="358"/>
-      <c r="D43" s="358"/>
-      <c r="E43" s="358"/>
+      <c r="A43" s="378"/>
+      <c r="B43" s="413"/>
+      <c r="C43" s="389"/>
+      <c r="D43" s="389"/>
+      <c r="E43" s="389"/>
       <c r="F43" s="288" t="s">
         <v>41</v>
       </c>
@@ -8397,14 +8481,14 @@
         <v>3363000.0000000005</v>
       </c>
       <c r="O43" s="289"/>
-      <c r="P43" s="369"/>
+      <c r="P43" s="400"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="347"/>
-      <c r="B44" s="383"/>
-      <c r="C44" s="359"/>
-      <c r="D44" s="359"/>
-      <c r="E44" s="359"/>
+      <c r="A44" s="378"/>
+      <c r="B44" s="414"/>
+      <c r="C44" s="390"/>
+      <c r="D44" s="390"/>
+      <c r="E44" s="390"/>
       <c r="F44" s="263" t="s">
         <v>44</v>
       </c>
@@ -8432,22 +8516,22 @@
         <v>3433800.0000000005</v>
       </c>
       <c r="O44" s="264"/>
-      <c r="P44" s="368"/>
+      <c r="P44" s="399"/>
     </row>
     <row r="45" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="344">
+      <c r="A45" s="375">
         <v>342</v>
       </c>
-      <c r="B45" s="354">
+      <c r="B45" s="385">
         <v>43942</v>
       </c>
-      <c r="C45" s="348" t="s">
+      <c r="C45" s="379" t="s">
         <v>42</v>
       </c>
-      <c r="D45" s="348" t="s">
+      <c r="D45" s="379" t="s">
         <v>42</v>
       </c>
-      <c r="E45" s="348" t="s">
+      <c r="E45" s="379" t="s">
         <v>76</v>
       </c>
       <c r="F45" s="258" t="s">
@@ -8477,14 +8561,14 @@
         <v>268450.00000000006</v>
       </c>
       <c r="O45" s="259"/>
-      <c r="P45" s="367"/>
+      <c r="P45" s="398"/>
     </row>
     <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="345"/>
-      <c r="B46" s="356"/>
-      <c r="C46" s="350"/>
-      <c r="D46" s="350"/>
-      <c r="E46" s="350"/>
+      <c r="A46" s="376"/>
+      <c r="B46" s="387"/>
+      <c r="C46" s="381"/>
+      <c r="D46" s="381"/>
+      <c r="E46" s="381"/>
       <c r="F46" s="263" t="s">
         <v>38</v>
       </c>
@@ -8512,7 +8596,7 @@
         <v>548700.00000000012</v>
       </c>
       <c r="O46" s="264"/>
-      <c r="P46" s="368"/>
+      <c r="P46" s="399"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="319">
@@ -8607,17 +8691,17 @@
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="344">
+      <c r="A49" s="375">
         <v>452</v>
       </c>
-      <c r="B49" s="381">
+      <c r="B49" s="412">
         <v>43942</v>
       </c>
-      <c r="C49" s="357"/>
-      <c r="D49" s="357" t="s">
+      <c r="C49" s="388"/>
+      <c r="D49" s="388" t="s">
         <v>99</v>
       </c>
-      <c r="E49" s="357" t="s">
+      <c r="E49" s="388" t="s">
         <v>100</v>
       </c>
       <c r="F49" s="258" t="s">
@@ -8647,16 +8731,16 @@
         <v>6442800.0000000009</v>
       </c>
       <c r="O49" s="259"/>
-      <c r="P49" s="363" t="s">
+      <c r="P49" s="394" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="346"/>
-      <c r="B50" s="382"/>
-      <c r="C50" s="358"/>
-      <c r="D50" s="358"/>
-      <c r="E50" s="358"/>
+      <c r="A50" s="377"/>
+      <c r="B50" s="413"/>
+      <c r="C50" s="389"/>
+      <c r="D50" s="389"/>
+      <c r="E50" s="389"/>
       <c r="F50" s="288" t="s">
         <v>40</v>
       </c>
@@ -8684,14 +8768,14 @@
         <v>3221400.0000000005</v>
       </c>
       <c r="O50" s="289"/>
-      <c r="P50" s="385"/>
+      <c r="P50" s="416"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="345"/>
-      <c r="B51" s="383"/>
-      <c r="C51" s="359"/>
-      <c r="D51" s="359"/>
-      <c r="E51" s="359"/>
+      <c r="A51" s="376"/>
+      <c r="B51" s="414"/>
+      <c r="C51" s="390"/>
+      <c r="D51" s="390"/>
+      <c r="E51" s="390"/>
       <c r="F51" s="263" t="s">
         <v>68</v>
       </c>
@@ -8722,7 +8806,7 @@
         <f>L49+L50+L51-N49-N50-N51</f>
         <v>2885600.0000000019</v>
       </c>
-      <c r="P51" s="364"/>
+      <c r="P51" s="395"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="319">
@@ -9040,19 +9124,19 @@
       <c r="P58" s="253"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="344">
+      <c r="A59" s="375">
         <v>456</v>
       </c>
-      <c r="B59" s="381">
+      <c r="B59" s="412">
         <v>43946</v>
       </c>
-      <c r="C59" s="357" t="s">
+      <c r="C59" s="388" t="s">
         <v>93</v>
       </c>
-      <c r="D59" s="357" t="s">
+      <c r="D59" s="388" t="s">
         <v>122</v>
       </c>
-      <c r="E59" s="357" t="s">
+      <c r="E59" s="388" t="s">
         <v>123</v>
       </c>
       <c r="F59" s="258" t="s">
@@ -9084,11 +9168,11 @@
       <c r="P59" s="258"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="345"/>
-      <c r="B60" s="383"/>
-      <c r="C60" s="359"/>
-      <c r="D60" s="359"/>
-      <c r="E60" s="359"/>
+      <c r="A60" s="376"/>
+      <c r="B60" s="414"/>
+      <c r="C60" s="390"/>
+      <c r="D60" s="390"/>
+      <c r="E60" s="390"/>
       <c r="F60" s="263" t="s">
         <v>41</v>
       </c>
@@ -9118,17 +9202,17 @@
       <c r="P60" s="263"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="344">
+      <c r="A61" s="375">
         <v>455</v>
       </c>
-      <c r="B61" s="381">
+      <c r="B61" s="412">
         <v>43946</v>
       </c>
-      <c r="C61" s="357"/>
-      <c r="D61" s="357" t="s">
+      <c r="C61" s="388"/>
+      <c r="D61" s="388" t="s">
         <v>125</v>
       </c>
-      <c r="E61" s="357" t="s">
+      <c r="E61" s="388" t="s">
         <v>126</v>
       </c>
       <c r="F61" s="258" t="s">
@@ -9161,11 +9245,11 @@
       <c r="P61" s="258"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A62" s="346"/>
-      <c r="B62" s="382"/>
-      <c r="C62" s="358"/>
-      <c r="D62" s="358"/>
-      <c r="E62" s="358"/>
+      <c r="A62" s="377"/>
+      <c r="B62" s="413"/>
+      <c r="C62" s="389"/>
+      <c r="D62" s="389"/>
+      <c r="E62" s="389"/>
       <c r="F62" s="288" t="s">
         <v>38</v>
       </c>
@@ -9196,11 +9280,11 @@
       <c r="P62" s="288"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A63" s="346"/>
-      <c r="B63" s="382"/>
-      <c r="C63" s="358"/>
-      <c r="D63" s="358"/>
-      <c r="E63" s="358"/>
+      <c r="A63" s="377"/>
+      <c r="B63" s="413"/>
+      <c r="C63" s="389"/>
+      <c r="D63" s="389"/>
+      <c r="E63" s="389"/>
       <c r="F63" s="288" t="s">
         <v>41</v>
       </c>
@@ -9231,11 +9315,11 @@
       <c r="P63" s="288"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A64" s="346"/>
-      <c r="B64" s="382"/>
-      <c r="C64" s="358"/>
-      <c r="D64" s="358"/>
-      <c r="E64" s="358"/>
+      <c r="A64" s="377"/>
+      <c r="B64" s="413"/>
+      <c r="C64" s="389"/>
+      <c r="D64" s="389"/>
+      <c r="E64" s="389"/>
       <c r="F64" s="288" t="s">
         <v>44</v>
       </c>
@@ -9266,11 +9350,11 @@
       <c r="P64" s="288"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A65" s="346"/>
-      <c r="B65" s="382"/>
-      <c r="C65" s="358"/>
-      <c r="D65" s="358"/>
-      <c r="E65" s="358"/>
+      <c r="A65" s="377"/>
+      <c r="B65" s="413"/>
+      <c r="C65" s="389"/>
+      <c r="D65" s="389"/>
+      <c r="E65" s="389"/>
       <c r="F65" s="288" t="s">
         <v>43</v>
       </c>
@@ -9301,11 +9385,11 @@
       <c r="P65" s="288"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A66" s="346"/>
-      <c r="B66" s="382"/>
-      <c r="C66" s="358"/>
-      <c r="D66" s="358"/>
-      <c r="E66" s="358"/>
+      <c r="A66" s="377"/>
+      <c r="B66" s="413"/>
+      <c r="C66" s="389"/>
+      <c r="D66" s="389"/>
+      <c r="E66" s="389"/>
       <c r="F66" s="288" t="s">
         <v>39</v>
       </c>
@@ -9336,11 +9420,11 @@
       <c r="P66" s="288"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A67" s="346"/>
-      <c r="B67" s="382"/>
-      <c r="C67" s="358"/>
-      <c r="D67" s="358"/>
-      <c r="E67" s="358"/>
+      <c r="A67" s="377"/>
+      <c r="B67" s="413"/>
+      <c r="C67" s="389"/>
+      <c r="D67" s="389"/>
+      <c r="E67" s="389"/>
       <c r="F67" s="288" t="s">
         <v>67</v>
       </c>
@@ -9371,11 +9455,11 @@
       <c r="P67" s="288"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A68" s="346"/>
-      <c r="B68" s="382"/>
-      <c r="C68" s="358"/>
-      <c r="D68" s="358"/>
-      <c r="E68" s="358"/>
+      <c r="A68" s="377"/>
+      <c r="B68" s="413"/>
+      <c r="C68" s="389"/>
+      <c r="D68" s="389"/>
+      <c r="E68" s="389"/>
       <c r="F68" s="288" t="s">
         <v>40</v>
       </c>
@@ -9406,11 +9490,11 @@
       <c r="P68" s="288"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A69" s="345"/>
-      <c r="B69" s="383"/>
-      <c r="C69" s="359"/>
-      <c r="D69" s="359"/>
-      <c r="E69" s="359"/>
+      <c r="A69" s="376"/>
+      <c r="B69" s="414"/>
+      <c r="C69" s="390"/>
+      <c r="D69" s="390"/>
+      <c r="E69" s="390"/>
       <c r="F69" s="263" t="s">
         <v>68</v>
       </c>
@@ -9486,19 +9570,19 @@
       <c r="P70" s="253"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A71" s="351">
+      <c r="A71" s="382">
         <v>457</v>
       </c>
-      <c r="B71" s="354">
+      <c r="B71" s="385">
         <v>43947</v>
       </c>
-      <c r="C71" s="348" t="s">
+      <c r="C71" s="379" t="s">
         <v>93</v>
       </c>
-      <c r="D71" s="348" t="s">
+      <c r="D71" s="379" t="s">
         <v>160</v>
       </c>
-      <c r="E71" s="348" t="s">
+      <c r="E71" s="379" t="s">
         <v>123</v>
       </c>
       <c r="F71" s="258" t="s">
@@ -9530,11 +9614,11 @@
       <c r="P71" s="258"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A72" s="352"/>
-      <c r="B72" s="355"/>
-      <c r="C72" s="349"/>
-      <c r="D72" s="349"/>
-      <c r="E72" s="349"/>
+      <c r="A72" s="383"/>
+      <c r="B72" s="386"/>
+      <c r="C72" s="380"/>
+      <c r="D72" s="380"/>
+      <c r="E72" s="380"/>
       <c r="F72" s="288" t="s">
         <v>39</v>
       </c>
@@ -9564,11 +9648,11 @@
       <c r="P72" s="288"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A73" s="353"/>
-      <c r="B73" s="356"/>
-      <c r="C73" s="350"/>
-      <c r="D73" s="350"/>
-      <c r="E73" s="350"/>
+      <c r="A73" s="384"/>
+      <c r="B73" s="387"/>
+      <c r="C73" s="381"/>
+      <c r="D73" s="381"/>
+      <c r="E73" s="381"/>
       <c r="F73" s="263" t="s">
         <v>40</v>
       </c>
@@ -9688,19 +9772,19 @@
       <c r="P75" s="253"/>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A76" s="344">
+      <c r="A76" s="375">
         <v>1144</v>
       </c>
-      <c r="B76" s="381">
+      <c r="B76" s="412">
         <v>43949</v>
       </c>
-      <c r="C76" s="357" t="s">
+      <c r="C76" s="388" t="s">
         <v>93</v>
       </c>
-      <c r="D76" s="357" t="s">
+      <c r="D76" s="388" t="s">
         <v>174</v>
       </c>
-      <c r="E76" s="357" t="s">
+      <c r="E76" s="388" t="s">
         <v>167</v>
       </c>
       <c r="F76" s="258" t="s">
@@ -9732,11 +9816,11 @@
       <c r="P76" s="258"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A77" s="345"/>
-      <c r="B77" s="383"/>
-      <c r="C77" s="359"/>
-      <c r="D77" s="359"/>
-      <c r="E77" s="359"/>
+      <c r="A77" s="376"/>
+      <c r="B77" s="414"/>
+      <c r="C77" s="390"/>
+      <c r="D77" s="390"/>
+      <c r="E77" s="390"/>
       <c r="F77" s="263" t="s">
         <v>40</v>
       </c>
@@ -9766,14 +9850,14 @@
       <c r="P77" s="263"/>
     </row>
     <row r="78" spans="1:17" s="296" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="387" t="s">
+      <c r="A78" s="418" t="s">
         <v>175</v>
       </c>
-      <c r="B78" s="387"/>
-      <c r="C78" s="387"/>
-      <c r="D78" s="387"/>
-      <c r="E78" s="387"/>
-      <c r="F78" s="387"/>
+      <c r="B78" s="418"/>
+      <c r="C78" s="418"/>
+      <c r="D78" s="418"/>
+      <c r="E78" s="418"/>
+      <c r="F78" s="418"/>
       <c r="G78" s="291">
         <f>SUM(G8:G77)</f>
         <v>774</v>
@@ -9792,18 +9876,18 @@
       <c r="M78" s="292"/>
       <c r="N78" s="292"/>
       <c r="O78" s="292"/>
-      <c r="P78" s="388"/>
-      <c r="Q78" s="389"/>
+      <c r="P78" s="419"/>
+      <c r="Q78" s="420"/>
     </row>
     <row r="79" spans="1:17" s="296" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="386" t="s">
+      <c r="A79" s="417" t="s">
         <v>176</v>
       </c>
-      <c r="B79" s="386"/>
-      <c r="C79" s="386"/>
-      <c r="D79" s="386"/>
-      <c r="E79" s="386"/>
-      <c r="F79" s="386"/>
+      <c r="B79" s="417"/>
+      <c r="C79" s="417"/>
+      <c r="D79" s="417"/>
+      <c r="E79" s="417"/>
+      <c r="F79" s="417"/>
       <c r="G79" s="291">
         <f>G78</f>
         <v>774</v>
@@ -9819,18 +9903,18 @@
       <c r="M79" s="297"/>
       <c r="N79" s="297"/>
       <c r="O79" s="297"/>
-      <c r="P79" s="388"/>
-      <c r="Q79" s="389"/>
+      <c r="P79" s="419"/>
+      <c r="Q79" s="420"/>
     </row>
     <row r="80" spans="1:17" s="296" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="386" t="s">
+      <c r="A80" s="417" t="s">
         <v>177</v>
       </c>
-      <c r="B80" s="386"/>
-      <c r="C80" s="386"/>
-      <c r="D80" s="386"/>
-      <c r="E80" s="386"/>
-      <c r="F80" s="386"/>
+      <c r="B80" s="417"/>
+      <c r="C80" s="417"/>
+      <c r="D80" s="417"/>
+      <c r="E80" s="417"/>
+      <c r="F80" s="417"/>
       <c r="G80" s="298" t="s">
         <v>57</v>
       </c>
@@ -9848,14 +9932,14 @@
       <c r="P80" s="299"/>
     </row>
     <row r="81" spans="1:16" s="296" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="386" t="s">
+      <c r="A81" s="417" t="s">
         <v>178</v>
       </c>
-      <c r="B81" s="386"/>
-      <c r="C81" s="386"/>
-      <c r="D81" s="386"/>
-      <c r="E81" s="386"/>
-      <c r="F81" s="386"/>
+      <c r="B81" s="417"/>
+      <c r="C81" s="417"/>
+      <c r="D81" s="417"/>
+      <c r="E81" s="417"/>
+      <c r="F81" s="417"/>
       <c r="G81" s="297"/>
       <c r="H81" s="297"/>
       <c r="I81" s="292"/>
@@ -9871,14 +9955,14 @@
       <c r="P81" s="299"/>
     </row>
     <row r="82" spans="1:16" s="296" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="390" t="s">
+      <c r="A82" s="421" t="s">
         <v>202</v>
       </c>
-      <c r="B82" s="391"/>
-      <c r="C82" s="391"/>
-      <c r="D82" s="391"/>
-      <c r="E82" s="391"/>
-      <c r="F82" s="392"/>
+      <c r="B82" s="422"/>
+      <c r="C82" s="422"/>
+      <c r="D82" s="422"/>
+      <c r="E82" s="422"/>
+      <c r="F82" s="423"/>
       <c r="G82" s="297"/>
       <c r="H82" s="297"/>
       <c r="I82" s="292"/>
@@ -9894,14 +9978,14 @@
       <c r="P82" s="299"/>
     </row>
     <row r="83" spans="1:16" s="296" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="386" t="s">
+      <c r="A83" s="417" t="s">
         <v>179</v>
       </c>
-      <c r="B83" s="386"/>
-      <c r="C83" s="386"/>
-      <c r="D83" s="386"/>
-      <c r="E83" s="386"/>
-      <c r="F83" s="386"/>
+      <c r="B83" s="417"/>
+      <c r="C83" s="417"/>
+      <c r="D83" s="417"/>
+      <c r="E83" s="417"/>
+      <c r="F83" s="417"/>
       <c r="G83" s="297"/>
       <c r="H83" s="297"/>
       <c r="I83" s="292"/>
@@ -10087,67 +10171,67 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="399" t="s">
+      <c r="A3" s="430" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="399"/>
-      <c r="C3" s="399"/>
-      <c r="D3" s="399"/>
-      <c r="E3" s="399"/>
-      <c r="F3" s="399"/>
-      <c r="G3" s="399"/>
-      <c r="H3" s="399"/>
-      <c r="I3" s="399"/>
-      <c r="J3" s="399"/>
-      <c r="K3" s="399"/>
-      <c r="L3" s="399"/>
+      <c r="B3" s="430"/>
+      <c r="C3" s="430"/>
+      <c r="D3" s="430"/>
+      <c r="E3" s="430"/>
+      <c r="F3" s="430"/>
+      <c r="G3" s="430"/>
+      <c r="H3" s="430"/>
+      <c r="I3" s="430"/>
+      <c r="J3" s="430"/>
+      <c r="K3" s="430"/>
+      <c r="L3" s="430"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="400" t="s">
+      <c r="A4" s="431" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="400"/>
-      <c r="C4" s="400"/>
-      <c r="D4" s="400"/>
-      <c r="E4" s="400"/>
-      <c r="F4" s="400"/>
-      <c r="G4" s="400"/>
-      <c r="H4" s="400"/>
-      <c r="I4" s="400"/>
-      <c r="J4" s="400"/>
-      <c r="K4" s="401"/>
-      <c r="L4" s="400"/>
+      <c r="B4" s="431"/>
+      <c r="C4" s="431"/>
+      <c r="D4" s="431"/>
+      <c r="E4" s="431"/>
+      <c r="F4" s="431"/>
+      <c r="G4" s="431"/>
+      <c r="H4" s="431"/>
+      <c r="I4" s="431"/>
+      <c r="J4" s="431"/>
+      <c r="K4" s="432"/>
+      <c r="L4" s="431"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="402" t="s">
+      <c r="A5" s="433" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="404" t="s">
+      <c r="B5" s="435" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="406" t="s">
+      <c r="C5" s="437" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="406" t="s">
+      <c r="D5" s="437" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="406"/>
-      <c r="F5" s="406"/>
-      <c r="G5" s="408" t="s">
+      <c r="E5" s="437"/>
+      <c r="F5" s="437"/>
+      <c r="G5" s="439" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="408"/>
-      <c r="I5" s="408"/>
-      <c r="J5" s="408"/>
-      <c r="K5" s="409"/>
-      <c r="L5" s="410" t="s">
+      <c r="H5" s="439"/>
+      <c r="I5" s="439"/>
+      <c r="J5" s="439"/>
+      <c r="K5" s="440"/>
+      <c r="L5" s="441" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="403"/>
-      <c r="B6" s="405"/>
-      <c r="C6" s="407"/>
+      <c r="A6" s="434"/>
+      <c r="B6" s="436"/>
+      <c r="C6" s="438"/>
       <c r="D6" s="102" t="s">
         <v>51</v>
       </c>
@@ -10172,23 +10256,23 @@
       <c r="K6" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="L6" s="411"/>
+      <c r="L6" s="442"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="393">
+      <c r="A7" s="427">
         <v>1130</v>
       </c>
-      <c r="B7" s="395">
+      <c r="B7" s="424">
         <v>43937</v>
       </c>
-      <c r="C7" s="393"/>
-      <c r="D7" s="393" t="s">
+      <c r="C7" s="427"/>
+      <c r="D7" s="427" t="s">
         <v>95</v>
       </c>
-      <c r="E7" s="393" t="s">
+      <c r="E7" s="427" t="s">
         <v>90</v>
       </c>
-      <c r="F7" s="393"/>
+      <c r="F7" s="427"/>
       <c r="G7" s="108" t="s">
         <v>37</v>
       </c>
@@ -10211,12 +10295,12 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="394"/>
-      <c r="B8" s="396"/>
-      <c r="C8" s="394"/>
-      <c r="D8" s="394"/>
-      <c r="E8" s="394"/>
-      <c r="F8" s="394"/>
+      <c r="A8" s="429"/>
+      <c r="B8" s="426"/>
+      <c r="C8" s="429"/>
+      <c r="D8" s="429"/>
+      <c r="E8" s="429"/>
+      <c r="F8" s="429"/>
       <c r="G8" s="112" t="s">
         <v>44</v>
       </c>
@@ -10239,20 +10323,20 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="393">
+      <c r="A9" s="427">
         <v>333</v>
       </c>
-      <c r="B9" s="395">
+      <c r="B9" s="424">
         <v>43940</v>
       </c>
-      <c r="C9" s="393"/>
-      <c r="D9" s="393" t="s">
+      <c r="C9" s="427"/>
+      <c r="D9" s="427" t="s">
         <v>102</v>
       </c>
-      <c r="E9" s="393" t="s">
+      <c r="E9" s="427" t="s">
         <v>100</v>
       </c>
-      <c r="F9" s="393"/>
+      <c r="F9" s="427"/>
       <c r="G9" s="108" t="s">
         <v>44</v>
       </c>
@@ -10275,12 +10359,12 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="397"/>
-      <c r="B10" s="398"/>
-      <c r="C10" s="397"/>
-      <c r="D10" s="397"/>
-      <c r="E10" s="397"/>
-      <c r="F10" s="397"/>
+      <c r="A10" s="428"/>
+      <c r="B10" s="425"/>
+      <c r="C10" s="428"/>
+      <c r="D10" s="428"/>
+      <c r="E10" s="428"/>
+      <c r="F10" s="428"/>
       <c r="G10" s="110" t="s">
         <v>43</v>
       </c>
@@ -10303,12 +10387,12 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="397"/>
-      <c r="B11" s="398"/>
-      <c r="C11" s="397"/>
-      <c r="D11" s="397"/>
-      <c r="E11" s="397"/>
-      <c r="F11" s="397"/>
+      <c r="A11" s="428"/>
+      <c r="B11" s="425"/>
+      <c r="C11" s="428"/>
+      <c r="D11" s="428"/>
+      <c r="E11" s="428"/>
+      <c r="F11" s="428"/>
       <c r="G11" s="110" t="s">
         <v>39</v>
       </c>
@@ -10331,12 +10415,12 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="397"/>
-      <c r="B12" s="398"/>
-      <c r="C12" s="397"/>
-      <c r="D12" s="397"/>
-      <c r="E12" s="397"/>
-      <c r="F12" s="397"/>
+      <c r="A12" s="428"/>
+      <c r="B12" s="425"/>
+      <c r="C12" s="428"/>
+      <c r="D12" s="428"/>
+      <c r="E12" s="428"/>
+      <c r="F12" s="428"/>
       <c r="G12" s="110" t="s">
         <v>67</v>
       </c>
@@ -10359,12 +10443,12 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="397"/>
-      <c r="B13" s="398"/>
-      <c r="C13" s="397"/>
-      <c r="D13" s="397"/>
-      <c r="E13" s="397"/>
-      <c r="F13" s="397"/>
+      <c r="A13" s="428"/>
+      <c r="B13" s="425"/>
+      <c r="C13" s="428"/>
+      <c r="D13" s="428"/>
+      <c r="E13" s="428"/>
+      <c r="F13" s="428"/>
       <c r="G13" s="110" t="s">
         <v>40</v>
       </c>
@@ -10387,12 +10471,12 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="394"/>
-      <c r="B14" s="396"/>
-      <c r="C14" s="394"/>
-      <c r="D14" s="394"/>
-      <c r="E14" s="394"/>
-      <c r="F14" s="394"/>
+      <c r="A14" s="429"/>
+      <c r="B14" s="426"/>
+      <c r="C14" s="429"/>
+      <c r="D14" s="429"/>
+      <c r="E14" s="429"/>
+      <c r="F14" s="429"/>
       <c r="G14" s="112" t="s">
         <v>68</v>
       </c>
@@ -10415,20 +10499,20 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="393">
+      <c r="A15" s="427">
         <v>332</v>
       </c>
-      <c r="B15" s="395">
+      <c r="B15" s="424">
         <v>43940</v>
       </c>
-      <c r="C15" s="393"/>
-      <c r="D15" s="393" t="s">
+      <c r="C15" s="427"/>
+      <c r="D15" s="427" t="s">
         <v>103</v>
       </c>
-      <c r="E15" s="393" t="s">
+      <c r="E15" s="427" t="s">
         <v>104</v>
       </c>
-      <c r="F15" s="393"/>
+      <c r="F15" s="427"/>
       <c r="G15" s="108" t="s">
         <v>37</v>
       </c>
@@ -10451,12 +10535,12 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="397"/>
-      <c r="B16" s="398"/>
-      <c r="C16" s="397"/>
-      <c r="D16" s="397"/>
-      <c r="E16" s="397"/>
-      <c r="F16" s="397"/>
+      <c r="A16" s="428"/>
+      <c r="B16" s="425"/>
+      <c r="C16" s="428"/>
+      <c r="D16" s="428"/>
+      <c r="E16" s="428"/>
+      <c r="F16" s="428"/>
       <c r="G16" s="110" t="s">
         <v>38</v>
       </c>
@@ -10479,12 +10563,12 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="397"/>
-      <c r="B17" s="398"/>
-      <c r="C17" s="397"/>
-      <c r="D17" s="397"/>
-      <c r="E17" s="397"/>
-      <c r="F17" s="397"/>
+      <c r="A17" s="428"/>
+      <c r="B17" s="425"/>
+      <c r="C17" s="428"/>
+      <c r="D17" s="428"/>
+      <c r="E17" s="428"/>
+      <c r="F17" s="428"/>
       <c r="G17" s="110" t="s">
         <v>41</v>
       </c>
@@ -10507,12 +10591,12 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="397"/>
-      <c r="B18" s="398"/>
-      <c r="C18" s="397"/>
-      <c r="D18" s="397"/>
-      <c r="E18" s="397"/>
-      <c r="F18" s="397"/>
+      <c r="A18" s="428"/>
+      <c r="B18" s="425"/>
+      <c r="C18" s="428"/>
+      <c r="D18" s="428"/>
+      <c r="E18" s="428"/>
+      <c r="F18" s="428"/>
       <c r="G18" s="110" t="s">
         <v>44</v>
       </c>
@@ -10535,12 +10619,12 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="397"/>
-      <c r="B19" s="398"/>
-      <c r="C19" s="397"/>
-      <c r="D19" s="397"/>
-      <c r="E19" s="397"/>
-      <c r="F19" s="397"/>
+      <c r="A19" s="428"/>
+      <c r="B19" s="425"/>
+      <c r="C19" s="428"/>
+      <c r="D19" s="428"/>
+      <c r="E19" s="428"/>
+      <c r="F19" s="428"/>
       <c r="G19" s="110" t="s">
         <v>39</v>
       </c>
@@ -10563,12 +10647,12 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="394"/>
-      <c r="B20" s="396"/>
-      <c r="C20" s="394"/>
-      <c r="D20" s="394"/>
-      <c r="E20" s="394"/>
-      <c r="F20" s="394"/>
+      <c r="A20" s="429"/>
+      <c r="B20" s="426"/>
+      <c r="C20" s="429"/>
+      <c r="D20" s="429"/>
+      <c r="E20" s="429"/>
+      <c r="F20" s="429"/>
       <c r="G20" s="112" t="s">
         <v>68</v>
       </c>
@@ -10591,20 +10675,20 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="393">
+      <c r="A21" s="427">
         <v>775</v>
       </c>
-      <c r="B21" s="395">
+      <c r="B21" s="424">
         <v>43944</v>
       </c>
-      <c r="C21" s="393"/>
-      <c r="D21" s="393" t="s">
+      <c r="C21" s="427"/>
+      <c r="D21" s="427" t="s">
         <v>284</v>
       </c>
-      <c r="E21" s="393" t="s">
+      <c r="E21" s="427" t="s">
         <v>207</v>
       </c>
-      <c r="F21" s="393"/>
+      <c r="F21" s="427"/>
       <c r="G21" s="320" t="s">
         <v>37</v>
       </c>
@@ -10627,12 +10711,12 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="394"/>
-      <c r="B22" s="396"/>
-      <c r="C22" s="394"/>
-      <c r="D22" s="394"/>
-      <c r="E22" s="394"/>
-      <c r="F22" s="394"/>
+      <c r="A22" s="429"/>
+      <c r="B22" s="426"/>
+      <c r="C22" s="429"/>
+      <c r="D22" s="429"/>
+      <c r="E22" s="429"/>
+      <c r="F22" s="429"/>
       <c r="G22" s="320" t="s">
         <v>44</v>
       </c>
@@ -10693,14 +10777,14 @@
       </c>
     </row>
     <row r="24" spans="1:12" s="218" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="412" t="s">
+      <c r="A24" s="443" t="s">
         <v>83</v>
       </c>
-      <c r="B24" s="412"/>
-      <c r="C24" s="412"/>
-      <c r="D24" s="412"/>
-      <c r="E24" s="412"/>
-      <c r="F24" s="412"/>
+      <c r="B24" s="443"/>
+      <c r="C24" s="443"/>
+      <c r="D24" s="443"/>
+      <c r="E24" s="443"/>
+      <c r="F24" s="443"/>
       <c r="G24" s="214"/>
       <c r="H24" s="214">
         <f>SUM(H7:H23)</f>
@@ -10798,8 +10882,12 @@
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="D21:D22"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F9:F14"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="C7:C8"/>
     <mergeCell ref="A3:L3"/>
     <mergeCell ref="A4:L4"/>
     <mergeCell ref="A5:A6"/>
@@ -10808,16 +10896,12 @@
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="G5:K5"/>
     <mergeCell ref="L5:L6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="C7:C8"/>
     <mergeCell ref="B9:B14"/>
     <mergeCell ref="D9:D14"/>
     <mergeCell ref="E9:E14"/>
     <mergeCell ref="C9:C14"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F9:F14"/>
   </mergeCells>
   <pageMargins left="0.24" right="0.28000000000000003" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -10878,24 +10962,24 @@
       <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="413" t="s">
+      <c r="A4" s="444" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="413"/>
-      <c r="C4" s="413"/>
-      <c r="D4" s="413"/>
-      <c r="E4" s="413"/>
+      <c r="B4" s="444"/>
+      <c r="C4" s="444"/>
+      <c r="D4" s="444"/>
+      <c r="E4" s="444"/>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="414" t="s">
+      <c r="A5" s="445" t="s">
         <v>201</v>
       </c>
-      <c r="B5" s="414"/>
-      <c r="C5" s="414"/>
-      <c r="D5" s="414"/>
-      <c r="E5" s="414"/>
+      <c r="B5" s="445"/>
+      <c r="C5" s="445"/>
+      <c r="D5" s="445"/>
+      <c r="E5" s="445"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
@@ -10958,7 +11042,7 @@
         <f>'DOANH THU'!L80</f>
         <v>15171850.000000002</v>
       </c>
-      <c r="E9" s="416">
+      <c r="E9" s="447">
         <f>D9+D10+D11</f>
         <v>90579500.000000015</v>
       </c>
@@ -10977,7 +11061,7 @@
         <f>'DOANH THU'!L81</f>
         <v>65407650.000000007</v>
       </c>
-      <c r="E10" s="417"/>
+      <c r="E10" s="448"/>
       <c r="F10" s="82"/>
       <c r="G10" s="82"/>
     </row>
@@ -10990,7 +11074,7 @@
       <c r="D11" s="317">
         <v>10000000</v>
       </c>
-      <c r="E11" s="418"/>
+      <c r="E11" s="449"/>
       <c r="F11" s="82"/>
       <c r="G11" s="82"/>
     </row>
@@ -11202,10 +11286,10 @@
       <c r="E26" s="32"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="415" t="s">
+      <c r="A27" s="446" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="415"/>
+      <c r="B27" s="446"/>
       <c r="C27" s="32"/>
       <c r="D27" s="26">
         <f>C26-D26</f>
@@ -11257,7 +11341,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:I14"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11308,17 +11392,17 @@
       <c r="J3" s="17"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="422" t="s">
+      <c r="A4" s="453" t="s">
         <v>165</v>
       </c>
-      <c r="B4" s="422"/>
-      <c r="C4" s="422"/>
-      <c r="D4" s="422"/>
-      <c r="E4" s="422"/>
-      <c r="F4" s="422"/>
-      <c r="G4" s="422"/>
-      <c r="H4" s="422"/>
-      <c r="I4" s="422"/>
+      <c r="B4" s="453"/>
+      <c r="C4" s="453"/>
+      <c r="D4" s="453"/>
+      <c r="E4" s="453"/>
+      <c r="F4" s="453"/>
+      <c r="G4" s="453"/>
+      <c r="H4" s="453"/>
+      <c r="I4" s="453"/>
       <c r="J4" s="46"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -11334,33 +11418,33 @@
       <c r="J5" s="46"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="423" t="s">
+      <c r="A6" s="454" t="s">
         <v>161</v>
       </c>
-      <c r="B6" s="424" t="s">
+      <c r="B6" s="455" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="423" t="s">
+      <c r="C6" s="454" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="425" t="s">
+      <c r="D6" s="456" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="425"/>
-      <c r="F6" s="425"/>
-      <c r="G6" s="425"/>
-      <c r="H6" s="426"/>
-      <c r="I6" s="423" t="s">
+      <c r="E6" s="456"/>
+      <c r="F6" s="456"/>
+      <c r="G6" s="456"/>
+      <c r="H6" s="457"/>
+      <c r="I6" s="454" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="420" t="s">
+      <c r="J6" s="451" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="423"/>
-      <c r="B7" s="424"/>
-      <c r="C7" s="423"/>
+      <c r="A7" s="454"/>
+      <c r="B7" s="455"/>
+      <c r="C7" s="454"/>
       <c r="D7" s="48" t="s">
         <v>32</v>
       </c>
@@ -11376,8 +11460,8 @@
       <c r="H7" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="423"/>
-      <c r="J7" s="421"/>
+      <c r="I7" s="454"/>
+      <c r="J7" s="452"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="140">
@@ -11480,10 +11564,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="55"/>
-      <c r="B11" s="419" t="s">
+      <c r="B11" s="450" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="419"/>
+      <c r="C11" s="450"/>
       <c r="D11" s="55"/>
       <c r="E11" s="55"/>
       <c r="F11" s="55"/>
@@ -11502,17 +11586,17 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="427" t="s">
+      <c r="A12" s="458" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="428"/>
-      <c r="C12" s="428"/>
-      <c r="D12" s="428"/>
-      <c r="E12" s="428"/>
-      <c r="F12" s="428"/>
-      <c r="G12" s="428"/>
-      <c r="H12" s="428"/>
-      <c r="I12" s="429"/>
+      <c r="B12" s="459"/>
+      <c r="C12" s="459"/>
+      <c r="D12" s="459"/>
+      <c r="E12" s="459"/>
+      <c r="F12" s="459"/>
+      <c r="G12" s="459"/>
+      <c r="H12" s="459"/>
+      <c r="I12" s="460"/>
       <c r="J12" s="148" t="s">
         <v>166</v>
       </c>
@@ -11521,28 +11605,28 @@
       <c r="G13" s="58"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="430"/>
-      <c r="B14" s="430"/>
-      <c r="C14" s="430"/>
-      <c r="E14" s="430" t="s">
+      <c r="A14" s="461"/>
+      <c r="B14" s="461"/>
+      <c r="C14" s="461"/>
+      <c r="E14" s="461" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="430"/>
-      <c r="G14" s="430"/>
-      <c r="H14" s="430"/>
-      <c r="I14" s="430"/>
+      <c r="F14" s="461"/>
+      <c r="G14" s="461"/>
+      <c r="H14" s="461"/>
+      <c r="I14" s="461"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="430"/>
-      <c r="B19" s="430"/>
-      <c r="C19" s="430"/>
-      <c r="E19" s="430" t="s">
+      <c r="A19" s="461"/>
+      <c r="B19" s="461"/>
+      <c r="C19" s="461"/>
+      <c r="E19" s="461" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="430"/>
-      <c r="G19" s="430"/>
-      <c r="H19" s="430"/>
-      <c r="I19" s="430"/>
+      <c r="F19" s="461"/>
+      <c r="G19" s="461"/>
+      <c r="H19" s="461"/>
+      <c r="I19" s="461"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -11569,7 +11653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A25" sqref="A25:XFD26"/>
     </sheetView>
   </sheetViews>
@@ -11588,13 +11672,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="432" t="s">
+      <c r="A1" s="468" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="432"/>
-      <c r="C1" s="432"/>
-      <c r="D1" s="432"/>
-      <c r="E1" s="432"/>
+      <c r="B1" s="468"/>
+      <c r="C1" s="468"/>
+      <c r="D1" s="468"/>
+      <c r="E1" s="468"/>
       <c r="F1" s="43"/>
       <c r="G1" s="43"/>
       <c r="H1" s="43"/>
@@ -11622,16 +11706,16 @@
       <c r="I3" s="17"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="422" t="s">
+      <c r="A4" s="453" t="s">
         <v>162</v>
       </c>
-      <c r="B4" s="422"/>
-      <c r="C4" s="422"/>
-      <c r="D4" s="422"/>
-      <c r="E4" s="422"/>
-      <c r="F4" s="422"/>
-      <c r="G4" s="422"/>
-      <c r="H4" s="422"/>
+      <c r="B4" s="453"/>
+      <c r="C4" s="453"/>
+      <c r="D4" s="453"/>
+      <c r="E4" s="453"/>
+      <c r="F4" s="453"/>
+      <c r="G4" s="453"/>
+      <c r="H4" s="453"/>
       <c r="I4" s="46"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -11646,29 +11730,29 @@
       <c r="I5" s="46"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="423" t="s">
+      <c r="A6" s="454" t="s">
         <v>161</v>
       </c>
-      <c r="B6" s="424" t="s">
+      <c r="B6" s="455" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="425" t="s">
+      <c r="C6" s="456" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="425"/>
-      <c r="E6" s="425"/>
-      <c r="F6" s="425"/>
-      <c r="G6" s="426"/>
-      <c r="H6" s="423" t="s">
+      <c r="D6" s="456"/>
+      <c r="E6" s="456"/>
+      <c r="F6" s="456"/>
+      <c r="G6" s="457"/>
+      <c r="H6" s="454" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="425" t="s">
+      <c r="I6" s="456" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="423"/>
-      <c r="B7" s="424"/>
+      <c r="A7" s="454"/>
+      <c r="B7" s="455"/>
       <c r="C7" s="327" t="s">
         <v>32</v>
       </c>
@@ -11684,8 +11768,8 @@
       <c r="G7" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="423"/>
-      <c r="I7" s="425"/>
+      <c r="H7" s="454"/>
+      <c r="I7" s="456"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="240">
@@ -11783,10 +11867,10 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="469">
+      <c r="A11" s="462">
         <v>328</v>
       </c>
-      <c r="B11" s="470">
+      <c r="B11" s="465">
         <v>43936</v>
       </c>
       <c r="C11" s="89" t="s">
@@ -11815,8 +11899,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="471"/>
-      <c r="B12" s="431"/>
+      <c r="A12" s="463"/>
+      <c r="B12" s="466"/>
       <c r="C12" s="92" t="s">
         <v>38</v>
       </c>
@@ -11843,8 +11927,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="471"/>
-      <c r="B13" s="431"/>
+      <c r="A13" s="463"/>
+      <c r="B13" s="466"/>
       <c r="C13" s="92" t="s">
         <v>41</v>
       </c>
@@ -11871,8 +11955,8 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="472"/>
-      <c r="B14" s="473"/>
+      <c r="A14" s="464"/>
+      <c r="B14" s="467"/>
       <c r="C14" s="231" t="s">
         <v>68</v>
       </c>
@@ -11931,79 +12015,79 @@
       </c>
     </row>
     <row r="16" spans="1:9" s="223" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="474">
+      <c r="A16" s="470">
         <v>342</v>
       </c>
-      <c r="B16" s="475">
+      <c r="B16" s="472">
         <v>43942</v>
       </c>
-      <c r="C16" s="476" t="s">
+      <c r="C16" s="346" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="476">
+      <c r="D16" s="346">
         <v>1</v>
       </c>
-      <c r="E16" s="477">
+      <c r="E16" s="347">
         <v>455000</v>
       </c>
-      <c r="F16" s="478">
+      <c r="F16" s="348">
         <f t="shared" ref="F16:F17" si="3">D16*E16</f>
         <v>455000</v>
       </c>
-      <c r="G16" s="479">
+      <c r="G16" s="349">
         <v>0.41</v>
       </c>
-      <c r="H16" s="480">
+      <c r="H16" s="350">
         <f t="shared" ref="H16:H17" si="4">F16*(1-G16)</f>
         <v>268450.00000000006</v>
       </c>
-      <c r="I16" s="481">
+      <c r="I16" s="351">
         <f>H16</f>
         <v>268450.00000000006</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="223" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="482"/>
-      <c r="B17" s="483"/>
-      <c r="C17" s="484" t="s">
+      <c r="A17" s="471"/>
+      <c r="B17" s="473"/>
+      <c r="C17" s="352" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="484">
+      <c r="D17" s="352">
         <v>2</v>
       </c>
-      <c r="E17" s="485">
+      <c r="E17" s="353">
         <v>465000</v>
       </c>
-      <c r="F17" s="486">
+      <c r="F17" s="354">
         <f t="shared" si="3"/>
         <v>930000</v>
       </c>
-      <c r="G17" s="487">
+      <c r="G17" s="355">
         <v>0.41</v>
       </c>
-      <c r="H17" s="488">
+      <c r="H17" s="356">
         <f t="shared" si="4"/>
         <v>548700.00000000012</v>
       </c>
-      <c r="I17" s="489">
+      <c r="I17" s="357">
         <f>H17</f>
         <v>548700.00000000012</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="465">
+      <c r="A18" s="342">
         <v>1132</v>
       </c>
-      <c r="B18" s="466">
+      <c r="B18" s="343">
         <v>43942</v>
       </c>
-      <c r="C18" s="467" t="s">
+      <c r="C18" s="344" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="467">
+      <c r="D18" s="344">
         <v>1</v>
       </c>
-      <c r="E18" s="468">
+      <c r="E18" s="345">
         <v>485000</v>
       </c>
       <c r="F18" s="228">
@@ -12112,32 +12196,32 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="425" t="s">
+      <c r="A22" s="456" t="s">
         <v>164</v>
       </c>
-      <c r="B22" s="425"/>
-      <c r="C22" s="425"/>
-      <c r="D22" s="425"/>
-      <c r="E22" s="425"/>
-      <c r="F22" s="425"/>
-      <c r="G22" s="425"/>
-      <c r="H22" s="425"/>
+      <c r="B22" s="456"/>
+      <c r="C22" s="456"/>
+      <c r="D22" s="456"/>
+      <c r="E22" s="456"/>
+      <c r="F22" s="456"/>
+      <c r="G22" s="456"/>
+      <c r="H22" s="456"/>
       <c r="I22" s="137">
         <f>1088000-I16-I17</f>
         <v>270849.99999999988</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="433" t="s">
+      <c r="A23" s="469" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="433"/>
-      <c r="C23" s="433"/>
-      <c r="D23" s="433"/>
-      <c r="E23" s="433"/>
-      <c r="F23" s="433"/>
-      <c r="G23" s="433"/>
-      <c r="H23" s="433"/>
+      <c r="B23" s="469"/>
+      <c r="C23" s="469"/>
+      <c r="D23" s="469"/>
+      <c r="E23" s="469"/>
+      <c r="F23" s="469"/>
+      <c r="G23" s="469"/>
+      <c r="H23" s="469"/>
       <c r="I23" s="57">
         <f>H8-I22</f>
         <v>2950550.0000000005</v>
@@ -12171,29 +12255,29 @@
       <c r="J25" s="218"/>
       <c r="K25" s="218"/>
     </row>
-    <row r="26" spans="1:11" s="440" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B26" s="441" t="s">
+    <row r="26" spans="1:11" s="328" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="B26" s="329" t="s">
         <v>289</v>
       </c>
-      <c r="C26" s="441"/>
-      <c r="D26" s="441"/>
-      <c r="E26" s="441" t="s">
+      <c r="C26" s="329"/>
+      <c r="D26" s="329"/>
+      <c r="E26" s="329" t="s">
         <v>289</v>
       </c>
-      <c r="G26" s="441"/>
-      <c r="H26" s="490" t="s">
+      <c r="G26" s="329"/>
+      <c r="H26" s="358" t="s">
         <v>289</v>
       </c>
-      <c r="I26" s="490"/>
-      <c r="J26" s="490"/>
-      <c r="K26" s="490"/>
+      <c r="I26" s="358"/>
+      <c r="J26" s="358"/>
+      <c r="K26" s="358"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H27" s="58"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="430"/>
-      <c r="B29" s="430"/>
+      <c r="A29" s="461"/>
+      <c r="B29" s="461"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
@@ -12225,7 +12309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H19" sqref="H19:K19"/>
     </sheetView>
   </sheetViews>
@@ -13066,38 +13150,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="445" t="s">
+      <c r="A1" s="481" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="445"/>
-      <c r="C1" s="445"/>
-      <c r="D1" s="445"/>
+      <c r="B1" s="481"/>
+      <c r="C1" s="481"/>
+      <c r="D1" s="481"/>
       <c r="E1" s="119"/>
-      <c r="F1" s="443" t="s">
+      <c r="F1" s="482" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="443"/>
-      <c r="H1" s="443"/>
-      <c r="I1" s="443"/>
-      <c r="J1" s="443"/>
-      <c r="K1" s="443"/>
+      <c r="G1" s="482"/>
+      <c r="H1" s="482"/>
+      <c r="I1" s="482"/>
+      <c r="J1" s="482"/>
+      <c r="K1" s="482"/>
     </row>
     <row r="2" spans="1:12" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="446" t="s">
+      <c r="A2" s="483" t="s">
         <v>290</v>
       </c>
-      <c r="B2" s="446"/>
-      <c r="C2" s="446"/>
-      <c r="D2" s="446"/>
+      <c r="B2" s="483"/>
+      <c r="C2" s="483"/>
+      <c r="D2" s="483"/>
       <c r="E2" s="119"/>
-      <c r="F2" s="444" t="s">
+      <c r="F2" s="484" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="444"/>
-      <c r="H2" s="444"/>
-      <c r="I2" s="444"/>
-      <c r="J2" s="444"/>
-      <c r="K2" s="444"/>
+      <c r="G2" s="484"/>
+      <c r="H2" s="484"/>
+      <c r="I2" s="484"/>
+      <c r="J2" s="484"/>
+      <c r="K2" s="484"/>
     </row>
     <row r="3" spans="1:12" s="59" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="60"/>
@@ -13110,147 +13194,147 @@
       <c r="I3" s="120"/>
     </row>
     <row r="4" spans="1:12" s="62" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="439" t="s">
+      <c r="A4" s="485" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="439"/>
-      <c r="C4" s="439"/>
-      <c r="D4" s="439"/>
-      <c r="E4" s="439"/>
-      <c r="F4" s="439"/>
-      <c r="G4" s="439"/>
-      <c r="H4" s="439"/>
-      <c r="I4" s="439"/>
-      <c r="J4" s="439"/>
-      <c r="K4" s="439"/>
-      <c r="L4" s="439"/>
+      <c r="B4" s="485"/>
+      <c r="C4" s="485"/>
+      <c r="D4" s="485"/>
+      <c r="E4" s="485"/>
+      <c r="F4" s="485"/>
+      <c r="G4" s="485"/>
+      <c r="H4" s="485"/>
+      <c r="I4" s="485"/>
+      <c r="J4" s="485"/>
+      <c r="K4" s="485"/>
+      <c r="L4" s="485"/>
     </row>
     <row r="5" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="434" t="s">
+      <c r="A5" s="486" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="434"/>
-      <c r="C5" s="434"/>
-      <c r="D5" s="434"/>
-      <c r="E5" s="434"/>
-      <c r="F5" s="434"/>
-      <c r="G5" s="434"/>
-      <c r="H5" s="434"/>
-      <c r="I5" s="434"/>
-      <c r="J5" s="434"/>
-      <c r="K5" s="434"/>
-      <c r="L5" s="434"/>
+      <c r="B5" s="486"/>
+      <c r="C5" s="486"/>
+      <c r="D5" s="486"/>
+      <c r="E5" s="486"/>
+      <c r="F5" s="486"/>
+      <c r="G5" s="486"/>
+      <c r="H5" s="486"/>
+      <c r="I5" s="486"/>
+      <c r="J5" s="486"/>
+      <c r="K5" s="486"/>
+      <c r="L5" s="486"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J6" s="435" t="s">
+      <c r="J6" s="487" t="s">
         <v>132</v>
       </c>
-      <c r="K6" s="435"/>
-      <c r="L6" s="435"/>
+      <c r="K6" s="487"/>
+      <c r="L6" s="487"/>
     </row>
     <row r="7" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="447" t="s">
+      <c r="A7" s="330" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="448" t="s">
+      <c r="B7" s="331" t="s">
         <v>134</v>
       </c>
-      <c r="C7" s="448" t="s">
+      <c r="C7" s="331" t="s">
         <v>135</v>
       </c>
-      <c r="D7" s="448" t="s">
+      <c r="D7" s="331" t="s">
         <v>136</v>
       </c>
-      <c r="E7" s="449" t="s">
+      <c r="E7" s="332" t="s">
         <v>137</v>
       </c>
-      <c r="F7" s="447" t="s">
+      <c r="F7" s="330" t="s">
         <v>138</v>
       </c>
-      <c r="G7" s="447" t="s">
+      <c r="G7" s="330" t="s">
         <v>139</v>
       </c>
-      <c r="H7" s="447" t="s">
+      <c r="H7" s="330" t="s">
         <v>140</v>
       </c>
-      <c r="I7" s="447" t="s">
+      <c r="I7" s="330" t="s">
         <v>158</v>
       </c>
-      <c r="J7" s="447" t="s">
+      <c r="J7" s="330" t="s">
         <v>141</v>
       </c>
-      <c r="K7" s="450" t="s">
+      <c r="K7" s="333" t="s">
         <v>142</v>
       </c>
-      <c r="L7" s="447" t="s">
+      <c r="L7" s="330" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="447"/>
-      <c r="B8" s="448"/>
-      <c r="C8" s="448"/>
-      <c r="D8" s="448"/>
-      <c r="E8" s="449" t="s">
+      <c r="A8" s="330"/>
+      <c r="B8" s="331"/>
+      <c r="C8" s="331"/>
+      <c r="D8" s="331"/>
+      <c r="E8" s="332" t="s">
         <v>159</v>
       </c>
-      <c r="F8" s="449" t="s">
+      <c r="F8" s="332" t="s">
         <v>143</v>
       </c>
-      <c r="G8" s="449" t="s">
+      <c r="G8" s="332" t="s">
         <v>144</v>
       </c>
-      <c r="H8" s="449" t="s">
+      <c r="H8" s="332" t="s">
         <v>145</v>
       </c>
-      <c r="I8" s="449" t="s">
+      <c r="I8" s="332" t="s">
         <v>146</v>
       </c>
-      <c r="J8" s="450" t="s">
+      <c r="J8" s="333" t="s">
         <v>147</v>
       </c>
-      <c r="K8" s="448"/>
-      <c r="L8" s="447"/>
+      <c r="K8" s="331"/>
+      <c r="L8" s="330"/>
     </row>
     <row r="9" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="462" t="s">
+      <c r="A9" s="478" t="s">
         <v>148</v>
       </c>
-      <c r="B9" s="463"/>
-      <c r="C9" s="463"/>
-      <c r="D9" s="464"/>
-      <c r="E9" s="449"/>
-      <c r="F9" s="453">
+      <c r="B9" s="479"/>
+      <c r="C9" s="479"/>
+      <c r="D9" s="480"/>
+      <c r="E9" s="332"/>
+      <c r="F9" s="336">
         <f>SUM(F10:F13)</f>
         <v>27892307.692307696</v>
       </c>
-      <c r="G9" s="453">
+      <c r="G9" s="336">
         <f t="shared" ref="G9:J9" si="0">SUM(G10:G13)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="453">
+      <c r="H9" s="336">
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
-      <c r="I9" s="453">
+      <c r="I9" s="336">
         <f t="shared" si="0"/>
         <v>38626165</v>
       </c>
-      <c r="J9" s="453">
+      <c r="J9" s="336">
         <f t="shared" si="0"/>
         <v>66018472.692307696</v>
       </c>
-      <c r="K9" s="448"/>
-      <c r="L9" s="447"/>
+      <c r="K9" s="331"/>
+      <c r="L9" s="330"/>
     </row>
     <row r="10" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="451">
+      <c r="A10" s="334">
         <v>1</v>
       </c>
-      <c r="B10" s="451" t="s">
+      <c r="B10" s="334" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="452" t="s">
+      <c r="C10" s="335" t="s">
         <v>149</v>
       </c>
       <c r="D10" s="123">
@@ -13274,9 +13358,9 @@
         <v>26307692.307692308</v>
       </c>
       <c r="K10" s="122"/>
-      <c r="L10" s="451"/>
-    </row>
-    <row r="11" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="L10" s="334"/>
+    </row>
+    <row r="11" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="65">
         <v>2</v>
       </c>
@@ -13378,47 +13462,47 @@
       <c r="L13" s="70"/>
     </row>
     <row r="14" spans="1:12" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="459" t="s">
+      <c r="A14" s="475" t="s">
         <v>154</v>
       </c>
-      <c r="B14" s="460"/>
-      <c r="C14" s="460"/>
-      <c r="D14" s="461"/>
+      <c r="B14" s="476"/>
+      <c r="C14" s="476"/>
+      <c r="D14" s="477"/>
       <c r="E14" s="129"/>
-      <c r="F14" s="453">
+      <c r="F14" s="336">
         <f>SUM(F15:F16)</f>
         <v>11307692.307692308</v>
       </c>
-      <c r="G14" s="453">
+      <c r="G14" s="336">
         <f t="shared" ref="G14:J14" si="2">SUM(G15:G16)</f>
         <v>2950550.0000000005</v>
       </c>
-      <c r="H14" s="453">
+      <c r="H14" s="336">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I14" s="453">
+      <c r="I14" s="336">
         <f t="shared" si="2"/>
         <v>2685077</v>
       </c>
-      <c r="J14" s="453">
+      <c r="J14" s="336">
         <f t="shared" si="2"/>
         <v>11042219.307692308</v>
       </c>
-      <c r="K14" s="458"/>
-      <c r="L14" s="448"/>
-    </row>
-    <row r="15" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="454">
+      <c r="K14" s="341"/>
+      <c r="L14" s="331"/>
+    </row>
+    <row r="15" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="337">
         <v>1</v>
       </c>
-      <c r="B15" s="454" t="s">
+      <c r="B15" s="337" t="s">
         <v>155</v>
       </c>
-      <c r="C15" s="455" t="s">
+      <c r="C15" s="338" t="s">
         <v>151</v>
       </c>
-      <c r="D15" s="456">
+      <c r="D15" s="339">
         <v>10000000</v>
       </c>
       <c r="E15" s="130">
@@ -13429,15 +13513,15 @@
         <f>D15/26*E15</f>
         <v>7538461.538461539</v>
       </c>
-      <c r="G15" s="457"/>
-      <c r="H15" s="457"/>
-      <c r="I15" s="457"/>
+      <c r="G15" s="340"/>
+      <c r="H15" s="340"/>
+      <c r="I15" s="340"/>
       <c r="J15" s="122">
         <f>F15-G15-H15+I15</f>
         <v>7538461.538461539</v>
       </c>
-      <c r="K15" s="457"/>
-      <c r="L15" s="454"/>
+      <c r="K15" s="340"/>
+      <c r="L15" s="337"/>
     </row>
     <row r="16" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A16" s="74">
@@ -13476,11 +13560,11 @@
       <c r="L16" s="74"/>
     </row>
     <row r="17" spans="1:12" s="78" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="436" t="s">
+      <c r="A17" s="488" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="437"/>
-      <c r="C17" s="438"/>
+      <c r="B17" s="489"/>
+      <c r="C17" s="490"/>
       <c r="D17" s="125"/>
       <c r="E17" s="126"/>
       <c r="F17" s="125">
@@ -13507,14 +13591,14 @@
       <c r="L17" s="124"/>
     </row>
     <row r="19" spans="1:12" s="78" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B19" s="399"/>
-      <c r="C19" s="399"/>
-      <c r="D19" s="399"/>
+      <c r="B19" s="430"/>
+      <c r="C19" s="430"/>
+      <c r="D19" s="430"/>
       <c r="E19" s="121"/>
-      <c r="H19" s="399"/>
-      <c r="I19" s="399"/>
-      <c r="J19" s="399"/>
-      <c r="K19" s="399"/>
+      <c r="H19" s="430"/>
+      <c r="I19" s="430"/>
+      <c r="J19" s="430"/>
+      <c r="K19" s="430"/>
     </row>
     <row r="20" spans="1:12" s="78" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B20" s="325" t="s">
@@ -13526,29 +13610,29 @@
         <v>206</v>
       </c>
       <c r="G20" s="325"/>
-      <c r="H20" s="399" t="s">
+      <c r="H20" s="430" t="s">
         <v>288</v>
       </c>
-      <c r="I20" s="399"/>
-      <c r="J20" s="399"/>
-      <c r="K20" s="399"/>
-    </row>
-    <row r="21" spans="1:12" s="440" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B21" s="441" t="s">
+      <c r="I20" s="430"/>
+      <c r="J20" s="430"/>
+      <c r="K20" s="430"/>
+    </row>
+    <row r="21" spans="1:12" s="328" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="B21" s="329" t="s">
         <v>289</v>
       </c>
-      <c r="C21" s="441"/>
-      <c r="D21" s="441"/>
-      <c r="F21" s="441" t="s">
+      <c r="C21" s="329"/>
+      <c r="D21" s="329"/>
+      <c r="F21" s="329" t="s">
         <v>289</v>
       </c>
-      <c r="G21" s="441"/>
-      <c r="H21" s="442" t="s">
+      <c r="G21" s="329"/>
+      <c r="H21" s="474" t="s">
         <v>289</v>
       </c>
-      <c r="I21" s="442"/>
-      <c r="J21" s="442"/>
-      <c r="K21" s="442"/>
+      <c r="I21" s="474"/>
+      <c r="J21" s="474"/>
+      <c r="K21" s="474"/>
     </row>
     <row r="24" spans="1:12" s="158" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B24" s="131"/>

--- a/KẾ TOÁN - THÁI HẰNG/Báo cáo/EXCEL/NANOMILK 4_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/Báo cáo/EXCEL/NANOMILK 4_2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9930" yWindow="375" windowWidth="9345" windowHeight="8010" tabRatio="815" activeTab="3"/>
+    <workbookView xWindow="9930" yWindow="375" windowWidth="9345" windowHeight="8010" tabRatio="815"/>
   </bookViews>
   <sheets>
     <sheet name="THU CHI" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="319">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -68,9 +68,6 @@
     <t>Chi phí vận chuyển</t>
   </si>
   <si>
-    <t>Người lập biều</t>
-  </si>
-  <si>
     <t>Giám đốc</t>
   </si>
   <si>
@@ -350,9 +347,6 @@
     <t>E Huệ</t>
   </si>
   <si>
-    <t>tháng 4/2020</t>
-  </si>
-  <si>
     <t>Văn phòng</t>
   </si>
   <si>
@@ -911,12 +905,6 @@
     <t>Chị Huệ Điện Biên thanh toán tiền hàng 320</t>
   </si>
   <si>
-    <t>Tâm văn phòng thanh toán tiền hàng 319</t>
-  </si>
-  <si>
-    <t>Tâm thanh toán tiền hàng 321</t>
-  </si>
-  <si>
     <t>Chị Quân Thanh toán tiền hàng 539</t>
   </si>
   <si>
@@ -935,33 +923,18 @@
     <t>Chị phú DVH thanh toán tiền hàng 329</t>
   </si>
   <si>
-    <t>Tâm thanh toán tiền hàng  328</t>
-  </si>
-  <si>
     <t>Chị phương yên châu thanh toán tiền hàng 346</t>
   </si>
   <si>
     <t>Chị Huệ Điện Biên thanh toán tiền hàng 345</t>
   </si>
   <si>
-    <t>Tâm thanh toán tiền hàng 342+1132</t>
-  </si>
-  <si>
-    <t>Tâm thanh toán tiền hàng 335</t>
-  </si>
-  <si>
-    <t>Tâm thanh toán tiền hàng 1135</t>
-  </si>
-  <si>
     <t>Triệu sơn thanh toán tiền hàng 452</t>
   </si>
   <si>
     <t>AL chị hằng bv việt đức 1133</t>
   </si>
   <si>
-    <t>Tâm thanh toán tiền hàng 348</t>
-  </si>
-  <si>
     <t>Chị trường biển đỏ thanh toán tiền hàng 347</t>
   </si>
   <si>
@@ -987,6 +960,27 @@
   </si>
   <si>
     <t xml:space="preserve">Chi Anh Sơn Anh Lệ đi công tác Miền trung </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Số:042020/TC. MST: 0108806878</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Số:042020/DT. MST: 0108806878</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Số:042020/HKT. MST: 0108806878</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Số:042020/BC. MST: 0108806878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tâm văn phòng thanh toán tiền hàng </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tâm thanh toán tiền hàng  </t>
+  </si>
+  <si>
+    <t>Tâm thanh toán tiền hàng</t>
   </si>
 </sst>
 </file>
@@ -1001,7 +995,7 @@
     <numFmt numFmtId="167" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="d/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1168,11 +1162,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -1777,22 +1766,22 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="26" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1928,15 +1917,15 @@
     <xf numFmtId="9" fontId="24" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="27" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1947,39 +1936,39 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="22" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="27" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="27" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="26" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="27" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="22" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1989,52 +1978,52 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="27" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="27" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="27" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="27" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="27" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="27" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="22" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2044,14 +2033,14 @@
     <xf numFmtId="167" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="27" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="27" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="27" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2087,7 +2076,7 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2121,43 +2110,43 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="31" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="31" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="31" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="32" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="32" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="31" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="32" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="9" fontId="30" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="33" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="33" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="33" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="33" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="33" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="31" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="34" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="34" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="34" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="34" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2177,10 +2166,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2229,111 +2218,111 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="30" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="30" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="30" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="29" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="30" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="30" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="30" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="30" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="30" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="29" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="29" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="30" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="30" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="31" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="30" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="32" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="31" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="32" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="32" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="32" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="32" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="32" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="32" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="31" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="31" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="31" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="31" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="31" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="31" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="32" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="32" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="32" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="32" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="32" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="31" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="31" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="31" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="31" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="31" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="32" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="31" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="32" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="31" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="32" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="31" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="32" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="31" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="32" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="31" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="32" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="31" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="32" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="32" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="31" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="31" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="32" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="31" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="32" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="31" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="24" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2343,6 +2332,21 @@
     <xf numFmtId="167" fontId="24" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2376,7 +2380,7 @@
     <xf numFmtId="14" fontId="22" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2391,124 +2395,124 @@
     <xf numFmtId="167" fontId="22" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="32" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="32" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="32" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="31" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="31" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="31" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="31" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="31" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="31" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="31" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="31" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="31" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="30" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="30" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="30" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="32" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="31" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="32" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="31" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="32" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="31" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2535,28 +2539,28 @@
     <xf numFmtId="9" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="26" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="25" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="26" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="25" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="18" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2571,6 +2575,9 @@
     <xf numFmtId="166" fontId="24" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="166" fontId="24" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2580,18 +2587,12 @@
     <xf numFmtId="166" fontId="24" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2661,19 +2662,19 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="30" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="29" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="30" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="29" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2723,18 +2724,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2764,14 +2753,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>11206</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>109818</xdr:rowOff>
+      <xdr:rowOff>188259</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>216364</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:colOff>205158</xdr:colOff>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>126067</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2789,7 +2778,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9312088" y="109818"/>
+          <a:off x="9894794" y="188259"/>
           <a:ext cx="4765952" cy="6594102"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3089,11 +3078,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q194"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3134,7 +3124,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="164" t="s">
-        <v>2</v>
+        <v>312</v>
       </c>
       <c r="B2" s="164"/>
       <c r="C2" s="164"/>
@@ -3155,16 +3145,16 @@
       <c r="Q2" s="168"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="339" t="s">
-        <v>251</v>
-      </c>
-      <c r="B3" s="339"/>
-      <c r="C3" s="339"/>
-      <c r="D3" s="339"/>
-      <c r="E3" s="339"/>
-      <c r="F3" s="339"/>
-      <c r="G3" s="339"/>
-      <c r="H3" s="339"/>
+      <c r="A3" s="344" t="s">
+        <v>249</v>
+      </c>
+      <c r="B3" s="344"/>
+      <c r="C3" s="344"/>
+      <c r="D3" s="344"/>
+      <c r="E3" s="344"/>
+      <c r="F3" s="344"/>
+      <c r="G3" s="344"/>
+      <c r="H3" s="344"/>
       <c r="I3" s="169"/>
       <c r="J3" s="169"/>
       <c r="K3" s="169"/>
@@ -3176,43 +3166,43 @@
       <c r="Q3" s="169"/>
     </row>
     <row r="4" spans="1:17" s="168" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="340" t="s">
+      <c r="A4" s="345" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="345" t="s">
-        <v>220</v>
-      </c>
-      <c r="C4" s="340" t="s">
+      <c r="B4" s="350" t="s">
+        <v>218</v>
+      </c>
+      <c r="C4" s="345" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="342" t="s">
+      <c r="D4" s="347" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="344" t="s">
+      <c r="E4" s="349" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="344"/>
-      <c r="G4" s="344" t="s">
+      <c r="F4" s="349"/>
+      <c r="G4" s="349" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="344"/>
-    </row>
-    <row r="5" spans="1:17" s="168" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="341"/>
-      <c r="B5" s="346"/>
-      <c r="C5" s="341"/>
-      <c r="D5" s="343"/>
+      <c r="H4" s="349"/>
+    </row>
+    <row r="5" spans="1:17" s="168" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="346"/>
+      <c r="B5" s="351"/>
+      <c r="C5" s="346"/>
+      <c r="D5" s="348"/>
       <c r="E5" s="170" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F5" s="170" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G5" s="170" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H5" s="170" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -3220,13 +3210,13 @@
         <v>43905</v>
       </c>
       <c r="B6" s="153" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C6" s="154" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D6" s="155" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E6" s="156"/>
       <c r="F6" s="171"/>
@@ -3240,13 +3230,13 @@
         <v>43910</v>
       </c>
       <c r="B7" s="153" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C7" s="154" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D7" s="155" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E7" s="156"/>
       <c r="F7" s="171"/>
@@ -3260,13 +3250,13 @@
         <v>43910</v>
       </c>
       <c r="B8" s="153" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C8" s="154" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D8" s="155" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E8" s="156"/>
       <c r="F8" s="171"/>
@@ -3280,13 +3270,13 @@
         <v>43912</v>
       </c>
       <c r="B9" s="153" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C9" s="154" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D9" s="155" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E9" s="156"/>
       <c r="F9" s="171"/>
@@ -3295,18 +3285,18 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="153">
         <v>43912</v>
       </c>
       <c r="B10" s="153" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C10" s="154" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" s="155" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E10" s="156"/>
       <c r="F10" s="171"/>
@@ -3315,18 +3305,18 @@
         <v>504300</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="153">
         <v>43912</v>
       </c>
       <c r="B11" s="153" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C11" s="154" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="155" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E11" s="156"/>
       <c r="F11" s="171"/>
@@ -3340,13 +3330,13 @@
         <v>43914</v>
       </c>
       <c r="B12" s="153" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C12" s="154" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D12" s="155" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E12" s="156"/>
       <c r="F12" s="171"/>
@@ -3355,18 +3345,18 @@
         <v>382000</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="153">
         <v>43915</v>
       </c>
       <c r="B13" s="153" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C13" s="154" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="155" t="s">
         <v>74</v>
-      </c>
-      <c r="D13" s="155" t="s">
-        <v>75</v>
       </c>
       <c r="E13" s="156"/>
       <c r="F13" s="171"/>
@@ -3375,18 +3365,18 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="153">
         <v>43915</v>
       </c>
       <c r="B14" s="153" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C14" s="154" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="172" t="s">
         <v>74</v>
-      </c>
-      <c r="D14" s="172" t="s">
-        <v>75</v>
       </c>
       <c r="E14" s="156"/>
       <c r="F14" s="171"/>
@@ -3395,18 +3385,18 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="153">
         <v>43915</v>
       </c>
       <c r="B15" s="153" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C15" s="154" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="155" t="s">
         <v>74</v>
-      </c>
-      <c r="D15" s="155" t="s">
-        <v>75</v>
       </c>
       <c r="E15" s="156"/>
       <c r="F15" s="171"/>
@@ -3415,18 +3405,18 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="153">
         <v>43915</v>
       </c>
       <c r="B16" s="153" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C16" s="154" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="155" t="s">
         <v>74</v>
-      </c>
-      <c r="D16" s="155" t="s">
-        <v>75</v>
       </c>
       <c r="E16" s="156"/>
       <c r="F16" s="171"/>
@@ -3435,18 +3425,18 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="153">
         <v>43915</v>
       </c>
       <c r="B17" s="153" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C17" s="154" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D17" s="155" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E17" s="156"/>
       <c r="F17" s="171"/>
@@ -3455,18 +3445,18 @@
         <v>136864</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="153">
         <v>43915</v>
       </c>
       <c r="B18" s="153" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C18" s="154" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D18" s="172" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E18" s="156"/>
       <c r="F18" s="171"/>
@@ -3475,18 +3465,18 @@
         <v>4200000</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="153">
         <v>43915</v>
       </c>
       <c r="B19" s="153" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C19" s="154" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D19" s="155" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E19" s="156"/>
       <c r="F19" s="171"/>
@@ -3495,18 +3485,18 @@
         <v>1014600</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="153">
         <v>43919</v>
       </c>
       <c r="B20" s="153" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C20" s="154" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D20" s="155" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E20" s="156"/>
       <c r="F20" s="171"/>
@@ -3515,18 +3505,18 @@
         <v>130800</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="153">
         <v>43920</v>
       </c>
       <c r="B21" s="153" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C21" s="154" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D21" s="155" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E21" s="156"/>
       <c r="F21" s="171"/>
@@ -3535,38 +3525,37 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="153">
         <v>43920</v>
       </c>
       <c r="B22" s="153" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C22" s="154" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D22" s="155" t="s">
-        <v>293</v>
-      </c>
-      <c r="E22" s="156">
+        <v>291</v>
+      </c>
+      <c r="F22" s="156">
         <v>805350</v>
       </c>
-      <c r="F22" s="171"/>
       <c r="G22" s="156"/>
       <c r="H22" s="173"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="153">
         <v>43921</v>
       </c>
       <c r="B23" s="153" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C23" s="154" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D23" s="155" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E23" s="156"/>
       <c r="F23" s="171"/>
@@ -3575,18 +3564,18 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="153">
         <v>43921</v>
       </c>
       <c r="B24" s="153" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C24" s="154" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D24" s="155" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E24" s="156">
         <v>9876600</v>
@@ -3595,58 +3584,58 @@
       <c r="G24" s="156"/>
       <c r="H24" s="173"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="153">
         <v>43921</v>
       </c>
       <c r="B25" s="153" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C25" s="154" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D25" s="155" t="s">
-        <v>295</v>
-      </c>
-      <c r="E25" s="156">
+        <v>316</v>
+      </c>
+      <c r="E25" s="156"/>
+      <c r="F25" s="156">
         <v>548000</v>
       </c>
-      <c r="F25" s="171"/>
       <c r="G25" s="156"/>
       <c r="H25" s="173"/>
     </row>
-    <row r="26" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="153">
         <v>43922</v>
       </c>
       <c r="B26" s="153" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C26" s="154" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D26" s="155" t="s">
-        <v>296</v>
-      </c>
-      <c r="E26" s="156">
+        <v>190</v>
+      </c>
+      <c r="E26" s="156"/>
+      <c r="F26" s="156">
         <v>268000</v>
       </c>
-      <c r="F26" s="171"/>
       <c r="G26" s="156"/>
       <c r="H26" s="173"/>
     </row>
-    <row r="27" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="153">
         <v>43925</v>
       </c>
       <c r="B27" s="153" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C27" s="154" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D27" s="155" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E27" s="156"/>
       <c r="F27" s="171">
@@ -3655,18 +3644,18 @@
       <c r="G27" s="156"/>
       <c r="H27" s="173"/>
     </row>
-    <row r="28" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="153">
         <v>43929</v>
       </c>
       <c r="B28" s="153" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C28" s="154" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D28" s="155" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E28" s="156"/>
       <c r="F28" s="171">
@@ -3675,18 +3664,18 @@
       <c r="G28" s="156"/>
       <c r="H28" s="173"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="153">
         <v>43929</v>
       </c>
       <c r="B29" s="153" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C29" s="154" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D29" s="155" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E29" s="156"/>
       <c r="F29" s="171"/>
@@ -3695,38 +3684,37 @@
       </c>
       <c r="H29" s="173"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="153">
         <v>43931</v>
       </c>
       <c r="B30" s="153" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C30" s="154" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D30" s="155" t="s">
-        <v>299</v>
-      </c>
-      <c r="E30" s="156">
+        <v>295</v>
+      </c>
+      <c r="F30" s="156">
         <v>268450</v>
       </c>
-      <c r="F30" s="171"/>
       <c r="G30" s="156"/>
       <c r="H30" s="173"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="153">
         <v>43932</v>
       </c>
       <c r="B31" s="153" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C31" s="154" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D31" s="155" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E31" s="156"/>
       <c r="F31" s="171">
@@ -3735,38 +3723,37 @@
       <c r="G31" s="156"/>
       <c r="H31" s="173"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="153">
         <v>43933</v>
       </c>
       <c r="B32" s="153" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C32" s="154" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D32" s="155" t="s">
-        <v>301</v>
-      </c>
-      <c r="E32" s="156"/>
-      <c r="F32" s="171">
+        <v>297</v>
+      </c>
+      <c r="E32" s="171">
         <v>10301400</v>
       </c>
       <c r="G32" s="156"/>
       <c r="H32" s="173"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="153">
         <v>43934</v>
       </c>
       <c r="B33" s="153" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C33" s="154" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D33" s="155" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E33" s="156"/>
       <c r="F33" s="171"/>
@@ -3775,18 +3762,18 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="153">
         <v>43935</v>
       </c>
       <c r="B34" s="153" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C34" s="154" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D34" s="155" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E34" s="156">
         <v>324500</v>
@@ -3795,38 +3782,37 @@
       <c r="G34" s="156"/>
       <c r="H34" s="173"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="153">
         <v>43936</v>
       </c>
       <c r="B35" s="153" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C35" s="154" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D35" s="155" t="s">
-        <v>303</v>
-      </c>
-      <c r="E35" s="156">
+        <v>317</v>
+      </c>
+      <c r="F35" s="156">
         <v>1637150</v>
       </c>
-      <c r="F35" s="171"/>
       <c r="G35" s="156"/>
       <c r="H35" s="173"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="153">
         <v>43939</v>
       </c>
       <c r="B36" s="153" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C36" s="154" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D36" s="155" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E36" s="156"/>
       <c r="F36" s="171"/>
@@ -3835,18 +3821,18 @@
       </c>
       <c r="H36" s="173"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="153">
         <v>43941</v>
       </c>
       <c r="B37" s="153" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C37" s="154" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D37" s="155" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E37" s="156"/>
       <c r="F37" s="171"/>
@@ -3855,18 +3841,18 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="153">
         <v>43941</v>
       </c>
       <c r="B38" s="153" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C38" s="154" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D38" s="155" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E38" s="156">
         <v>3799600</v>
@@ -3875,18 +3861,18 @@
       <c r="G38" s="156"/>
       <c r="H38" s="173"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="153">
         <v>43941</v>
       </c>
       <c r="B39" s="153" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C39" s="154" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" s="155" t="s">
         <v>76</v>
-      </c>
-      <c r="D39" s="155" t="s">
-        <v>77</v>
       </c>
       <c r="E39" s="156"/>
       <c r="F39" s="171"/>
@@ -3895,18 +3881,18 @@
         <v>19043</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="153">
         <v>43941</v>
       </c>
       <c r="B40" s="153" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C40" s="154" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D40" s="155" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E40" s="156">
         <v>16281800</v>
@@ -3915,18 +3901,18 @@
       <c r="G40" s="156"/>
       <c r="H40" s="173"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="153">
         <v>43942</v>
       </c>
       <c r="B41" s="153" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C41" s="154" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D41" s="155" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E41" s="156"/>
       <c r="F41" s="171"/>
@@ -3935,18 +3921,18 @@
       </c>
       <c r="H41" s="173"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="153">
         <v>43942</v>
       </c>
       <c r="B42" s="153" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C42" s="154" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D42" s="155" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E42" s="156"/>
       <c r="F42" s="171"/>
@@ -3955,78 +3941,78 @@
         <v>1469000</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="153">
         <v>43942</v>
       </c>
       <c r="B43" s="153" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C43" s="154" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D43" s="155" t="s">
-        <v>306</v>
-      </c>
-      <c r="E43" s="156">
+        <v>190</v>
+      </c>
+      <c r="E43" s="156"/>
+      <c r="F43" s="156">
         <v>1088000</v>
       </c>
-      <c r="F43" s="171"/>
       <c r="G43" s="156"/>
       <c r="H43" s="173"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="153">
         <v>43942</v>
       </c>
       <c r="B44" s="153" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C44" s="154" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D44" s="155" t="s">
-        <v>307</v>
-      </c>
-      <c r="E44" s="156">
+        <v>318</v>
+      </c>
+      <c r="E44" s="156"/>
+      <c r="F44" s="156">
         <v>274000</v>
       </c>
-      <c r="F44" s="171"/>
       <c r="G44" s="156"/>
       <c r="H44" s="173"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="153">
         <v>43942</v>
       </c>
       <c r="B45" s="153" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C45" s="154" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D45" s="155" t="s">
-        <v>308</v>
-      </c>
-      <c r="E45" s="156">
+        <v>190</v>
+      </c>
+      <c r="E45" s="156"/>
+      <c r="F45" s="156">
         <v>286000</v>
       </c>
-      <c r="F45" s="171"/>
       <c r="G45" s="156"/>
       <c r="H45" s="173"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="153">
         <v>43942</v>
       </c>
       <c r="B46" s="153" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C46" s="154" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D46" s="155" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="E46" s="156">
         <v>10000000</v>
@@ -4035,18 +4021,18 @@
       <c r="G46" s="156"/>
       <c r="H46" s="173"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="153">
         <v>43943</v>
       </c>
       <c r="B47" s="153" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C47" s="154" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D47" s="155" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="E47" s="156"/>
       <c r="F47" s="171">
@@ -4055,18 +4041,18 @@
       <c r="G47" s="156"/>
       <c r="H47" s="173"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="153">
         <v>43944</v>
       </c>
       <c r="B48" s="153" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C48" s="154" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D48" s="155" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E48" s="156"/>
       <c r="F48" s="171"/>
@@ -4075,58 +4061,58 @@
         <v>4050000</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="153">
         <v>43944</v>
       </c>
       <c r="B49" s="153" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C49" s="154" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D49" s="155" t="s">
-        <v>311</v>
-      </c>
-      <c r="E49" s="156">
+        <v>190</v>
+      </c>
+      <c r="E49" s="156"/>
+      <c r="F49" s="156">
         <v>1430000</v>
       </c>
-      <c r="F49" s="171"/>
       <c r="G49" s="156"/>
       <c r="H49" s="173"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="153">
         <v>43944</v>
       </c>
       <c r="B50" s="153" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C50" s="154" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D50" s="155" t="s">
-        <v>192</v>
-      </c>
-      <c r="E50" s="156">
+        <v>190</v>
+      </c>
+      <c r="E50" s="156"/>
+      <c r="F50" s="156">
         <v>268000</v>
       </c>
-      <c r="F50" s="171"/>
       <c r="G50" s="156"/>
       <c r="H50" s="173"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="153">
         <v>43944</v>
       </c>
       <c r="B51" s="153" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C51" s="154" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D51" s="155" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="E51" s="156">
         <v>572300</v>
@@ -4135,18 +4121,18 @@
       <c r="G51" s="156"/>
       <c r="H51" s="173"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="153">
         <v>43944</v>
       </c>
       <c r="B52" s="153" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C52" s="154" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D52" s="155" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="E52" s="156">
         <v>6442800</v>
@@ -4155,18 +4141,18 @@
       <c r="G52" s="156"/>
       <c r="H52" s="173"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="153">
         <v>43944</v>
       </c>
       <c r="B53" s="153" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C53" s="154" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D53" s="155" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E53" s="156"/>
       <c r="F53" s="171"/>
@@ -4175,18 +4161,18 @@
         <v>3371000</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="153">
         <v>43945</v>
       </c>
       <c r="B54" s="153" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C54" s="154" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D54" s="155" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E54" s="156"/>
       <c r="F54" s="171"/>
@@ -4195,18 +4181,18 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="153">
         <v>43946</v>
       </c>
       <c r="B55" s="153" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C55" s="154" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D55" s="155" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E55" s="156"/>
       <c r="F55" s="171"/>
@@ -4215,21 +4201,20 @@
         <v>270000</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="153">
         <v>43946</v>
       </c>
       <c r="B56" s="153" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C56" s="154" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D56" s="155" t="s">
-        <v>313</v>
-      </c>
-      <c r="E56" s="156"/>
-      <c r="F56" s="171">
+        <v>304</v>
+      </c>
+      <c r="E56" s="171">
         <v>6513600</v>
       </c>
       <c r="G56" s="156"/>
@@ -4240,13 +4225,13 @@
         <v>43946</v>
       </c>
       <c r="B57" s="153" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C57" s="154" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D57" s="155" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E57" s="156"/>
       <c r="F57" s="171"/>
@@ -4255,18 +4240,18 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="153">
         <v>43946</v>
       </c>
       <c r="B58" s="153" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C58" s="154" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D58" s="174" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E58" s="156"/>
       <c r="F58" s="171"/>
@@ -4275,18 +4260,18 @@
       </c>
       <c r="H58" s="173"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="153">
         <v>43946</v>
       </c>
       <c r="B59" s="153" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C59" s="154" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D59" s="174" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="E59" s="156">
         <v>1716900</v>
@@ -4295,38 +4280,37 @@
       <c r="G59" s="156"/>
       <c r="H59" s="173"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="153">
         <v>43947</v>
       </c>
       <c r="B60" s="153" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C60" s="154" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D60" s="174" t="s">
-        <v>315</v>
-      </c>
-      <c r="E60" s="156"/>
-      <c r="F60" s="171">
+        <v>306</v>
+      </c>
+      <c r="E60" s="171">
         <v>1758200</v>
       </c>
       <c r="G60" s="156"/>
       <c r="H60" s="173"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="153">
         <v>43948</v>
       </c>
       <c r="B61" s="153" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C61" s="154" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D61" s="174" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="E61" s="156"/>
       <c r="F61" s="171"/>
@@ -4335,18 +4319,18 @@
       </c>
       <c r="H61" s="173"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="153">
         <v>43947</v>
       </c>
       <c r="B62" s="153" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C62" s="154" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D62" s="174" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="E62" s="156"/>
       <c r="F62" s="171">
@@ -4355,18 +4339,18 @@
       <c r="G62" s="156"/>
       <c r="H62" s="173"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="153">
         <v>43947</v>
       </c>
       <c r="B63" s="153" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C63" s="154" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D63" s="155" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E63" s="156"/>
       <c r="F63" s="171"/>
@@ -4375,18 +4359,18 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="153">
         <v>43949</v>
       </c>
       <c r="B64" s="153" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C64" s="154" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D64" s="155" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E64" s="156"/>
       <c r="F64" s="171">
@@ -4395,18 +4379,18 @@
       <c r="G64" s="156"/>
       <c r="H64" s="173"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="153">
         <v>43949</v>
       </c>
       <c r="B65" s="153" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C65" s="154" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D65" s="155" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="E65" s="156"/>
       <c r="F65" s="171">
@@ -4415,18 +4399,18 @@
       <c r="G65" s="156"/>
       <c r="H65" s="173"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="153">
         <v>43951</v>
       </c>
       <c r="B66" s="153" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C66" s="154" t="s">
+        <v>73</v>
+      </c>
+      <c r="D66" s="155" t="s">
         <v>74</v>
-      </c>
-      <c r="D66" s="155" t="s">
-        <v>75</v>
       </c>
       <c r="E66" s="156"/>
       <c r="F66" s="171"/>
@@ -4436,18 +4420,18 @@
         <v>225000</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="153">
         <v>43951</v>
       </c>
       <c r="B67" s="153" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C67" s="154" t="s">
+        <v>73</v>
+      </c>
+      <c r="D67" s="155" t="s">
         <v>74</v>
-      </c>
-      <c r="D67" s="155" t="s">
-        <v>75</v>
       </c>
       <c r="E67" s="156"/>
       <c r="F67" s="171"/>
@@ -4457,18 +4441,18 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="153">
         <v>43951</v>
       </c>
       <c r="B68" s="153" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C68" s="154" t="s">
+        <v>73</v>
+      </c>
+      <c r="D68" s="155" t="s">
         <v>74</v>
-      </c>
-      <c r="D68" s="155" t="s">
-        <v>75</v>
       </c>
       <c r="E68" s="156"/>
       <c r="F68" s="171"/>
@@ -4477,18 +4461,18 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="153">
         <v>43951</v>
       </c>
       <c r="B69" s="153" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C69" s="154" t="s">
+        <v>73</v>
+      </c>
+      <c r="D69" s="155" t="s">
         <v>74</v>
-      </c>
-      <c r="D69" s="155" t="s">
-        <v>75</v>
       </c>
       <c r="E69" s="156"/>
       <c r="F69" s="171"/>
@@ -4498,18 +4482,18 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="153">
         <v>43951</v>
       </c>
       <c r="B70" s="153" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C70" s="154" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D70" s="155" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E70" s="156"/>
       <c r="F70" s="171">
@@ -4518,18 +4502,18 @@
       <c r="G70" s="156"/>
       <c r="H70" s="173"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="153">
         <v>43951</v>
       </c>
       <c r="B71" s="153" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C71" s="154" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D71" s="155" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E71" s="156"/>
       <c r="F71" s="171"/>
@@ -4543,13 +4527,13 @@
         <v>43951</v>
       </c>
       <c r="B72" s="153" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C72" s="154" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D72" s="155" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E72" s="156"/>
       <c r="F72" s="171"/>
@@ -4558,20 +4542,20 @@
         <v>540000</v>
       </c>
     </row>
-    <row r="73" spans="1:10" s="176" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A73" s="336" t="s">
+    <row r="73" spans="1:10" s="176" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="341" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="337"/>
-      <c r="C73" s="337"/>
-      <c r="D73" s="338"/>
+      <c r="B73" s="342"/>
+      <c r="C73" s="342"/>
+      <c r="D73" s="343"/>
       <c r="E73" s="175">
         <f>SUM(E6:E72)</f>
-        <v>55887450</v>
+        <v>67587700</v>
       </c>
       <c r="F73" s="175">
         <f t="shared" ref="F73:H73" si="0">SUM(F6:F72)</f>
-        <v>34692050</v>
+        <v>22991800</v>
       </c>
       <c r="G73" s="175">
         <f t="shared" si="0"/>
@@ -4595,11 +4579,11 @@
       <c r="J74" s="177"/>
     </row>
     <row r="75" spans="1:10" s="176" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A75" s="347" t="s">
-        <v>200</v>
-      </c>
-      <c r="B75" s="347"/>
-      <c r="C75" s="347"/>
+      <c r="A75" s="352" t="s">
+        <v>198</v>
+      </c>
+      <c r="B75" s="352"/>
+      <c r="C75" s="352"/>
       <c r="D75" s="178"/>
       <c r="E75" s="179"/>
       <c r="F75" s="179"/>
@@ -4621,10 +4605,10 @@
     <row r="77" spans="1:10" s="176" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A77" s="178"/>
       <c r="B77" s="178"/>
-      <c r="C77" s="348" t="s">
-        <v>277</v>
-      </c>
-      <c r="D77" s="348"/>
+      <c r="C77" s="353" t="s">
+        <v>275</v>
+      </c>
+      <c r="D77" s="353"/>
       <c r="E77" s="179"/>
       <c r="F77" s="179"/>
       <c r="G77" s="179"/>
@@ -4632,43 +4616,43 @@
       <c r="J77" s="177"/>
     </row>
     <row r="78" spans="1:10" s="168" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="340" t="s">
+      <c r="A78" s="345" t="s">
         <v>4</v>
       </c>
-      <c r="B78" s="345" t="s">
-        <v>220</v>
-      </c>
-      <c r="C78" s="340" t="s">
+      <c r="B78" s="350" t="s">
+        <v>218</v>
+      </c>
+      <c r="C78" s="345" t="s">
         <v>5</v>
       </c>
-      <c r="D78" s="342" t="s">
+      <c r="D78" s="347" t="s">
         <v>6</v>
       </c>
-      <c r="E78" s="344" t="s">
+      <c r="E78" s="349" t="s">
         <v>7</v>
       </c>
-      <c r="F78" s="344"/>
-      <c r="G78" s="344" t="s">
+      <c r="F78" s="349"/>
+      <c r="G78" s="349" t="s">
         <v>8</v>
       </c>
-      <c r="H78" s="344"/>
+      <c r="H78" s="349"/>
     </row>
     <row r="79" spans="1:10" s="168" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="341"/>
-      <c r="B79" s="346"/>
-      <c r="C79" s="341"/>
-      <c r="D79" s="343"/>
+      <c r="A79" s="346"/>
+      <c r="B79" s="351"/>
+      <c r="C79" s="346"/>
+      <c r="D79" s="348"/>
       <c r="E79" s="170" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F79" s="170" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G79" s="170" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H79" s="170" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -4676,13 +4660,13 @@
         <v>43946</v>
       </c>
       <c r="B80" s="153" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C80" s="154" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D80" s="174" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E80" s="156"/>
       <c r="F80" s="171"/>
@@ -4696,13 +4680,13 @@
         <v>43948</v>
       </c>
       <c r="B81" s="153" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C81" s="154" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D81" s="174" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E81" s="156"/>
       <c r="F81" s="171"/>
@@ -4739,10 +4723,10 @@
     <row r="84" spans="1:10" s="176" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A84" s="178"/>
       <c r="B84" s="178"/>
-      <c r="C84" s="348" t="s">
-        <v>278</v>
-      </c>
-      <c r="D84" s="348"/>
+      <c r="C84" s="353" t="s">
+        <v>276</v>
+      </c>
+      <c r="D84" s="353"/>
       <c r="E84" s="179"/>
       <c r="F84" s="179"/>
       <c r="G84" s="179"/>
@@ -4750,43 +4734,43 @@
       <c r="J84" s="177"/>
     </row>
     <row r="85" spans="1:10" s="168" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="340" t="s">
+      <c r="A85" s="345" t="s">
         <v>4</v>
       </c>
-      <c r="B85" s="345" t="s">
-        <v>220</v>
-      </c>
-      <c r="C85" s="340" t="s">
+      <c r="B85" s="350" t="s">
+        <v>218</v>
+      </c>
+      <c r="C85" s="345" t="s">
         <v>5</v>
       </c>
-      <c r="D85" s="342" t="s">
+      <c r="D85" s="347" t="s">
         <v>6</v>
       </c>
-      <c r="E85" s="344" t="s">
+      <c r="E85" s="349" t="s">
         <v>7</v>
       </c>
-      <c r="F85" s="344"/>
-      <c r="G85" s="344" t="s">
+      <c r="F85" s="349"/>
+      <c r="G85" s="349" t="s">
         <v>8</v>
       </c>
-      <c r="H85" s="344"/>
+      <c r="H85" s="349"/>
     </row>
     <row r="86" spans="1:10" s="168" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="341"/>
-      <c r="B86" s="346"/>
-      <c r="C86" s="341"/>
-      <c r="D86" s="343"/>
+      <c r="A86" s="346"/>
+      <c r="B86" s="351"/>
+      <c r="C86" s="346"/>
+      <c r="D86" s="348"/>
       <c r="E86" s="170" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F86" s="170" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G86" s="170" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H86" s="170" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="87" spans="1:10" s="176" customFormat="1" x14ac:dyDescent="0.25">
@@ -4794,13 +4778,13 @@
         <v>43944</v>
       </c>
       <c r="B87" s="153" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C87" s="154" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D87" s="155" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E87" s="156"/>
       <c r="F87" s="171"/>
@@ -4838,10 +4822,10 @@
     <row r="90" spans="1:10" s="176" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A90" s="178"/>
       <c r="B90" s="178"/>
-      <c r="C90" s="349" t="s">
-        <v>25</v>
-      </c>
-      <c r="D90" s="349"/>
+      <c r="C90" s="354" t="s">
+        <v>24</v>
+      </c>
+      <c r="D90" s="354"/>
       <c r="E90" s="179"/>
       <c r="F90" s="179"/>
       <c r="G90" s="179"/>
@@ -4849,43 +4833,43 @@
       <c r="J90" s="177"/>
     </row>
     <row r="91" spans="1:10" s="168" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="340" t="s">
+      <c r="A91" s="345" t="s">
         <v>4</v>
       </c>
-      <c r="B91" s="345" t="s">
-        <v>220</v>
-      </c>
-      <c r="C91" s="340" t="s">
+      <c r="B91" s="350" t="s">
+        <v>218</v>
+      </c>
+      <c r="C91" s="345" t="s">
         <v>5</v>
       </c>
-      <c r="D91" s="342" t="s">
+      <c r="D91" s="347" t="s">
         <v>6</v>
       </c>
-      <c r="E91" s="344" t="s">
+      <c r="E91" s="349" t="s">
         <v>7</v>
       </c>
-      <c r="F91" s="344"/>
-      <c r="G91" s="344" t="s">
+      <c r="F91" s="349"/>
+      <c r="G91" s="349" t="s">
         <v>8</v>
       </c>
-      <c r="H91" s="344"/>
+      <c r="H91" s="349"/>
     </row>
     <row r="92" spans="1:10" s="168" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="341"/>
-      <c r="B92" s="346"/>
-      <c r="C92" s="341"/>
-      <c r="D92" s="343"/>
+      <c r="A92" s="346"/>
+      <c r="B92" s="351"/>
+      <c r="C92" s="346"/>
+      <c r="D92" s="348"/>
       <c r="E92" s="170" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F92" s="170" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G92" s="170" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H92" s="170" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
@@ -4893,13 +4877,13 @@
         <v>43912</v>
       </c>
       <c r="B93" s="153" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C93" s="154" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D93" s="155" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E93" s="156"/>
       <c r="F93" s="171"/>
@@ -4913,13 +4897,13 @@
         <v>43939</v>
       </c>
       <c r="B94" s="153" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C94" s="154" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D94" s="155" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E94" s="156"/>
       <c r="F94" s="171"/>
@@ -4933,13 +4917,13 @@
         <v>43944</v>
       </c>
       <c r="B95" s="153" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C95" s="154" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D95" s="155" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E95" s="156"/>
       <c r="F95" s="171"/>
@@ -4953,13 +4937,13 @@
         <v>43946</v>
       </c>
       <c r="B96" s="153" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C96" s="154" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D96" s="155" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E96" s="156"/>
       <c r="F96" s="171"/>
@@ -4997,10 +4981,10 @@
     <row r="99" spans="1:10" s="176" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A99" s="178"/>
       <c r="B99" s="178"/>
-      <c r="C99" s="349" t="s">
-        <v>69</v>
-      </c>
-      <c r="D99" s="349"/>
+      <c r="C99" s="354" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" s="354"/>
       <c r="E99" s="179"/>
       <c r="F99" s="179"/>
       <c r="G99" s="179"/>
@@ -5008,43 +4992,43 @@
       <c r="J99" s="177"/>
     </row>
     <row r="100" spans="1:10" s="168" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="340" t="s">
+      <c r="A100" s="345" t="s">
         <v>4</v>
       </c>
-      <c r="B100" s="345" t="s">
-        <v>279</v>
-      </c>
-      <c r="C100" s="340" t="s">
+      <c r="B100" s="350" t="s">
+        <v>277</v>
+      </c>
+      <c r="C100" s="345" t="s">
         <v>5</v>
       </c>
-      <c r="D100" s="342" t="s">
+      <c r="D100" s="347" t="s">
         <v>6</v>
       </c>
-      <c r="E100" s="344" t="s">
+      <c r="E100" s="349" t="s">
         <v>7</v>
       </c>
-      <c r="F100" s="344"/>
-      <c r="G100" s="344" t="s">
+      <c r="F100" s="349"/>
+      <c r="G100" s="349" t="s">
         <v>8</v>
       </c>
-      <c r="H100" s="344"/>
+      <c r="H100" s="349"/>
     </row>
     <row r="101" spans="1:10" s="168" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="341"/>
-      <c r="B101" s="346"/>
-      <c r="C101" s="341"/>
-      <c r="D101" s="343"/>
+      <c r="A101" s="346"/>
+      <c r="B101" s="351"/>
+      <c r="C101" s="346"/>
+      <c r="D101" s="348"/>
       <c r="E101" s="170" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F101" s="170" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G101" s="170" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H101" s="170" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
@@ -5052,13 +5036,13 @@
         <v>43905</v>
       </c>
       <c r="B102" s="153" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C102" s="154" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D102" s="155" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E102" s="156"/>
       <c r="F102" s="171"/>
@@ -5072,13 +5056,13 @@
         <v>43910</v>
       </c>
       <c r="B103" s="153" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C103" s="154" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D103" s="155" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E103" s="156"/>
       <c r="F103" s="171"/>
@@ -5092,13 +5076,13 @@
         <v>43910</v>
       </c>
       <c r="B104" s="153" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C104" s="154" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D104" s="155" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E104" s="156"/>
       <c r="F104" s="171"/>
@@ -5112,13 +5096,13 @@
         <v>43912</v>
       </c>
       <c r="B105" s="153" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C105" s="154" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D105" s="155" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E105" s="156"/>
       <c r="F105" s="171"/>
@@ -5132,13 +5116,13 @@
         <v>43914</v>
       </c>
       <c r="B106" s="153" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C106" s="154" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D106" s="155" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E106" s="156"/>
       <c r="F106" s="171"/>
@@ -5152,13 +5136,13 @@
         <v>43946</v>
       </c>
       <c r="B107" s="153" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C107" s="154" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D107" s="155" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E107" s="156"/>
       <c r="F107" s="171"/>
@@ -5172,13 +5156,13 @@
         <v>43951</v>
       </c>
       <c r="B108" s="153" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C108" s="154" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D108" s="155" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E108" s="156"/>
       <c r="F108" s="171"/>
@@ -5213,10 +5197,10 @@
     <row r="111" spans="1:10" s="176" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A111" s="178"/>
       <c r="B111" s="178"/>
-      <c r="C111" s="349" t="s">
+      <c r="C111" s="354" t="s">
         <v>9</v>
       </c>
-      <c r="D111" s="349"/>
+      <c r="D111" s="354"/>
       <c r="E111" s="179"/>
       <c r="F111" s="179"/>
       <c r="G111" s="179"/>
@@ -5224,43 +5208,43 @@
       <c r="J111" s="177"/>
     </row>
     <row r="112" spans="1:10" s="168" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="340" t="s">
+      <c r="A112" s="345" t="s">
         <v>4</v>
       </c>
-      <c r="B112" s="345" t="s">
-        <v>220</v>
-      </c>
-      <c r="C112" s="340" t="s">
+      <c r="B112" s="350" t="s">
+        <v>218</v>
+      </c>
+      <c r="C112" s="345" t="s">
         <v>5</v>
       </c>
-      <c r="D112" s="342" t="s">
+      <c r="D112" s="347" t="s">
         <v>6</v>
       </c>
-      <c r="E112" s="344" t="s">
+      <c r="E112" s="349" t="s">
         <v>7</v>
       </c>
-      <c r="F112" s="344"/>
-      <c r="G112" s="344" t="s">
+      <c r="F112" s="349"/>
+      <c r="G112" s="349" t="s">
         <v>8</v>
       </c>
-      <c r="H112" s="344"/>
+      <c r="H112" s="349"/>
     </row>
     <row r="113" spans="1:8" s="168" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="341"/>
-      <c r="B113" s="346"/>
-      <c r="C113" s="341"/>
-      <c r="D113" s="343"/>
+      <c r="A113" s="346"/>
+      <c r="B113" s="351"/>
+      <c r="C113" s="346"/>
+      <c r="D113" s="348"/>
       <c r="E113" s="170" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F113" s="170" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G113" s="170" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H113" s="170" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -5268,13 +5252,13 @@
         <v>43912</v>
       </c>
       <c r="B114" s="153" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C114" s="154" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D114" s="155" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E114" s="156"/>
       <c r="F114" s="171"/>
@@ -5288,13 +5272,13 @@
         <v>43915</v>
       </c>
       <c r="B115" s="153" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C115" s="154" t="s">
+        <v>73</v>
+      </c>
+      <c r="D115" s="155" t="s">
         <v>74</v>
-      </c>
-      <c r="D115" s="155" t="s">
-        <v>75</v>
       </c>
       <c r="E115" s="156"/>
       <c r="F115" s="171"/>
@@ -5308,13 +5292,13 @@
         <v>43915</v>
       </c>
       <c r="B116" s="153" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C116" s="154" t="s">
+        <v>73</v>
+      </c>
+      <c r="D116" s="172" t="s">
         <v>74</v>
-      </c>
-      <c r="D116" s="172" t="s">
-        <v>75</v>
       </c>
       <c r="E116" s="156"/>
       <c r="F116" s="171"/>
@@ -5328,13 +5312,13 @@
         <v>43915</v>
       </c>
       <c r="B117" s="153" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C117" s="154" t="s">
+        <v>73</v>
+      </c>
+      <c r="D117" s="155" t="s">
         <v>74</v>
-      </c>
-      <c r="D117" s="155" t="s">
-        <v>75</v>
       </c>
       <c r="E117" s="156"/>
       <c r="F117" s="171"/>
@@ -5348,13 +5332,13 @@
         <v>43915</v>
       </c>
       <c r="B118" s="153" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C118" s="154" t="s">
+        <v>73</v>
+      </c>
+      <c r="D118" s="155" t="s">
         <v>74</v>
-      </c>
-      <c r="D118" s="155" t="s">
-        <v>75</v>
       </c>
       <c r="E118" s="156"/>
       <c r="F118" s="171"/>
@@ -5368,13 +5352,13 @@
         <v>43915</v>
       </c>
       <c r="B119" s="153" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C119" s="154" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D119" s="172" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E119" s="156"/>
       <c r="F119" s="171"/>
@@ -5388,13 +5372,13 @@
         <v>43915</v>
       </c>
       <c r="B120" s="153" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C120" s="154" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D120" s="155" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E120" s="156"/>
       <c r="F120" s="171"/>
@@ -5408,13 +5392,13 @@
         <v>43920</v>
       </c>
       <c r="B121" s="153" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C121" s="154" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D121" s="155" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E121" s="156"/>
       <c r="F121" s="171"/>
@@ -5428,13 +5412,13 @@
         <v>43934</v>
       </c>
       <c r="B122" s="153" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C122" s="154" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D122" s="155" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E122" s="156"/>
       <c r="F122" s="171"/>
@@ -5448,13 +5432,13 @@
         <v>43947</v>
       </c>
       <c r="B123" s="153" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C123" s="154" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D123" s="155" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E123" s="156"/>
       <c r="F123" s="171"/>
@@ -5468,13 +5452,13 @@
         <v>43951</v>
       </c>
       <c r="B124" s="153" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C124" s="154" t="s">
+        <v>73</v>
+      </c>
+      <c r="D124" s="155" t="s">
         <v>74</v>
-      </c>
-      <c r="D124" s="155" t="s">
-        <v>75</v>
       </c>
       <c r="E124" s="156"/>
       <c r="F124" s="171"/>
@@ -5488,13 +5472,13 @@
         <v>43951</v>
       </c>
       <c r="B125" s="153" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C125" s="154" t="s">
+        <v>73</v>
+      </c>
+      <c r="D125" s="155" t="s">
         <v>74</v>
-      </c>
-      <c r="D125" s="155" t="s">
-        <v>75</v>
       </c>
       <c r="E125" s="156"/>
       <c r="F125" s="171"/>
@@ -5508,13 +5492,13 @@
         <v>43951</v>
       </c>
       <c r="B126" s="153" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C126" s="154" t="s">
+        <v>73</v>
+      </c>
+      <c r="D126" s="155" t="s">
         <v>74</v>
-      </c>
-      <c r="D126" s="155" t="s">
-        <v>75</v>
       </c>
       <c r="E126" s="156"/>
       <c r="F126" s="171"/>
@@ -5528,13 +5512,13 @@
         <v>43951</v>
       </c>
       <c r="B127" s="153" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C127" s="154" t="s">
+        <v>73</v>
+      </c>
+      <c r="D127" s="155" t="s">
         <v>74</v>
-      </c>
-      <c r="D127" s="155" t="s">
-        <v>75</v>
       </c>
       <c r="E127" s="156"/>
       <c r="F127" s="171"/>
@@ -5569,53 +5553,53 @@
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="203"/>
       <c r="B130" s="203"/>
-      <c r="C130" s="349" t="s">
-        <v>129</v>
-      </c>
-      <c r="D130" s="349"/>
+      <c r="C130" s="354" t="s">
+        <v>127</v>
+      </c>
+      <c r="D130" s="354"/>
       <c r="E130" s="204"/>
       <c r="F130" s="205"/>
       <c r="G130" s="204"/>
       <c r="H130" s="206"/>
     </row>
     <row r="131" spans="1:8" s="168" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="346" t="s">
+      <c r="A131" s="351" t="s">
         <v>4</v>
       </c>
-      <c r="B131" s="345" t="s">
-        <v>220</v>
-      </c>
-      <c r="C131" s="346" t="s">
+      <c r="B131" s="350" t="s">
+        <v>218</v>
+      </c>
+      <c r="C131" s="351" t="s">
         <v>5</v>
       </c>
-      <c r="D131" s="350" t="s">
+      <c r="D131" s="355" t="s">
         <v>6</v>
       </c>
-      <c r="E131" s="351" t="s">
+      <c r="E131" s="356" t="s">
         <v>7</v>
       </c>
-      <c r="F131" s="351"/>
-      <c r="G131" s="351" t="s">
+      <c r="F131" s="356"/>
+      <c r="G131" s="356" t="s">
         <v>8</v>
       </c>
-      <c r="H131" s="351"/>
+      <c r="H131" s="356"/>
     </row>
     <row r="132" spans="1:8" s="168" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="341"/>
-      <c r="B132" s="346"/>
-      <c r="C132" s="341"/>
-      <c r="D132" s="343"/>
+      <c r="A132" s="346"/>
+      <c r="B132" s="351"/>
+      <c r="C132" s="346"/>
+      <c r="D132" s="348"/>
       <c r="E132" s="170" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F132" s="170" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G132" s="170" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H132" s="170" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -5623,13 +5607,13 @@
         <v>43920</v>
       </c>
       <c r="B133" s="153" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C133" s="154" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D133" s="155" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E133" s="156">
         <v>805350</v>
@@ -5643,13 +5627,13 @@
         <v>43921</v>
       </c>
       <c r="B134" s="153" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C134" s="154" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D134" s="155" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E134" s="156">
         <v>9876600</v>
@@ -5663,13 +5647,13 @@
         <v>43921</v>
       </c>
       <c r="B135" s="153" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C135" s="154" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D135" s="155" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E135" s="156">
         <v>548000</v>
@@ -5683,13 +5667,13 @@
         <v>43922</v>
       </c>
       <c r="B136" s="153" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C136" s="154" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D136" s="155" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E136" s="156">
         <v>268000</v>
@@ -5703,13 +5687,13 @@
         <v>43925</v>
       </c>
       <c r="B137" s="153" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C137" s="154" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D137" s="155" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E137" s="156"/>
       <c r="F137" s="171">
@@ -5723,13 +5707,13 @@
         <v>43929</v>
       </c>
       <c r="B138" s="153" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C138" s="154" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D138" s="155" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E138" s="156"/>
       <c r="F138" s="171">
@@ -5743,13 +5727,13 @@
         <v>43931</v>
       </c>
       <c r="B139" s="153" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C139" s="154" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D139" s="155" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E139" s="156">
         <v>268450</v>
@@ -5763,13 +5747,13 @@
         <v>43932</v>
       </c>
       <c r="B140" s="153" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C140" s="154" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D140" s="155" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E140" s="156"/>
       <c r="F140" s="171">
@@ -5783,13 +5767,13 @@
         <v>43933</v>
       </c>
       <c r="B141" s="153" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C141" s="154" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D141" s="155" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E141" s="156"/>
       <c r="F141" s="171">
@@ -5803,13 +5787,13 @@
         <v>43935</v>
       </c>
       <c r="B142" s="153" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C142" s="154" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D142" s="155" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E142" s="156">
         <v>324500</v>
@@ -5823,13 +5807,13 @@
         <v>43936</v>
       </c>
       <c r="B143" s="153" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C143" s="154" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D143" s="155" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E143" s="156">
         <v>1637150</v>
@@ -5843,13 +5827,13 @@
         <v>43941</v>
       </c>
       <c r="B144" s="153" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C144" s="154" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D144" s="155" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E144" s="156">
         <v>3799600</v>
@@ -5863,13 +5847,13 @@
         <v>43941</v>
       </c>
       <c r="B145" s="153" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C145" s="154" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D145" s="155" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E145" s="156">
         <v>16281800</v>
@@ -5883,13 +5867,13 @@
         <v>43942</v>
       </c>
       <c r="B146" s="153" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C146" s="154" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D146" s="155" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E146" s="156">
         <v>1088000</v>
@@ -5903,13 +5887,13 @@
         <v>43942</v>
       </c>
       <c r="B147" s="153" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C147" s="154" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D147" s="155" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E147" s="156">
         <v>274000</v>
@@ -5923,13 +5907,13 @@
         <v>43942</v>
       </c>
       <c r="B148" s="153" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C148" s="154" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D148" s="155" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E148" s="156">
         <v>286000</v>
@@ -5943,13 +5927,13 @@
         <v>43942</v>
       </c>
       <c r="B149" s="153" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C149" s="154" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D149" s="155" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E149" s="156">
         <v>10000000</v>
@@ -5963,13 +5947,13 @@
         <v>43943</v>
       </c>
       <c r="B150" s="153" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C150" s="154" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D150" s="155" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E150" s="156"/>
       <c r="F150" s="171">
@@ -5983,13 +5967,13 @@
         <v>43944</v>
       </c>
       <c r="B151" s="153" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C151" s="154" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D151" s="155" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E151" s="156">
         <v>1430000</v>
@@ -6003,13 +5987,13 @@
         <v>43944</v>
       </c>
       <c r="B152" s="153" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C152" s="154" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D152" s="155" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E152" s="156">
         <v>268000</v>
@@ -6023,13 +6007,13 @@
         <v>43944</v>
       </c>
       <c r="B153" s="153" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C153" s="154" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D153" s="155" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E153" s="156">
         <v>572300</v>
@@ -6043,13 +6027,13 @@
         <v>43944</v>
       </c>
       <c r="B154" s="153" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C154" s="154" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D154" s="155" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E154" s="156">
         <v>6442800</v>
@@ -6063,13 +6047,13 @@
         <v>43946</v>
       </c>
       <c r="B155" s="153" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C155" s="154" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D155" s="155" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E155" s="156"/>
       <c r="F155" s="171">
@@ -6083,13 +6067,13 @@
         <v>43946</v>
       </c>
       <c r="B156" s="153" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C156" s="154" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D156" s="174" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E156" s="156">
         <v>1716900</v>
@@ -6103,13 +6087,13 @@
         <v>43947</v>
       </c>
       <c r="B157" s="153" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C157" s="154" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D157" s="174" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E157" s="156"/>
       <c r="F157" s="171">
@@ -6123,13 +6107,13 @@
         <v>43947</v>
       </c>
       <c r="B158" s="153" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C158" s="154" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D158" s="174" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E158" s="156"/>
       <c r="F158" s="171">
@@ -6143,13 +6127,13 @@
         <v>43949</v>
       </c>
       <c r="B159" s="153" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C159" s="154" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D159" s="155" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E159" s="156"/>
       <c r="F159" s="171">
@@ -6163,13 +6147,13 @@
         <v>43949</v>
       </c>
       <c r="B160" s="153" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C160" s="154" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D160" s="155" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E160" s="156"/>
       <c r="F160" s="171">
@@ -6183,13 +6167,13 @@
         <v>43951</v>
       </c>
       <c r="B161" s="153" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C161" s="154" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D161" s="155" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E161" s="156"/>
       <c r="F161" s="171">
@@ -6225,49 +6209,49 @@
       <c r="H163" s="185"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C164" s="349" t="s">
-        <v>188</v>
-      </c>
-      <c r="D164" s="349"/>
+      <c r="C164" s="354" t="s">
+        <v>186</v>
+      </c>
+      <c r="D164" s="354"/>
     </row>
     <row r="165" spans="1:8" s="168" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="340" t="s">
+      <c r="A165" s="345" t="s">
         <v>4</v>
       </c>
-      <c r="B165" s="345" t="s">
-        <v>220</v>
-      </c>
-      <c r="C165" s="340" t="s">
+      <c r="B165" s="350" t="s">
+        <v>218</v>
+      </c>
+      <c r="C165" s="345" t="s">
         <v>5</v>
       </c>
-      <c r="D165" s="342" t="s">
+      <c r="D165" s="347" t="s">
         <v>6</v>
       </c>
-      <c r="E165" s="344" t="s">
+      <c r="E165" s="349" t="s">
         <v>7</v>
       </c>
-      <c r="F165" s="344"/>
-      <c r="G165" s="344" t="s">
+      <c r="F165" s="349"/>
+      <c r="G165" s="349" t="s">
         <v>8</v>
       </c>
-      <c r="H165" s="344"/>
+      <c r="H165" s="349"/>
     </row>
     <row r="166" spans="1:8" s="168" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="341"/>
-      <c r="B166" s="346"/>
-      <c r="C166" s="341"/>
-      <c r="D166" s="343"/>
+      <c r="A166" s="346"/>
+      <c r="B166" s="351"/>
+      <c r="C166" s="346"/>
+      <c r="D166" s="348"/>
       <c r="E166" s="170" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F166" s="170" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G166" s="170" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H166" s="170" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="167" spans="1:8" s="168" customFormat="1" x14ac:dyDescent="0.25">
@@ -6275,13 +6259,13 @@
         <v>43942</v>
       </c>
       <c r="B167" s="153" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C167" s="154" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D167" s="155" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E167" s="156"/>
       <c r="F167" s="171"/>
@@ -6295,13 +6279,13 @@
         <v>43951</v>
       </c>
       <c r="B168" s="153" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C168" s="154" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D168" s="155" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E168" s="156"/>
       <c r="F168" s="171"/>
@@ -6337,49 +6321,49 @@
       <c r="H170" s="183"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C171" s="349" t="s">
+      <c r="C171" s="354" t="s">
         <v>12</v>
       </c>
-      <c r="D171" s="349"/>
+      <c r="D171" s="354"/>
     </row>
     <row r="172" spans="1:8" s="168" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="340" t="s">
+      <c r="A172" s="345" t="s">
         <v>4</v>
       </c>
-      <c r="B172" s="345" t="s">
-        <v>220</v>
-      </c>
-      <c r="C172" s="340" t="s">
+      <c r="B172" s="350" t="s">
+        <v>218</v>
+      </c>
+      <c r="C172" s="345" t="s">
         <v>5</v>
       </c>
-      <c r="D172" s="342" t="s">
+      <c r="D172" s="347" t="s">
         <v>6</v>
       </c>
-      <c r="E172" s="344" t="s">
+      <c r="E172" s="349" t="s">
         <v>7</v>
       </c>
-      <c r="F172" s="344"/>
-      <c r="G172" s="344" t="s">
+      <c r="F172" s="349"/>
+      <c r="G172" s="349" t="s">
         <v>8</v>
       </c>
-      <c r="H172" s="344"/>
+      <c r="H172" s="349"/>
     </row>
     <row r="173" spans="1:8" s="168" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="341"/>
-      <c r="B173" s="346"/>
-      <c r="C173" s="341"/>
-      <c r="D173" s="343"/>
+      <c r="A173" s="346"/>
+      <c r="B173" s="351"/>
+      <c r="C173" s="346"/>
+      <c r="D173" s="348"/>
       <c r="E173" s="170" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F173" s="170" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G173" s="170" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H173" s="170" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
@@ -6387,13 +6371,13 @@
         <v>43915</v>
       </c>
       <c r="B174" s="153" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C174" s="154" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D174" s="155" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E174" s="156"/>
       <c r="F174" s="171"/>
@@ -6407,13 +6391,13 @@
         <v>43919</v>
       </c>
       <c r="B175" s="153" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C175" s="154" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D175" s="155" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E175" s="156"/>
       <c r="F175" s="171"/>
@@ -6427,13 +6411,13 @@
         <v>43929</v>
       </c>
       <c r="B176" s="153" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C176" s="154" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D176" s="155" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E176" s="156"/>
       <c r="F176" s="171"/>
@@ -6442,18 +6426,18 @@
       </c>
       <c r="H176" s="173"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="153">
         <v>43941</v>
       </c>
       <c r="B177" s="153" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C177" s="154" t="s">
+        <v>75</v>
+      </c>
+      <c r="D177" s="155" t="s">
         <v>76</v>
-      </c>
-      <c r="D177" s="155" t="s">
-        <v>77</v>
       </c>
       <c r="E177" s="156"/>
       <c r="F177" s="171"/>
@@ -6462,18 +6446,18 @@
         <v>19043</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="153">
         <v>43942</v>
       </c>
       <c r="B178" s="153" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C178" s="154" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D178" s="155" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E178" s="156"/>
       <c r="F178" s="171"/>
@@ -6482,18 +6466,18 @@
         <v>1469000</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="153">
         <v>43945</v>
       </c>
       <c r="B179" s="153" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C179" s="154" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D179" s="155" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E179" s="156"/>
       <c r="F179" s="171"/>
@@ -6502,7 +6486,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="191"/>
       <c r="B180" s="191"/>
       <c r="C180" s="192"/>
@@ -6518,7 +6502,7 @@
         <v>1955707</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="180"/>
       <c r="B181" s="180"/>
       <c r="C181" s="181"/>
@@ -6528,64 +6512,64 @@
       <c r="G181" s="183"/>
       <c r="H181" s="185"/>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C182" s="349" t="s">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C182" s="354" t="s">
         <v>13</v>
       </c>
-      <c r="D182" s="349"/>
-    </row>
-    <row r="183" spans="1:10" s="168" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="340" t="s">
+      <c r="D182" s="354"/>
+    </row>
+    <row r="183" spans="1:8" s="168" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="345" t="s">
         <v>4</v>
       </c>
-      <c r="B183" s="345" t="s">
-        <v>220</v>
-      </c>
-      <c r="C183" s="340" t="s">
+      <c r="B183" s="350" t="s">
+        <v>218</v>
+      </c>
+      <c r="C183" s="345" t="s">
         <v>5</v>
       </c>
-      <c r="D183" s="342" t="s">
+      <c r="D183" s="347" t="s">
         <v>6</v>
       </c>
-      <c r="E183" s="344" t="s">
+      <c r="E183" s="349" t="s">
         <v>7</v>
       </c>
-      <c r="F183" s="344"/>
-      <c r="G183" s="344" t="s">
+      <c r="F183" s="349"/>
+      <c r="G183" s="349" t="s">
         <v>8</v>
       </c>
-      <c r="H183" s="344"/>
-    </row>
-    <row r="184" spans="1:10" s="168" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="341"/>
-      <c r="B184" s="346"/>
-      <c r="C184" s="341"/>
-      <c r="D184" s="343"/>
+      <c r="H183" s="349"/>
+    </row>
+    <row r="184" spans="1:8" s="168" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="346"/>
+      <c r="B184" s="351"/>
+      <c r="C184" s="346"/>
+      <c r="D184" s="348"/>
       <c r="E184" s="170" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F184" s="170" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G184" s="170" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H184" s="170" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="153">
         <v>43921</v>
       </c>
       <c r="B185" s="153" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C185" s="154" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D185" s="155" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E185" s="156"/>
       <c r="F185" s="171"/>
@@ -6594,18 +6578,18 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="186">
         <v>43941</v>
       </c>
       <c r="B186" s="153" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C186" s="187" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D186" s="198" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E186" s="188"/>
       <c r="F186" s="189"/>
@@ -6614,7 +6598,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="192"/>
       <c r="B187" s="192"/>
       <c r="C187" s="192"/>
@@ -6627,45 +6611,40 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="190" spans="1:10" s="82" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C190" s="130" t="s">
+    <row r="190" spans="1:8" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C190" s="336" t="s">
+        <v>204</v>
+      </c>
+      <c r="D190" s="84"/>
+      <c r="F190" s="336" t="s">
         <v>14</v>
       </c>
-      <c r="D190" s="84"/>
-      <c r="E190" s="130" t="s">
-        <v>15</v>
-      </c>
-      <c r="F190" s="84"/>
       <c r="G190" s="84"/>
       <c r="H190" s="84"/>
-      <c r="I190" s="84"/>
-      <c r="J190" s="84"/>
-    </row>
-    <row r="191" spans="1:10" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:8" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C191" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D191" s="5"/>
+      <c r="F191" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D191" s="5"/>
-      <c r="E191" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F191" s="5"/>
       <c r="G191" s="5"/>
       <c r="H191" s="5"/>
-      <c r="I191" s="5"/>
-      <c r="J191" s="5"/>
     </row>
     <row r="194" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C194" s="130" t="s">
-        <v>47</v>
-      </c>
+      <c r="C194" s="130"/>
       <c r="D194" s="130"/>
-      <c r="E194" s="219" t="s">
-        <v>48</v>
-      </c>
+      <c r="E194" s="219"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:H73">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Tiếp khách, Công tác"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="4" hiddenButton="1" showButton="0"/>
     <filterColumn colId="6" hiddenButton="1" showButton="0"/>
   </autoFilter>
@@ -6754,8 +6733,8 @@
   <dimension ref="A1:Q90"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I71" sqref="I71"/>
+      <pane ySplit="7" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M29" sqref="M29:M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -6779,13 +6758,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="238" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="378" t="s">
+      <c r="A1" s="383" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="378"/>
-      <c r="C1" s="378"/>
-      <c r="D1" s="378"/>
-      <c r="E1" s="378"/>
+      <c r="B1" s="383"/>
+      <c r="C1" s="383"/>
+      <c r="D1" s="383"/>
+      <c r="E1" s="383"/>
       <c r="H1" s="239"/>
       <c r="I1" s="239"/>
       <c r="J1" s="239"/>
@@ -6798,7 +6777,7 @@
     </row>
     <row r="2" spans="1:16" s="238" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="244" t="s">
-        <v>2</v>
+        <v>313</v>
       </c>
       <c r="B2" s="244"/>
       <c r="C2" s="244"/>
@@ -6815,136 +6794,136 @@
       <c r="P2" s="243"/>
     </row>
     <row r="3" spans="1:16" s="238" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="382" t="s">
+      <c r="A3" s="387" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="387"/>
+      <c r="C3" s="387"/>
+      <c r="D3" s="387"/>
+      <c r="E3" s="387"/>
+      <c r="F3" s="387"/>
+      <c r="G3" s="387"/>
+      <c r="H3" s="387"/>
+      <c r="I3" s="387"/>
+      <c r="J3" s="387"/>
+      <c r="K3" s="387"/>
+      <c r="L3" s="387"/>
+      <c r="M3" s="387"/>
+      <c r="N3" s="387"/>
+      <c r="O3" s="387"/>
+      <c r="P3" s="387"/>
+    </row>
+    <row r="4" spans="1:16" s="238" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="387" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4" s="387"/>
+      <c r="C4" s="387"/>
+      <c r="D4" s="387"/>
+      <c r="E4" s="387"/>
+      <c r="F4" s="387"/>
+      <c r="G4" s="387"/>
+      <c r="H4" s="387"/>
+      <c r="I4" s="387"/>
+      <c r="J4" s="387"/>
+      <c r="K4" s="387"/>
+      <c r="L4" s="387"/>
+      <c r="M4" s="387"/>
+      <c r="N4" s="387"/>
+      <c r="O4" s="387"/>
+      <c r="P4" s="387"/>
+    </row>
+    <row r="5" spans="1:16" s="238" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="376" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" s="379" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="376" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="381" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="382"/>
-      <c r="C3" s="382"/>
-      <c r="D3" s="382"/>
-      <c r="E3" s="382"/>
-      <c r="F3" s="382"/>
-      <c r="G3" s="382"/>
-      <c r="H3" s="382"/>
-      <c r="I3" s="382"/>
-      <c r="J3" s="382"/>
-      <c r="K3" s="382"/>
-      <c r="L3" s="382"/>
-      <c r="M3" s="382"/>
-      <c r="N3" s="382"/>
-      <c r="O3" s="382"/>
-      <c r="P3" s="382"/>
-    </row>
-    <row r="4" spans="1:16" s="238" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="382" t="s">
-        <v>108</v>
-      </c>
-      <c r="B4" s="382"/>
-      <c r="C4" s="382"/>
-      <c r="D4" s="382"/>
-      <c r="E4" s="382"/>
-      <c r="F4" s="382"/>
-      <c r="G4" s="382"/>
-      <c r="H4" s="382"/>
-      <c r="I4" s="382"/>
-      <c r="J4" s="382"/>
-      <c r="K4" s="382"/>
-      <c r="L4" s="382"/>
-      <c r="M4" s="382"/>
-      <c r="N4" s="382"/>
-      <c r="O4" s="382"/>
-      <c r="P4" s="382"/>
-    </row>
-    <row r="5" spans="1:16" s="238" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="371" t="s">
-        <v>161</v>
-      </c>
-      <c r="B5" s="374" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="371" t="s">
+      <c r="E5" s="381"/>
+      <c r="F5" s="382" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="376" t="s">
+      <c r="G5" s="382"/>
+      <c r="H5" s="382"/>
+      <c r="I5" s="382"/>
+      <c r="J5" s="382"/>
+      <c r="K5" s="382"/>
+      <c r="L5" s="382"/>
+      <c r="M5" s="378"/>
+      <c r="N5" s="378"/>
+      <c r="O5" s="378"/>
+      <c r="P5" s="357" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="238" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="377"/>
+      <c r="B6" s="380"/>
+      <c r="C6" s="377"/>
+      <c r="D6" s="376" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="376"/>
-      <c r="F5" s="377" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="377"/>
-      <c r="H5" s="377"/>
-      <c r="I5" s="377"/>
-      <c r="J5" s="377"/>
-      <c r="K5" s="377"/>
-      <c r="L5" s="377"/>
-      <c r="M5" s="373"/>
-      <c r="N5" s="373"/>
-      <c r="O5" s="373"/>
-      <c r="P5" s="352" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" s="238" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="372"/>
-      <c r="B6" s="375"/>
-      <c r="C6" s="372"/>
-      <c r="D6" s="371" t="s">
+      <c r="E6" s="376" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="371" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="371" t="s">
+      <c r="F6" s="376" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="376" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="371" t="s">
+      <c r="H6" s="370" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="365" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="365" t="s">
+      <c r="I6" s="370" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" s="375" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="375"/>
+      <c r="L6" s="370" t="s">
         <v>54</v>
       </c>
-      <c r="J6" s="370" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" s="370"/>
-      <c r="L6" s="365" t="s">
+      <c r="M6" s="370" t="s">
+        <v>64</v>
+      </c>
+      <c r="N6" s="370" t="s">
+        <v>185</v>
+      </c>
+      <c r="O6" s="370" t="s">
+        <v>202</v>
+      </c>
+      <c r="P6" s="359"/>
+    </row>
+    <row r="7" spans="1:16" s="238" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="377"/>
+      <c r="B7" s="380"/>
+      <c r="C7" s="377"/>
+      <c r="D7" s="377"/>
+      <c r="E7" s="377"/>
+      <c r="F7" s="377"/>
+      <c r="G7" s="377"/>
+      <c r="H7" s="371"/>
+      <c r="I7" s="371"/>
+      <c r="J7" s="293" t="s">
+        <v>203</v>
+      </c>
+      <c r="K7" s="246" t="s">
         <v>55</v>
       </c>
-      <c r="M6" s="365" t="s">
-        <v>65</v>
-      </c>
-      <c r="N6" s="365" t="s">
-        <v>187</v>
-      </c>
-      <c r="O6" s="365" t="s">
-        <v>204</v>
-      </c>
-      <c r="P6" s="354"/>
-    </row>
-    <row r="7" spans="1:16" s="238" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="372"/>
-      <c r="B7" s="375"/>
-      <c r="C7" s="372"/>
-      <c r="D7" s="372"/>
-      <c r="E7" s="372"/>
-      <c r="F7" s="372"/>
-      <c r="G7" s="372"/>
-      <c r="H7" s="366"/>
-      <c r="I7" s="366"/>
-      <c r="J7" s="293" t="s">
-        <v>205</v>
-      </c>
-      <c r="K7" s="246" t="s">
-        <v>56</v>
-      </c>
-      <c r="L7" s="366"/>
-      <c r="M7" s="366"/>
-      <c r="N7" s="366"/>
-      <c r="O7" s="366"/>
-      <c r="P7" s="354"/>
+      <c r="L7" s="371"/>
+      <c r="M7" s="371"/>
+      <c r="N7" s="371"/>
+      <c r="O7" s="371"/>
+      <c r="P7" s="359"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="295">
@@ -6954,16 +6933,16 @@
         <v>43920</v>
       </c>
       <c r="C8" s="295" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="295" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="295" t="s">
         <v>89</v>
       </c>
-      <c r="E8" s="295" t="s">
-        <v>90</v>
-      </c>
       <c r="F8" s="297" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8" s="297">
         <v>12</v>
@@ -6998,16 +6977,16 @@
         <v>43920</v>
       </c>
       <c r="C9" s="295" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D9" s="295" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E9" s="295" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F9" s="297" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9" s="297">
         <v>3</v>
@@ -7027,11 +7006,11 @@
         <f>I9*(1-K9)</f>
         <v>805350.00000000012</v>
       </c>
-      <c r="M9" s="298"/>
-      <c r="N9" s="298">
+      <c r="M9" s="298">
         <f>L9</f>
         <v>805350.00000000012</v>
       </c>
+      <c r="N9" s="298"/>
       <c r="O9" s="298"/>
       <c r="P9" s="297"/>
     </row>
@@ -7043,16 +7022,16 @@
         <v>43920</v>
       </c>
       <c r="C10" s="295" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" s="295" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="295" t="s">
         <v>87</v>
       </c>
-      <c r="E10" s="295" t="s">
-        <v>88</v>
-      </c>
       <c r="F10" s="297" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" s="297">
         <v>2</v>
@@ -7075,7 +7054,7 @@
       <c r="N10" s="298"/>
       <c r="O10" s="298"/>
       <c r="P10" s="297" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -7086,16 +7065,16 @@
         <v>43921</v>
       </c>
       <c r="C11" s="295" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="295" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="295" t="s">
         <v>91</v>
       </c>
-      <c r="E11" s="295" t="s">
-        <v>92</v>
-      </c>
       <c r="F11" s="297" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G11" s="297">
         <v>2</v>
@@ -7124,21 +7103,21 @@
       <c r="P11" s="297"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="352">
+      <c r="A12" s="357">
         <v>320</v>
       </c>
-      <c r="B12" s="379">
+      <c r="B12" s="384">
         <v>43921</v>
       </c>
-      <c r="C12" s="352"/>
-      <c r="D12" s="352" t="s">
-        <v>107</v>
-      </c>
-      <c r="E12" s="352" t="s">
-        <v>101</v>
+      <c r="C12" s="357"/>
+      <c r="D12" s="357" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="357" t="s">
+        <v>100</v>
       </c>
       <c r="F12" s="303" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G12" s="303">
         <v>24</v>
@@ -7169,13 +7148,13 @@
       <c r="P12" s="307"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="353"/>
-      <c r="B13" s="381"/>
-      <c r="C13" s="353"/>
-      <c r="D13" s="353"/>
-      <c r="E13" s="353"/>
+      <c r="A13" s="358"/>
+      <c r="B13" s="386"/>
+      <c r="C13" s="358"/>
+      <c r="D13" s="358"/>
+      <c r="E13" s="358"/>
       <c r="F13" s="308" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G13" s="308">
         <v>12</v>
@@ -7211,16 +7190,16 @@
         <v>43922</v>
       </c>
       <c r="C14" s="295" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="295" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14" s="295" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F14" s="297" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G14" s="297">
         <v>1</v>
@@ -7240,11 +7219,11 @@
         <f t="shared" si="1"/>
         <v>268450.00000000006</v>
       </c>
-      <c r="M14" s="302"/>
-      <c r="N14" s="302">
+      <c r="M14" s="302">
         <f>L14</f>
         <v>268450.00000000006</v>
       </c>
+      <c r="N14" s="302"/>
       <c r="O14" s="302"/>
       <c r="P14" s="297"/>
     </row>
@@ -7256,16 +7235,16 @@
         <v>43925</v>
       </c>
       <c r="C15" s="295" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D15" s="295" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E15" s="295" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F15" s="297" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G15" s="297">
         <v>1</v>
@@ -7291,7 +7270,7 @@
       <c r="N15" s="302"/>
       <c r="O15" s="302"/>
       <c r="P15" s="312" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -7302,16 +7281,16 @@
         <v>43929</v>
       </c>
       <c r="C16" s="295" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="295" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="295" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="295" t="s">
-        <v>93</v>
-      </c>
-      <c r="E16" s="295" t="s">
-        <v>94</v>
-      </c>
       <c r="F16" s="297" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G16" s="297">
         <v>5</v>
@@ -7347,16 +7326,16 @@
         <v>43930</v>
       </c>
       <c r="C17" s="295" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D17" s="295" t="s">
+        <v>169</v>
+      </c>
+      <c r="E17" s="295" t="s">
         <v>171</v>
       </c>
-      <c r="E17" s="295" t="s">
-        <v>173</v>
-      </c>
       <c r="F17" s="297" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G17" s="297">
         <v>1</v>
@@ -7392,16 +7371,16 @@
         <v>43931</v>
       </c>
       <c r="C18" s="295" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D18" s="295" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="295" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="295" t="s">
-        <v>85</v>
-      </c>
       <c r="F18" s="297" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G18" s="297">
         <v>1</v>
@@ -7421,11 +7400,11 @@
         <f t="shared" si="1"/>
         <v>268450.00000000006</v>
       </c>
-      <c r="M18" s="298"/>
-      <c r="N18" s="298">
+      <c r="M18" s="298">
         <f>L18</f>
         <v>268450.00000000006</v>
       </c>
+      <c r="N18" s="298"/>
       <c r="O18" s="298"/>
       <c r="P18" s="297"/>
     </row>
@@ -7437,16 +7416,16 @@
         <v>43932</v>
       </c>
       <c r="C19" s="295" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D19" s="295" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E19" s="295" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F19" s="297" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G19" s="297">
         <v>1</v>
@@ -7466,11 +7445,11 @@
         <f t="shared" si="1"/>
         <v>324500.00000000006</v>
       </c>
-      <c r="M19" s="298"/>
-      <c r="N19" s="298">
+      <c r="M19" s="298">
         <f>L19</f>
         <v>324500.00000000006</v>
       </c>
+      <c r="N19" s="298"/>
       <c r="O19" s="298"/>
       <c r="P19" s="297"/>
     </row>
@@ -7482,16 +7461,16 @@
         <v>43933</v>
       </c>
       <c r="C20" s="295" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D20" s="295" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E20" s="295" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F20" s="297" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G20" s="297">
         <v>36</v>
@@ -7520,21 +7499,21 @@
       <c r="P20" s="297"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="355">
+      <c r="A21" s="360">
         <v>327</v>
       </c>
-      <c r="B21" s="359">
+      <c r="B21" s="364">
         <v>43935</v>
       </c>
-      <c r="C21" s="356"/>
-      <c r="D21" s="362" t="s">
-        <v>95</v>
-      </c>
-      <c r="E21" s="356" t="s">
-        <v>90</v>
+      <c r="C21" s="361"/>
+      <c r="D21" s="367" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="361" t="s">
+        <v>89</v>
       </c>
       <c r="F21" s="313" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G21" s="313">
         <v>36</v>
@@ -7563,13 +7542,13 @@
       <c r="P21" s="313"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="355"/>
-      <c r="B22" s="360"/>
-      <c r="C22" s="357"/>
-      <c r="D22" s="363"/>
-      <c r="E22" s="357"/>
+      <c r="A22" s="360"/>
+      <c r="B22" s="365"/>
+      <c r="C22" s="362"/>
+      <c r="D22" s="368"/>
+      <c r="E22" s="362"/>
       <c r="F22" s="316" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G22" s="316">
         <v>36</v>
@@ -7598,13 +7577,13 @@
       <c r="P22" s="316"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="355"/>
-      <c r="B23" s="360"/>
-      <c r="C23" s="357"/>
-      <c r="D23" s="363"/>
-      <c r="E23" s="357"/>
+      <c r="A23" s="360"/>
+      <c r="B23" s="365"/>
+      <c r="C23" s="362"/>
+      <c r="D23" s="368"/>
+      <c r="E23" s="362"/>
       <c r="F23" s="316" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G23" s="316">
         <v>36</v>
@@ -7633,13 +7612,13 @@
       <c r="P23" s="316"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="355"/>
-      <c r="B24" s="360"/>
-      <c r="C24" s="357"/>
-      <c r="D24" s="363"/>
-      <c r="E24" s="357"/>
+      <c r="A24" s="360"/>
+      <c r="B24" s="365"/>
+      <c r="C24" s="362"/>
+      <c r="D24" s="368"/>
+      <c r="E24" s="362"/>
       <c r="F24" s="316" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G24" s="316">
         <v>36</v>
@@ -7668,13 +7647,13 @@
       <c r="P24" s="316"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="355"/>
-      <c r="B25" s="360"/>
-      <c r="C25" s="357"/>
-      <c r="D25" s="363"/>
-      <c r="E25" s="357"/>
+      <c r="A25" s="360"/>
+      <c r="B25" s="365"/>
+      <c r="C25" s="362"/>
+      <c r="D25" s="368"/>
+      <c r="E25" s="362"/>
       <c r="F25" s="316" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G25" s="316">
         <v>72</v>
@@ -7703,13 +7682,13 @@
       <c r="P25" s="316"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="355"/>
-      <c r="B26" s="360"/>
-      <c r="C26" s="357"/>
-      <c r="D26" s="363"/>
-      <c r="E26" s="357"/>
+      <c r="A26" s="360"/>
+      <c r="B26" s="365"/>
+      <c r="C26" s="362"/>
+      <c r="D26" s="368"/>
+      <c r="E26" s="362"/>
       <c r="F26" s="316" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G26" s="316">
         <v>36</v>
@@ -7738,13 +7717,13 @@
       <c r="P26" s="316"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="355"/>
-      <c r="B27" s="361"/>
-      <c r="C27" s="358"/>
-      <c r="D27" s="364"/>
-      <c r="E27" s="358"/>
+      <c r="A27" s="360"/>
+      <c r="B27" s="366"/>
+      <c r="C27" s="363"/>
+      <c r="D27" s="369"/>
+      <c r="E27" s="363"/>
       <c r="F27" s="319" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G27" s="319">
         <v>36</v>
@@ -7780,16 +7759,16 @@
         <v>43935</v>
       </c>
       <c r="C28" s="295" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D28" s="295" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E28" s="295" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F28" s="297" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G28" s="297">
         <v>1</v>
@@ -7809,8 +7788,7 @@
         <f t="shared" si="1"/>
         <v>324500.00000000006</v>
       </c>
-      <c r="M28" s="298"/>
-      <c r="N28" s="298">
+      <c r="M28" s="298">
         <f>L28</f>
         <v>324500.00000000006</v>
       </c>
@@ -7818,23 +7796,23 @@
       <c r="P28" s="297"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="355">
+      <c r="A29" s="360">
         <v>328</v>
       </c>
-      <c r="B29" s="379">
+      <c r="B29" s="384">
         <v>43936</v>
       </c>
-      <c r="C29" s="352" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="352" t="s">
+      <c r="C29" s="357" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="357" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="357" t="s">
         <v>97</v>
       </c>
-      <c r="E29" s="352" t="s">
-        <v>98</v>
-      </c>
       <c r="F29" s="303" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G29" s="303">
         <v>2</v>
@@ -7854,22 +7832,22 @@
         <f t="shared" si="1"/>
         <v>536900.00000000012</v>
       </c>
-      <c r="M29" s="304"/>
-      <c r="N29" s="304">
+      <c r="M29" s="304">
         <f>L29</f>
         <v>536900.00000000012</v>
       </c>
+      <c r="N29" s="304"/>
       <c r="O29" s="304"/>
       <c r="P29" s="303"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="355"/>
-      <c r="B30" s="380"/>
-      <c r="C30" s="354"/>
-      <c r="D30" s="354"/>
-      <c r="E30" s="354"/>
+      <c r="A30" s="360"/>
+      <c r="B30" s="385"/>
+      <c r="C30" s="359"/>
+      <c r="D30" s="359"/>
+      <c r="E30" s="359"/>
       <c r="F30" s="323" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G30" s="323">
         <v>2</v>
@@ -7889,22 +7867,22 @@
         <f t="shared" si="1"/>
         <v>548700.00000000012</v>
       </c>
-      <c r="M30" s="324"/>
-      <c r="N30" s="324">
+      <c r="M30" s="324">
         <f>L30</f>
         <v>548700.00000000012</v>
       </c>
+      <c r="N30" s="324"/>
       <c r="O30" s="324"/>
       <c r="P30" s="323"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="355"/>
-      <c r="B31" s="380"/>
-      <c r="C31" s="354"/>
-      <c r="D31" s="354"/>
-      <c r="E31" s="354"/>
+      <c r="A31" s="360"/>
+      <c r="B31" s="385"/>
+      <c r="C31" s="359"/>
+      <c r="D31" s="359"/>
+      <c r="E31" s="359"/>
       <c r="F31" s="323" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G31" s="323">
         <v>1</v>
@@ -7924,22 +7902,22 @@
         <f t="shared" si="1"/>
         <v>280250.00000000006</v>
       </c>
-      <c r="M31" s="324"/>
-      <c r="N31" s="324">
+      <c r="M31" s="324">
         <f>L31</f>
         <v>280250.00000000006</v>
       </c>
+      <c r="N31" s="324"/>
       <c r="O31" s="324"/>
       <c r="P31" s="323"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="355"/>
-      <c r="B32" s="381"/>
-      <c r="C32" s="353"/>
-      <c r="D32" s="353"/>
-      <c r="E32" s="353"/>
+      <c r="A32" s="360"/>
+      <c r="B32" s="386"/>
+      <c r="C32" s="358"/>
+      <c r="D32" s="358"/>
+      <c r="E32" s="358"/>
       <c r="F32" s="308" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G32" s="308">
         <v>1</v>
@@ -7959,11 +7937,11 @@
         <f t="shared" si="1"/>
         <v>268450.00000000006</v>
       </c>
-      <c r="M32" s="309"/>
-      <c r="N32" s="309">
+      <c r="M32" s="309">
         <f>L32</f>
         <v>268450.00000000006</v>
       </c>
+      <c r="N32" s="309"/>
       <c r="O32" s="309"/>
       <c r="P32" s="308"/>
     </row>
@@ -7976,13 +7954,13 @@
       </c>
       <c r="C33" s="295"/>
       <c r="D33" s="295" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="295" t="s">
         <v>99</v>
       </c>
-      <c r="E33" s="295" t="s">
-        <v>100</v>
-      </c>
       <c r="F33" s="297" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G33" s="297">
         <v>24</v>
@@ -8019,13 +7997,13 @@
       </c>
       <c r="C34" s="295"/>
       <c r="D34" s="295" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E34" s="295" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F34" s="297" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G34" s="297">
         <v>12</v>
@@ -8061,16 +8039,16 @@
         <v>43938</v>
       </c>
       <c r="C35" s="295" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D35" s="295" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E35" s="295" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F35" s="297" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G35" s="297">
         <v>1</v>
@@ -8090,8 +8068,7 @@
         <f t="shared" si="1"/>
         <v>274350.00000000006</v>
       </c>
-      <c r="M35" s="298"/>
-      <c r="N35" s="298">
+      <c r="M35" s="298">
         <f>L35</f>
         <v>274350.00000000006</v>
       </c>
@@ -8107,13 +8084,13 @@
       </c>
       <c r="C36" s="295"/>
       <c r="D36" s="295" t="s">
+        <v>104</v>
+      </c>
+      <c r="E36" s="295" t="s">
         <v>105</v>
       </c>
-      <c r="E36" s="295" t="s">
-        <v>106</v>
-      </c>
       <c r="F36" s="297" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G36" s="297">
         <v>24</v>
@@ -8142,23 +8119,23 @@
       <c r="P36" s="297"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="352">
+      <c r="A37" s="357">
         <v>346</v>
       </c>
-      <c r="B37" s="359">
+      <c r="B37" s="364">
         <v>43941</v>
       </c>
-      <c r="C37" s="356" t="s">
-        <v>93</v>
-      </c>
-      <c r="D37" s="356" t="s">
-        <v>119</v>
-      </c>
-      <c r="E37" s="356" t="s">
-        <v>120</v>
+      <c r="C37" s="361" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" s="361" t="s">
+        <v>117</v>
+      </c>
+      <c r="E37" s="361" t="s">
+        <v>118</v>
       </c>
       <c r="F37" s="303" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G37" s="303">
         <v>9</v>
@@ -8187,13 +8164,13 @@
       <c r="P37" s="303"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="354"/>
-      <c r="B38" s="360"/>
-      <c r="C38" s="357"/>
-      <c r="D38" s="357"/>
-      <c r="E38" s="357"/>
+      <c r="A38" s="359"/>
+      <c r="B38" s="365"/>
+      <c r="C38" s="362"/>
+      <c r="D38" s="362"/>
+      <c r="E38" s="362"/>
       <c r="F38" s="323" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G38" s="323">
         <v>1</v>
@@ -8222,13 +8199,13 @@
       <c r="P38" s="323"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="354"/>
-      <c r="B39" s="360"/>
-      <c r="C39" s="357"/>
-      <c r="D39" s="357"/>
-      <c r="E39" s="357"/>
+      <c r="A39" s="359"/>
+      <c r="B39" s="365"/>
+      <c r="C39" s="362"/>
+      <c r="D39" s="362"/>
+      <c r="E39" s="362"/>
       <c r="F39" s="323" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G39" s="323">
         <v>2</v>
@@ -8257,13 +8234,13 @@
       <c r="P39" s="323"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="353"/>
-      <c r="B40" s="361"/>
-      <c r="C40" s="358"/>
-      <c r="D40" s="358"/>
-      <c r="E40" s="358"/>
+      <c r="A40" s="358"/>
+      <c r="B40" s="366"/>
+      <c r="C40" s="363"/>
+      <c r="D40" s="363"/>
+      <c r="E40" s="363"/>
       <c r="F40" s="308" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G40" s="308">
         <v>2</v>
@@ -8292,21 +8269,21 @@
       <c r="P40" s="308"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="355">
+      <c r="A41" s="360">
         <v>345</v>
       </c>
-      <c r="B41" s="379">
+      <c r="B41" s="384">
         <v>43941</v>
       </c>
-      <c r="C41" s="352"/>
-      <c r="D41" s="352" t="s">
-        <v>107</v>
-      </c>
-      <c r="E41" s="352" t="s">
-        <v>101</v>
+      <c r="C41" s="357"/>
+      <c r="D41" s="357" t="s">
+        <v>106</v>
+      </c>
+      <c r="E41" s="357" t="s">
+        <v>100</v>
       </c>
       <c r="F41" s="303" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G41" s="303">
         <v>24</v>
@@ -8330,20 +8307,20 @@
       </c>
       <c r="M41" s="304"/>
       <c r="N41" s="304">
-        <f t="shared" ref="N41:N46" si="5">L41</f>
+        <f t="shared" ref="N41:N44" si="5">L41</f>
         <v>6192800.0000000009</v>
       </c>
       <c r="O41" s="304"/>
-      <c r="P41" s="367"/>
+      <c r="P41" s="372"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="355"/>
-      <c r="B42" s="380"/>
-      <c r="C42" s="354"/>
-      <c r="D42" s="354"/>
-      <c r="E42" s="354"/>
+      <c r="A42" s="360"/>
+      <c r="B42" s="385"/>
+      <c r="C42" s="359"/>
+      <c r="D42" s="359"/>
+      <c r="E42" s="359"/>
       <c r="F42" s="323" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G42" s="323">
         <v>12</v>
@@ -8369,16 +8346,16 @@
         <v>3292200.0000000005</v>
       </c>
       <c r="O42" s="324"/>
-      <c r="P42" s="369"/>
+      <c r="P42" s="374"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="355"/>
-      <c r="B43" s="380"/>
-      <c r="C43" s="354"/>
-      <c r="D43" s="354"/>
-      <c r="E43" s="354"/>
+      <c r="A43" s="360"/>
+      <c r="B43" s="385"/>
+      <c r="C43" s="359"/>
+      <c r="D43" s="359"/>
+      <c r="E43" s="359"/>
       <c r="F43" s="323" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G43" s="323">
         <v>12</v>
@@ -8404,16 +8381,16 @@
         <v>3363000.0000000005</v>
       </c>
       <c r="O43" s="324"/>
-      <c r="P43" s="369"/>
+      <c r="P43" s="374"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="355"/>
-      <c r="B44" s="381"/>
-      <c r="C44" s="353"/>
-      <c r="D44" s="353"/>
-      <c r="E44" s="353"/>
+      <c r="A44" s="360"/>
+      <c r="B44" s="386"/>
+      <c r="C44" s="358"/>
+      <c r="D44" s="358"/>
+      <c r="E44" s="358"/>
       <c r="F44" s="308" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G44" s="308">
         <v>12</v>
@@ -8439,26 +8416,26 @@
         <v>3433800.0000000005</v>
       </c>
       <c r="O44" s="309"/>
-      <c r="P44" s="368"/>
+      <c r="P44" s="373"/>
     </row>
     <row r="45" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="352">
+      <c r="A45" s="357">
         <v>342</v>
       </c>
-      <c r="B45" s="359">
+      <c r="B45" s="364">
         <v>43942</v>
       </c>
-      <c r="C45" s="356" t="s">
-        <v>42</v>
-      </c>
-      <c r="D45" s="356" t="s">
-        <v>42</v>
-      </c>
-      <c r="E45" s="356" t="s">
-        <v>76</v>
+      <c r="C45" s="361" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" s="361" t="s">
+        <v>41</v>
+      </c>
+      <c r="E45" s="361" t="s">
+        <v>75</v>
       </c>
       <c r="F45" s="303" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G45" s="303">
         <v>1</v>
@@ -8478,22 +8455,22 @@
         <f t="shared" si="1"/>
         <v>268450.00000000006</v>
       </c>
-      <c r="M45" s="304"/>
-      <c r="N45" s="304">
-        <f t="shared" si="5"/>
+      <c r="M45" s="304">
+        <f>L45</f>
         <v>268450.00000000006</v>
       </c>
+      <c r="N45" s="304"/>
       <c r="O45" s="304"/>
-      <c r="P45" s="367"/>
+      <c r="P45" s="372"/>
     </row>
     <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="353"/>
-      <c r="B46" s="361"/>
-      <c r="C46" s="358"/>
-      <c r="D46" s="358"/>
-      <c r="E46" s="358"/>
+      <c r="A46" s="358"/>
+      <c r="B46" s="366"/>
+      <c r="C46" s="363"/>
+      <c r="D46" s="363"/>
+      <c r="E46" s="363"/>
       <c r="F46" s="308" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G46" s="308">
         <v>2</v>
@@ -8513,13 +8490,13 @@
         <f t="shared" si="1"/>
         <v>548700.00000000012</v>
       </c>
-      <c r="M46" s="309"/>
-      <c r="N46" s="309">
-        <f t="shared" si="5"/>
+      <c r="M46" s="309">
+        <f>L46</f>
         <v>548700.00000000012</v>
       </c>
+      <c r="N46" s="309"/>
       <c r="O46" s="309"/>
-      <c r="P46" s="368"/>
+      <c r="P46" s="373"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="295">
@@ -8530,13 +8507,13 @@
       </c>
       <c r="C47" s="295"/>
       <c r="D47" s="295" t="s">
+        <v>104</v>
+      </c>
+      <c r="E47" s="295" t="s">
         <v>105</v>
       </c>
-      <c r="E47" s="295" t="s">
-        <v>106</v>
-      </c>
       <c r="F47" s="297" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G47" s="297">
         <v>24</v>
@@ -8563,7 +8540,7 @@
         <v>6770400</v>
       </c>
       <c r="P47" s="312" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
@@ -8574,16 +8551,16 @@
         <v>43942</v>
       </c>
       <c r="C48" s="295" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48" s="295" t="s">
+        <v>41</v>
+      </c>
+      <c r="E48" s="295" t="s">
+        <v>107</v>
+      </c>
+      <c r="F48" s="297" t="s">
         <v>42</v>
-      </c>
-      <c r="D48" s="295" t="s">
-        <v>42</v>
-      </c>
-      <c r="E48" s="295" t="s">
-        <v>109</v>
-      </c>
-      <c r="F48" s="297" t="s">
-        <v>43</v>
       </c>
       <c r="G48" s="297">
         <v>1</v>
@@ -8610,25 +8587,25 @@
       <c r="N48" s="298"/>
       <c r="O48" s="298"/>
       <c r="P48" s="297" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="352">
+      <c r="A49" s="357">
         <v>452</v>
       </c>
-      <c r="B49" s="379">
+      <c r="B49" s="384">
         <v>43942</v>
       </c>
-      <c r="C49" s="352"/>
-      <c r="D49" s="352" t="s">
+      <c r="C49" s="357"/>
+      <c r="D49" s="357" t="s">
+        <v>98</v>
+      </c>
+      <c r="E49" s="357" t="s">
         <v>99</v>
       </c>
-      <c r="E49" s="352" t="s">
-        <v>100</v>
-      </c>
       <c r="F49" s="303" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G49" s="303">
         <v>24</v>
@@ -8654,18 +8631,18 @@
         <v>6442800.0000000009</v>
       </c>
       <c r="O49" s="304"/>
-      <c r="P49" s="383" t="s">
-        <v>210</v>
+      <c r="P49" s="388" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="354"/>
-      <c r="B50" s="380"/>
-      <c r="C50" s="354"/>
-      <c r="D50" s="354"/>
-      <c r="E50" s="354"/>
+      <c r="A50" s="359"/>
+      <c r="B50" s="385"/>
+      <c r="C50" s="359"/>
+      <c r="D50" s="359"/>
+      <c r="E50" s="359"/>
       <c r="F50" s="323" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G50" s="323">
         <v>12</v>
@@ -8691,16 +8668,16 @@
         <v>3221400.0000000005</v>
       </c>
       <c r="O50" s="324"/>
-      <c r="P50" s="384"/>
+      <c r="P50" s="389"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="353"/>
-      <c r="B51" s="381"/>
-      <c r="C51" s="353"/>
-      <c r="D51" s="353"/>
-      <c r="E51" s="353"/>
+      <c r="A51" s="358"/>
+      <c r="B51" s="386"/>
+      <c r="C51" s="358"/>
+      <c r="D51" s="358"/>
+      <c r="E51" s="358"/>
       <c r="F51" s="308" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G51" s="308">
         <v>12</v>
@@ -8729,7 +8706,7 @@
         <f>L49+L50+L51-N49-N50-N51</f>
         <v>2885600.0000000019</v>
       </c>
-      <c r="P51" s="385"/>
+      <c r="P51" s="390"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="295">
@@ -8739,16 +8716,16 @@
         <v>43943</v>
       </c>
       <c r="C52" s="295" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D52" s="295" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E52" s="295" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F52" s="297" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G52" s="297">
         <v>1</v>
@@ -8775,7 +8752,7 @@
       <c r="N52" s="298"/>
       <c r="O52" s="298"/>
       <c r="P52" s="312" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
@@ -8786,16 +8763,16 @@
         <v>43944</v>
       </c>
       <c r="C53" s="295" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D53" s="295" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E53" s="295" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F53" s="297" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G53" s="297">
         <v>5</v>
@@ -8815,11 +8792,11 @@
         <f t="shared" si="1"/>
         <v>1430750.0000000002</v>
       </c>
-      <c r="M53" s="298"/>
-      <c r="N53" s="298">
+      <c r="M53" s="298">
         <f>L53</f>
         <v>1430750.0000000002</v>
       </c>
+      <c r="N53" s="298"/>
       <c r="O53" s="298"/>
       <c r="P53" s="297"/>
     </row>
@@ -8831,16 +8808,16 @@
         <v>43944</v>
       </c>
       <c r="C54" s="295" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D54" s="295" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E54" s="295" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F54" s="297" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G54" s="297">
         <v>24</v>
@@ -8860,11 +8837,11 @@
         <f t="shared" si="1"/>
         <v>6442800.0000000009</v>
       </c>
-      <c r="M54" s="298"/>
-      <c r="N54" s="298">
+      <c r="M54" s="298">
         <f>L54</f>
         <v>6442800.0000000009</v>
       </c>
+      <c r="N54" s="298"/>
       <c r="O54" s="298"/>
       <c r="P54" s="297"/>
     </row>
@@ -8877,13 +8854,13 @@
       </c>
       <c r="C55" s="295"/>
       <c r="D55" s="295" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E55" s="295" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F55" s="297" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G55" s="297">
         <v>24</v>
@@ -8919,16 +8896,16 @@
         <v>43944</v>
       </c>
       <c r="C56" s="295" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D56" s="295" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E56" s="295" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F56" s="297" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G56" s="297">
         <v>1</v>
@@ -8948,11 +8925,11 @@
         <f t="shared" si="1"/>
         <v>268450.00000000006</v>
       </c>
-      <c r="M56" s="298"/>
-      <c r="N56" s="298">
+      <c r="M56" s="298">
         <f>L56</f>
         <v>268450.00000000006</v>
       </c>
+      <c r="N56" s="298"/>
       <c r="O56" s="298"/>
       <c r="P56" s="297"/>
     </row>
@@ -8964,16 +8941,16 @@
         <v>43944</v>
       </c>
       <c r="C57" s="295" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D57" s="295" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E57" s="295" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F57" s="297" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G57" s="297">
         <v>1</v>
@@ -8993,11 +8970,11 @@
         <f t="shared" si="1"/>
         <v>286150.00000000006</v>
       </c>
-      <c r="M57" s="298"/>
-      <c r="N57" s="298">
+      <c r="M57" s="298">
         <f>L57</f>
         <v>286150.00000000006</v>
       </c>
+      <c r="N57" s="298"/>
       <c r="O57" s="298"/>
       <c r="P57" s="297"/>
     </row>
@@ -9009,16 +8986,16 @@
         <v>43945</v>
       </c>
       <c r="C58" s="295" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D58" s="295" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E58" s="295" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F58" s="297" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G58" s="297">
         <v>1</v>
@@ -9038,32 +9015,32 @@
         <f t="shared" si="1"/>
         <v>286150.00000000006</v>
       </c>
-      <c r="M58" s="298"/>
-      <c r="N58" s="298">
+      <c r="M58" s="298">
         <f>L58</f>
         <v>286150.00000000006</v>
       </c>
+      <c r="N58" s="298"/>
       <c r="O58" s="298"/>
       <c r="P58" s="297"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="352">
+      <c r="A59" s="357">
         <v>456</v>
       </c>
-      <c r="B59" s="379">
+      <c r="B59" s="384">
         <v>43946</v>
       </c>
-      <c r="C59" s="352" t="s">
-        <v>93</v>
-      </c>
-      <c r="D59" s="352" t="s">
-        <v>122</v>
-      </c>
-      <c r="E59" s="352" t="s">
-        <v>123</v>
+      <c r="C59" s="357" t="s">
+        <v>92</v>
+      </c>
+      <c r="D59" s="357" t="s">
+        <v>120</v>
+      </c>
+      <c r="E59" s="357" t="s">
+        <v>121</v>
       </c>
       <c r="F59" s="303" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G59" s="303">
         <v>18</v>
@@ -9083,21 +9060,21 @@
         <f t="shared" si="1"/>
         <v>4832100.0000000009</v>
       </c>
-      <c r="M59" s="304">
+      <c r="M59" s="304"/>
+      <c r="N59" s="304">
         <f>L59</f>
         <v>4832100.0000000009</v>
       </c>
-      <c r="N59" s="304"/>
       <c r="P59" s="303"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="353"/>
-      <c r="B60" s="381"/>
-      <c r="C60" s="353"/>
-      <c r="D60" s="353"/>
-      <c r="E60" s="353"/>
+      <c r="A60" s="358"/>
+      <c r="B60" s="386"/>
+      <c r="C60" s="358"/>
+      <c r="D60" s="358"/>
+      <c r="E60" s="358"/>
       <c r="F60" s="308" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G60" s="308">
         <v>6</v>
@@ -9117,29 +9094,29 @@
         <f t="shared" si="1"/>
         <v>1681500.0000000002</v>
       </c>
-      <c r="M60" s="309">
+      <c r="M60" s="309"/>
+      <c r="N60" s="309">
         <f>L60</f>
         <v>1681500.0000000002</v>
       </c>
-      <c r="N60" s="309"/>
       <c r="P60" s="308"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="352">
+      <c r="A61" s="357">
         <v>455</v>
       </c>
-      <c r="B61" s="379">
+      <c r="B61" s="384">
         <v>43946</v>
       </c>
-      <c r="C61" s="352"/>
-      <c r="D61" s="352" t="s">
-        <v>125</v>
-      </c>
-      <c r="E61" s="352" t="s">
-        <v>126</v>
+      <c r="C61" s="357"/>
+      <c r="D61" s="357" t="s">
+        <v>123</v>
+      </c>
+      <c r="E61" s="357" t="s">
+        <v>124</v>
       </c>
       <c r="F61" s="303" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G61" s="303">
         <v>5</v>
@@ -9168,13 +9145,13 @@
       <c r="P61" s="303"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A62" s="354"/>
-      <c r="B62" s="380"/>
-      <c r="C62" s="354"/>
-      <c r="D62" s="354"/>
-      <c r="E62" s="354"/>
+      <c r="A62" s="359"/>
+      <c r="B62" s="385"/>
+      <c r="C62" s="359"/>
+      <c r="D62" s="359"/>
+      <c r="E62" s="359"/>
       <c r="F62" s="323" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G62" s="323">
         <v>5</v>
@@ -9203,13 +9180,13 @@
       <c r="P62" s="323"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A63" s="354"/>
-      <c r="B63" s="380"/>
-      <c r="C63" s="354"/>
-      <c r="D63" s="354"/>
-      <c r="E63" s="354"/>
+      <c r="A63" s="359"/>
+      <c r="B63" s="385"/>
+      <c r="C63" s="359"/>
+      <c r="D63" s="359"/>
+      <c r="E63" s="359"/>
       <c r="F63" s="323" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G63" s="323">
         <v>1</v>
@@ -9238,13 +9215,13 @@
       <c r="P63" s="323"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A64" s="354"/>
-      <c r="B64" s="380"/>
-      <c r="C64" s="354"/>
-      <c r="D64" s="354"/>
-      <c r="E64" s="354"/>
+      <c r="A64" s="359"/>
+      <c r="B64" s="385"/>
+      <c r="C64" s="359"/>
+      <c r="D64" s="359"/>
+      <c r="E64" s="359"/>
       <c r="F64" s="323" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G64" s="323">
         <v>5</v>
@@ -9273,13 +9250,13 @@
       <c r="P64" s="323"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A65" s="354"/>
-      <c r="B65" s="380"/>
-      <c r="C65" s="354"/>
-      <c r="D65" s="354"/>
-      <c r="E65" s="354"/>
+      <c r="A65" s="359"/>
+      <c r="B65" s="385"/>
+      <c r="C65" s="359"/>
+      <c r="D65" s="359"/>
+      <c r="E65" s="359"/>
       <c r="F65" s="323" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G65" s="323">
         <v>5</v>
@@ -9308,13 +9285,13 @@
       <c r="P65" s="323"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A66" s="354"/>
-      <c r="B66" s="380"/>
-      <c r="C66" s="354"/>
-      <c r="D66" s="354"/>
-      <c r="E66" s="354"/>
+      <c r="A66" s="359"/>
+      <c r="B66" s="385"/>
+      <c r="C66" s="359"/>
+      <c r="D66" s="359"/>
+      <c r="E66" s="359"/>
       <c r="F66" s="323" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G66" s="323">
         <v>2</v>
@@ -9343,13 +9320,13 @@
       <c r="P66" s="323"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A67" s="354"/>
-      <c r="B67" s="380"/>
-      <c r="C67" s="354"/>
-      <c r="D67" s="354"/>
-      <c r="E67" s="354"/>
+      <c r="A67" s="359"/>
+      <c r="B67" s="385"/>
+      <c r="C67" s="359"/>
+      <c r="D67" s="359"/>
+      <c r="E67" s="359"/>
       <c r="F67" s="323" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G67" s="323">
         <v>2</v>
@@ -9378,13 +9355,13 @@
       <c r="P67" s="323"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A68" s="354"/>
-      <c r="B68" s="380"/>
-      <c r="C68" s="354"/>
-      <c r="D68" s="354"/>
-      <c r="E68" s="354"/>
+      <c r="A68" s="359"/>
+      <c r="B68" s="385"/>
+      <c r="C68" s="359"/>
+      <c r="D68" s="359"/>
+      <c r="E68" s="359"/>
       <c r="F68" s="323" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G68" s="323">
         <v>5</v>
@@ -9413,13 +9390,13 @@
       <c r="P68" s="323"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A69" s="353"/>
-      <c r="B69" s="381"/>
-      <c r="C69" s="353"/>
-      <c r="D69" s="353"/>
-      <c r="E69" s="353"/>
+      <c r="A69" s="358"/>
+      <c r="B69" s="386"/>
+      <c r="C69" s="358"/>
+      <c r="D69" s="358"/>
+      <c r="E69" s="358"/>
       <c r="F69" s="308" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G69" s="308">
         <v>5</v>
@@ -9455,16 +9432,16 @@
         <v>43946</v>
       </c>
       <c r="C70" s="295" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D70" s="295" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E70" s="295" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F70" s="297" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G70" s="297">
         <v>6</v>
@@ -9493,23 +9470,23 @@
       <c r="P70" s="297"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A71" s="356">
+      <c r="A71" s="361">
         <v>457</v>
       </c>
-      <c r="B71" s="359">
+      <c r="B71" s="364">
         <v>43947</v>
       </c>
-      <c r="C71" s="356" t="s">
-        <v>93</v>
-      </c>
-      <c r="D71" s="356" t="s">
-        <v>160</v>
-      </c>
-      <c r="E71" s="356" t="s">
-        <v>123</v>
+      <c r="C71" s="361" t="s">
+        <v>92</v>
+      </c>
+      <c r="D71" s="361" t="s">
+        <v>158</v>
+      </c>
+      <c r="E71" s="361" t="s">
+        <v>121</v>
       </c>
       <c r="F71" s="303" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G71" s="303">
         <v>2</v>
@@ -9529,22 +9506,22 @@
         <f t="shared" si="1"/>
         <v>572300.00000000012</v>
       </c>
-      <c r="M71" s="304">
+      <c r="M71" s="304"/>
+      <c r="N71" s="304">
         <f>L71</f>
         <v>572300.00000000012</v>
       </c>
-      <c r="N71" s="304"/>
       <c r="O71" s="304"/>
       <c r="P71" s="303"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A72" s="357"/>
-      <c r="B72" s="360"/>
-      <c r="C72" s="357"/>
-      <c r="D72" s="357"/>
-      <c r="E72" s="357"/>
+      <c r="A72" s="362"/>
+      <c r="B72" s="365"/>
+      <c r="C72" s="362"/>
+      <c r="D72" s="362"/>
+      <c r="E72" s="362"/>
       <c r="F72" s="323" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G72" s="323">
         <v>2</v>
@@ -9564,22 +9541,22 @@
         <f t="shared" si="1"/>
         <v>649000.00000000012</v>
       </c>
-      <c r="M72" s="324">
+      <c r="M72" s="324"/>
+      <c r="N72" s="324">
         <f>L72</f>
         <v>649000.00000000012</v>
       </c>
-      <c r="N72" s="324"/>
       <c r="O72" s="324"/>
       <c r="P72" s="323"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A73" s="358"/>
-      <c r="B73" s="361"/>
-      <c r="C73" s="358"/>
-      <c r="D73" s="358"/>
-      <c r="E73" s="358"/>
+      <c r="A73" s="363"/>
+      <c r="B73" s="366"/>
+      <c r="C73" s="363"/>
+      <c r="D73" s="363"/>
+      <c r="E73" s="363"/>
       <c r="F73" s="308" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G73" s="308">
         <v>2</v>
@@ -9599,11 +9576,11 @@
         <f t="shared" si="1"/>
         <v>536900.00000000012</v>
       </c>
-      <c r="M73" s="309">
+      <c r="M73" s="309"/>
+      <c r="N73" s="309">
         <f>L73</f>
         <v>536900.00000000012</v>
       </c>
-      <c r="N73" s="309"/>
       <c r="O73" s="309"/>
       <c r="P73" s="308"/>
     </row>
@@ -9615,16 +9592,16 @@
         <v>43947</v>
       </c>
       <c r="C74" s="295" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="295" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E74" s="295" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F74" s="297" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G74" s="297">
         <v>1</v>
@@ -9651,7 +9628,7 @@
       <c r="N74" s="298"/>
       <c r="O74" s="298"/>
       <c r="P74" s="312" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.2">
@@ -9663,13 +9640,13 @@
       </c>
       <c r="C75" s="295"/>
       <c r="D75" s="295" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E75" s="295" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F75" s="297" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G75" s="297">
         <v>36</v>
@@ -9698,23 +9675,23 @@
       <c r="P75" s="297"/>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A76" s="352">
+      <c r="A76" s="357">
         <v>1144</v>
       </c>
-      <c r="B76" s="379">
+      <c r="B76" s="384">
         <v>43949</v>
       </c>
-      <c r="C76" s="352" t="s">
-        <v>93</v>
-      </c>
-      <c r="D76" s="352" t="s">
-        <v>174</v>
-      </c>
-      <c r="E76" s="352" t="s">
-        <v>167</v>
+      <c r="C76" s="357" t="s">
+        <v>92</v>
+      </c>
+      <c r="D76" s="357" t="s">
+        <v>172</v>
+      </c>
+      <c r="E76" s="357" t="s">
+        <v>165</v>
       </c>
       <c r="F76" s="303" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G76" s="303">
         <v>1</v>
@@ -9742,13 +9719,13 @@
       <c r="P76" s="303"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A77" s="353"/>
-      <c r="B77" s="381"/>
-      <c r="C77" s="353"/>
-      <c r="D77" s="353"/>
-      <c r="E77" s="353"/>
+      <c r="A77" s="358"/>
+      <c r="B77" s="386"/>
+      <c r="C77" s="358"/>
+      <c r="D77" s="358"/>
+      <c r="E77" s="358"/>
       <c r="F77" s="308" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G77" s="308">
         <v>1</v>
@@ -9776,14 +9753,14 @@
       <c r="P77" s="308"/>
     </row>
     <row r="78" spans="1:17" s="251" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="387" t="s">
-        <v>175</v>
-      </c>
-      <c r="B78" s="387"/>
-      <c r="C78" s="387"/>
-      <c r="D78" s="387"/>
-      <c r="E78" s="387"/>
-      <c r="F78" s="387"/>
+      <c r="A78" s="392" t="s">
+        <v>173</v>
+      </c>
+      <c r="B78" s="392"/>
+      <c r="C78" s="392"/>
+      <c r="D78" s="392"/>
+      <c r="E78" s="392"/>
+      <c r="F78" s="392"/>
       <c r="G78" s="247">
         <f>SUM(G8:G77)</f>
         <v>774</v>
@@ -9803,17 +9780,17 @@
       <c r="N78" s="248"/>
       <c r="O78" s="248"/>
       <c r="P78" s="248"/>
-      <c r="Q78" s="388"/>
+      <c r="Q78" s="393"/>
     </row>
     <row r="79" spans="1:17" s="251" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="386" t="s">
-        <v>176</v>
-      </c>
-      <c r="B79" s="386"/>
-      <c r="C79" s="386"/>
-      <c r="D79" s="386"/>
-      <c r="E79" s="386"/>
-      <c r="F79" s="386"/>
+      <c r="A79" s="391" t="s">
+        <v>174</v>
+      </c>
+      <c r="B79" s="391"/>
+      <c r="C79" s="391"/>
+      <c r="D79" s="391"/>
+      <c r="E79" s="391"/>
+      <c r="F79" s="391"/>
       <c r="G79" s="247">
         <f>G78</f>
         <v>774</v>
@@ -9830,19 +9807,19 @@
       <c r="N79" s="252"/>
       <c r="O79" s="252"/>
       <c r="P79" s="252"/>
-      <c r="Q79" s="388"/>
+      <c r="Q79" s="393"/>
     </row>
     <row r="80" spans="1:17" s="251" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="386" t="s">
-        <v>177</v>
-      </c>
-      <c r="B80" s="386"/>
-      <c r="C80" s="386"/>
-      <c r="D80" s="386"/>
-      <c r="E80" s="386"/>
-      <c r="F80" s="386"/>
+      <c r="A80" s="391" t="s">
+        <v>175</v>
+      </c>
+      <c r="B80" s="391"/>
+      <c r="C80" s="391"/>
+      <c r="D80" s="391"/>
+      <c r="E80" s="391"/>
+      <c r="F80" s="391"/>
       <c r="G80" s="253" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H80" s="253"/>
       <c r="I80" s="253"/>
@@ -9850,7 +9827,7 @@
       <c r="K80" s="253"/>
       <c r="L80" s="250">
         <f>SUM(M8:M77)</f>
-        <v>15171850.000000002</v>
+        <v>20331400.000000004</v>
       </c>
       <c r="M80" s="252"/>
       <c r="N80" s="252"/>
@@ -9858,14 +9835,14 @@
       <c r="P80" s="254"/>
     </row>
     <row r="81" spans="1:16" s="251" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="386" t="s">
-        <v>178</v>
-      </c>
-      <c r="B81" s="386"/>
-      <c r="C81" s="386"/>
-      <c r="D81" s="386"/>
-      <c r="E81" s="386"/>
-      <c r="F81" s="386"/>
+      <c r="A81" s="391" t="s">
+        <v>176</v>
+      </c>
+      <c r="B81" s="391"/>
+      <c r="C81" s="391"/>
+      <c r="D81" s="391"/>
+      <c r="E81" s="391"/>
+      <c r="F81" s="391"/>
       <c r="G81" s="252"/>
       <c r="H81" s="252"/>
       <c r="I81" s="248"/>
@@ -9873,7 +9850,7 @@
       <c r="K81" s="249"/>
       <c r="L81" s="250">
         <f>SUM(N8:N77)</f>
-        <v>65407650.000000007</v>
+        <v>60248100.000000007</v>
       </c>
       <c r="M81" s="252"/>
       <c r="N81" s="252"/>
@@ -9881,14 +9858,14 @@
       <c r="P81" s="254"/>
     </row>
     <row r="82" spans="1:16" s="251" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="389" t="s">
-        <v>202</v>
-      </c>
-      <c r="B82" s="390"/>
-      <c r="C82" s="390"/>
-      <c r="D82" s="390"/>
-      <c r="E82" s="390"/>
-      <c r="F82" s="391"/>
+      <c r="A82" s="394" t="s">
+        <v>200</v>
+      </c>
+      <c r="B82" s="395"/>
+      <c r="C82" s="395"/>
+      <c r="D82" s="395"/>
+      <c r="E82" s="395"/>
+      <c r="F82" s="396"/>
       <c r="G82" s="252"/>
       <c r="H82" s="252"/>
       <c r="I82" s="248"/>
@@ -9904,14 +9881,14 @@
       <c r="P82" s="254"/>
     </row>
     <row r="83" spans="1:16" s="251" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="386" t="s">
-        <v>179</v>
-      </c>
-      <c r="B83" s="386"/>
-      <c r="C83" s="386"/>
-      <c r="D83" s="386"/>
-      <c r="E83" s="386"/>
-      <c r="F83" s="386"/>
+      <c r="A83" s="391" t="s">
+        <v>177</v>
+      </c>
+      <c r="B83" s="391"/>
+      <c r="C83" s="391"/>
+      <c r="D83" s="391"/>
+      <c r="E83" s="391"/>
+      <c r="F83" s="391"/>
       <c r="G83" s="252"/>
       <c r="H83" s="252"/>
       <c r="I83" s="248"/>
@@ -9929,25 +9906,27 @@
     <row r="86" spans="1:16" s="326" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C86" s="327"/>
       <c r="E86" s="328" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F86" s="327"/>
       <c r="G86" s="327"/>
       <c r="H86" s="327"/>
       <c r="I86" s="327"/>
       <c r="L86" s="328" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:16" s="326" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C87" s="329"/>
-      <c r="E87" s="330"/>
+      <c r="E87" s="330" t="s">
+        <v>15</v>
+      </c>
       <c r="F87" s="329"/>
       <c r="G87" s="329"/>
       <c r="H87" s="329"/>
       <c r="I87" s="329"/>
       <c r="L87" s="330" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.2">
@@ -10037,7 +10016,6 @@
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="N6:N7"/>
-    <mergeCell ref="E45:E46"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="E29:E32"/>
@@ -10048,6 +10026,7 @@
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="C45:C46"/>
     <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
     <mergeCell ref="C29:C32"/>
     <mergeCell ref="D29:D32"/>
     <mergeCell ref="B21:B27"/>
@@ -10076,8 +10055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10102,114 +10081,114 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="99" t="s">
-        <v>2</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="397" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="397"/>
-      <c r="C3" s="397"/>
-      <c r="D3" s="397"/>
-      <c r="E3" s="397"/>
-      <c r="F3" s="397"/>
-      <c r="G3" s="397"/>
-      <c r="H3" s="397"/>
-      <c r="I3" s="397"/>
-      <c r="J3" s="397"/>
-      <c r="K3" s="397"/>
-      <c r="L3" s="397"/>
+      <c r="A3" s="402" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="402"/>
+      <c r="C3" s="402"/>
+      <c r="D3" s="402"/>
+      <c r="E3" s="402"/>
+      <c r="F3" s="402"/>
+      <c r="G3" s="402"/>
+      <c r="H3" s="402"/>
+      <c r="I3" s="402"/>
+      <c r="J3" s="402"/>
+      <c r="K3" s="402"/>
+      <c r="L3" s="402"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="398" t="s">
-        <v>108</v>
-      </c>
-      <c r="B4" s="398"/>
-      <c r="C4" s="398"/>
-      <c r="D4" s="398"/>
-      <c r="E4" s="398"/>
-      <c r="F4" s="398"/>
-      <c r="G4" s="398"/>
-      <c r="H4" s="398"/>
-      <c r="I4" s="398"/>
-      <c r="J4" s="398"/>
-      <c r="K4" s="399"/>
-      <c r="L4" s="398"/>
+      <c r="A4" s="403" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4" s="403"/>
+      <c r="C4" s="403"/>
+      <c r="D4" s="403"/>
+      <c r="E4" s="403"/>
+      <c r="F4" s="403"/>
+      <c r="G4" s="403"/>
+      <c r="H4" s="403"/>
+      <c r="I4" s="403"/>
+      <c r="J4" s="403"/>
+      <c r="K4" s="404"/>
+      <c r="L4" s="403"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="400" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="402" t="s">
+      <c r="A5" s="405" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="407" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="409" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="404" t="s">
+      <c r="D5" s="409" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="409"/>
+      <c r="F5" s="409"/>
+      <c r="G5" s="411" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="404" t="s">
+      <c r="H5" s="411"/>
+      <c r="I5" s="411"/>
+      <c r="J5" s="411"/>
+      <c r="K5" s="412"/>
+      <c r="L5" s="413" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="406"/>
+      <c r="B6" s="408"/>
+      <c r="C6" s="410"/>
+      <c r="D6" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="404"/>
-      <c r="F5" s="404"/>
-      <c r="G5" s="406" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="406"/>
-      <c r="I5" s="406"/>
-      <c r="J5" s="406"/>
-      <c r="K5" s="407"/>
-      <c r="L5" s="408" t="s">
+      <c r="E6" s="105" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="105" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="105" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="401"/>
-      <c r="B6" s="403"/>
-      <c r="C6" s="405"/>
-      <c r="D6" s="101" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="105" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="105" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="105" t="s">
+      <c r="H6" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="105" t="s">
+      <c r="I6" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="104" t="s">
+      <c r="J6" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="102" t="s">
+      <c r="K6" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="103" t="s">
+      <c r="L6" s="414"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="397">
+        <v>1130</v>
+      </c>
+      <c r="B7" s="415">
+        <v>43937</v>
+      </c>
+      <c r="C7" s="397"/>
+      <c r="D7" s="397" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="397" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="397"/>
+      <c r="G7" s="107" t="s">
         <v>36</v>
-      </c>
-      <c r="L6" s="409"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="392">
-        <v>1130</v>
-      </c>
-      <c r="B7" s="410">
-        <v>43937</v>
-      </c>
-      <c r="C7" s="392"/>
-      <c r="D7" s="392" t="s">
-        <v>95</v>
-      </c>
-      <c r="E7" s="392" t="s">
-        <v>90</v>
-      </c>
-      <c r="F7" s="392"/>
-      <c r="G7" s="107" t="s">
-        <v>37</v>
       </c>
       <c r="H7" s="107">
         <v>12</v>
@@ -10230,14 +10209,14 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="393"/>
-      <c r="B8" s="411"/>
-      <c r="C8" s="393"/>
-      <c r="D8" s="393"/>
-      <c r="E8" s="393"/>
-      <c r="F8" s="393"/>
+      <c r="A8" s="398"/>
+      <c r="B8" s="416"/>
+      <c r="C8" s="398"/>
+      <c r="D8" s="398"/>
+      <c r="E8" s="398"/>
+      <c r="F8" s="398"/>
       <c r="G8" s="111" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H8" s="111">
         <v>2</v>
@@ -10258,22 +10237,22 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="394">
+      <c r="A9" s="399">
         <v>333</v>
       </c>
-      <c r="B9" s="412">
+      <c r="B9" s="418">
         <v>43940</v>
       </c>
-      <c r="C9" s="394"/>
-      <c r="D9" s="394" t="s">
-        <v>102</v>
-      </c>
-      <c r="E9" s="394" t="s">
-        <v>100</v>
-      </c>
-      <c r="F9" s="394"/>
+      <c r="C9" s="399"/>
+      <c r="D9" s="399" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="399" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="399"/>
       <c r="G9" s="107" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H9" s="107">
         <v>12</v>
@@ -10294,14 +10273,14 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="395"/>
-      <c r="B10" s="413"/>
-      <c r="C10" s="395"/>
-      <c r="D10" s="395"/>
-      <c r="E10" s="395"/>
-      <c r="F10" s="395"/>
+      <c r="A10" s="400"/>
+      <c r="B10" s="419"/>
+      <c r="C10" s="400"/>
+      <c r="D10" s="400"/>
+      <c r="E10" s="400"/>
+      <c r="F10" s="400"/>
       <c r="G10" s="109" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H10" s="109">
         <v>12</v>
@@ -10322,14 +10301,14 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="395"/>
-      <c r="B11" s="413"/>
-      <c r="C11" s="395"/>
-      <c r="D11" s="395"/>
-      <c r="E11" s="395"/>
-      <c r="F11" s="395"/>
+      <c r="A11" s="400"/>
+      <c r="B11" s="419"/>
+      <c r="C11" s="400"/>
+      <c r="D11" s="400"/>
+      <c r="E11" s="400"/>
+      <c r="F11" s="400"/>
       <c r="G11" s="109" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H11" s="109">
         <v>38</v>
@@ -10350,14 +10329,14 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="395"/>
-      <c r="B12" s="413"/>
-      <c r="C12" s="395"/>
-      <c r="D12" s="395"/>
-      <c r="E12" s="395"/>
-      <c r="F12" s="395"/>
+      <c r="A12" s="400"/>
+      <c r="B12" s="419"/>
+      <c r="C12" s="400"/>
+      <c r="D12" s="400"/>
+      <c r="E12" s="400"/>
+      <c r="F12" s="400"/>
       <c r="G12" s="109" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H12" s="109">
         <v>20</v>
@@ -10378,14 +10357,14 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="395"/>
-      <c r="B13" s="413"/>
-      <c r="C13" s="395"/>
-      <c r="D13" s="395"/>
-      <c r="E13" s="395"/>
-      <c r="F13" s="395"/>
+      <c r="A13" s="400"/>
+      <c r="B13" s="419"/>
+      <c r="C13" s="400"/>
+      <c r="D13" s="400"/>
+      <c r="E13" s="400"/>
+      <c r="F13" s="400"/>
       <c r="G13" s="109" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H13" s="109">
         <v>12</v>
@@ -10406,14 +10385,14 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="396"/>
-      <c r="B14" s="414"/>
-      <c r="C14" s="396"/>
-      <c r="D14" s="396"/>
-      <c r="E14" s="396"/>
-      <c r="F14" s="396"/>
+      <c r="A14" s="401"/>
+      <c r="B14" s="420"/>
+      <c r="C14" s="401"/>
+      <c r="D14" s="401"/>
+      <c r="E14" s="401"/>
+      <c r="F14" s="401"/>
       <c r="G14" s="111" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H14" s="111">
         <v>24</v>
@@ -10434,22 +10413,22 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="394">
+      <c r="A15" s="399">
         <v>332</v>
       </c>
-      <c r="B15" s="412">
+      <c r="B15" s="418">
         <v>43940</v>
       </c>
-      <c r="C15" s="394"/>
-      <c r="D15" s="394" t="s">
+      <c r="C15" s="399"/>
+      <c r="D15" s="399" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" s="399" t="s">
         <v>103</v>
       </c>
-      <c r="E15" s="394" t="s">
-        <v>104</v>
-      </c>
-      <c r="F15" s="394"/>
+      <c r="F15" s="399"/>
       <c r="G15" s="107" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H15" s="107">
         <v>22</v>
@@ -10470,14 +10449,14 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="395"/>
-      <c r="B16" s="413"/>
-      <c r="C16" s="395"/>
-      <c r="D16" s="395"/>
-      <c r="E16" s="395"/>
-      <c r="F16" s="395"/>
+      <c r="A16" s="400"/>
+      <c r="B16" s="419"/>
+      <c r="C16" s="400"/>
+      <c r="D16" s="400"/>
+      <c r="E16" s="400"/>
+      <c r="F16" s="400"/>
       <c r="G16" s="109" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H16" s="109">
         <v>22</v>
@@ -10498,14 +10477,14 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="395"/>
-      <c r="B17" s="413"/>
-      <c r="C17" s="395"/>
-      <c r="D17" s="395"/>
-      <c r="E17" s="395"/>
-      <c r="F17" s="395"/>
+      <c r="A17" s="400"/>
+      <c r="B17" s="419"/>
+      <c r="C17" s="400"/>
+      <c r="D17" s="400"/>
+      <c r="E17" s="400"/>
+      <c r="F17" s="400"/>
       <c r="G17" s="109" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H17" s="109">
         <v>8</v>
@@ -10526,14 +10505,14 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="395"/>
-      <c r="B18" s="413"/>
-      <c r="C18" s="395"/>
-      <c r="D18" s="395"/>
-      <c r="E18" s="395"/>
-      <c r="F18" s="395"/>
+      <c r="A18" s="400"/>
+      <c r="B18" s="419"/>
+      <c r="C18" s="400"/>
+      <c r="D18" s="400"/>
+      <c r="E18" s="400"/>
+      <c r="F18" s="400"/>
       <c r="G18" s="109" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H18" s="109">
         <v>5</v>
@@ -10554,14 +10533,14 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="395"/>
-      <c r="B19" s="413"/>
-      <c r="C19" s="395"/>
-      <c r="D19" s="395"/>
-      <c r="E19" s="395"/>
-      <c r="F19" s="395"/>
+      <c r="A19" s="400"/>
+      <c r="B19" s="419"/>
+      <c r="C19" s="400"/>
+      <c r="D19" s="400"/>
+      <c r="E19" s="400"/>
+      <c r="F19" s="400"/>
       <c r="G19" s="109" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H19" s="109">
         <v>11</v>
@@ -10582,14 +10561,14 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="396"/>
-      <c r="B20" s="414"/>
-      <c r="C20" s="396"/>
-      <c r="D20" s="396"/>
-      <c r="E20" s="396"/>
-      <c r="F20" s="396"/>
+      <c r="A20" s="401"/>
+      <c r="B20" s="420"/>
+      <c r="C20" s="401"/>
+      <c r="D20" s="401"/>
+      <c r="E20" s="401"/>
+      <c r="F20" s="401"/>
       <c r="G20" s="111" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H20" s="111">
         <v>12</v>
@@ -10610,22 +10589,22 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="394">
+      <c r="A21" s="399">
         <v>775</v>
       </c>
-      <c r="B21" s="412">
+      <c r="B21" s="418">
         <v>43944</v>
       </c>
-      <c r="C21" s="394"/>
-      <c r="D21" s="394" t="s">
-        <v>284</v>
-      </c>
-      <c r="E21" s="394" t="s">
-        <v>207</v>
-      </c>
-      <c r="F21" s="394"/>
+      <c r="C21" s="399"/>
+      <c r="D21" s="399" t="s">
+        <v>282</v>
+      </c>
+      <c r="E21" s="399" t="s">
+        <v>205</v>
+      </c>
+      <c r="F21" s="399"/>
       <c r="G21" s="107" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H21" s="107">
         <v>1</v>
@@ -10646,14 +10625,14 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="396"/>
-      <c r="B22" s="414"/>
-      <c r="C22" s="396"/>
-      <c r="D22" s="396"/>
-      <c r="E22" s="396"/>
-      <c r="F22" s="396"/>
+      <c r="A22" s="401"/>
+      <c r="B22" s="420"/>
+      <c r="C22" s="401"/>
+      <c r="D22" s="401"/>
+      <c r="E22" s="401"/>
+      <c r="F22" s="401"/>
       <c r="G22" s="111" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H22" s="111">
         <v>1</v>
@@ -10681,17 +10660,17 @@
         <v>43948</v>
       </c>
       <c r="C23" s="107" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D23" s="116" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E23" s="107" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F23" s="107"/>
       <c r="G23" s="107" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H23" s="113">
         <v>1</v>
@@ -10712,14 +10691,14 @@
       </c>
     </row>
     <row r="24" spans="1:12" s="215" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="415" t="s">
-        <v>83</v>
-      </c>
-      <c r="B24" s="415"/>
-      <c r="C24" s="415"/>
-      <c r="D24" s="415"/>
-      <c r="E24" s="415"/>
-      <c r="F24" s="415"/>
+      <c r="A24" s="417" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="417"/>
+      <c r="C24" s="417"/>
+      <c r="D24" s="417"/>
+      <c r="E24" s="417"/>
+      <c r="F24" s="417"/>
       <c r="G24" s="211"/>
       <c r="H24" s="211">
         <f>SUM(H7:H23)</f>
@@ -10750,27 +10729,27 @@
     <row r="27" spans="1:12" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="84"/>
       <c r="E27" s="130" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F27" s="84"/>
       <c r="G27" s="84"/>
       <c r="H27" s="84"/>
       <c r="I27" s="84"/>
       <c r="L27" s="130" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:12" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="5"/>
       <c r="E28" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="L28" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -10802,7 +10781,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="D21:D22"/>
     <mergeCell ref="B9:B14"/>
     <mergeCell ref="D9:D14"/>
     <mergeCell ref="E9:E14"/>
@@ -10819,6 +10797,7 @@
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="F9:F14"/>
     <mergeCell ref="A3:L3"/>
@@ -10845,8 +10824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10874,7 +10853,7 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>2</v>
+        <v>315</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="13"/>
@@ -10895,24 +10874,24 @@
       <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="416" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="416"/>
-      <c r="C4" s="416"/>
-      <c r="D4" s="416"/>
-      <c r="E4" s="416"/>
+      <c r="A4" s="421" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="421"/>
+      <c r="C4" s="421"/>
+      <c r="D4" s="421"/>
+      <c r="E4" s="421"/>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="417" t="s">
-        <v>201</v>
-      </c>
-      <c r="B5" s="417"/>
-      <c r="C5" s="417"/>
-      <c r="D5" s="417"/>
-      <c r="E5" s="417"/>
+      <c r="A5" s="422" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5" s="422"/>
+      <c r="C5" s="422"/>
+      <c r="D5" s="422"/>
+      <c r="E5" s="422"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
@@ -10927,19 +10906,19 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="85" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="85" t="s">
+      <c r="C7" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="86" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="85" t="s">
         <v>20</v>
-      </c>
-      <c r="C7" s="85" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="86" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="85" t="s">
-        <v>21</v>
       </c>
       <c r="F7" s="83"/>
       <c r="G7" s="83"/>
@@ -10949,7 +10928,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="89" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" s="80">
         <f>'DOANH THU'!G79</f>
@@ -10968,14 +10947,14 @@
         <v>2</v>
       </c>
       <c r="B9" s="92" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="92"/>
       <c r="D9" s="93">
         <f>'DOANH THU'!L80</f>
-        <v>15171850.000000002</v>
-      </c>
-      <c r="E9" s="419">
+        <v>20331400.000000004</v>
+      </c>
+      <c r="E9" s="423">
         <f>D9+D10+D11</f>
         <v>90579500.000000015</v>
       </c>
@@ -10987,34 +10966,38 @@
         <v>3</v>
       </c>
       <c r="B10" s="92" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" s="92"/>
       <c r="D10" s="93">
         <f>'DOANH THU'!L81</f>
-        <v>65407650.000000007</v>
-      </c>
-      <c r="E10" s="420"/>
+        <v>60248100.000000007</v>
+      </c>
+      <c r="E10" s="424"/>
       <c r="F10" s="81"/>
       <c r="G10" s="81"/>
     </row>
     <row r="11" spans="1:7" s="82" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="209"/>
+      <c r="A11" s="209">
+        <v>4</v>
+      </c>
       <c r="B11" s="210" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C11" s="210"/>
       <c r="D11" s="257">
         <v>10000000</v>
       </c>
-      <c r="E11" s="421"/>
+      <c r="E11" s="425"/>
       <c r="F11" s="81"/>
       <c r="G11" s="81"/>
     </row>
     <row r="12" spans="1:7" s="82" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="209"/>
+      <c r="A12" s="209">
+        <v>5</v>
+      </c>
       <c r="B12" s="216" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C12" s="218"/>
       <c r="D12" s="217">
@@ -11026,9 +11009,11 @@
       <c r="G12" s="81"/>
     </row>
     <row r="13" spans="1:7" s="82" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="94"/>
+      <c r="A13" s="94">
+        <v>6</v>
+      </c>
       <c r="B13" s="96" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13" s="97"/>
       <c r="D13" s="98">
@@ -11062,19 +11047,19 @@
     </row>
     <row r="16" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="C16" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="25" t="s">
         <v>20</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -11082,31 +11067,31 @@
         <v>1</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="31">
         <f>'THU CHI'!E162+'THU CHI'!F162</f>
         <v>90579500</v>
       </c>
       <c r="D17" s="78"/>
-      <c r="E17" s="465"/>
+      <c r="E17" s="339"/>
     </row>
     <row r="18" spans="1:5" s="82" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="463">
+      <c r="A18" s="337">
         <v>2</v>
       </c>
       <c r="B18" s="255" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C18" s="256"/>
       <c r="D18" s="22">
         <f>'THU CHI'!H88</f>
         <v>3371000</v>
       </c>
-      <c r="E18" s="466"/>
+      <c r="E18" s="340"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="463">
+      <c r="A19" s="337">
         <v>3</v>
       </c>
       <c r="B19" s="21" t="s">
@@ -11134,11 +11119,11 @@
       <c r="E20" s="36"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="463">
+      <c r="A21" s="337">
         <v>5</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="22">
@@ -11152,7 +11137,7 @@
         <v>6</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="22">
@@ -11162,7 +11147,7 @@
       <c r="E22" s="36"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="463">
+      <c r="A23" s="337">
         <v>7</v>
       </c>
       <c r="B23" s="21" t="s">
@@ -11190,11 +11175,11 @@
       <c r="E24" s="36"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="464">
+      <c r="A25" s="338">
         <v>9</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="24">
@@ -11206,7 +11191,7 @@
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
       <c r="B26" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="34">
         <f>SUM(C17:C25)</f>
@@ -11219,10 +11204,10 @@
       <c r="E26" s="32"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="418" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="418"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="19" t="s">
+        <v>26</v>
+      </c>
       <c r="C27" s="32"/>
       <c r="D27" s="26">
         <f>C26-D26</f>
@@ -11232,36 +11217,33 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E30" s="3"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E31" s="5"/>
     </row>
     <row r="34" spans="2:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="130"/>
       <c r="C34" s="130"/>
-      <c r="D34" s="219" t="s">
-        <v>48</v>
-      </c>
+      <c r="D34" s="219"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A27:B27"/>
     <mergeCell ref="E9:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11325,17 +11307,17 @@
       <c r="J3" s="17"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="425" t="s">
-        <v>165</v>
-      </c>
-      <c r="B4" s="425"/>
-      <c r="C4" s="425"/>
-      <c r="D4" s="425"/>
-      <c r="E4" s="425"/>
-      <c r="F4" s="425"/>
-      <c r="G4" s="425"/>
-      <c r="H4" s="425"/>
-      <c r="I4" s="425"/>
+      <c r="A4" s="429" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" s="429"/>
+      <c r="C4" s="429"/>
+      <c r="D4" s="429"/>
+      <c r="E4" s="429"/>
+      <c r="F4" s="429"/>
+      <c r="G4" s="429"/>
+      <c r="H4" s="429"/>
+      <c r="I4" s="429"/>
       <c r="J4" s="45"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -11351,50 +11333,50 @@
       <c r="J5" s="45"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="426" t="s">
-        <v>161</v>
-      </c>
-      <c r="B6" s="427" t="s">
+      <c r="A6" s="430" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="431" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="430" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="426" t="s">
+      <c r="D6" s="432" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="428" t="s">
+      <c r="E6" s="432"/>
+      <c r="F6" s="432"/>
+      <c r="G6" s="432"/>
+      <c r="H6" s="433"/>
+      <c r="I6" s="430" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="428"/>
-      <c r="F6" s="428"/>
-      <c r="G6" s="428"/>
-      <c r="H6" s="429"/>
-      <c r="I6" s="426" t="s">
+      <c r="J6" s="427" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="430"/>
+      <c r="B7" s="431"/>
+      <c r="C7" s="430"/>
+      <c r="D7" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="423" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="426"/>
-      <c r="B7" s="427"/>
-      <c r="C7" s="426"/>
-      <c r="D7" s="47" t="s">
+      <c r="E7" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="F7" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="G7" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="47" t="s">
+      <c r="H7" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="426"/>
-      <c r="J7" s="424"/>
+      <c r="I7" s="430"/>
+      <c r="J7" s="428"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="139">
@@ -11405,7 +11387,7 @@
       </c>
       <c r="C8" s="139"/>
       <c r="D8" s="139" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" s="139">
         <v>1</v>
@@ -11438,7 +11420,7 @@
       </c>
       <c r="C9" s="139"/>
       <c r="D9" s="139" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9" s="139">
         <v>1</v>
@@ -11471,7 +11453,7 @@
       </c>
       <c r="C10" s="53"/>
       <c r="D10" s="139" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" s="49">
         <v>6</v>
@@ -11497,10 +11479,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="54"/>
-      <c r="B11" s="422" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="422"/>
+      <c r="B11" s="426" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="426"/>
       <c r="D11" s="54"/>
       <c r="E11" s="54"/>
       <c r="F11" s="54"/>
@@ -11519,47 +11501,47 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="430" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="431"/>
-      <c r="C12" s="431"/>
-      <c r="D12" s="431"/>
-      <c r="E12" s="431"/>
-      <c r="F12" s="431"/>
-      <c r="G12" s="431"/>
-      <c r="H12" s="431"/>
-      <c r="I12" s="432"/>
+      <c r="A12" s="434" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="435"/>
+      <c r="C12" s="435"/>
+      <c r="D12" s="435"/>
+      <c r="E12" s="435"/>
+      <c r="F12" s="435"/>
+      <c r="G12" s="435"/>
+      <c r="H12" s="435"/>
+      <c r="I12" s="436"/>
       <c r="J12" s="147" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G13" s="57"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="433"/>
-      <c r="B14" s="433"/>
-      <c r="C14" s="433"/>
-      <c r="E14" s="433" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="433"/>
-      <c r="G14" s="433"/>
-      <c r="H14" s="433"/>
-      <c r="I14" s="433"/>
+      <c r="A14" s="437"/>
+      <c r="B14" s="437"/>
+      <c r="C14" s="437"/>
+      <c r="E14" s="437" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="437"/>
+      <c r="G14" s="437"/>
+      <c r="H14" s="437"/>
+      <c r="I14" s="437"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="433"/>
-      <c r="B19" s="433"/>
-      <c r="C19" s="433"/>
-      <c r="E19" s="433" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" s="433"/>
-      <c r="G19" s="433"/>
-      <c r="H19" s="433"/>
-      <c r="I19" s="433"/>
+      <c r="A19" s="437"/>
+      <c r="B19" s="437"/>
+      <c r="C19" s="437"/>
+      <c r="E19" s="437" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="437"/>
+      <c r="G19" s="437"/>
+      <c r="H19" s="437"/>
+      <c r="I19" s="437"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -11586,8 +11568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD26"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11605,13 +11587,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="440" t="s">
+      <c r="A1" s="444" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="440"/>
-      <c r="C1" s="440"/>
-      <c r="D1" s="440"/>
-      <c r="E1" s="440"/>
+      <c r="B1" s="444"/>
+      <c r="C1" s="444"/>
+      <c r="D1" s="444"/>
+      <c r="E1" s="444"/>
       <c r="F1" s="42"/>
       <c r="G1" s="42"/>
       <c r="H1" s="42"/>
@@ -11619,7 +11601,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
@@ -11639,16 +11621,16 @@
       <c r="I3" s="17"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="425" t="s">
-        <v>162</v>
-      </c>
-      <c r="B4" s="425"/>
-      <c r="C4" s="425"/>
-      <c r="D4" s="425"/>
-      <c r="E4" s="425"/>
-      <c r="F4" s="425"/>
-      <c r="G4" s="425"/>
-      <c r="H4" s="425"/>
+      <c r="A4" s="429" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" s="429"/>
+      <c r="C4" s="429"/>
+      <c r="D4" s="429"/>
+      <c r="E4" s="429"/>
+      <c r="F4" s="429"/>
+      <c r="G4" s="429"/>
+      <c r="H4" s="429"/>
       <c r="I4" s="45"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -11663,46 +11645,46 @@
       <c r="I5" s="45"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="426" t="s">
-        <v>161</v>
-      </c>
-      <c r="B6" s="427" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="428" t="s">
+      <c r="A6" s="430" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="431" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="432" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="432"/>
+      <c r="E6" s="432"/>
+      <c r="F6" s="432"/>
+      <c r="G6" s="433"/>
+      <c r="H6" s="430" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="428"/>
-      <c r="E6" s="428"/>
-      <c r="F6" s="428"/>
-      <c r="G6" s="429"/>
-      <c r="H6" s="426" t="s">
+      <c r="I6" s="432" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="430"/>
+      <c r="B7" s="431"/>
+      <c r="C7" s="261" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="428" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="426"/>
-      <c r="B7" s="427"/>
-      <c r="C7" s="261" t="s">
+      <c r="D7" s="261" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="261" t="s">
+      <c r="E7" s="261" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="261" t="s">
+      <c r="F7" s="261" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="261" t="s">
+      <c r="G7" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="426"/>
-      <c r="I7" s="428"/>
+      <c r="H7" s="430"/>
+      <c r="I7" s="432"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="237">
@@ -11712,7 +11694,7 @@
         <v>43920</v>
       </c>
       <c r="C8" s="49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="49">
         <v>12</v>
@@ -11732,7 +11714,7 @@
         <v>3221400.0000000005</v>
       </c>
       <c r="I8" s="233" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -11743,7 +11725,7 @@
         <v>43921</v>
       </c>
       <c r="C9" s="49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="49">
         <v>2</v>
@@ -11775,7 +11757,7 @@
         <v>43922</v>
       </c>
       <c r="C10" s="49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="49">
         <v>1</v>
@@ -11800,14 +11782,14 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="434">
+      <c r="A11" s="438">
         <v>328</v>
       </c>
-      <c r="B11" s="437">
+      <c r="B11" s="441">
         <v>43936</v>
       </c>
       <c r="C11" s="88" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="88">
         <v>2</v>
@@ -11832,10 +11814,10 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="435"/>
-      <c r="B12" s="438"/>
+      <c r="A12" s="439"/>
+      <c r="B12" s="442"/>
       <c r="C12" s="91" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="91">
         <v>2</v>
@@ -11860,10 +11842,10 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="435"/>
-      <c r="B13" s="438"/>
+      <c r="A13" s="439"/>
+      <c r="B13" s="442"/>
       <c r="C13" s="91" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" s="91">
         <v>1</v>
@@ -11888,10 +11870,10 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="436"/>
-      <c r="B14" s="439"/>
+      <c r="A14" s="440"/>
+      <c r="B14" s="443"/>
       <c r="C14" s="228" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D14" s="228">
         <v>1</v>
@@ -11923,7 +11905,7 @@
         <v>43938</v>
       </c>
       <c r="C15" s="49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15" s="49">
         <v>1</v>
@@ -11948,14 +11930,14 @@
       </c>
     </row>
     <row r="16" spans="1:9" s="220" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="442">
+      <c r="A16" s="446">
         <v>342</v>
       </c>
-      <c r="B16" s="444">
+      <c r="B16" s="448">
         <v>43942</v>
       </c>
       <c r="C16" s="280" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D16" s="280">
         <v>1</v>
@@ -11980,10 +11962,10 @@
       </c>
     </row>
     <row r="17" spans="1:11" s="220" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="443"/>
-      <c r="B17" s="445"/>
+      <c r="A17" s="447"/>
+      <c r="B17" s="449"/>
       <c r="C17" s="286" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" s="286">
         <v>2</v>
@@ -12015,7 +11997,7 @@
         <v>43942</v>
       </c>
       <c r="C18" s="278" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D18" s="278">
         <v>1</v>
@@ -12047,7 +12029,7 @@
         <v>43944</v>
       </c>
       <c r="C19" s="49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D19" s="49">
         <v>5</v>
@@ -12079,7 +12061,7 @@
         <v>43944</v>
       </c>
       <c r="C20" s="49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D20" s="49">
         <v>1</v>
@@ -12106,7 +12088,7 @@
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="237"/>
       <c r="B21" s="260" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" s="54"/>
       <c r="D21" s="54">
@@ -12129,32 +12111,32 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="428" t="s">
-        <v>164</v>
-      </c>
-      <c r="B22" s="428"/>
-      <c r="C22" s="428"/>
-      <c r="D22" s="428"/>
-      <c r="E22" s="428"/>
-      <c r="F22" s="428"/>
-      <c r="G22" s="428"/>
-      <c r="H22" s="428"/>
+      <c r="A22" s="432" t="s">
+        <v>162</v>
+      </c>
+      <c r="B22" s="432"/>
+      <c r="C22" s="432"/>
+      <c r="D22" s="432"/>
+      <c r="E22" s="432"/>
+      <c r="F22" s="432"/>
+      <c r="G22" s="432"/>
+      <c r="H22" s="432"/>
       <c r="I22" s="136">
         <f>1088000-I16-I17</f>
         <v>270849.99999999988</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="441" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="441"/>
-      <c r="C23" s="441"/>
-      <c r="D23" s="441"/>
-      <c r="E23" s="441"/>
-      <c r="F23" s="441"/>
-      <c r="G23" s="441"/>
-      <c r="H23" s="441"/>
+      <c r="A23" s="445" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="445"/>
+      <c r="C23" s="445"/>
+      <c r="D23" s="445"/>
+      <c r="E23" s="445"/>
+      <c r="F23" s="445"/>
+      <c r="G23" s="445"/>
+      <c r="H23" s="445"/>
       <c r="I23" s="56">
         <f>H8-I22</f>
         <v>2950550.0000000005</v>
@@ -12173,16 +12155,16 @@
     </row>
     <row r="25" spans="1:11" s="77" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B25" s="259" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C25" s="259"/>
       <c r="D25" s="259"/>
       <c r="E25" s="259" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G25" s="259"/>
       <c r="H25" s="215" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I25" s="215"/>
       <c r="J25" s="215"/>
@@ -12190,16 +12172,16 @@
     </row>
     <row r="26" spans="1:11" s="262" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="B26" s="263" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C26" s="263"/>
       <c r="D26" s="263"/>
       <c r="E26" s="263" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G26" s="263"/>
       <c r="H26" s="292" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I26" s="292"/>
       <c r="J26" s="292"/>
@@ -12209,8 +12191,8 @@
       <c r="H27" s="57"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="433"/>
-      <c r="B29" s="433"/>
+      <c r="A29" s="437"/>
+      <c r="B29" s="437"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
@@ -13083,38 +13065,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="58" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="453" t="s">
+      <c r="A1" s="457" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="453"/>
-      <c r="C1" s="453"/>
-      <c r="D1" s="453"/>
+      <c r="B1" s="457"/>
+      <c r="C1" s="457"/>
+      <c r="D1" s="457"/>
       <c r="E1" s="118"/>
-      <c r="F1" s="454" t="s">
+      <c r="F1" s="458" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="454"/>
-      <c r="H1" s="454"/>
-      <c r="I1" s="454"/>
-      <c r="J1" s="454"/>
-      <c r="K1" s="454"/>
+      <c r="G1" s="458"/>
+      <c r="H1" s="458"/>
+      <c r="I1" s="458"/>
+      <c r="J1" s="458"/>
+      <c r="K1" s="458"/>
     </row>
     <row r="2" spans="1:12" s="58" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="455" t="s">
-        <v>290</v>
-      </c>
-      <c r="B2" s="455"/>
-      <c r="C2" s="455"/>
-      <c r="D2" s="455"/>
+      <c r="A2" s="459" t="s">
+        <v>288</v>
+      </c>
+      <c r="B2" s="459"/>
+      <c r="C2" s="459"/>
+      <c r="D2" s="459"/>
       <c r="E2" s="118"/>
-      <c r="F2" s="456" t="s">
+      <c r="F2" s="460" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="456"/>
-      <c r="H2" s="456"/>
-      <c r="I2" s="456"/>
-      <c r="J2" s="456"/>
-      <c r="K2" s="456"/>
+      <c r="G2" s="460"/>
+      <c r="H2" s="460"/>
+      <c r="I2" s="460"/>
+      <c r="J2" s="460"/>
+      <c r="K2" s="460"/>
     </row>
     <row r="3" spans="1:12" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="59"/>
@@ -13127,80 +13109,80 @@
       <c r="I3" s="119"/>
     </row>
     <row r="4" spans="1:12" s="61" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="457" t="s">
+      <c r="A4" s="461" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="461"/>
+      <c r="C4" s="461"/>
+      <c r="D4" s="461"/>
+      <c r="E4" s="461"/>
+      <c r="F4" s="461"/>
+      <c r="G4" s="461"/>
+      <c r="H4" s="461"/>
+      <c r="I4" s="461"/>
+      <c r="J4" s="461"/>
+      <c r="K4" s="461"/>
+      <c r="L4" s="461"/>
+    </row>
+    <row r="5" spans="1:12" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="462" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="457"/>
-      <c r="C4" s="457"/>
-      <c r="D4" s="457"/>
-      <c r="E4" s="457"/>
-      <c r="F4" s="457"/>
-      <c r="G4" s="457"/>
-      <c r="H4" s="457"/>
-      <c r="I4" s="457"/>
-      <c r="J4" s="457"/>
-      <c r="K4" s="457"/>
-      <c r="L4" s="457"/>
-    </row>
-    <row r="5" spans="1:12" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="458" t="s">
-        <v>133</v>
-      </c>
-      <c r="B5" s="458"/>
-      <c r="C5" s="458"/>
-      <c r="D5" s="458"/>
-      <c r="E5" s="458"/>
-      <c r="F5" s="458"/>
-      <c r="G5" s="458"/>
-      <c r="H5" s="458"/>
-      <c r="I5" s="458"/>
-      <c r="J5" s="458"/>
-      <c r="K5" s="458"/>
-      <c r="L5" s="458"/>
+      <c r="B5" s="462"/>
+      <c r="C5" s="462"/>
+      <c r="D5" s="462"/>
+      <c r="E5" s="462"/>
+      <c r="F5" s="462"/>
+      <c r="G5" s="462"/>
+      <c r="H5" s="462"/>
+      <c r="I5" s="462"/>
+      <c r="J5" s="462"/>
+      <c r="K5" s="462"/>
+      <c r="L5" s="462"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J6" s="459" t="s">
-        <v>132</v>
-      </c>
-      <c r="K6" s="459"/>
-      <c r="L6" s="459"/>
+      <c r="J6" s="463" t="s">
+        <v>130</v>
+      </c>
+      <c r="K6" s="463"/>
+      <c r="L6" s="463"/>
     </row>
     <row r="7" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="264" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="265" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="265" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="265" t="s">
         <v>134</v>
       </c>
-      <c r="C7" s="265" t="s">
+      <c r="E7" s="266" t="s">
         <v>135</v>
       </c>
-      <c r="D7" s="265" t="s">
+      <c r="F7" s="264" t="s">
         <v>136</v>
       </c>
-      <c r="E7" s="266" t="s">
+      <c r="G7" s="264" t="s">
         <v>137</v>
       </c>
-      <c r="F7" s="264" t="s">
+      <c r="H7" s="264" t="s">
         <v>138</v>
       </c>
-      <c r="G7" s="264" t="s">
+      <c r="I7" s="264" t="s">
+        <v>156</v>
+      </c>
+      <c r="J7" s="264" t="s">
         <v>139</v>
       </c>
-      <c r="H7" s="264" t="s">
+      <c r="K7" s="267" t="s">
         <v>140</v>
       </c>
-      <c r="I7" s="264" t="s">
-        <v>158</v>
-      </c>
-      <c r="J7" s="264" t="s">
-        <v>141</v>
-      </c>
-      <c r="K7" s="267" t="s">
-        <v>142</v>
-      </c>
       <c r="L7" s="264" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13209,33 +13191,33 @@
       <c r="C8" s="265"/>
       <c r="D8" s="265"/>
       <c r="E8" s="266" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F8" s="266" t="s">
+        <v>141</v>
+      </c>
+      <c r="G8" s="266" t="s">
+        <v>142</v>
+      </c>
+      <c r="H8" s="266" t="s">
         <v>143</v>
       </c>
-      <c r="G8" s="266" t="s">
+      <c r="I8" s="266" t="s">
         <v>144</v>
       </c>
-      <c r="H8" s="266" t="s">
+      <c r="J8" s="267" t="s">
         <v>145</v>
-      </c>
-      <c r="I8" s="266" t="s">
-        <v>146</v>
-      </c>
-      <c r="J8" s="267" t="s">
-        <v>147</v>
       </c>
       <c r="K8" s="265"/>
       <c r="L8" s="264"/>
     </row>
     <row r="9" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="450" t="s">
-        <v>148</v>
-      </c>
-      <c r="B9" s="451"/>
-      <c r="C9" s="451"/>
-      <c r="D9" s="452"/>
+      <c r="A9" s="454" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" s="455"/>
+      <c r="C9" s="455"/>
+      <c r="D9" s="456"/>
       <c r="E9" s="266"/>
       <c r="F9" s="270">
         <f>SUM(F10:F13)</f>
@@ -13265,10 +13247,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="268" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" s="269" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D10" s="122">
         <v>15000000</v>
@@ -13298,10 +13280,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="64" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C11" s="65" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D11" s="66">
         <v>10000000</v>
@@ -13331,10 +13313,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="64" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C12" s="65" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D12" s="66">
         <v>6000000</v>
@@ -13364,10 +13346,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="69" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="70" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D13" s="71">
         <v>6000000</v>
@@ -13395,12 +13377,12 @@
       <c r="L13" s="69"/>
     </row>
     <row r="14" spans="1:12" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="447" t="s">
-        <v>154</v>
-      </c>
-      <c r="B14" s="448"/>
-      <c r="C14" s="448"/>
-      <c r="D14" s="449"/>
+      <c r="A14" s="451" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14" s="452"/>
+      <c r="C14" s="452"/>
+      <c r="D14" s="453"/>
       <c r="E14" s="128"/>
       <c r="F14" s="270">
         <f>SUM(F15:F16)</f>
@@ -13430,10 +13412,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="271" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C15" s="272" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D15" s="273">
         <v>10000000</v>
@@ -13461,10 +13443,10 @@
         <v>2</v>
       </c>
       <c r="B16" s="73" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C16" s="74" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D16" s="75">
         <v>5000000</v>
@@ -13493,11 +13475,11 @@
       <c r="L16" s="73"/>
     </row>
     <row r="17" spans="1:12" s="77" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="460" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="461"/>
-      <c r="C17" s="462"/>
+      <c r="A17" s="464" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="465"/>
+      <c r="C17" s="466"/>
       <c r="D17" s="124"/>
       <c r="E17" s="125"/>
       <c r="F17" s="124">
@@ -13524,48 +13506,48 @@
       <c r="L17" s="123"/>
     </row>
     <row r="19" spans="1:12" s="77" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B19" s="397"/>
-      <c r="C19" s="397"/>
-      <c r="D19" s="397"/>
+      <c r="B19" s="402"/>
+      <c r="C19" s="402"/>
+      <c r="D19" s="402"/>
       <c r="E19" s="120"/>
-      <c r="H19" s="397"/>
-      <c r="I19" s="397"/>
-      <c r="J19" s="397"/>
-      <c r="K19" s="397"/>
+      <c r="H19" s="402"/>
+      <c r="I19" s="402"/>
+      <c r="J19" s="402"/>
+      <c r="K19" s="402"/>
     </row>
     <row r="20" spans="1:12" s="77" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B20" s="259" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C20" s="259"/>
       <c r="D20" s="259"/>
       <c r="F20" s="259" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G20" s="259"/>
-      <c r="H20" s="397" t="s">
-        <v>288</v>
-      </c>
-      <c r="I20" s="397"/>
-      <c r="J20" s="397"/>
-      <c r="K20" s="397"/>
+      <c r="H20" s="402" t="s">
+        <v>286</v>
+      </c>
+      <c r="I20" s="402"/>
+      <c r="J20" s="402"/>
+      <c r="K20" s="402"/>
     </row>
     <row r="21" spans="1:12" s="262" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="B21" s="263" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C21" s="263"/>
       <c r="D21" s="263"/>
       <c r="F21" s="263" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G21" s="263"/>
-      <c r="H21" s="446" t="s">
-        <v>289</v>
-      </c>
-      <c r="I21" s="446"/>
-      <c r="J21" s="446"/>
-      <c r="K21" s="446"/>
+      <c r="H21" s="450" t="s">
+        <v>287</v>
+      </c>
+      <c r="I21" s="450"/>
+      <c r="J21" s="450"/>
+      <c r="K21" s="450"/>
     </row>
     <row r="24" spans="1:12" s="157" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B24" s="130"/>
